--- a/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
+++ b/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -92,7 +92,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -180,7 +180,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -243,7 +243,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1033">
   <si>
     <t xml:space="preserve">General Instructions</t>
   </si>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">soergel</t>
   </si>
   <si>
-    <t xml:space="preserve">Björn Sörgel</t>
+    <t xml:space="preserve">Bjoern Soergel</t>
   </si>
   <si>
     <t xml:space="preserve">soergel@pik-potsdam.de</t>
@@ -2415,7 +2415,8 @@
     <t xml:space="preserve">09.06.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rse.pik-potsdam.de/doc/remind/2.1.0/</t>
+    <t xml:space="preserve">https://rse.pik-potsdam.de/doc/remind/2.1.0/
+https://rse.pik-potsdam.de/doc/magpie/4.2/</t>
   </si>
   <si>
     <t xml:space="preserve">Construct self-consistent optimal benchmark scenarios for the transformation of the global energy-economy-land system, for different assumptions on climate policies or targets. Comparison with no-policy benchmark scenarios allows for the calculation of mitigation costs. </t>
@@ -3419,7 +3420,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3441,12 +3442,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3498,6 +3493,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3655,7 +3663,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3679,28 +3687,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3716,11 +3716,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3780,11 +3780,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3808,27 +3808,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3844,19 +3836,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3864,55 +3856,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3920,27 +3920,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3948,23 +3936,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3976,11 +3956,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3988,23 +3968,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4012,22 +3992,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4104,8 +4082,8 @@
   </sheetPr>
   <dimension ref="A1:N316"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="A3:A13 A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7114,7 +7092,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="A3:A13 C4"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7190,10 +7168,10 @@
       <c r="H3" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
@@ -7211,16 +7189,16 @@
       <c r="E4" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>592</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
@@ -7238,16 +7216,16 @@
       <c r="E5" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>597</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
@@ -7265,10 +7243,10 @@
       <c r="E6" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>600</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>593</v>
       </c>
       <c r="H6" s="25" t="s">
@@ -7291,13 +7269,13 @@
       <c r="E7" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7317,13 +7295,13 @@
       <c r="E8" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7343,13 +7321,13 @@
       <c r="E9" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>609</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7369,13 +7347,13 @@
       <c r="E10" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>612</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="32" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7398,7 +7376,7 @@
       <c r="F11" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
         <v>593</v>
       </c>
       <c r="H11" s="25" t="s">
@@ -7424,7 +7402,7 @@
       <c r="F12" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="32" t="s">
         <v>593</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -7450,7 +7428,7 @@
       <c r="F13" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>593</v>
       </c>
       <c r="H13" s="25" t="s">
@@ -7491,13 +7469,13 @@
   </sheetPr>
   <dimension ref="A1:MQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ10" activeCellId="1" sqref="A3:A13 AQ10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.99"/>
@@ -7506,7 +7484,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="34.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="45.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="36" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="34" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.43"/>
@@ -7517,16 +7495,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="37" width="37.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="35" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="37" width="37.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="37" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="35" width="37.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="35" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="37" width="37.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="37" width="40.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="37" width="62.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="35" width="37.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="35" width="40.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="35" width="62.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="45.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="23.42"/>
@@ -7537,132 +7515,132 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="0" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35"/>
-      <c r="B1" s="38" t="s">
+    <row r="1" s="39" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33"/>
+      <c r="B1" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>625</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="37" t="s">
         <v>626</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="37" t="s">
         <v>627</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="37" t="s">
         <v>629</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="37" t="s">
         <v>632</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="37" t="s">
         <v>634</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="37" t="s">
         <v>638</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="38" t="s">
         <v>640</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="38" t="s">
         <v>645</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="37" t="s">
         <v>650</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AH1" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AI1" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>655</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AK1" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="AL1" s="39" t="s">
+      <c r="AL1" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AM1" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AN1" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AO1" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AP1" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AQ1" s="37" t="s">
         <v>662</v>
       </c>
       <c r="AR1" s="0"/>
@@ -7978,120 +7956,120 @@
       <c r="MP1" s="0"/>
       <c r="MQ1" s="0"/>
     </row>
-    <row r="2" s="46" customFormat="true" ht="255.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
+    <row r="2" s="44" customFormat="true" ht="255.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>664</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>667</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>669</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="41" t="s">
         <v>670</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>674</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Y2" s="43" t="s">
         <v>680</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="43" t="s">
         <v>681</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="41" t="s">
         <v>682</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="43" t="s">
         <v>683</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AC2" s="41" t="s">
         <v>684</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="41" t="s">
         <v>685</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="43" t="s">
         <v>686</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="43" t="s">
         <v>687</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="43" t="s">
         <v>688</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="41" t="s">
         <v>690</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="42" t="s">
         <v>692</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="41" t="s">
         <v>696</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>698</v>
       </c>
       <c r="AR2" s="0"/>
@@ -8407,134 +8385,134 @@
       <c r="MP2" s="0"/>
       <c r="MQ2" s="0"/>
     </row>
-    <row r="3" s="58" customFormat="true" ht="97.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+    <row r="3" s="56" customFormat="true" ht="97.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
         <v>699</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="C3" s="48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>700</v>
       </c>
-      <c r="E3" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="E3" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="46" t="s">
         <v>701</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>702</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="46" t="s">
         <v>703</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="47" t="s">
         <v>704</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="47" t="s">
         <v>705</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="47" t="s">
         <v>706</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="49" t="s">
         <v>707</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="50" t="s">
         <v>708</v>
       </c>
-      <c r="O3" s="48" t="n">
+      <c r="O3" s="46" t="n">
         <v>2005</v>
       </c>
-      <c r="P3" s="48" t="n">
+      <c r="P3" s="46" t="n">
         <v>95</v>
       </c>
-      <c r="Q3" s="48" t="n">
+      <c r="Q3" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="S3" s="48" t="n">
+      <c r="S3" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="51" t="s">
         <v>710</v>
       </c>
-      <c r="U3" s="48" t="n">
+      <c r="U3" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="52" t="s">
         <v>711</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="52" t="s">
         <v>712</v>
       </c>
-      <c r="X3" s="53" t="s">
+      <c r="X3" s="52" t="s">
         <v>713</v>
       </c>
-      <c r="Y3" s="53" t="s">
+      <c r="Y3" s="52" t="s">
         <v>714</v>
       </c>
-      <c r="Z3" s="48" t="n">
+      <c r="Z3" s="46" t="n">
         <v>60</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AA3" s="51" t="s">
         <v>715</v>
       </c>
-      <c r="AB3" s="54" t="n">
+      <c r="AB3" s="46" t="n">
         <v>13</v>
       </c>
-      <c r="AC3" s="55" t="s">
+      <c r="AC3" s="53" t="s">
         <v>716</v>
       </c>
-      <c r="AD3" s="55" t="s">
+      <c r="AD3" s="53" t="s">
         <v>717</v>
       </c>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="50" t="s">
         <v>718</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="50" t="s">
         <v>719</v>
       </c>
-      <c r="AG3" s="55" t="s">
+      <c r="AG3" s="53" t="s">
         <v>720</v>
       </c>
-      <c r="AH3" s="55" t="s">
+      <c r="AH3" s="53" t="s">
         <v>721</v>
       </c>
-      <c r="AI3" s="56" t="s">
+      <c r="AI3" s="54" t="s">
         <v>722</v>
       </c>
-      <c r="AJ3" s="53" t="s">
+      <c r="AJ3" s="52" t="s">
         <v>723</v>
       </c>
-      <c r="AK3" s="53" t="s">
+      <c r="AK3" s="52" t="s">
         <v>724</v>
       </c>
-      <c r="AL3" s="53" t="s">
+      <c r="AL3" s="52" t="s">
         <v>725</v>
       </c>
-      <c r="AM3" s="53" t="s">
+      <c r="AM3" s="52" t="s">
         <v>726</v>
       </c>
-      <c r="AN3" s="57" t="s">
+      <c r="AN3" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="AO3" s="57" t="s">
+      <c r="AO3" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="AP3" s="57" t="s">
+      <c r="AP3" s="55" t="s">
         <v>729</v>
       </c>
-      <c r="AQ3" s="57" t="s">
+      <c r="AQ3" s="55" t="s">
         <v>730</v>
       </c>
       <c r="AR3" s="0"/>
@@ -8855,10 +8833,10 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="50" t="s">
         <v>732</v>
       </c>
       <c r="O4" s="23"/>
@@ -8866,70 +8844,70 @@
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
       <c r="S4" s="23"/>
-      <c r="T4" s="53" t="s">
+      <c r="T4" s="52" t="s">
         <v>733</v>
       </c>
       <c r="U4" s="23"/>
-      <c r="V4" s="53" t="s">
+      <c r="V4" s="52" t="s">
         <v>734</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="52" t="s">
         <v>734</v>
       </c>
-      <c r="X4" s="53" t="s">
+      <c r="X4" s="52" t="s">
         <v>735</v>
       </c>
-      <c r="Y4" s="53" t="s">
+      <c r="Y4" s="52" t="s">
         <v>736</v>
       </c>
       <c r="Z4" s="23"/>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="54" t="s">
         <v>737</v>
       </c>
       <c r="AB4" s="23"/>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="53" t="s">
         <v>738</v>
       </c>
-      <c r="AD4" s="56" t="s">
+      <c r="AD4" s="54" t="s">
         <v>739</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="50" t="s">
         <v>740</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="AG4" s="59" t="s">
+      <c r="AG4" s="50" t="s">
         <v>742</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AH4" s="52" t="s">
         <v>743</v>
       </c>
-      <c r="AI4" s="56" t="s">
+      <c r="AI4" s="54" t="s">
         <v>744</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AJ4" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AK4" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="AL4" s="53" t="s">
+      <c r="AL4" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AM4" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="AN4" s="51" t="s">
+      <c r="AN4" s="50" t="s">
         <v>749</v>
       </c>
-      <c r="AO4" s="51" t="s">
+      <c r="AO4" s="50" t="s">
         <v>750</v>
       </c>
-      <c r="AP4" s="57" t="s">
+      <c r="AP4" s="55" t="s">
         <v>751</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="50" t="s">
         <v>752</v>
       </c>
     </row>
@@ -8938,10 +8916,10 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="49" t="s">
         <v>753</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="50" t="s">
         <v>754</v>
       </c>
       <c r="O5" s="23"/>
@@ -8949,70 +8927,70 @@
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="52" t="s">
         <v>755</v>
       </c>
       <c r="U5" s="23"/>
-      <c r="V5" s="53" t="s">
+      <c r="V5" s="52" t="s">
         <v>756</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="52" t="s">
         <v>757</v>
       </c>
-      <c r="X5" s="53" t="s">
+      <c r="X5" s="52" t="s">
         <v>758</v>
       </c>
-      <c r="Y5" s="53" t="s">
+      <c r="Y5" s="52" t="s">
         <v>759</v>
       </c>
       <c r="Z5" s="23"/>
-      <c r="AA5" s="56" t="s">
+      <c r="AA5" s="54" t="s">
         <v>760</v>
       </c>
       <c r="AB5" s="23"/>
-      <c r="AC5" s="50" t="s">
+      <c r="AC5" s="49" t="s">
         <v>761</v>
       </c>
-      <c r="AD5" s="52" t="s">
+      <c r="AD5" s="51" t="s">
         <v>762</v>
       </c>
-      <c r="AE5" s="51" t="s">
+      <c r="AE5" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="AF5" s="51" t="s">
+      <c r="AF5" s="50" t="s">
         <v>764</v>
       </c>
-      <c r="AG5" s="59" t="s">
+      <c r="AG5" s="50" t="s">
         <v>765</v>
       </c>
-      <c r="AH5" s="53" t="s">
+      <c r="AH5" s="52" t="s">
         <v>766</v>
       </c>
-      <c r="AI5" s="56" t="s">
+      <c r="AI5" s="54" t="s">
         <v>767</v>
       </c>
-      <c r="AJ5" s="53" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>768</v>
       </c>
-      <c r="AK5" s="53" t="s">
+      <c r="AK5" s="52" t="s">
         <v>769</v>
       </c>
-      <c r="AL5" s="53" t="s">
+      <c r="AL5" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="AM5" s="53" t="s">
+      <c r="AM5" s="52" t="s">
         <v>771</v>
       </c>
-      <c r="AN5" s="57" t="s">
+      <c r="AN5" s="55" t="s">
         <v>772</v>
       </c>
-      <c r="AO5" s="51" t="s">
+      <c r="AO5" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="AP5" s="60" t="n">
+      <c r="AP5" s="57" t="n">
         <v>0.05</v>
       </c>
-      <c r="AQ5" s="51" t="s">
+      <c r="AQ5" s="50" t="s">
         <v>774</v>
       </c>
     </row>
@@ -9021,10 +8999,10 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="49" t="s">
         <v>775</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="50" t="s">
         <v>776</v>
       </c>
       <c r="O6" s="23"/>
@@ -9032,78 +9010,78 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
-      <c r="T6" s="52" t="s">
+      <c r="T6" s="51" t="s">
         <v>777</v>
       </c>
       <c r="U6" s="23"/>
-      <c r="V6" s="53" t="s">
+      <c r="V6" s="52" t="s">
         <v>778</v>
       </c>
       <c r="W6" s="23"/>
-      <c r="X6" s="53" t="s">
+      <c r="X6" s="52" t="s">
         <v>779</v>
       </c>
-      <c r="Y6" s="53" t="s">
+      <c r="Y6" s="52" t="s">
         <v>780</v>
       </c>
       <c r="Z6" s="23"/>
-      <c r="AA6" s="56" t="s">
+      <c r="AA6" s="54" t="s">
         <v>781</v>
       </c>
       <c r="AB6" s="23"/>
-      <c r="AC6" s="50" t="s">
+      <c r="AC6" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="AD6" s="61" t="s">
+      <c r="AD6" s="58" t="s">
         <v>783</v>
       </c>
-      <c r="AE6" s="51" t="s">
+      <c r="AE6" s="50" t="s">
         <v>784</v>
       </c>
-      <c r="AF6" s="51" t="s">
+      <c r="AF6" s="50" t="s">
         <v>785</v>
       </c>
-      <c r="AG6" s="59" t="s">
+      <c r="AG6" s="50" t="s">
         <v>786</v>
       </c>
-      <c r="AH6" s="53" t="s">
+      <c r="AH6" s="52" t="s">
         <v>734</v>
       </c>
-      <c r="AI6" s="56" t="s">
+      <c r="AI6" s="54" t="s">
         <v>787</v>
       </c>
-      <c r="AJ6" s="53" t="s">
+      <c r="AJ6" s="52" t="s">
         <v>788</v>
       </c>
-      <c r="AK6" s="53" t="s">
+      <c r="AK6" s="52" t="s">
         <v>789</v>
       </c>
-      <c r="AL6" s="53" t="s">
+      <c r="AL6" s="52" t="s">
         <v>790</v>
       </c>
-      <c r="AM6" s="53" t="s">
+      <c r="AM6" s="52" t="s">
         <v>791</v>
       </c>
-      <c r="AN6" s="51" t="s">
+      <c r="AN6" s="50" t="s">
         <v>792</v>
       </c>
-      <c r="AO6" s="57" t="s">
+      <c r="AO6" s="55" t="s">
         <v>793</v>
       </c>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="51" t="s">
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="50" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="36"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="50" t="s">
         <v>796</v>
       </c>
       <c r="O7" s="23"/>
@@ -9111,64 +9089,64 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
-      <c r="T7" s="53" t="s">
+      <c r="T7" s="52" t="s">
         <v>797</v>
       </c>
       <c r="U7" s="23"/>
-      <c r="V7" s="50"/>
+      <c r="V7" s="49"/>
       <c r="W7" s="23"/>
-      <c r="X7" s="53" t="s">
+      <c r="X7" s="52" t="s">
         <v>798</v>
       </c>
-      <c r="Y7" s="53" t="s">
+      <c r="Y7" s="52" t="s">
         <v>799</v>
       </c>
       <c r="Z7" s="23"/>
-      <c r="AA7" s="56" t="s">
+      <c r="AA7" s="54" t="s">
         <v>800</v>
       </c>
       <c r="AB7" s="23"/>
-      <c r="AC7" s="50" t="s">
+      <c r="AC7" s="49" t="s">
         <v>801</v>
       </c>
-      <c r="AD7" s="52" t="s">
+      <c r="AD7" s="51" t="s">
         <v>802</v>
       </c>
-      <c r="AE7" s="51" t="s">
+      <c r="AE7" s="50" t="s">
         <v>803</v>
       </c>
-      <c r="AF7" s="51" t="s">
+      <c r="AF7" s="50" t="s">
         <v>804</v>
       </c>
-      <c r="AG7" s="59" t="s">
+      <c r="AG7" s="50" t="s">
         <v>805</v>
       </c>
-      <c r="AH7" s="53" t="s">
+      <c r="AH7" s="52" t="s">
         <v>806</v>
       </c>
-      <c r="AI7" s="56" t="s">
+      <c r="AI7" s="54" t="s">
         <v>807</v>
       </c>
-      <c r="AJ7" s="50" t="s">
+      <c r="AJ7" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AK7" s="53" t="s">
+      <c r="AK7" s="52" t="s">
         <v>809</v>
       </c>
-      <c r="AL7" s="53" t="s">
+      <c r="AL7" s="52" t="s">
         <v>810</v>
       </c>
-      <c r="AM7" s="53" t="s">
+      <c r="AM7" s="52" t="s">
         <v>811</v>
       </c>
-      <c r="AN7" s="57" t="s">
+      <c r="AN7" s="55" t="s">
         <v>812</v>
       </c>
-      <c r="AO7" s="62" t="s">
+      <c r="AO7" s="59" t="s">
         <v>813</v>
       </c>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="51" t="s">
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="50" t="s">
         <v>814</v>
       </c>
     </row>
@@ -9177,10 +9155,10 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="49" t="s">
         <v>815</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="50" t="s">
         <v>816</v>
       </c>
       <c r="O8" s="23"/>
@@ -9188,62 +9166,62 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
-      <c r="T8" s="53" t="s">
+      <c r="T8" s="52" t="s">
         <v>817</v>
       </c>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
-      <c r="X8" s="53" t="s">
+      <c r="X8" s="52" t="s">
         <v>818</v>
       </c>
-      <c r="Y8" s="50" t="s">
+      <c r="Y8" s="49" t="s">
         <v>808</v>
       </c>
       <c r="Z8" s="23"/>
-      <c r="AA8" s="56" t="s">
+      <c r="AA8" s="54" t="s">
         <v>819</v>
       </c>
       <c r="AB8" s="23"/>
-      <c r="AC8" s="50" t="s">
+      <c r="AC8" s="49" t="s">
         <v>820</v>
       </c>
-      <c r="AD8" s="61" t="s">
+      <c r="AD8" s="58" t="s">
         <v>821</v>
       </c>
-      <c r="AE8" s="51" t="s">
+      <c r="AE8" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="AF8" s="51" t="s">
+      <c r="AF8" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="AG8" s="59" t="s">
+      <c r="AG8" s="50" t="s">
         <v>824</v>
       </c>
-      <c r="AH8" s="50" t="s">
+      <c r="AH8" s="49" t="s">
         <v>726</v>
       </c>
-      <c r="AI8" s="56" t="s">
+      <c r="AI8" s="54" t="s">
         <v>825</v>
       </c>
       <c r="AJ8" s="0"/>
-      <c r="AK8" s="53" t="s">
+      <c r="AK8" s="52" t="s">
         <v>826</v>
       </c>
-      <c r="AL8" s="53" t="s">
+      <c r="AL8" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="AM8" s="50" t="s">
+      <c r="AM8" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AN8" s="51" t="s">
+      <c r="AN8" s="50" t="s">
         <v>828</v>
       </c>
-      <c r="AO8" s="62" t="s">
+      <c r="AO8" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="51" t="s">
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="50" t="s">
         <v>830</v>
       </c>
     </row>
@@ -9252,67 +9230,67 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="N9" s="50"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="52" t="s">
         <v>832</v>
       </c>
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
-      <c r="X9" s="53" t="s">
+      <c r="X9" s="52" t="s">
         <v>833</v>
       </c>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
-      <c r="AA9" s="56" t="s">
+      <c r="AA9" s="54" t="s">
         <v>834</v>
       </c>
       <c r="AB9" s="23"/>
-      <c r="AC9" s="50" t="s">
+      <c r="AC9" s="49" t="s">
         <v>835</v>
       </c>
-      <c r="AD9" s="61" t="s">
+      <c r="AD9" s="58" t="s">
         <v>836</v>
       </c>
-      <c r="AE9" s="51" t="s">
+      <c r="AE9" s="50" t="s">
         <v>837</v>
       </c>
-      <c r="AF9" s="51" t="s">
+      <c r="AF9" s="50" t="s">
         <v>838</v>
       </c>
-      <c r="AG9" s="59" t="s">
+      <c r="AG9" s="50" t="s">
         <v>839</v>
       </c>
-      <c r="AH9" s="50" t="s">
+      <c r="AH9" s="49" t="s">
         <v>840</v>
       </c>
-      <c r="AI9" s="50" t="s">
+      <c r="AI9" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AJ9" s="0"/>
-      <c r="AK9" s="53" t="s">
+      <c r="AK9" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="AL9" s="53" t="s">
+      <c r="AL9" s="52" t="s">
         <v>842</v>
       </c>
       <c r="AM9" s="23"/>
-      <c r="AN9" s="51" t="s">
+      <c r="AN9" s="50" t="s">
         <v>843</v>
       </c>
-      <c r="AO9" s="62" t="s">
+      <c r="AO9" s="59" t="s">
         <v>844</v>
       </c>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="51" t="s">
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="50" t="s">
         <v>845</v>
       </c>
     </row>
@@ -9321,7 +9299,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="50" t="s">
+      <c r="M10" s="49" t="s">
         <v>846</v>
       </c>
       <c r="O10" s="23"/>
@@ -9329,54 +9307,54 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
-      <c r="T10" s="53" t="s">
+      <c r="T10" s="52" t="s">
         <v>847</v>
       </c>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
-      <c r="X10" s="53" t="s">
+      <c r="X10" s="52" t="s">
         <v>848</v>
       </c>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="56" t="s">
+      <c r="AA10" s="54" t="s">
         <v>849</v>
       </c>
       <c r="AB10" s="23"/>
-      <c r="AC10" s="50" t="s">
+      <c r="AC10" s="49" t="s">
         <v>850</v>
       </c>
       <c r="AD10" s="23"/>
-      <c r="AE10" s="51" t="s">
+      <c r="AE10" s="50" t="s">
         <v>851</v>
       </c>
-      <c r="AF10" s="51" t="s">
+      <c r="AF10" s="50" t="s">
         <v>852</v>
       </c>
-      <c r="AG10" s="59" t="s">
+      <c r="AG10" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="AH10" s="55" t="s">
+      <c r="AH10" s="53" t="s">
         <v>854</v>
       </c>
       <c r="AI10" s="0"/>
       <c r="AJ10" s="0"/>
-      <c r="AK10" s="53" t="s">
+      <c r="AK10" s="52" t="s">
         <v>855</v>
       </c>
-      <c r="AL10" s="53" t="s">
+      <c r="AL10" s="52" t="s">
         <v>856</v>
       </c>
       <c r="AM10" s="23"/>
-      <c r="AN10" s="57" t="s">
+      <c r="AN10" s="55" t="s">
         <v>857</v>
       </c>
-      <c r="AO10" s="62" t="s">
+      <c r="AO10" s="59" t="s">
         <v>858</v>
       </c>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="50" t="s">
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="49" t="s">
         <v>808</v>
       </c>
     </row>
@@ -9385,138 +9363,138 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="49" t="s">
         <v>859</v>
       </c>
-      <c r="N11" s="63"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
-      <c r="T11" s="53" t="s">
+      <c r="T11" s="52" t="s">
         <v>714</v>
       </c>
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
-      <c r="X11" s="53" t="s">
+      <c r="X11" s="52" t="s">
         <v>860</v>
       </c>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
-      <c r="AA11" s="56" t="s">
+      <c r="AA11" s="54" t="s">
         <v>861</v>
       </c>
       <c r="AB11" s="23"/>
-      <c r="AC11" s="50" t="s">
+      <c r="AC11" s="49" t="s">
         <v>862</v>
       </c>
       <c r="AD11" s="23"/>
-      <c r="AE11" s="51" t="s">
+      <c r="AE11" s="50" t="s">
         <v>863</v>
       </c>
-      <c r="AF11" s="50" t="s">
+      <c r="AF11" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AG11" s="64" t="s">
+      <c r="AG11" s="49" t="s">
         <v>864</v>
       </c>
-      <c r="AH11" s="50" t="s">
+      <c r="AH11" s="49" t="s">
         <v>865</v>
       </c>
       <c r="AI11" s="0"/>
       <c r="AJ11" s="0"/>
-      <c r="AK11" s="53" t="s">
+      <c r="AK11" s="52" t="s">
         <v>866</v>
       </c>
-      <c r="AL11" s="53" t="s">
+      <c r="AL11" s="52" t="s">
         <v>867</v>
       </c>
       <c r="AM11" s="23"/>
-      <c r="AN11" s="51" t="s">
+      <c r="AN11" s="50" t="s">
         <v>868</v>
       </c>
-      <c r="AO11" s="57" t="s">
+      <c r="AO11" s="55" t="s">
         <v>869</v>
       </c>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="61" t="s">
         <v>870</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
-      <c r="T12" s="52" t="s">
+      <c r="T12" s="51" t="s">
         <v>871</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="53" t="s">
+      <c r="X12" s="52" t="s">
         <v>872</v>
       </c>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
-      <c r="AA12" s="56" t="s">
+      <c r="AA12" s="54" t="s">
         <v>873</v>
       </c>
       <c r="AB12" s="23"/>
-      <c r="AC12" s="50" t="s">
+      <c r="AC12" s="49" t="s">
         <v>874</v>
       </c>
       <c r="AD12" s="0"/>
-      <c r="AE12" s="51" t="s">
+      <c r="AE12" s="50" t="s">
         <v>875</v>
       </c>
       <c r="AF12" s="23"/>
-      <c r="AG12" s="64" t="s">
+      <c r="AG12" s="49" t="s">
         <v>876</v>
       </c>
-      <c r="AH12" s="50" t="s">
+      <c r="AH12" s="49" t="s">
         <v>877</v>
       </c>
       <c r="AI12" s="0"/>
       <c r="AJ12" s="0"/>
-      <c r="AK12" s="53" t="s">
+      <c r="AK12" s="52" t="s">
         <v>878</v>
       </c>
-      <c r="AL12" s="53" t="s">
+      <c r="AL12" s="52" t="s">
         <v>879</v>
       </c>
       <c r="AM12" s="23"/>
-      <c r="AN12" s="57" t="s">
+      <c r="AN12" s="55" t="s">
         <v>880</v>
       </c>
-      <c r="AO12" s="62" t="s">
+      <c r="AO12" s="59" t="s">
         <v>881</v>
       </c>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="63"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
-      <c r="T13" s="53" t="s">
+      <c r="T13" s="52" t="s">
         <v>882</v>
       </c>
       <c r="U13" s="23"/>
@@ -9525,41 +9503,41 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
-      <c r="AA13" s="56" t="s">
+      <c r="AA13" s="54" t="s">
         <v>883</v>
       </c>
       <c r="AB13" s="23"/>
-      <c r="AC13" s="50" t="s">
+      <c r="AC13" s="49" t="s">
         <v>884</v>
       </c>
       <c r="AD13" s="0"/>
-      <c r="AE13" s="51" t="s">
+      <c r="AE13" s="50" t="s">
         <v>885</v>
       </c>
       <c r="AF13" s="23"/>
-      <c r="AG13" s="64" t="s">
+      <c r="AG13" s="49" t="s">
         <v>886</v>
       </c>
-      <c r="AH13" s="50" t="s">
+      <c r="AH13" s="49" t="s">
         <v>887</v>
       </c>
       <c r="AI13" s="0"/>
       <c r="AJ13" s="0"/>
-      <c r="AK13" s="53" t="s">
+      <c r="AK13" s="52" t="s">
         <v>888</v>
       </c>
-      <c r="AL13" s="53" t="s">
+      <c r="AL13" s="52" t="s">
         <v>889</v>
       </c>
       <c r="AM13" s="23"/>
-      <c r="AN13" s="51" t="s">
+      <c r="AN13" s="50" t="s">
         <v>890</v>
       </c>
-      <c r="AO13" s="62" t="s">
+      <c r="AO13" s="59" t="s">
         <v>891</v>
       </c>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="62"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I14" s="23"/>
@@ -9573,7 +9551,7 @@
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
-      <c r="T14" s="53" t="s">
+      <c r="T14" s="52" t="s">
         <v>892</v>
       </c>
       <c r="U14" s="23"/>
@@ -9582,41 +9560,41 @@
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
-      <c r="AA14" s="56" t="s">
+      <c r="AA14" s="54" t="s">
         <v>893</v>
       </c>
       <c r="AB14" s="23"/>
-      <c r="AC14" s="50" t="s">
+      <c r="AC14" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AD14" s="0"/>
-      <c r="AE14" s="50" t="s">
+      <c r="AE14" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AF14" s="23"/>
-      <c r="AG14" s="64" t="s">
+      <c r="AG14" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="AH14" s="50" t="s">
+      <c r="AH14" s="49" t="s">
         <v>895</v>
       </c>
       <c r="AI14" s="0"/>
       <c r="AJ14" s="0"/>
-      <c r="AK14" s="53" t="s">
+      <c r="AK14" s="52" t="s">
         <v>896</v>
       </c>
-      <c r="AL14" s="53" t="s">
+      <c r="AL14" s="52" t="s">
         <v>897</v>
       </c>
       <c r="AM14" s="23"/>
-      <c r="AN14" s="57" t="s">
+      <c r="AN14" s="55" t="s">
         <v>898</v>
       </c>
-      <c r="AO14" s="62" t="s">
+      <c r="AO14" s="59" t="s">
         <v>899</v>
       </c>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I15" s="23"/>
@@ -9630,7 +9608,7 @@
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
-      <c r="T15" s="52" t="s">
+      <c r="T15" s="51" t="s">
         <v>900</v>
       </c>
       <c r="U15" s="23"/>
@@ -9639,39 +9617,39 @@
       <c r="X15" s="23"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
-      <c r="AA15" s="56" t="s">
+      <c r="AA15" s="54" t="s">
         <v>901</v>
       </c>
       <c r="AB15" s="23"/>
-      <c r="AC15" s="55" t="s">
+      <c r="AC15" s="53" t="s">
         <v>902</v>
       </c>
       <c r="AD15" s="0"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
-      <c r="AG15" s="66" t="s">
+      <c r="AG15" s="53" t="s">
         <v>903</v>
       </c>
-      <c r="AH15" s="50" t="s">
+      <c r="AH15" s="49" t="s">
         <v>904</v>
       </c>
       <c r="AI15" s="0"/>
       <c r="AJ15" s="0"/>
-      <c r="AK15" s="53" t="s">
+      <c r="AK15" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="AL15" s="53" t="s">
+      <c r="AL15" s="52" t="s">
         <v>906</v>
       </c>
       <c r="AM15" s="23"/>
-      <c r="AN15" s="51" t="s">
+      <c r="AN15" s="50" t="s">
         <v>907</v>
       </c>
-      <c r="AO15" s="57" t="s">
+      <c r="AO15" s="55" t="s">
         <v>908</v>
       </c>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I16" s="23"/>
@@ -9685,7 +9663,7 @@
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
-      <c r="T16" s="53" t="s">
+      <c r="T16" s="52" t="s">
         <v>909</v>
       </c>
       <c r="U16" s="23"/>
@@ -9694,39 +9672,39 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="56" t="s">
+      <c r="AA16" s="54" t="s">
         <v>910</v>
       </c>
       <c r="AB16" s="23"/>
-      <c r="AC16" s="50" t="s">
+      <c r="AC16" s="49" t="s">
         <v>911</v>
       </c>
       <c r="AD16" s="0"/>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
-      <c r="AG16" s="64" t="s">
+      <c r="AG16" s="49" t="s">
         <v>912</v>
       </c>
-      <c r="AH16" s="50" t="s">
+      <c r="AH16" s="49" t="s">
         <v>753</v>
       </c>
       <c r="AI16" s="0"/>
       <c r="AJ16" s="0"/>
-      <c r="AK16" s="53" t="s">
+      <c r="AK16" s="52" t="s">
         <v>913</v>
       </c>
-      <c r="AL16" s="53" t="s">
+      <c r="AL16" s="52" t="s">
         <v>914</v>
       </c>
       <c r="AM16" s="23"/>
-      <c r="AN16" s="50" t="s">
+      <c r="AN16" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AO16" s="62" t="s">
+      <c r="AO16" s="59" t="s">
         <v>915</v>
       </c>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N17" s="23"/>
@@ -9735,7 +9713,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="53" t="s">
+      <c r="T17" s="52" t="s">
         <v>916</v>
       </c>
       <c r="U17" s="23"/>
@@ -9744,86 +9722,86 @@
       <c r="X17" s="23"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
-      <c r="AA17" s="56" t="s">
+      <c r="AA17" s="54" t="s">
         <v>917</v>
       </c>
       <c r="AB17" s="23"/>
-      <c r="AC17" s="50" t="s">
+      <c r="AC17" s="49" t="s">
         <v>918</v>
       </c>
       <c r="AD17" s="0"/>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
-      <c r="AG17" s="64" t="s">
+      <c r="AG17" s="49" t="s">
         <v>919</v>
       </c>
-      <c r="AH17" s="50" t="s">
+      <c r="AH17" s="49" t="s">
         <v>920</v>
       </c>
       <c r="AI17" s="0"/>
       <c r="AJ17" s="0"/>
-      <c r="AK17" s="53" t="s">
+      <c r="AK17" s="52" t="s">
         <v>921</v>
       </c>
-      <c r="AL17" s="53" t="s">
+      <c r="AL17" s="52" t="s">
         <v>922</v>
       </c>
       <c r="AM17" s="23"/>
       <c r="AN17" s="23"/>
-      <c r="AO17" s="62" t="s">
+      <c r="AO17" s="59" t="s">
         <v>923</v>
       </c>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N18" s="63"/>
+      <c r="N18" s="60"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
-      <c r="T18" s="50"/>
+      <c r="T18" s="49"/>
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
-      <c r="AA18" s="56" t="s">
+      <c r="AA18" s="54" t="s">
         <v>924</v>
       </c>
       <c r="AB18" s="23"/>
-      <c r="AC18" s="50" t="s">
+      <c r="AC18" s="49" t="s">
         <v>925</v>
       </c>
       <c r="AD18" s="0"/>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
-      <c r="AG18" s="64" t="s">
+      <c r="AG18" s="49" t="s">
         <v>926</v>
       </c>
-      <c r="AH18" s="50" t="s">
+      <c r="AH18" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AI18" s="0"/>
       <c r="AJ18" s="0"/>
-      <c r="AK18" s="53" t="s">
+      <c r="AK18" s="52" t="s">
         <v>927</v>
       </c>
-      <c r="AL18" s="53" t="s">
+      <c r="AL18" s="52" t="s">
         <v>928</v>
       </c>
       <c r="AM18" s="23"/>
       <c r="AN18" s="23"/>
-      <c r="AO18" s="57" t="s">
+      <c r="AO18" s="55" t="s">
         <v>929</v>
       </c>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N19" s="63"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
@@ -9836,35 +9814,35 @@
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
-      <c r="AA19" s="56" t="s">
+      <c r="AA19" s="54" t="s">
         <v>930</v>
       </c>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="50" t="s">
+      <c r="AC19" s="49" t="s">
         <v>931</v>
       </c>
       <c r="AD19" s="0"/>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
-      <c r="AG19" s="64" t="s">
+      <c r="AG19" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AH19" s="0"/>
       <c r="AI19" s="0"/>
       <c r="AJ19" s="0"/>
-      <c r="AK19" s="53" t="s">
+      <c r="AK19" s="52" t="s">
         <v>932</v>
       </c>
-      <c r="AL19" s="50" t="s">
+      <c r="AL19" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AM19" s="23"/>
       <c r="AN19" s="23"/>
-      <c r="AO19" s="62" t="s">
+      <c r="AO19" s="59" t="s">
         <v>933</v>
       </c>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N20" s="23"/>
@@ -9880,11 +9858,11 @@
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
-      <c r="AA20" s="56" t="s">
+      <c r="AA20" s="54" t="s">
         <v>934</v>
       </c>
       <c r="AB20" s="23"/>
-      <c r="AC20" s="50" t="s">
+      <c r="AC20" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AD20" s="0"/>
@@ -9894,17 +9872,17 @@
       <c r="AH20" s="0"/>
       <c r="AI20" s="0"/>
       <c r="AJ20" s="0"/>
-      <c r="AK20" s="53" t="s">
+      <c r="AK20" s="52" t="s">
         <v>935</v>
       </c>
       <c r="AL20" s="23"/>
       <c r="AM20" s="23"/>
       <c r="AN20" s="23"/>
-      <c r="AO20" s="62" t="s">
+      <c r="AO20" s="59" t="s">
         <v>936</v>
       </c>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N21" s="23"/>
@@ -9920,11 +9898,11 @@
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
-      <c r="AA21" s="56" t="s">
+      <c r="AA21" s="54" t="s">
         <v>937</v>
       </c>
       <c r="AB21" s="23"/>
-      <c r="AC21" s="55" t="s">
+      <c r="AC21" s="53" t="s">
         <v>938</v>
       </c>
       <c r="AD21" s="0"/>
@@ -9934,22 +9912,22 @@
       <c r="AH21" s="0"/>
       <c r="AI21" s="0"/>
       <c r="AJ21" s="0"/>
-      <c r="AK21" s="53" t="s">
+      <c r="AK21" s="52" t="s">
         <v>939</v>
       </c>
       <c r="AL21" s="23"/>
       <c r="AM21" s="23"/>
       <c r="AN21" s="23"/>
-      <c r="AO21" s="50" t="s">
+      <c r="AO21" s="49" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AA22" s="56" t="s">
+      <c r="AA22" s="54" t="s">
         <v>940</v>
       </c>
       <c r="AB22" s="23"/>
-      <c r="AC22" s="50" t="s">
+      <c r="AC22" s="49" t="s">
         <v>941</v>
       </c>
       <c r="AD22" s="0"/>
@@ -9959,7 +9937,7 @@
       <c r="AH22" s="0"/>
       <c r="AI22" s="0"/>
       <c r="AJ22" s="0"/>
-      <c r="AK22" s="53" t="s">
+      <c r="AK22" s="52" t="s">
         <v>942</v>
       </c>
       <c r="AL22" s="23"/>
@@ -9968,12 +9946,12 @@
       <c r="AO22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N23" s="63"/>
-      <c r="AA23" s="56" t="s">
+      <c r="N23" s="60"/>
+      <c r="AA23" s="54" t="s">
         <v>943</v>
       </c>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="50" t="s">
+      <c r="AC23" s="49" t="s">
         <v>944</v>
       </c>
       <c r="AD23" s="0"/>
@@ -9983,7 +9961,7 @@
       <c r="AH23" s="0"/>
       <c r="AI23" s="0"/>
       <c r="AJ23" s="0"/>
-      <c r="AK23" s="53" t="s">
+      <c r="AK23" s="52" t="s">
         <v>945</v>
       </c>
       <c r="AL23" s="23"/>
@@ -9992,11 +9970,11 @@
       <c r="AO23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA24" s="67" t="s">
+      <c r="AA24" s="62" t="s">
         <v>946</v>
       </c>
       <c r="AB24" s="23"/>
-      <c r="AC24" s="50" t="s">
+      <c r="AC24" s="49" t="s">
         <v>947</v>
       </c>
       <c r="AD24" s="0"/>
@@ -10006,7 +9984,7 @@
       <c r="AH24" s="0"/>
       <c r="AI24" s="0"/>
       <c r="AJ24" s="0"/>
-      <c r="AK24" s="53" t="s">
+      <c r="AK24" s="52" t="s">
         <v>948</v>
       </c>
       <c r="AL24" s="23"/>
@@ -10015,11 +9993,11 @@
       <c r="AO24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA25" s="51" t="s">
+      <c r="AA25" s="50" t="s">
         <v>949</v>
       </c>
       <c r="AB25" s="23"/>
-      <c r="AC25" s="50" t="s">
+      <c r="AC25" s="49" t="s">
         <v>950</v>
       </c>
       <c r="AD25" s="0"/>
@@ -10029,7 +10007,7 @@
       <c r="AH25" s="0"/>
       <c r="AI25" s="0"/>
       <c r="AJ25" s="0"/>
-      <c r="AK25" s="53" t="s">
+      <c r="AK25" s="52" t="s">
         <v>951</v>
       </c>
       <c r="AL25" s="23"/>
@@ -10038,11 +10016,11 @@
       <c r="AO25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA26" s="51" t="s">
+      <c r="AA26" s="50" t="s">
         <v>952</v>
       </c>
       <c r="AB26" s="23"/>
-      <c r="AC26" s="50" t="s">
+      <c r="AC26" s="49" t="s">
         <v>953</v>
       </c>
       <c r="AD26" s="0"/>
@@ -10052,7 +10030,7 @@
       <c r="AH26" s="0"/>
       <c r="AI26" s="0"/>
       <c r="AJ26" s="0"/>
-      <c r="AK26" s="53" t="s">
+      <c r="AK26" s="52" t="s">
         <v>954</v>
       </c>
       <c r="AL26" s="23"/>
@@ -10061,11 +10039,11 @@
       <c r="AO26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA27" s="51" t="s">
+      <c r="AA27" s="50" t="s">
         <v>955</v>
       </c>
       <c r="AB27" s="23"/>
-      <c r="AC27" s="50" t="s">
+      <c r="AC27" s="49" t="s">
         <v>956</v>
       </c>
       <c r="AD27" s="0"/>
@@ -10075,7 +10053,7 @@
       <c r="AH27" s="0"/>
       <c r="AI27" s="0"/>
       <c r="AJ27" s="0"/>
-      <c r="AK27" s="53" t="s">
+      <c r="AK27" s="52" t="s">
         <v>957</v>
       </c>
       <c r="AL27" s="23"/>
@@ -10084,11 +10062,11 @@
       <c r="AO27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA28" s="51" t="s">
+      <c r="AA28" s="50" t="s">
         <v>958</v>
       </c>
       <c r="AB28" s="23"/>
-      <c r="AC28" s="50" t="s">
+      <c r="AC28" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AD28" s="0"/>
@@ -10098,7 +10076,7 @@
       <c r="AH28" s="0"/>
       <c r="AI28" s="0"/>
       <c r="AJ28" s="0"/>
-      <c r="AK28" s="53" t="s">
+      <c r="AK28" s="52" t="s">
         <v>959</v>
       </c>
       <c r="AL28" s="23"/>
@@ -10107,11 +10085,11 @@
       <c r="AO28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA29" s="51" t="s">
+      <c r="AA29" s="50" t="s">
         <v>960</v>
       </c>
       <c r="AB29" s="23"/>
-      <c r="AC29" s="55" t="s">
+      <c r="AC29" s="53" t="s">
         <v>961</v>
       </c>
       <c r="AD29" s="0"/>
@@ -10121,7 +10099,7 @@
       <c r="AH29" s="0"/>
       <c r="AI29" s="0"/>
       <c r="AJ29" s="0"/>
-      <c r="AK29" s="53" t="s">
+      <c r="AK29" s="52" t="s">
         <v>962</v>
       </c>
       <c r="AL29" s="23"/>
@@ -10130,11 +10108,11 @@
       <c r="AO29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA30" s="51" t="s">
+      <c r="AA30" s="50" t="s">
         <v>963</v>
       </c>
       <c r="AB30" s="23"/>
-      <c r="AC30" s="50" t="s">
+      <c r="AC30" s="49" t="s">
         <v>964</v>
       </c>
       <c r="AD30" s="0"/>
@@ -10144,7 +10122,7 @@
       <c r="AH30" s="0"/>
       <c r="AI30" s="0"/>
       <c r="AJ30" s="0"/>
-      <c r="AK30" s="53" t="s">
+      <c r="AK30" s="52" t="s">
         <v>965</v>
       </c>
       <c r="AL30" s="23"/>
@@ -10153,11 +10131,11 @@
       <c r="AO30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA31" s="51" t="s">
+      <c r="AA31" s="50" t="s">
         <v>966</v>
       </c>
       <c r="AB31" s="23"/>
-      <c r="AC31" s="50" t="s">
+      <c r="AC31" s="49" t="s">
         <v>967</v>
       </c>
       <c r="AD31" s="0"/>
@@ -10167,7 +10145,7 @@
       <c r="AH31" s="0"/>
       <c r="AI31" s="0"/>
       <c r="AJ31" s="0"/>
-      <c r="AK31" s="53" t="s">
+      <c r="AK31" s="52" t="s">
         <v>968</v>
       </c>
       <c r="AL31" s="23"/>
@@ -10176,11 +10154,11 @@
       <c r="AO31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA32" s="51" t="s">
+      <c r="AA32" s="50" t="s">
         <v>969</v>
       </c>
       <c r="AB32" s="23"/>
-      <c r="AC32" s="50" t="s">
+      <c r="AC32" s="49" t="s">
         <v>970</v>
       </c>
       <c r="AD32" s="0"/>
@@ -10190,7 +10168,7 @@
       <c r="AH32" s="0"/>
       <c r="AI32" s="0"/>
       <c r="AJ32" s="0"/>
-      <c r="AK32" s="53" t="s">
+      <c r="AK32" s="52" t="s">
         <v>971</v>
       </c>
       <c r="AL32" s="23"/>
@@ -10199,11 +10177,11 @@
       <c r="AO32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA33" s="51" t="s">
+      <c r="AA33" s="50" t="s">
         <v>972</v>
       </c>
       <c r="AB33" s="23"/>
-      <c r="AC33" s="50" t="s">
+      <c r="AC33" s="49" t="s">
         <v>973</v>
       </c>
       <c r="AD33" s="0"/>
@@ -10213,16 +10191,16 @@
       <c r="AH33" s="0"/>
       <c r="AI33" s="0"/>
       <c r="AJ33" s="0"/>
-      <c r="AK33" s="53" t="s">
+      <c r="AK33" s="52" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA34" s="51" t="s">
+      <c r="AA34" s="50" t="s">
         <v>975</v>
       </c>
       <c r="AB34" s="23"/>
-      <c r="AC34" s="50" t="s">
+      <c r="AC34" s="49" t="s">
         <v>976</v>
       </c>
       <c r="AD34" s="0"/>
@@ -10232,16 +10210,16 @@
       <c r="AH34" s="0"/>
       <c r="AI34" s="0"/>
       <c r="AJ34" s="0"/>
-      <c r="AK34" s="53" t="s">
+      <c r="AK34" s="52" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA35" s="51" t="s">
+      <c r="AA35" s="50" t="s">
         <v>978</v>
       </c>
       <c r="AB35" s="23"/>
-      <c r="AC35" s="50" t="s">
+      <c r="AC35" s="49" t="s">
         <v>979</v>
       </c>
       <c r="AD35" s="0"/>
@@ -10251,16 +10229,16 @@
       <c r="AH35" s="0"/>
       <c r="AI35" s="0"/>
       <c r="AJ35" s="0"/>
-      <c r="AK35" s="53" t="s">
+      <c r="AK35" s="52" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA36" s="56" t="s">
+      <c r="AA36" s="54" t="s">
         <v>943</v>
       </c>
       <c r="AB36" s="23"/>
-      <c r="AC36" s="50" t="s">
+      <c r="AC36" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AD36" s="0"/>
@@ -10270,12 +10248,12 @@
       <c r="AH36" s="0"/>
       <c r="AI36" s="0"/>
       <c r="AJ36" s="0"/>
-      <c r="AK36" s="50" t="s">
+      <c r="AK36" s="49" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA37" s="67" t="s">
+      <c r="AA37" s="62" t="s">
         <v>981</v>
       </c>
       <c r="AB37" s="23"/>
@@ -10290,7 +10268,7 @@
       <c r="AK37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA38" s="50" t="s">
+      <c r="AA38" s="49" t="s">
         <v>982</v>
       </c>
       <c r="AB38" s="23"/>
@@ -10305,7 +10283,7 @@
       <c r="AK38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA39" s="50" t="s">
+      <c r="AA39" s="49" t="s">
         <v>983</v>
       </c>
       <c r="AB39" s="23"/>
@@ -10320,7 +10298,7 @@
       <c r="AK39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA40" s="50" t="s">
+      <c r="AA40" s="49" t="s">
         <v>984</v>
       </c>
       <c r="AB40" s="23"/>
@@ -10335,7 +10313,7 @@
       <c r="AK40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA41" s="50" t="s">
+      <c r="AA41" s="49" t="s">
         <v>985</v>
       </c>
       <c r="AB41" s="23"/>
@@ -10350,7 +10328,7 @@
       <c r="AK41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA42" s="50" t="s">
+      <c r="AA42" s="49" t="s">
         <v>986</v>
       </c>
       <c r="AB42" s="23"/>
@@ -10365,7 +10343,7 @@
       <c r="AK42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA43" s="50" t="s">
+      <c r="AA43" s="49" t="s">
         <v>987</v>
       </c>
       <c r="AB43" s="23"/>
@@ -10380,7 +10358,7 @@
       <c r="AK43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA44" s="50" t="s">
+      <c r="AA44" s="49" t="s">
         <v>988</v>
       </c>
       <c r="AB44" s="23"/>
@@ -10395,7 +10373,7 @@
       <c r="AK44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA45" s="50" t="s">
+      <c r="AA45" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AB45" s="23"/>
@@ -10410,7 +10388,7 @@
       <c r="AK45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA46" s="55" t="s">
+      <c r="AA46" s="53" t="s">
         <v>989</v>
       </c>
       <c r="AB46" s="23"/>
@@ -10425,7 +10403,7 @@
       <c r="AK46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA47" s="50" t="s">
+      <c r="AA47" s="49" t="s">
         <v>990</v>
       </c>
       <c r="AB47" s="23"/>
@@ -10440,7 +10418,7 @@
       <c r="AK47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA48" s="50" t="s">
+      <c r="AA48" s="49" t="s">
         <v>991</v>
       </c>
       <c r="AB48" s="23"/>
@@ -10455,7 +10433,7 @@
       <c r="AK48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA49" s="50" t="s">
+      <c r="AA49" s="49" t="s">
         <v>992</v>
       </c>
       <c r="AB49" s="23"/>
@@ -10469,7 +10447,7 @@
       <c r="AJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA50" s="50" t="s">
+      <c r="AA50" s="49" t="s">
         <v>993</v>
       </c>
       <c r="AB50" s="23"/>
@@ -10483,7 +10461,7 @@
       <c r="AJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA51" s="50" t="s">
+      <c r="AA51" s="49" t="s">
         <v>994</v>
       </c>
       <c r="AB51" s="23"/>
@@ -10497,7 +10475,7 @@
       <c r="AJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA52" s="50" t="s">
+      <c r="AA52" s="49" t="s">
         <v>995</v>
       </c>
       <c r="AB52" s="23"/>
@@ -10511,7 +10489,7 @@
       <c r="AJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA53" s="50" t="s">
+      <c r="AA53" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AB53" s="23"/>
@@ -10525,7 +10503,7 @@
       <c r="AJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA54" s="55" t="s">
+      <c r="AA54" s="53" t="s">
         <v>996</v>
       </c>
       <c r="AB54" s="23"/>
@@ -10539,7 +10517,7 @@
       <c r="AJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA55" s="56" t="s">
+      <c r="AA55" s="54" t="s">
         <v>997</v>
       </c>
       <c r="AB55" s="23"/>
@@ -10553,7 +10531,7 @@
       <c r="AJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA56" s="56" t="s">
+      <c r="AA56" s="54" t="s">
         <v>998</v>
       </c>
       <c r="AB56" s="23"/>
@@ -10567,7 +10545,7 @@
       <c r="AJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA57" s="56" t="s">
+      <c r="AA57" s="54" t="s">
         <v>999</v>
       </c>
       <c r="AB57" s="23"/>
@@ -10581,7 +10559,7 @@
       <c r="AJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA58" s="56" t="s">
+      <c r="AA58" s="54" t="s">
         <v>1000</v>
       </c>
       <c r="AB58" s="23"/>
@@ -10595,7 +10573,7 @@
       <c r="AJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA59" s="50" t="s">
+      <c r="AA59" s="49" t="s">
         <v>1001</v>
       </c>
       <c r="AB59" s="23"/>
@@ -10609,7 +10587,7 @@
       <c r="AJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA60" s="50" t="s">
+      <c r="AA60" s="49" t="s">
         <v>1002</v>
       </c>
       <c r="AB60" s="23"/>
@@ -10623,7 +10601,7 @@
       <c r="AJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA61" s="50" t="s">
+      <c r="AA61" s="49" t="s">
         <v>1003</v>
       </c>
       <c r="AB61" s="23"/>
@@ -10637,7 +10615,7 @@
       <c r="AJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA62" s="50" t="s">
+      <c r="AA62" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AB62" s="23"/>
@@ -11741,158 +11719,158 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="68" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="69" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="69" width="59.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="64" width="59.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="66" t="s">
         <v>1004</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="66" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="64" t="s">
         <v>1006</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="64" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="64" t="s">
         <v>1008</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="64" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="64" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="64" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="64" t="s">
         <v>1012</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="64" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="64" t="s">
         <v>1016</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="64" t="s">
         <v>1017</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="64" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="64" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="64" t="s">
         <v>1020</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="64" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="64" t="s">
         <v>1022</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="64" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="64" t="s">
         <v>1024</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="64" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -11916,362 +11894,362 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A3:A13 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="68" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="69" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="72" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>1026</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>581</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="69" t="s">
         <v>1027</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="70" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="64" t="s">
         <v>1017</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="67" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="67" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="64" t="s">
         <v>1006</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="67" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="67" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>1020</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="67" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="64" t="s">
         <v>1008</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="64" t="s">
         <v>1022</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="64" t="s">
         <v>1024</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="64" t="s">
         <v>1012</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="67" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="64" t="s">
         <v>1016</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="67" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="67" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="64" t="s">
         <v>1008</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="67" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="64" t="s">
         <v>1006</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="67" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="67" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="64" t="s">
         <v>1016</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="67" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="67" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="64" t="s">
         <v>1006</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="67" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="64" t="s">
         <v>1008</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="67" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="67" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="64" t="s">
         <v>1012</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="67" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="64" t="s">
         <v>1014</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="64" t="s">
         <v>1016</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="67" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="64" t="s">
         <v>1017</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="67" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="67" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="64" t="s">
         <v>1020</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="64" t="s">
         <v>1022</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="63" t="s">
         <v>1029</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="64" t="s">
         <v>1024</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="67" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12297,22 +12275,22 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="1" sqref="A3:A13 L8"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="69" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="69" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>1004</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="66" t="s">
         <v>1030</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -12324,10 +12302,10 @@
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="0" t="s">
         <v>82</v>
       </c>
@@ -12335,14 +12313,14 @@
         <v>83</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="0" t="s">
         <v>84</v>
       </c>
@@ -12350,14 +12328,14 @@
         <v>85</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="0" t="s">
         <v>86</v>
       </c>
@@ -12365,14 +12343,14 @@
         <v>87</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="0" t="s">
         <v>88</v>
       </c>
@@ -12380,14 +12358,14 @@
         <v>89</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
@@ -12395,14 +12373,14 @@
         <v>91</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
@@ -12410,14 +12388,14 @@
         <v>93</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="0" t="s">
         <v>94</v>
       </c>
@@ -12425,14 +12403,14 @@
         <v>95</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="0" t="s">
         <v>96</v>
       </c>
@@ -12441,10 +12419,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="0" t="s">
         <v>98</v>
       </c>
@@ -12452,14 +12430,14 @@
         <v>99</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="0" t="s">
         <v>100</v>
       </c>
@@ -12467,14 +12445,14 @@
         <v>101</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="0" t="s">
         <v>102</v>
       </c>
@@ -12482,14 +12460,14 @@
         <v>103</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="0" t="s">
         <v>104</v>
       </c>
@@ -12497,14 +12475,14 @@
         <v>105</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="0" t="s">
         <v>106</v>
       </c>
@@ -12512,14 +12490,14 @@
         <v>107</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="0" t="s">
         <v>108</v>
       </c>
@@ -12527,14 +12505,14 @@
         <v>109</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="0" t="s">
         <v>110</v>
       </c>
@@ -12542,14 +12520,14 @@
         <v>111</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="71" t="s">
         <v>1022</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="0" t="s">
         <v>112</v>
       </c>
@@ -12557,14 +12535,14 @@
         <v>113</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B18" s="76"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="0" t="s">
         <v>114</v>
       </c>
@@ -12572,14 +12550,14 @@
         <v>115</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B19" s="76"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="0" t="s">
         <v>116</v>
       </c>
@@ -12587,14 +12565,14 @@
         <v>117</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="0" t="s">
         <v>118</v>
       </c>
@@ -12602,14 +12580,14 @@
         <v>119</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B21" s="76"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="0" t="s">
         <v>120</v>
       </c>
@@ -12617,14 +12595,14 @@
         <v>121</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="0" t="s">
         <v>122</v>
       </c>
@@ -12632,14 +12610,14 @@
         <v>123</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="0" t="s">
         <v>124</v>
       </c>
@@ -12647,14 +12625,14 @@
         <v>125</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="0" t="s">
         <v>126</v>
       </c>
@@ -12662,14 +12640,14 @@
         <v>127</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="0" t="s">
         <v>128</v>
       </c>
@@ -12677,14 +12655,14 @@
         <v>129</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="0" t="s">
         <v>130</v>
       </c>
@@ -12692,14 +12670,14 @@
         <v>131</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B27" s="76"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="0" t="s">
         <v>132</v>
       </c>
@@ -12707,14 +12685,14 @@
         <v>133</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B28" s="76"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="0" t="s">
         <v>134</v>
       </c>
@@ -12722,14 +12700,14 @@
         <v>135</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="0" t="s">
         <v>136</v>
       </c>
@@ -12737,14 +12715,14 @@
         <v>137</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B30" s="76"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="0" t="s">
         <v>138</v>
       </c>
@@ -12752,14 +12730,14 @@
         <v>139</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B31" s="76"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="0" t="s">
         <v>140</v>
       </c>
@@ -12767,14 +12745,14 @@
         <v>141</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="0" t="s">
         <v>142</v>
       </c>
@@ -12782,14 +12760,14 @@
         <v>143</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="0" t="s">
         <v>144</v>
       </c>
@@ -12797,14 +12775,14 @@
         <v>145</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="0" t="s">
         <v>146</v>
       </c>
@@ -12812,14 +12790,14 @@
         <v>147</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B35" s="76"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="0" t="s">
         <v>148</v>
       </c>
@@ -12827,14 +12805,14 @@
         <v>149</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B36" s="76"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="0" t="s">
         <v>150</v>
       </c>
@@ -12842,14 +12820,14 @@
         <v>151</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B37" s="76"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="0" t="s">
         <v>152</v>
       </c>
@@ -12857,14 +12835,14 @@
         <v>153</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="0" t="s">
         <v>154</v>
       </c>
@@ -12872,14 +12850,14 @@
         <v>155</v>
       </c>
       <c r="H38" s="23"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="0" t="s">
         <v>156</v>
       </c>
@@ -12887,14 +12865,14 @@
         <v>157</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B40" s="76"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="0" t="s">
         <v>158</v>
       </c>
@@ -12902,14 +12880,14 @@
         <v>159</v>
       </c>
       <c r="H40" s="23"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="71" t="s">
         <v>1022</v>
       </c>
-      <c r="B41" s="76"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="0" t="s">
         <v>160</v>
       </c>
@@ -12917,14 +12895,14 @@
         <v>161</v>
       </c>
       <c r="H41" s="23"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B42" s="76"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="0" t="s">
         <v>162</v>
       </c>
@@ -12932,14 +12910,14 @@
         <v>163</v>
       </c>
       <c r="H42" s="23"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B43" s="76"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="0" t="s">
         <v>164</v>
       </c>
@@ -12947,42 +12925,42 @@
         <v>165</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B44" s="76"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="71" t="s">
         <v>1006</v>
       </c>
-      <c r="B45" s="76"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="0" t="s">
         <v>168</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B46" s="76"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="0" t="s">
         <v>170</v>
       </c>
@@ -12990,14 +12968,14 @@
         <v>171</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B47" s="76"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="0" t="s">
         <v>172</v>
       </c>
@@ -13005,14 +12983,14 @@
         <v>173</v>
       </c>
       <c r="H47" s="23"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B48" s="76"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="0" t="s">
         <v>174</v>
       </c>
@@ -13020,14 +12998,14 @@
         <v>175</v>
       </c>
       <c r="H48" s="23"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B49" s="76"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="0" t="s">
         <v>176</v>
       </c>
@@ -13035,14 +13013,14 @@
         <v>177</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="76"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="0" t="s">
         <v>178</v>
       </c>
@@ -13050,14 +13028,14 @@
         <v>179</v>
       </c>
       <c r="H50" s="23"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="76" t="s">
+      <c r="A51" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B51" s="76"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="0" t="s">
         <v>180</v>
       </c>
@@ -13065,14 +13043,14 @@
         <v>181</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B52" s="76"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="0" t="s">
         <v>182</v>
       </c>
@@ -13080,14 +13058,14 @@
         <v>183</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B53" s="76"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="0" t="s">
         <v>184</v>
       </c>
@@ -13095,14 +13073,14 @@
         <v>185</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B54" s="76"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="0" t="s">
         <v>186</v>
       </c>
@@ -13110,14 +13088,14 @@
         <v>187</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B55" s="76"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="0" t="s">
         <v>188</v>
       </c>
@@ -13125,14 +13103,14 @@
         <v>189</v>
       </c>
       <c r="H55" s="23"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B56" s="76"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="0" t="s">
         <v>190</v>
       </c>
@@ -13140,14 +13118,14 @@
         <v>191</v>
       </c>
       <c r="H56" s="23"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B57" s="76"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="0" t="s">
         <v>192</v>
       </c>
@@ -13155,14 +13133,14 @@
         <v>193</v>
       </c>
       <c r="H57" s="23"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B58" s="76"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="0" t="s">
         <v>194</v>
       </c>
@@ -13170,14 +13148,14 @@
         <v>195</v>
       </c>
       <c r="H58" s="23"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B59" s="76"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="0" t="s">
         <v>196</v>
       </c>
@@ -13185,14 +13163,14 @@
         <v>197</v>
       </c>
       <c r="H59" s="23"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B60" s="76"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="0" t="s">
         <v>198</v>
       </c>
@@ -13200,14 +13178,14 @@
         <v>199</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B61" s="76"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="0" t="s">
         <v>200</v>
       </c>
@@ -13215,14 +13193,14 @@
         <v>201</v>
       </c>
       <c r="H61" s="23"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B62" s="76"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="0" t="s">
         <v>202</v>
       </c>
@@ -13230,14 +13208,14 @@
         <v>203</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B63" s="76"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="0" t="s">
         <v>204</v>
       </c>
@@ -13245,14 +13223,14 @@
         <v>205</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B64" s="76"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="0" t="s">
         <v>206</v>
       </c>
@@ -13260,14 +13238,14 @@
         <v>207</v>
       </c>
       <c r="H64" s="23"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="76" t="s">
+      <c r="A65" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B65" s="76"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="0" t="s">
         <v>208</v>
       </c>
@@ -13275,14 +13253,14 @@
         <v>209</v>
       </c>
       <c r="H65" s="23"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B66" s="76"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="0" t="s">
         <v>210</v>
       </c>
@@ -13290,14 +13268,14 @@
         <v>211</v>
       </c>
       <c r="H66" s="23"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B67" s="76"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="0" t="s">
         <v>212</v>
       </c>
@@ -13305,14 +13283,14 @@
         <v>213</v>
       </c>
       <c r="H67" s="23"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="77"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B68" s="76"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="0" t="s">
         <v>214</v>
       </c>
@@ -13320,14 +13298,14 @@
         <v>215</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="76" t="s">
+      <c r="A69" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B69" s="76"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="0" t="s">
         <v>216</v>
       </c>
@@ -13335,14 +13313,14 @@
         <v>217</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="76" t="s">
+      <c r="A70" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B70" s="76"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="0" t="s">
         <v>218</v>
       </c>
@@ -13350,14 +13328,14 @@
         <v>219</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="76" t="s">
+      <c r="A71" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B71" s="76"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="0" t="s">
         <v>220</v>
       </c>
@@ -13365,14 +13343,14 @@
         <v>221</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B72" s="76"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="0" t="s">
         <v>222</v>
       </c>
@@ -13380,14 +13358,14 @@
         <v>223</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="76" t="s">
+      <c r="A73" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B73" s="76"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="0" t="s">
         <v>224</v>
       </c>
@@ -13395,14 +13373,14 @@
         <v>225</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="76" t="s">
+      <c r="A74" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B74" s="76"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="0" t="s">
         <v>226</v>
       </c>
@@ -13410,14 +13388,14 @@
         <v>227</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B75" s="76"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="0" t="s">
         <v>228</v>
       </c>
@@ -13425,14 +13403,14 @@
         <v>229</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="76" t="s">
+      <c r="A76" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B76" s="76"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="0" t="s">
         <v>230</v>
       </c>
@@ -13440,14 +13418,14 @@
         <v>231</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B77" s="76"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="0" t="s">
         <v>232</v>
       </c>
@@ -13455,14 +13433,14 @@
         <v>233</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B78" s="78"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="0" t="s">
         <v>234</v>
       </c>
@@ -13470,14 +13448,14 @@
         <v>235</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B79" s="76"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="0" t="s">
         <v>236</v>
       </c>
@@ -13485,14 +13463,14 @@
         <v>237</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B80" s="76"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="0" t="s">
         <v>238</v>
       </c>
@@ -13500,14 +13478,14 @@
         <v>239</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B81" s="76"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="0" t="s">
         <v>240</v>
       </c>
@@ -13515,14 +13493,14 @@
         <v>241</v>
       </c>
       <c r="H81" s="23"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="76" t="s">
+      <c r="A82" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B82" s="76"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="0" t="s">
         <v>242</v>
       </c>
@@ -13530,14 +13508,14 @@
         <v>243</v>
       </c>
       <c r="H82" s="23"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="76" t="s">
+      <c r="A83" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B83" s="76"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="0" t="s">
         <v>244</v>
       </c>
@@ -13545,14 +13523,14 @@
         <v>245</v>
       </c>
       <c r="H83" s="23"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="76" t="s">
+      <c r="A84" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B84" s="76"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="0" t="s">
         <v>246</v>
       </c>
@@ -13560,14 +13538,14 @@
         <v>247</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B85" s="76"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="0" t="s">
         <v>248</v>
       </c>
@@ -13575,14 +13553,14 @@
         <v>249</v>
       </c>
       <c r="H85" s="23"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="76" t="s">
+      <c r="A86" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B86" s="76"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="0" t="s">
         <v>250</v>
       </c>
@@ -13590,14 +13568,14 @@
         <v>251</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B87" s="76"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="0" t="s">
         <v>252</v>
       </c>
@@ -13605,14 +13583,14 @@
         <v>253</v>
       </c>
       <c r="H87" s="23"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B88" s="76"/>
+      <c r="B88" s="71"/>
       <c r="C88" s="0" t="s">
         <v>254</v>
       </c>
@@ -13620,14 +13598,14 @@
         <v>255</v>
       </c>
       <c r="H88" s="23"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B89" s="78"/>
+      <c r="B89" s="73"/>
       <c r="C89" s="0" t="s">
         <v>256</v>
       </c>
@@ -13635,14 +13613,14 @@
         <v>257</v>
       </c>
       <c r="H89" s="23"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="76" t="s">
+      <c r="A90" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B90" s="76"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="0" t="s">
         <v>258</v>
       </c>
@@ -13650,14 +13628,14 @@
         <v>259</v>
       </c>
       <c r="H90" s="23"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="76" t="s">
+      <c r="A91" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B91" s="76"/>
+      <c r="B91" s="71"/>
       <c r="C91" s="0" t="s">
         <v>260</v>
       </c>
@@ -13665,14 +13643,14 @@
         <v>261</v>
       </c>
       <c r="H91" s="23"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B92" s="76"/>
+      <c r="B92" s="71"/>
       <c r="C92" s="0" t="s">
         <v>262</v>
       </c>
@@ -13680,14 +13658,14 @@
         <v>263</v>
       </c>
       <c r="H92" s="23"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B93" s="76"/>
+      <c r="B93" s="71"/>
       <c r="C93" s="0" t="s">
         <v>264</v>
       </c>
@@ -13695,14 +13673,14 @@
         <v>265</v>
       </c>
       <c r="H93" s="23"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="76" t="s">
+      <c r="A94" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B94" s="76"/>
+      <c r="B94" s="71"/>
       <c r="C94" s="0" t="s">
         <v>266</v>
       </c>
@@ -13710,14 +13688,14 @@
         <v>267</v>
       </c>
       <c r="H94" s="23"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="76" t="s">
+      <c r="A95" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B95" s="76"/>
+      <c r="B95" s="71"/>
       <c r="C95" s="0" t="s">
         <v>268</v>
       </c>
@@ -13725,14 +13703,14 @@
         <v>269</v>
       </c>
       <c r="H95" s="23"/>
-      <c r="I95" s="77"/>
-      <c r="J95" s="77"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="76" t="s">
+      <c r="A96" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B96" s="76"/>
+      <c r="B96" s="71"/>
       <c r="C96" s="0" t="s">
         <v>270</v>
       </c>
@@ -13740,14 +13718,14 @@
         <v>271</v>
       </c>
       <c r="H96" s="23"/>
-      <c r="I96" s="77"/>
-      <c r="J96" s="77"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="76" t="s">
+      <c r="A97" s="71" t="s">
         <v>1006</v>
       </c>
-      <c r="B97" s="76"/>
+      <c r="B97" s="71"/>
       <c r="C97" s="0" t="s">
         <v>272</v>
       </c>
@@ -13755,14 +13733,14 @@
         <v>273</v>
       </c>
       <c r="H97" s="23"/>
-      <c r="I97" s="77"/>
-      <c r="J97" s="77"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="71" t="s">
         <v>1022</v>
       </c>
-      <c r="B98" s="76"/>
+      <c r="B98" s="71"/>
       <c r="C98" s="0" t="s">
         <v>274</v>
       </c>
@@ -13770,14 +13748,14 @@
         <v>275</v>
       </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="76" t="s">
+      <c r="A99" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B99" s="76"/>
+      <c r="B99" s="71"/>
       <c r="C99" s="0" t="s">
         <v>276</v>
       </c>
@@ -13785,14 +13763,14 @@
         <v>277</v>
       </c>
       <c r="H99" s="23"/>
-      <c r="I99" s="77"/>
-      <c r="J99" s="77"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="76" t="s">
+      <c r="A100" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B100" s="76"/>
+      <c r="B100" s="71"/>
       <c r="C100" s="0" t="s">
         <v>278</v>
       </c>
@@ -13800,14 +13778,14 @@
         <v>279</v>
       </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="76" t="s">
+      <c r="A101" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B101" s="76"/>
+      <c r="B101" s="71"/>
       <c r="C101" s="0" t="s">
         <v>280</v>
       </c>
@@ -13815,14 +13793,14 @@
         <v>281</v>
       </c>
       <c r="H101" s="23"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="76" t="s">
+      <c r="A102" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B102" s="76"/>
+      <c r="B102" s="71"/>
       <c r="C102" s="0" t="s">
         <v>282</v>
       </c>
@@ -13830,14 +13808,14 @@
         <v>283</v>
       </c>
       <c r="H102" s="23"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="76" t="s">
+      <c r="A103" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B103" s="76"/>
+      <c r="B103" s="71"/>
       <c r="C103" s="0" t="s">
         <v>284</v>
       </c>
@@ -13845,14 +13823,14 @@
         <v>285</v>
       </c>
       <c r="H103" s="23"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="76" t="s">
+      <c r="A104" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B104" s="76"/>
+      <c r="B104" s="71"/>
       <c r="C104" s="0" t="s">
         <v>286</v>
       </c>
@@ -13860,14 +13838,14 @@
         <v>287</v>
       </c>
       <c r="H104" s="23"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="76" t="s">
+      <c r="A105" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="76"/>
+      <c r="B105" s="71"/>
       <c r="C105" s="0" t="s">
         <v>288</v>
       </c>
@@ -13875,14 +13853,14 @@
         <v>289</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B106" s="76"/>
+      <c r="B106" s="71"/>
       <c r="C106" s="0" t="s">
         <v>290</v>
       </c>
@@ -13890,14 +13868,14 @@
         <v>291</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="76" t="s">
+      <c r="A107" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B107" s="76"/>
+      <c r="B107" s="71"/>
       <c r="C107" s="0" t="s">
         <v>292</v>
       </c>
@@ -13905,14 +13883,14 @@
         <v>293</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="76" t="s">
+      <c r="A108" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B108" s="76"/>
+      <c r="B108" s="71"/>
       <c r="C108" s="0" t="s">
         <v>294</v>
       </c>
@@ -13920,14 +13898,14 @@
         <v>295</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="76" t="s">
+      <c r="A109" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B109" s="76"/>
+      <c r="B109" s="71"/>
       <c r="C109" s="0" t="s">
         <v>296</v>
       </c>
@@ -13935,14 +13913,14 @@
         <v>297</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="76" t="s">
+      <c r="A110" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B110" s="76"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="0" t="s">
         <v>298</v>
       </c>
@@ -13950,14 +13928,14 @@
         <v>299</v>
       </c>
       <c r="H110" s="23"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="76" t="s">
+      <c r="A111" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B111" s="76"/>
+      <c r="B111" s="71"/>
       <c r="C111" s="0" t="s">
         <v>300</v>
       </c>
@@ -13965,14 +13943,14 @@
         <v>301</v>
       </c>
       <c r="H111" s="23"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B112" s="76"/>
+      <c r="B112" s="71"/>
       <c r="C112" s="0" t="s">
         <v>302</v>
       </c>
@@ -13980,14 +13958,14 @@
         <v>303</v>
       </c>
       <c r="H112" s="23"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="76" t="s">
+      <c r="A113" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B113" s="76"/>
+      <c r="B113" s="71"/>
       <c r="C113" s="0" t="s">
         <v>304</v>
       </c>
@@ -13995,14 +13973,14 @@
         <v>305</v>
       </c>
       <c r="H113" s="23"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B114" s="76"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="0" t="s">
         <v>306</v>
       </c>
@@ -14010,14 +13988,14 @@
         <v>307</v>
       </c>
       <c r="H114" s="23"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="72"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="76" t="s">
+      <c r="A115" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B115" s="76"/>
+      <c r="B115" s="71"/>
       <c r="C115" s="0" t="s">
         <v>308</v>
       </c>
@@ -14025,14 +14003,14 @@
         <v>309</v>
       </c>
       <c r="H115" s="23"/>
-      <c r="I115" s="77"/>
-      <c r="J115" s="77"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="76" t="s">
+      <c r="A116" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="B116" s="76"/>
+      <c r="B116" s="71"/>
       <c r="C116" s="0" t="s">
         <v>310</v>
       </c>
@@ -14040,14 +14018,14 @@
         <v>311</v>
       </c>
       <c r="H116" s="23"/>
-      <c r="I116" s="77"/>
-      <c r="J116" s="77"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="76" t="s">
+      <c r="A117" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B117" s="76"/>
+      <c r="B117" s="71"/>
       <c r="C117" s="0" t="s">
         <v>312</v>
       </c>
@@ -14055,14 +14033,14 @@
         <v>313</v>
       </c>
       <c r="H117" s="23"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="76" t="s">
+      <c r="A118" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B118" s="76"/>
+      <c r="B118" s="71"/>
       <c r="C118" s="0" t="s">
         <v>314</v>
       </c>
@@ -14070,14 +14048,14 @@
         <v>315</v>
       </c>
       <c r="H118" s="23"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="76" t="s">
+      <c r="A119" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B119" s="76"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="0" t="s">
         <v>316</v>
       </c>
@@ -14085,14 +14063,14 @@
         <v>317</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="77"/>
-      <c r="J119" s="77"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="76" t="s">
+      <c r="A120" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B120" s="76"/>
+      <c r="B120" s="71"/>
       <c r="C120" s="0" t="s">
         <v>318</v>
       </c>
@@ -14100,14 +14078,14 @@
         <v>319</v>
       </c>
       <c r="H120" s="23"/>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="76" t="s">
+      <c r="A121" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B121" s="76"/>
+      <c r="B121" s="71"/>
       <c r="C121" s="0" t="s">
         <v>320</v>
       </c>
@@ -14115,14 +14093,14 @@
         <v>321</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
+      <c r="I121" s="72"/>
+      <c r="J121" s="72"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B122" s="76"/>
+      <c r="B122" s="71"/>
       <c r="C122" s="0" t="s">
         <v>322</v>
       </c>
@@ -14130,14 +14108,14 @@
         <v>323</v>
       </c>
       <c r="H122" s="23"/>
-      <c r="I122" s="77"/>
-      <c r="J122" s="77"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B123" s="76"/>
+      <c r="B123" s="71"/>
       <c r="C123" s="0" t="s">
         <v>324</v>
       </c>
@@ -14145,14 +14123,14 @@
         <v>325</v>
       </c>
       <c r="H123" s="23"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="76" t="s">
+      <c r="A124" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B124" s="76"/>
+      <c r="B124" s="71"/>
       <c r="C124" s="0" t="s">
         <v>326</v>
       </c>
@@ -14160,14 +14138,14 @@
         <v>327</v>
       </c>
       <c r="H124" s="23"/>
-      <c r="I124" s="77"/>
-      <c r="J124" s="77"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="76" t="s">
+      <c r="A125" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B125" s="76"/>
+      <c r="B125" s="71"/>
       <c r="C125" s="0" t="s">
         <v>328</v>
       </c>
@@ -14175,14 +14153,14 @@
         <v>329</v>
       </c>
       <c r="H125" s="23"/>
-      <c r="I125" s="77"/>
-      <c r="J125" s="77"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="76" t="s">
+      <c r="A126" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B126" s="76"/>
+      <c r="B126" s="71"/>
       <c r="C126" s="0" t="s">
         <v>330</v>
       </c>
@@ -14190,14 +14168,14 @@
         <v>331</v>
       </c>
       <c r="H126" s="23"/>
-      <c r="I126" s="77"/>
-      <c r="J126" s="77"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="76" t="s">
+      <c r="A127" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B127" s="76"/>
+      <c r="B127" s="71"/>
       <c r="C127" s="0" t="s">
         <v>332</v>
       </c>
@@ -14205,14 +14183,14 @@
         <v>333</v>
       </c>
       <c r="H127" s="23"/>
-      <c r="I127" s="77"/>
-      <c r="J127" s="77"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="76" t="s">
+      <c r="A128" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B128" s="76"/>
+      <c r="B128" s="71"/>
       <c r="C128" s="0" t="s">
         <v>334</v>
       </c>
@@ -14220,14 +14198,14 @@
         <v>335</v>
       </c>
       <c r="H128" s="23"/>
-      <c r="I128" s="77"/>
-      <c r="J128" s="77"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="76" t="s">
+      <c r="A129" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B129" s="76"/>
+      <c r="B129" s="71"/>
       <c r="C129" s="0" t="s">
         <v>336</v>
       </c>
@@ -14235,14 +14213,14 @@
         <v>337</v>
       </c>
       <c r="H129" s="23"/>
-      <c r="I129" s="77"/>
-      <c r="J129" s="77"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="76" t="s">
+      <c r="A130" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B130" s="76"/>
+      <c r="B130" s="71"/>
       <c r="C130" s="0" t="s">
         <v>338</v>
       </c>
@@ -14250,14 +14228,14 @@
         <v>339</v>
       </c>
       <c r="H130" s="23"/>
-      <c r="I130" s="77"/>
-      <c r="J130" s="77"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="76" t="s">
+      <c r="A131" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B131" s="76"/>
+      <c r="B131" s="71"/>
       <c r="C131" s="0" t="s">
         <v>340</v>
       </c>
@@ -14265,14 +14243,14 @@
         <v>341</v>
       </c>
       <c r="H131" s="23"/>
-      <c r="I131" s="77"/>
-      <c r="J131" s="77"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="76" t="s">
+      <c r="A132" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B132" s="76"/>
+      <c r="B132" s="71"/>
       <c r="C132" s="0" t="s">
         <v>342</v>
       </c>
@@ -14280,14 +14258,14 @@
         <v>343</v>
       </c>
       <c r="H132" s="23"/>
-      <c r="I132" s="77"/>
-      <c r="J132" s="77"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="76" t="s">
+      <c r="A133" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B133" s="76"/>
+      <c r="B133" s="71"/>
       <c r="C133" s="0" t="s">
         <v>344</v>
       </c>
@@ -14295,14 +14273,14 @@
         <v>345</v>
       </c>
       <c r="H133" s="23"/>
-      <c r="I133" s="77"/>
-      <c r="J133" s="77"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="76" t="s">
+      <c r="A134" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B134" s="76"/>
+      <c r="B134" s="71"/>
       <c r="C134" s="0" t="s">
         <v>346</v>
       </c>
@@ -14310,14 +14288,14 @@
         <v>347</v>
       </c>
       <c r="H134" s="23"/>
-      <c r="I134" s="77"/>
-      <c r="J134" s="77"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="76" t="s">
+      <c r="A135" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B135" s="76"/>
+      <c r="B135" s="71"/>
       <c r="C135" s="0" t="s">
         <v>348</v>
       </c>
@@ -14325,14 +14303,14 @@
         <v>349</v>
       </c>
       <c r="H135" s="23"/>
-      <c r="I135" s="77"/>
-      <c r="J135" s="77"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="72"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="76" t="s">
+      <c r="A136" s="71" t="s">
         <v>1006</v>
       </c>
-      <c r="B136" s="76"/>
+      <c r="B136" s="71"/>
       <c r="C136" s="0" t="s">
         <v>350</v>
       </c>
@@ -14340,14 +14318,14 @@
         <v>351</v>
       </c>
       <c r="H136" s="23"/>
-      <c r="I136" s="77"/>
-      <c r="J136" s="77"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="76" t="s">
+      <c r="A137" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B137" s="76"/>
+      <c r="B137" s="71"/>
       <c r="C137" s="0" t="s">
         <v>352</v>
       </c>
@@ -14355,14 +14333,14 @@
         <v>353</v>
       </c>
       <c r="H137" s="23"/>
-      <c r="I137" s="77"/>
-      <c r="J137" s="77"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="76" t="s">
+      <c r="A138" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B138" s="76"/>
+      <c r="B138" s="71"/>
       <c r="C138" s="0" t="s">
         <v>354</v>
       </c>
@@ -14370,14 +14348,14 @@
         <v>355</v>
       </c>
       <c r="H138" s="23"/>
-      <c r="I138" s="77"/>
-      <c r="J138" s="77"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="76" t="s">
+      <c r="A139" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B139" s="76"/>
+      <c r="B139" s="71"/>
       <c r="C139" s="0" t="s">
         <v>356</v>
       </c>
@@ -14385,14 +14363,14 @@
         <v>357</v>
       </c>
       <c r="H139" s="23"/>
-      <c r="I139" s="77"/>
-      <c r="J139" s="77"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="76" t="s">
+      <c r="A140" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B140" s="76"/>
+      <c r="B140" s="71"/>
       <c r="C140" s="0" t="s">
         <v>358</v>
       </c>
@@ -14400,14 +14378,14 @@
         <v>359</v>
       </c>
       <c r="H140" s="23"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="76" t="s">
+      <c r="A141" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B141" s="76"/>
+      <c r="B141" s="71"/>
       <c r="C141" s="0" t="s">
         <v>360</v>
       </c>
@@ -14415,14 +14393,14 @@
         <v>361</v>
       </c>
       <c r="H141" s="23"/>
-      <c r="I141" s="77"/>
-      <c r="J141" s="77"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="76" t="s">
+      <c r="A142" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B142" s="76"/>
+      <c r="B142" s="71"/>
       <c r="C142" s="0" t="s">
         <v>362</v>
       </c>
@@ -14430,14 +14408,14 @@
         <v>363</v>
       </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="76" t="s">
+      <c r="A143" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B143" s="76"/>
+      <c r="B143" s="71"/>
       <c r="C143" s="0" t="s">
         <v>364</v>
       </c>
@@ -14445,14 +14423,14 @@
         <v>365</v>
       </c>
       <c r="H143" s="23"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="72"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="76" t="s">
+      <c r="A144" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B144" s="76"/>
+      <c r="B144" s="71"/>
       <c r="C144" s="0" t="s">
         <v>366</v>
       </c>
@@ -14460,14 +14438,14 @@
         <v>367</v>
       </c>
       <c r="H144" s="23"/>
-      <c r="I144" s="77"/>
-      <c r="J144" s="77"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="76" t="s">
+      <c r="A145" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B145" s="76"/>
+      <c r="B145" s="71"/>
       <c r="C145" s="0" t="s">
         <v>368</v>
       </c>
@@ -14475,14 +14453,14 @@
         <v>369</v>
       </c>
       <c r="H145" s="23"/>
-      <c r="I145" s="77"/>
-      <c r="J145" s="77"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="76" t="s">
+      <c r="A146" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B146" s="76"/>
+      <c r="B146" s="71"/>
       <c r="C146" s="0" t="s">
         <v>370</v>
       </c>
@@ -14490,14 +14468,14 @@
         <v>371</v>
       </c>
       <c r="H146" s="23"/>
-      <c r="I146" s="77"/>
-      <c r="J146" s="77"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="76" t="s">
+      <c r="A147" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B147" s="76"/>
+      <c r="B147" s="71"/>
       <c r="C147" s="0" t="s">
         <v>372</v>
       </c>
@@ -14505,14 +14483,14 @@
         <v>373</v>
       </c>
       <c r="H147" s="23"/>
-      <c r="I147" s="77"/>
-      <c r="J147" s="77"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="76" t="s">
+      <c r="A148" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B148" s="76"/>
+      <c r="B148" s="71"/>
       <c r="C148" s="0" t="s">
         <v>374</v>
       </c>
@@ -14520,14 +14498,14 @@
         <v>375</v>
       </c>
       <c r="H148" s="23"/>
-      <c r="I148" s="77"/>
-      <c r="J148" s="77"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="76" t="s">
+      <c r="A149" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B149" s="76"/>
+      <c r="B149" s="71"/>
       <c r="C149" s="0" t="s">
         <v>376</v>
       </c>
@@ -14535,14 +14513,14 @@
         <v>377</v>
       </c>
       <c r="H149" s="23"/>
-      <c r="I149" s="77"/>
-      <c r="J149" s="77"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="72"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="76" t="s">
+      <c r="A150" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B150" s="76"/>
+      <c r="B150" s="71"/>
       <c r="C150" s="0" t="s">
         <v>378</v>
       </c>
@@ -14550,14 +14528,14 @@
         <v>379</v>
       </c>
       <c r="H150" s="23"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="77"/>
+      <c r="I150" s="72"/>
+      <c r="J150" s="72"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="76" t="s">
+      <c r="A151" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B151" s="76"/>
+      <c r="B151" s="71"/>
       <c r="C151" s="0" t="s">
         <v>380</v>
       </c>
@@ -14565,14 +14543,14 @@
         <v>381</v>
       </c>
       <c r="H151" s="23"/>
-      <c r="I151" s="77"/>
-      <c r="J151" s="77"/>
+      <c r="I151" s="72"/>
+      <c r="J151" s="72"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="76" t="s">
+      <c r="A152" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B152" s="76"/>
+      <c r="B152" s="71"/>
       <c r="C152" s="0" t="s">
         <v>382</v>
       </c>
@@ -14580,14 +14558,14 @@
         <v>383</v>
       </c>
       <c r="H152" s="23"/>
-      <c r="I152" s="77"/>
-      <c r="J152" s="77"/>
+      <c r="I152" s="72"/>
+      <c r="J152" s="72"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="76" t="s">
+      <c r="A153" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B153" s="76"/>
+      <c r="B153" s="71"/>
       <c r="C153" s="0" t="s">
         <v>384</v>
       </c>
@@ -14595,14 +14573,14 @@
         <v>385</v>
       </c>
       <c r="H153" s="23"/>
-      <c r="I153" s="77"/>
-      <c r="J153" s="77"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="72"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="76" t="s">
+      <c r="A154" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B154" s="76"/>
+      <c r="B154" s="71"/>
       <c r="C154" s="0" t="s">
         <v>386</v>
       </c>
@@ -14610,14 +14588,14 @@
         <v>387</v>
       </c>
       <c r="H154" s="23"/>
-      <c r="I154" s="77"/>
-      <c r="J154" s="77"/>
+      <c r="I154" s="72"/>
+      <c r="J154" s="72"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="76" t="s">
+      <c r="A155" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B155" s="76"/>
+      <c r="B155" s="71"/>
       <c r="C155" s="0" t="s">
         <v>388</v>
       </c>
@@ -14625,14 +14603,14 @@
         <v>389</v>
       </c>
       <c r="H155" s="23"/>
-      <c r="I155" s="77"/>
-      <c r="J155" s="77"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="72"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="76" t="s">
+      <c r="A156" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B156" s="76"/>
+      <c r="B156" s="71"/>
       <c r="C156" s="0" t="s">
         <v>390</v>
       </c>
@@ -14640,14 +14618,14 @@
         <v>391</v>
       </c>
       <c r="H156" s="23"/>
-      <c r="I156" s="77"/>
-      <c r="J156" s="77"/>
+      <c r="I156" s="72"/>
+      <c r="J156" s="72"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="76" t="s">
+      <c r="A157" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B157" s="76"/>
+      <c r="B157" s="71"/>
       <c r="C157" s="0" t="s">
         <v>392</v>
       </c>
@@ -14655,14 +14633,14 @@
         <v>393</v>
       </c>
       <c r="H157" s="23"/>
-      <c r="I157" s="77"/>
-      <c r="J157" s="77"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="72"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="76" t="s">
+      <c r="A158" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B158" s="76"/>
+      <c r="B158" s="71"/>
       <c r="C158" s="0" t="s">
         <v>394</v>
       </c>
@@ -14670,14 +14648,14 @@
         <v>395</v>
       </c>
       <c r="H158" s="23"/>
-      <c r="I158" s="77"/>
-      <c r="J158" s="77"/>
+      <c r="I158" s="72"/>
+      <c r="J158" s="72"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="76" t="s">
+      <c r="A159" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B159" s="76"/>
+      <c r="B159" s="71"/>
       <c r="C159" s="0" t="s">
         <v>396</v>
       </c>
@@ -14685,14 +14663,14 @@
         <v>397</v>
       </c>
       <c r="H159" s="23"/>
-      <c r="I159" s="77"/>
-      <c r="J159" s="77"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="72"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="76" t="s">
+      <c r="A160" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B160" s="76"/>
+      <c r="B160" s="71"/>
       <c r="C160" s="0" t="s">
         <v>398</v>
       </c>
@@ -14700,14 +14678,14 @@
         <v>399</v>
       </c>
       <c r="H160" s="23"/>
-      <c r="I160" s="77"/>
-      <c r="J160" s="77"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="72"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="76" t="s">
+      <c r="A161" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B161" s="76"/>
+      <c r="B161" s="71"/>
       <c r="C161" s="0" t="s">
         <v>400</v>
       </c>
@@ -14715,14 +14693,14 @@
         <v>401</v>
       </c>
       <c r="H161" s="23"/>
-      <c r="I161" s="77"/>
-      <c r="J161" s="77"/>
+      <c r="I161" s="72"/>
+      <c r="J161" s="72"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="76" t="s">
+      <c r="A162" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B162" s="76"/>
+      <c r="B162" s="71"/>
       <c r="C162" s="0" t="s">
         <v>402</v>
       </c>
@@ -14730,14 +14708,14 @@
         <v>403</v>
       </c>
       <c r="H162" s="23"/>
-      <c r="I162" s="77"/>
-      <c r="J162" s="77"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="76" t="s">
+      <c r="A163" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B163" s="76"/>
+      <c r="B163" s="71"/>
       <c r="C163" s="0" t="s">
         <v>404</v>
       </c>
@@ -14745,14 +14723,14 @@
         <v>405</v>
       </c>
       <c r="H163" s="23"/>
-      <c r="I163" s="77"/>
-      <c r="J163" s="77"/>
+      <c r="I163" s="72"/>
+      <c r="J163" s="72"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="76" t="s">
+      <c r="A164" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B164" s="76"/>
+      <c r="B164" s="71"/>
       <c r="C164" s="0" t="s">
         <v>406</v>
       </c>
@@ -14760,14 +14738,14 @@
         <v>407</v>
       </c>
       <c r="H164" s="23"/>
-      <c r="I164" s="77"/>
-      <c r="J164" s="77"/>
+      <c r="I164" s="72"/>
+      <c r="J164" s="72"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="76" t="s">
+      <c r="A165" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B165" s="76"/>
+      <c r="B165" s="71"/>
       <c r="C165" s="0" t="s">
         <v>408</v>
       </c>
@@ -14775,14 +14753,14 @@
         <v>409</v>
       </c>
       <c r="H165" s="23"/>
-      <c r="I165" s="77"/>
-      <c r="J165" s="77"/>
+      <c r="I165" s="72"/>
+      <c r="J165" s="72"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="76" t="s">
+      <c r="A166" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B166" s="76"/>
+      <c r="B166" s="71"/>
       <c r="C166" s="0" t="s">
         <v>410</v>
       </c>
@@ -14790,14 +14768,14 @@
         <v>411</v>
       </c>
       <c r="H166" s="23"/>
-      <c r="I166" s="77"/>
-      <c r="J166" s="77"/>
+      <c r="I166" s="72"/>
+      <c r="J166" s="72"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="76" t="s">
+      <c r="A167" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B167" s="76"/>
+      <c r="B167" s="71"/>
       <c r="C167" s="0" t="s">
         <v>412</v>
       </c>
@@ -14805,14 +14783,14 @@
         <v>413</v>
       </c>
       <c r="H167" s="23"/>
-      <c r="I167" s="77"/>
-      <c r="J167" s="77"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="72"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="76" t="s">
+      <c r="A168" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B168" s="76"/>
+      <c r="B168" s="71"/>
       <c r="C168" s="0" t="s">
         <v>414</v>
       </c>
@@ -14820,14 +14798,14 @@
         <v>415</v>
       </c>
       <c r="H168" s="23"/>
-      <c r="I168" s="77"/>
-      <c r="J168" s="77"/>
+      <c r="I168" s="72"/>
+      <c r="J168" s="72"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="76" t="s">
+      <c r="A169" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B169" s="76"/>
+      <c r="B169" s="71"/>
       <c r="C169" s="0" t="s">
         <v>416</v>
       </c>
@@ -14835,14 +14813,14 @@
         <v>417</v>
       </c>
       <c r="H169" s="23"/>
-      <c r="I169" s="77"/>
-      <c r="J169" s="77"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="76" t="s">
+      <c r="A170" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B170" s="76"/>
+      <c r="B170" s="71"/>
       <c r="C170" s="0" t="s">
         <v>418</v>
       </c>
@@ -14850,14 +14828,14 @@
         <v>419</v>
       </c>
       <c r="H170" s="23"/>
-      <c r="I170" s="77"/>
-      <c r="J170" s="77"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="72"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="76" t="s">
+      <c r="A171" s="71" t="s">
         <v>1022</v>
       </c>
-      <c r="B171" s="76"/>
+      <c r="B171" s="71"/>
       <c r="C171" s="0" t="s">
         <v>420</v>
       </c>
@@ -14865,14 +14843,14 @@
         <v>421</v>
       </c>
       <c r="H171" s="23"/>
-      <c r="I171" s="77"/>
-      <c r="J171" s="77"/>
+      <c r="I171" s="72"/>
+      <c r="J171" s="72"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="76" t="s">
+      <c r="A172" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B172" s="76"/>
+      <c r="B172" s="71"/>
       <c r="C172" s="0" t="s">
         <v>422</v>
       </c>
@@ -14880,14 +14858,14 @@
         <v>423</v>
       </c>
       <c r="H172" s="23"/>
-      <c r="I172" s="77"/>
-      <c r="J172" s="77"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B173" s="76"/>
+      <c r="B173" s="71"/>
       <c r="C173" s="0" t="s">
         <v>424</v>
       </c>
@@ -14895,14 +14873,14 @@
         <v>425</v>
       </c>
       <c r="H173" s="23"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
+      <c r="I173" s="72"/>
+      <c r="J173" s="72"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="76" t="s">
+      <c r="A174" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B174" s="76"/>
+      <c r="B174" s="71"/>
       <c r="C174" s="0" t="s">
         <v>426</v>
       </c>
@@ -14910,14 +14888,14 @@
         <v>427</v>
       </c>
       <c r="H174" s="23"/>
-      <c r="I174" s="77"/>
-      <c r="J174" s="77"/>
+      <c r="I174" s="72"/>
+      <c r="J174" s="72"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="76" t="s">
+      <c r="A175" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B175" s="76"/>
+      <c r="B175" s="71"/>
       <c r="C175" s="0" t="s">
         <v>428</v>
       </c>
@@ -14925,14 +14903,14 @@
         <v>429</v>
       </c>
       <c r="H175" s="23"/>
-      <c r="I175" s="77"/>
-      <c r="J175" s="77"/>
+      <c r="I175" s="72"/>
+      <c r="J175" s="72"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="76" t="s">
+      <c r="A176" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B176" s="76"/>
+      <c r="B176" s="71"/>
       <c r="C176" s="0" t="s">
         <v>430</v>
       </c>
@@ -14940,14 +14918,14 @@
         <v>431</v>
       </c>
       <c r="H176" s="23"/>
-      <c r="I176" s="77"/>
-      <c r="J176" s="77"/>
+      <c r="I176" s="72"/>
+      <c r="J176" s="72"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="76" t="s">
+      <c r="A177" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B177" s="76"/>
+      <c r="B177" s="71"/>
       <c r="C177" s="0" t="s">
         <v>432</v>
       </c>
@@ -14955,14 +14933,14 @@
         <v>433</v>
       </c>
       <c r="H177" s="23"/>
-      <c r="I177" s="77"/>
-      <c r="J177" s="77"/>
+      <c r="I177" s="72"/>
+      <c r="J177" s="72"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="76" t="s">
+      <c r="A178" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B178" s="76"/>
+      <c r="B178" s="71"/>
       <c r="C178" s="0" t="s">
         <v>434</v>
       </c>
@@ -14970,14 +14948,14 @@
         <v>435</v>
       </c>
       <c r="H178" s="23"/>
-      <c r="I178" s="77"/>
-      <c r="J178" s="77"/>
+      <c r="I178" s="72"/>
+      <c r="J178" s="72"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="76" t="s">
+      <c r="A179" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B179" s="76"/>
+      <c r="B179" s="71"/>
       <c r="C179" s="0" t="s">
         <v>436</v>
       </c>
@@ -14985,14 +14963,14 @@
         <v>437</v>
       </c>
       <c r="H179" s="23"/>
-      <c r="I179" s="77"/>
-      <c r="J179" s="77"/>
+      <c r="I179" s="72"/>
+      <c r="J179" s="72"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="76" t="s">
+      <c r="A180" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B180" s="76"/>
+      <c r="B180" s="71"/>
       <c r="C180" s="0" t="s">
         <v>438</v>
       </c>
@@ -15000,14 +14978,14 @@
         <v>439</v>
       </c>
       <c r="H180" s="23"/>
-      <c r="I180" s="77"/>
-      <c r="J180" s="77"/>
+      <c r="I180" s="72"/>
+      <c r="J180" s="72"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="76" t="s">
+      <c r="A181" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B181" s="76"/>
+      <c r="B181" s="71"/>
       <c r="C181" s="0" t="s">
         <v>440</v>
       </c>
@@ -15015,14 +14993,14 @@
         <v>441</v>
       </c>
       <c r="H181" s="23"/>
-      <c r="I181" s="77"/>
-      <c r="J181" s="77"/>
+      <c r="I181" s="72"/>
+      <c r="J181" s="72"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="76" t="s">
+      <c r="A182" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B182" s="76"/>
+      <c r="B182" s="71"/>
       <c r="C182" s="0" t="s">
         <v>442</v>
       </c>
@@ -15030,14 +15008,14 @@
         <v>443</v>
       </c>
       <c r="H182" s="23"/>
-      <c r="I182" s="77"/>
-      <c r="J182" s="77"/>
+      <c r="I182" s="72"/>
+      <c r="J182" s="72"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="76" t="s">
+      <c r="A183" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B183" s="76"/>
+      <c r="B183" s="71"/>
       <c r="C183" s="0" t="s">
         <v>444</v>
       </c>
@@ -15045,14 +15023,14 @@
         <v>445</v>
       </c>
       <c r="H183" s="23"/>
-      <c r="I183" s="77"/>
-      <c r="J183" s="77"/>
+      <c r="I183" s="72"/>
+      <c r="J183" s="72"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="76" t="s">
+      <c r="A184" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B184" s="76"/>
+      <c r="B184" s="71"/>
       <c r="C184" s="0" t="s">
         <v>446</v>
       </c>
@@ -15060,14 +15038,14 @@
         <v>447</v>
       </c>
       <c r="H184" s="23"/>
-      <c r="I184" s="77"/>
-      <c r="J184" s="77"/>
+      <c r="I184" s="72"/>
+      <c r="J184" s="72"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="76" t="s">
+      <c r="A185" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B185" s="76"/>
+      <c r="B185" s="71"/>
       <c r="C185" s="0" t="s">
         <v>448</v>
       </c>
@@ -15075,14 +15053,14 @@
         <v>449</v>
       </c>
       <c r="H185" s="23"/>
-      <c r="I185" s="77"/>
-      <c r="J185" s="77"/>
+      <c r="I185" s="72"/>
+      <c r="J185" s="72"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="76" t="s">
+      <c r="A186" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B186" s="76"/>
+      <c r="B186" s="71"/>
       <c r="C186" s="0" t="s">
         <v>450</v>
       </c>
@@ -15090,14 +15068,14 @@
         <v>451</v>
       </c>
       <c r="H186" s="23"/>
-      <c r="I186" s="77"/>
-      <c r="J186" s="77"/>
+      <c r="I186" s="72"/>
+      <c r="J186" s="72"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="76" t="s">
+      <c r="A187" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B187" s="76"/>
+      <c r="B187" s="71"/>
       <c r="C187" s="0" t="s">
         <v>452</v>
       </c>
@@ -15105,14 +15083,14 @@
         <v>453</v>
       </c>
       <c r="H187" s="23"/>
-      <c r="I187" s="77"/>
-      <c r="J187" s="77"/>
+      <c r="I187" s="72"/>
+      <c r="J187" s="72"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="76" t="s">
+      <c r="A188" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B188" s="76"/>
+      <c r="B188" s="71"/>
       <c r="C188" s="0" t="s">
         <v>454</v>
       </c>
@@ -15120,14 +15098,14 @@
         <v>455</v>
       </c>
       <c r="H188" s="23"/>
-      <c r="I188" s="77"/>
-      <c r="J188" s="77"/>
+      <c r="I188" s="72"/>
+      <c r="J188" s="72"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="76" t="s">
+      <c r="A189" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B189" s="76"/>
+      <c r="B189" s="71"/>
       <c r="C189" s="0" t="s">
         <v>456</v>
       </c>
@@ -15135,14 +15113,14 @@
         <v>457</v>
       </c>
       <c r="H189" s="23"/>
-      <c r="I189" s="77"/>
-      <c r="J189" s="77"/>
+      <c r="I189" s="72"/>
+      <c r="J189" s="72"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="76" t="s">
+      <c r="A190" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B190" s="76"/>
+      <c r="B190" s="71"/>
       <c r="C190" s="0" t="s">
         <v>458</v>
       </c>
@@ -15150,14 +15128,14 @@
         <v>459</v>
       </c>
       <c r="H190" s="23"/>
-      <c r="I190" s="77"/>
-      <c r="J190" s="77"/>
+      <c r="I190" s="72"/>
+      <c r="J190" s="72"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="76" t="s">
+      <c r="A191" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B191" s="76"/>
+      <c r="B191" s="71"/>
       <c r="C191" s="0" t="s">
         <v>460</v>
       </c>
@@ -15165,14 +15143,14 @@
         <v>461</v>
       </c>
       <c r="H191" s="23"/>
-      <c r="I191" s="77"/>
-      <c r="J191" s="77"/>
+      <c r="I191" s="72"/>
+      <c r="J191" s="72"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="76" t="s">
+      <c r="A192" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B192" s="76"/>
+      <c r="B192" s="71"/>
       <c r="C192" s="0" t="s">
         <v>462</v>
       </c>
@@ -15180,14 +15158,14 @@
         <v>463</v>
       </c>
       <c r="H192" s="23"/>
-      <c r="I192" s="77"/>
-      <c r="J192" s="77"/>
+      <c r="I192" s="72"/>
+      <c r="J192" s="72"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="76" t="s">
+      <c r="A193" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B193" s="76"/>
+      <c r="B193" s="71"/>
       <c r="C193" s="0" t="s">
         <v>464</v>
       </c>
@@ -15195,14 +15173,14 @@
         <v>465</v>
       </c>
       <c r="H193" s="23"/>
-      <c r="I193" s="77"/>
-      <c r="J193" s="77"/>
+      <c r="I193" s="72"/>
+      <c r="J193" s="72"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="76" t="s">
+      <c r="A194" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B194" s="76"/>
+      <c r="B194" s="71"/>
       <c r="C194" s="0" t="s">
         <v>466</v>
       </c>
@@ -15210,14 +15188,14 @@
         <v>467</v>
       </c>
       <c r="H194" s="23"/>
-      <c r="I194" s="77"/>
-      <c r="J194" s="77"/>
+      <c r="I194" s="72"/>
+      <c r="J194" s="72"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="76" t="s">
+      <c r="A195" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B195" s="76"/>
+      <c r="B195" s="71"/>
       <c r="C195" s="0" t="s">
         <v>468</v>
       </c>
@@ -15225,14 +15203,14 @@
         <v>469</v>
       </c>
       <c r="H195" s="23"/>
-      <c r="I195" s="77"/>
-      <c r="J195" s="77"/>
+      <c r="I195" s="72"/>
+      <c r="J195" s="72"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="76" t="s">
+      <c r="A196" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B196" s="76"/>
+      <c r="B196" s="71"/>
       <c r="C196" s="0" t="s">
         <v>470</v>
       </c>
@@ -15240,14 +15218,14 @@
         <v>471</v>
       </c>
       <c r="H196" s="23"/>
-      <c r="I196" s="77"/>
-      <c r="J196" s="77"/>
+      <c r="I196" s="72"/>
+      <c r="J196" s="72"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="76" t="s">
+      <c r="A197" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B197" s="76"/>
+      <c r="B197" s="71"/>
       <c r="C197" s="0" t="s">
         <v>472</v>
       </c>
@@ -15255,14 +15233,14 @@
         <v>473</v>
       </c>
       <c r="H197" s="23"/>
-      <c r="I197" s="77"/>
-      <c r="J197" s="77"/>
+      <c r="I197" s="72"/>
+      <c r="J197" s="72"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="76" t="s">
+      <c r="A198" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B198" s="76"/>
+      <c r="B198" s="71"/>
       <c r="C198" s="0" t="s">
         <v>474</v>
       </c>
@@ -15270,14 +15248,14 @@
         <v>475</v>
       </c>
       <c r="H198" s="23"/>
-      <c r="I198" s="77"/>
-      <c r="J198" s="77"/>
+      <c r="I198" s="72"/>
+      <c r="J198" s="72"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="76" t="s">
+      <c r="A199" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B199" s="76"/>
+      <c r="B199" s="71"/>
       <c r="C199" s="0" t="s">
         <v>476</v>
       </c>
@@ -15285,14 +15263,14 @@
         <v>477</v>
       </c>
       <c r="H199" s="23"/>
-      <c r="I199" s="77"/>
-      <c r="J199" s="77"/>
+      <c r="I199" s="72"/>
+      <c r="J199" s="72"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="76" t="s">
+      <c r="A200" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B200" s="76"/>
+      <c r="B200" s="71"/>
       <c r="C200" s="0" t="s">
         <v>478</v>
       </c>
@@ -15300,14 +15278,14 @@
         <v>479</v>
       </c>
       <c r="H200" s="23"/>
-      <c r="I200" s="77"/>
-      <c r="J200" s="77"/>
+      <c r="I200" s="72"/>
+      <c r="J200" s="72"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="76" t="s">
+      <c r="A201" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B201" s="76"/>
+      <c r="B201" s="71"/>
       <c r="C201" s="0" t="s">
         <v>480</v>
       </c>
@@ -15315,14 +15293,14 @@
         <v>481</v>
       </c>
       <c r="H201" s="23"/>
-      <c r="I201" s="77"/>
-      <c r="J201" s="77"/>
+      <c r="I201" s="72"/>
+      <c r="J201" s="72"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="76" t="s">
+      <c r="A202" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B202" s="76"/>
+      <c r="B202" s="71"/>
       <c r="C202" s="0" t="s">
         <v>482</v>
       </c>
@@ -15330,14 +15308,14 @@
         <v>483</v>
       </c>
       <c r="H202" s="23"/>
-      <c r="I202" s="77"/>
-      <c r="J202" s="77"/>
+      <c r="I202" s="72"/>
+      <c r="J202" s="72"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="76" t="s">
+      <c r="A203" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B203" s="76"/>
+      <c r="B203" s="71"/>
       <c r="C203" s="0" t="s">
         <v>484</v>
       </c>
@@ -15345,14 +15323,14 @@
         <v>485</v>
       </c>
       <c r="H203" s="23"/>
-      <c r="I203" s="77"/>
-      <c r="J203" s="77"/>
+      <c r="I203" s="72"/>
+      <c r="J203" s="72"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="76" t="s">
+      <c r="A204" s="71" t="s">
         <v>1022</v>
       </c>
-      <c r="B204" s="76"/>
+      <c r="B204" s="71"/>
       <c r="C204" s="0" t="s">
         <v>486</v>
       </c>
@@ -15360,14 +15338,14 @@
         <v>487</v>
       </c>
       <c r="H204" s="23"/>
-      <c r="I204" s="77"/>
-      <c r="J204" s="77"/>
+      <c r="I204" s="72"/>
+      <c r="J204" s="72"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="76" t="s">
+      <c r="A205" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B205" s="76"/>
+      <c r="B205" s="71"/>
       <c r="C205" s="0" t="s">
         <v>488</v>
       </c>
@@ -15375,14 +15353,14 @@
         <v>489</v>
       </c>
       <c r="H205" s="23"/>
-      <c r="I205" s="77"/>
-      <c r="J205" s="77"/>
+      <c r="I205" s="72"/>
+      <c r="J205" s="72"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="76" t="s">
+      <c r="A206" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B206" s="76"/>
+      <c r="B206" s="71"/>
       <c r="C206" s="0" t="s">
         <v>490</v>
       </c>
@@ -15390,14 +15368,14 @@
         <v>491</v>
       </c>
       <c r="H206" s="23"/>
-      <c r="I206" s="77"/>
-      <c r="J206" s="77"/>
+      <c r="I206" s="72"/>
+      <c r="J206" s="72"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="76" t="s">
+      <c r="A207" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B207" s="76"/>
+      <c r="B207" s="71"/>
       <c r="C207" s="0" t="s">
         <v>492</v>
       </c>
@@ -15405,14 +15383,14 @@
         <v>493</v>
       </c>
       <c r="H207" s="23"/>
-      <c r="I207" s="77"/>
-      <c r="J207" s="77"/>
+      <c r="I207" s="72"/>
+      <c r="J207" s="72"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="76" t="s">
+      <c r="A208" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B208" s="76"/>
+      <c r="B208" s="71"/>
       <c r="C208" s="0" t="s">
         <v>494</v>
       </c>
@@ -15420,14 +15398,14 @@
         <v>495</v>
       </c>
       <c r="H208" s="23"/>
-      <c r="I208" s="77"/>
-      <c r="J208" s="77"/>
+      <c r="I208" s="72"/>
+      <c r="J208" s="72"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="76" t="s">
+      <c r="A209" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B209" s="76"/>
+      <c r="B209" s="71"/>
       <c r="C209" s="0" t="s">
         <v>496</v>
       </c>
@@ -15435,14 +15413,14 @@
         <v>497</v>
       </c>
       <c r="H209" s="23"/>
-      <c r="I209" s="77"/>
-      <c r="J209" s="77"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="72"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="76" t="s">
+      <c r="A210" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B210" s="76"/>
+      <c r="B210" s="71"/>
       <c r="C210" s="0" t="s">
         <v>498</v>
       </c>
@@ -15450,14 +15428,14 @@
         <v>499</v>
       </c>
       <c r="H210" s="23"/>
-      <c r="I210" s="77"/>
-      <c r="J210" s="77"/>
+      <c r="I210" s="72"/>
+      <c r="J210" s="72"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="76" t="s">
+      <c r="A211" s="71" t="s">
         <v>1008</v>
       </c>
-      <c r="B211" s="76"/>
+      <c r="B211" s="71"/>
       <c r="C211" s="0" t="s">
         <v>500</v>
       </c>
@@ -15465,14 +15443,14 @@
         <v>501</v>
       </c>
       <c r="H211" s="23"/>
-      <c r="I211" s="77"/>
-      <c r="J211" s="77"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="76" t="s">
+      <c r="A212" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B212" s="76"/>
+      <c r="B212" s="71"/>
       <c r="C212" s="0" t="s">
         <v>502</v>
       </c>
@@ -15480,14 +15458,14 @@
         <v>503</v>
       </c>
       <c r="H212" s="23"/>
-      <c r="I212" s="77"/>
-      <c r="J212" s="77"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="72"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="76" t="s">
+      <c r="A213" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B213" s="76"/>
+      <c r="B213" s="71"/>
       <c r="C213" s="0" t="s">
         <v>504</v>
       </c>
@@ -15495,14 +15473,14 @@
         <v>505</v>
       </c>
       <c r="H213" s="23"/>
-      <c r="I213" s="77"/>
-      <c r="J213" s="77"/>
+      <c r="I213" s="72"/>
+      <c r="J213" s="72"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="76" t="s">
+      <c r="A214" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B214" s="76"/>
+      <c r="B214" s="71"/>
       <c r="C214" s="0" t="s">
         <v>506</v>
       </c>
@@ -15510,14 +15488,14 @@
         <v>507</v>
       </c>
       <c r="H214" s="23"/>
-      <c r="I214" s="77"/>
-      <c r="J214" s="77"/>
+      <c r="I214" s="72"/>
+      <c r="J214" s="72"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="76" t="s">
+      <c r="A215" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B215" s="76"/>
+      <c r="B215" s="71"/>
       <c r="C215" s="0" t="s">
         <v>508</v>
       </c>
@@ -15525,14 +15503,14 @@
         <v>509</v>
       </c>
       <c r="H215" s="23"/>
-      <c r="I215" s="77"/>
-      <c r="J215" s="77"/>
+      <c r="I215" s="72"/>
+      <c r="J215" s="72"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="76" t="s">
+      <c r="A216" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B216" s="76"/>
+      <c r="B216" s="71"/>
       <c r="C216" s="0" t="s">
         <v>510</v>
       </c>
@@ -15540,14 +15518,14 @@
         <v>511</v>
       </c>
       <c r="H216" s="23"/>
-      <c r="I216" s="77"/>
-      <c r="J216" s="77"/>
+      <c r="I216" s="72"/>
+      <c r="J216" s="72"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="76" t="s">
+      <c r="A217" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B217" s="76"/>
+      <c r="B217" s="71"/>
       <c r="C217" s="0" t="s">
         <v>512</v>
       </c>
@@ -15555,14 +15533,14 @@
         <v>513</v>
       </c>
       <c r="H217" s="23"/>
-      <c r="I217" s="77"/>
-      <c r="J217" s="77"/>
+      <c r="I217" s="72"/>
+      <c r="J217" s="72"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="76" t="s">
+      <c r="A218" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B218" s="76"/>
+      <c r="B218" s="71"/>
       <c r="C218" s="0" t="s">
         <v>514</v>
       </c>
@@ -15570,14 +15548,14 @@
         <v>515</v>
       </c>
       <c r="H218" s="23"/>
-      <c r="I218" s="77"/>
-      <c r="J218" s="77"/>
+      <c r="I218" s="72"/>
+      <c r="J218" s="72"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="76" t="s">
+      <c r="A219" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B219" s="76"/>
+      <c r="B219" s="71"/>
       <c r="C219" s="0" t="s">
         <v>516</v>
       </c>
@@ -15585,14 +15563,14 @@
         <v>517</v>
       </c>
       <c r="H219" s="23"/>
-      <c r="I219" s="77"/>
-      <c r="J219" s="77"/>
+      <c r="I219" s="72"/>
+      <c r="J219" s="72"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="76" t="s">
+      <c r="A220" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B220" s="76"/>
+      <c r="B220" s="71"/>
       <c r="C220" s="0" t="s">
         <v>518</v>
       </c>
@@ -15600,14 +15578,14 @@
         <v>519</v>
       </c>
       <c r="H220" s="23"/>
-      <c r="I220" s="77"/>
-      <c r="J220" s="77"/>
+      <c r="I220" s="72"/>
+      <c r="J220" s="72"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="76" t="s">
+      <c r="A221" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B221" s="76"/>
+      <c r="B221" s="71"/>
       <c r="C221" s="0" t="s">
         <v>520</v>
       </c>
@@ -15615,14 +15593,14 @@
         <v>521</v>
       </c>
       <c r="H221" s="23"/>
-      <c r="I221" s="77"/>
-      <c r="J221" s="77"/>
+      <c r="I221" s="72"/>
+      <c r="J221" s="72"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="76" t="s">
+      <c r="A222" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B222" s="76"/>
+      <c r="B222" s="71"/>
       <c r="C222" s="0" t="s">
         <v>522</v>
       </c>
@@ -15630,14 +15608,14 @@
         <v>523</v>
       </c>
       <c r="H222" s="23"/>
-      <c r="I222" s="77"/>
-      <c r="J222" s="77"/>
+      <c r="I222" s="72"/>
+      <c r="J222" s="72"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="76" t="s">
+      <c r="A223" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B223" s="76"/>
+      <c r="B223" s="71"/>
       <c r="C223" s="0" t="s">
         <v>524</v>
       </c>
@@ -15645,14 +15623,14 @@
         <v>525</v>
       </c>
       <c r="H223" s="23"/>
-      <c r="I223" s="77"/>
-      <c r="J223" s="77"/>
+      <c r="I223" s="72"/>
+      <c r="J223" s="72"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="76" t="s">
+      <c r="A224" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B224" s="76"/>
+      <c r="B224" s="71"/>
       <c r="C224" s="0" t="s">
         <v>526</v>
       </c>
@@ -15660,14 +15638,14 @@
         <v>527</v>
       </c>
       <c r="H224" s="23"/>
-      <c r="I224" s="77"/>
-      <c r="J224" s="77"/>
+      <c r="I224" s="72"/>
+      <c r="J224" s="72"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="76" t="s">
+      <c r="A225" s="71" t="s">
         <v>1014</v>
       </c>
-      <c r="B225" s="76"/>
+      <c r="B225" s="71"/>
       <c r="C225" s="0" t="s">
         <v>528</v>
       </c>
@@ -15675,14 +15653,14 @@
         <v>529</v>
       </c>
       <c r="H225" s="23"/>
-      <c r="I225" s="77"/>
-      <c r="J225" s="77"/>
+      <c r="I225" s="72"/>
+      <c r="J225" s="72"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="76" t="s">
+      <c r="A226" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B226" s="76"/>
+      <c r="B226" s="71"/>
       <c r="C226" s="0" t="s">
         <v>530</v>
       </c>
@@ -15690,14 +15668,14 @@
         <v>531</v>
       </c>
       <c r="H226" s="23"/>
-      <c r="I226" s="77"/>
-      <c r="J226" s="77"/>
+      <c r="I226" s="72"/>
+      <c r="J226" s="72"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="76" t="s">
+      <c r="A227" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B227" s="76"/>
+      <c r="B227" s="71"/>
       <c r="C227" s="0" t="s">
         <v>532</v>
       </c>
@@ -15705,14 +15683,14 @@
         <v>533</v>
       </c>
       <c r="H227" s="23"/>
-      <c r="I227" s="77"/>
-      <c r="J227" s="77"/>
+      <c r="I227" s="72"/>
+      <c r="J227" s="72"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="76" t="s">
+      <c r="A228" s="71" t="s">
         <v>1006</v>
       </c>
-      <c r="B228" s="76"/>
+      <c r="B228" s="71"/>
       <c r="C228" s="0" t="s">
         <v>534</v>
       </c>
@@ -15720,14 +15698,14 @@
         <v>535</v>
       </c>
       <c r="H228" s="23"/>
-      <c r="I228" s="77"/>
-      <c r="J228" s="77"/>
+      <c r="I228" s="72"/>
+      <c r="J228" s="72"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="76" t="s">
+      <c r="A229" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B229" s="76"/>
+      <c r="B229" s="71"/>
       <c r="C229" s="0" t="s">
         <v>536</v>
       </c>
@@ -15735,14 +15713,14 @@
         <v>537</v>
       </c>
       <c r="H229" s="23"/>
-      <c r="I229" s="77"/>
-      <c r="J229" s="77"/>
+      <c r="I229" s="72"/>
+      <c r="J229" s="72"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="76" t="s">
+      <c r="A230" s="71" t="s">
         <v>1017</v>
       </c>
-      <c r="B230" s="76"/>
+      <c r="B230" s="71"/>
       <c r="C230" s="0" t="s">
         <v>538</v>
       </c>
@@ -15750,14 +15728,14 @@
         <v>539</v>
       </c>
       <c r="H230" s="23"/>
-      <c r="I230" s="77"/>
-      <c r="J230" s="77"/>
+      <c r="I230" s="72"/>
+      <c r="J230" s="72"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="76" t="s">
+      <c r="A231" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B231" s="76"/>
+      <c r="B231" s="71"/>
       <c r="C231" s="0" t="s">
         <v>540</v>
       </c>
@@ -15765,14 +15743,14 @@
         <v>541</v>
       </c>
       <c r="H231" s="23"/>
-      <c r="I231" s="77"/>
-      <c r="J231" s="77"/>
+      <c r="I231" s="72"/>
+      <c r="J231" s="72"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="76" t="s">
+      <c r="A232" s="71" t="s">
         <v>1020</v>
       </c>
-      <c r="B232" s="76"/>
+      <c r="B232" s="71"/>
       <c r="C232" s="0" t="s">
         <v>542</v>
       </c>
@@ -15780,14 +15758,14 @@
         <v>543</v>
       </c>
       <c r="H232" s="23"/>
-      <c r="I232" s="77"/>
-      <c r="J232" s="77"/>
+      <c r="I232" s="72"/>
+      <c r="J232" s="72"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="76" t="s">
+      <c r="A233" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B233" s="76"/>
+      <c r="B233" s="71"/>
       <c r="C233" s="0" t="s">
         <v>544</v>
       </c>
@@ -15795,14 +15773,14 @@
         <v>545</v>
       </c>
       <c r="H233" s="23"/>
-      <c r="I233" s="77"/>
-      <c r="J233" s="77"/>
+      <c r="I233" s="72"/>
+      <c r="J233" s="72"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="76" t="s">
+      <c r="A234" s="71" t="s">
         <v>546</v>
       </c>
-      <c r="B234" s="76"/>
+      <c r="B234" s="71"/>
       <c r="C234" s="0" t="s">
         <v>546</v>
       </c>
@@ -15810,14 +15788,14 @@
         <v>547</v>
       </c>
       <c r="H234" s="23"/>
-      <c r="I234" s="77"/>
-      <c r="J234" s="77"/>
+      <c r="I234" s="72"/>
+      <c r="J234" s="72"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="76" t="s">
+      <c r="A235" s="71" t="s">
         <v>1016</v>
       </c>
-      <c r="B235" s="76"/>
+      <c r="B235" s="71"/>
       <c r="C235" s="0" t="s">
         <v>548</v>
       </c>
@@ -15825,14 +15803,14 @@
         <v>549</v>
       </c>
       <c r="H235" s="23"/>
-      <c r="I235" s="77"/>
-      <c r="J235" s="77"/>
+      <c r="I235" s="72"/>
+      <c r="J235" s="72"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="76" t="s">
+      <c r="A236" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="B236" s="76"/>
+      <c r="B236" s="71"/>
       <c r="C236" s="0" t="s">
         <v>550</v>
       </c>
@@ -15840,14 +15818,14 @@
         <v>551</v>
       </c>
       <c r="H236" s="23"/>
-      <c r="I236" s="77"/>
-      <c r="J236" s="77"/>
+      <c r="I236" s="72"/>
+      <c r="J236" s="72"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="76" t="s">
+      <c r="A237" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B237" s="76"/>
+      <c r="B237" s="71"/>
       <c r="C237" s="0" t="s">
         <v>552</v>
       </c>
@@ -15855,14 +15833,14 @@
         <v>553</v>
       </c>
       <c r="H237" s="23"/>
-      <c r="I237" s="77"/>
-      <c r="J237" s="77"/>
+      <c r="I237" s="72"/>
+      <c r="J237" s="72"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="76" t="s">
+      <c r="A238" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B238" s="76"/>
+      <c r="B238" s="71"/>
       <c r="C238" s="0" t="s">
         <v>554</v>
       </c>
@@ -15870,14 +15848,14 @@
         <v>555</v>
       </c>
       <c r="H238" s="23"/>
-      <c r="I238" s="77"/>
-      <c r="J238" s="77"/>
+      <c r="I238" s="72"/>
+      <c r="J238" s="72"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="76" t="s">
+      <c r="A239" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B239" s="76"/>
+      <c r="B239" s="71"/>
       <c r="C239" s="0" t="s">
         <v>556</v>
       </c>
@@ -15885,14 +15863,14 @@
         <v>557</v>
       </c>
       <c r="H239" s="23"/>
-      <c r="I239" s="77"/>
-      <c r="J239" s="79"/>
+      <c r="I239" s="72"/>
+      <c r="J239" s="74"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="76" t="s">
+      <c r="A240" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B240" s="76"/>
+      <c r="B240" s="71"/>
       <c r="C240" s="0" t="s">
         <v>558</v>
       </c>
@@ -15900,11 +15878,11 @@
         <v>559</v>
       </c>
       <c r="H240" s="23"/>
-      <c r="I240" s="77"/>
-      <c r="J240" s="79"/>
+      <c r="I240" s="72"/>
+      <c r="J240" s="74"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="76" t="s">
+      <c r="A241" s="71" t="s">
         <v>1020</v>
       </c>
       <c r="C241" s="0" t="s">
@@ -15914,11 +15892,11 @@
         <v>561</v>
       </c>
       <c r="H241" s="23"/>
-      <c r="I241" s="77"/>
-      <c r="J241" s="79"/>
+      <c r="I241" s="72"/>
+      <c r="J241" s="74"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="76" t="s">
+      <c r="A242" s="71" t="s">
         <v>1020</v>
       </c>
       <c r="C242" s="0" t="s">
@@ -15928,11 +15906,11 @@
         <v>563</v>
       </c>
       <c r="H242" s="23"/>
-      <c r="I242" s="77"/>
-      <c r="J242" s="79"/>
+      <c r="I242" s="72"/>
+      <c r="J242" s="74"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="76" t="s">
+      <c r="A243" s="71" t="s">
         <v>1020</v>
       </c>
       <c r="C243" s="0" t="s">
@@ -15942,11 +15920,11 @@
         <v>565</v>
       </c>
       <c r="H243" s="23"/>
-      <c r="I243" s="77"/>
-      <c r="J243" s="79"/>
+      <c r="I243" s="72"/>
+      <c r="J243" s="74"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="76" t="s">
+      <c r="A244" s="71" t="s">
         <v>1020</v>
       </c>
       <c r="C244" s="0" t="s">
@@ -15956,11 +15934,11 @@
         <v>567</v>
       </c>
       <c r="H244" s="23"/>
-      <c r="I244" s="77"/>
-      <c r="J244" s="79"/>
+      <c r="I244" s="72"/>
+      <c r="J244" s="74"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="76" t="s">
+      <c r="A245" s="71" t="s">
         <v>1014</v>
       </c>
       <c r="C245" s="0" t="s">
@@ -15970,11 +15948,11 @@
         <v>569</v>
       </c>
       <c r="H245" s="23"/>
-      <c r="I245" s="77"/>
-      <c r="J245" s="79"/>
+      <c r="I245" s="72"/>
+      <c r="J245" s="74"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="76" t="s">
+      <c r="A246" s="71" t="s">
         <v>1017</v>
       </c>
       <c r="C246" s="0" t="s">
@@ -15984,11 +15962,11 @@
         <v>571</v>
       </c>
       <c r="H246" s="23"/>
-      <c r="I246" s="77"/>
-      <c r="J246" s="79"/>
+      <c r="I246" s="72"/>
+      <c r="J246" s="74"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="76" t="s">
+      <c r="A247" s="71" t="s">
         <v>1017</v>
       </c>
       <c r="C247" s="0" t="s">
@@ -15998,11 +15976,11 @@
         <v>573</v>
       </c>
       <c r="H247" s="23"/>
-      <c r="I247" s="77"/>
-      <c r="J247" s="79"/>
+      <c r="I247" s="72"/>
+      <c r="J247" s="74"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="76" t="s">
+      <c r="A248" s="71" t="s">
         <v>1017</v>
       </c>
       <c r="C248" s="0" t="s">
@@ -16012,8 +15990,8 @@
         <v>575</v>
       </c>
       <c r="H248" s="23"/>
-      <c r="I248" s="77"/>
-      <c r="J248" s="79"/>
+      <c r="I248" s="72"/>
+      <c r="J248" s="74"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
+++ b/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
@@ -92,7 +92,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author>AD</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -180,7 +180,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author>AD</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -243,7 +243,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author>AD</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1034">
   <si>
     <t xml:space="preserve">General Instructions</t>
   </si>
@@ -2569,325 +2569,328 @@
     <t xml:space="preserve"># Time discounting average value (% per year)</t>
   </si>
   <si>
+    <t xml:space="preserve">Early retirement of capital allowed -Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Level - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP loss - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy goods - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential &amp; Commercial - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconventional Oil - Yes (Supply Curve)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal w/ CCS - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passenger Trains - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Substitutability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cropland Food Crops - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coarse Grains - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Food Crops - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afforestation - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Use - N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 Land Use - Yes (exogenous baseline &amp; controlled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration|N2O - Yes (endogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Demand - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Energy Access:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap and Trade - Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interest rates differentiated by country/region- No</t>
   </si>
   <si>
-    <t xml:space="preserve">Education Level - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDP loss - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy goods - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential &amp; Commercial - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconventional Oil - Yes (Supply Curve)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal w/ CCS - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passenger Trains - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Substitutability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cropland Food Crops - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coarse Grains - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture Food Crops - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportation - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afforestation - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Use - N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 Land Use - Yes (exogenous baseline &amp; controlled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration|N2O - Yes (endogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Demand - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Energy Access:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap and Trade - Yes</t>
+    <t xml:space="preserve">Urbanization Rate - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area under MAC - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Specific Energy goods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy - Yes (physical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conventional Gas - Yes (Supply Curve)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas w/o CCS - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buses - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete technology choices with mostly high substitutability in some sectors and mostly low substitutability in other sectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cropland Feed Crops - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oilseeds - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Food Livestock - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil Carbon Enhancement - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - Endogenous Technological Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4 Energy - Yes (endogenous &amp; controlled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration|Kyoto Gases - Yes (endogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic Output - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household energy consumption - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Energy Policies</t>
   </si>
   <si>
     <t xml:space="preserve">Regional risk factors included - No</t>
   </si>
   <si>
-    <t xml:space="preserve">Urbanization Rate - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area under MAC - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Specific Energy goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy - Yes (physical)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conventional Gas - Yes (Supply Curve)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas w/o CCS - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buses - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete technology choices with mostly high substitutability in some sectors and mostly low substitutability in other sectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cropland Feed Crops - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oilseeds - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture Food Livestock - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Carbon Enhancement - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture - Endogenous Technological Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4 Energy - Yes (endogenous &amp; controlled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration|Kyoto Gases - Yes (endogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economic Output - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household energy consumption - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Energy Policies</t>
+    <t xml:space="preserve">GDP - Yes (exogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equivalent Variation - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconventional Gas - Yes (Supply Curve)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas w/ CCS - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Duty Vehicles (LDVs) - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Technology Deployment Constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cropland Energy Crops - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar Crops - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Feed - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential &amp; Commercial - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Air Capture - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: Please Identify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4 Land Use - Yes (exogenous baseline &amp; controlled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiative Forcing|CO2 - Yes (endogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built Capital - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Air Pollution &amp; Health:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Taxes - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Technology costs differentiated by country/region- Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">GDP - Yes (exogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equivalent Variation - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconventional Gas - Yes (Supply Curve)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas w/ CCS - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Duty Vehicles (LDVs) - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Technology Deployment Constraints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cropland Energy Crops - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugar Crops - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture Feed - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential &amp; Commercial - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Air Capture - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other: Please Identify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4 Land Use - Yes (exogenous baseline &amp; controlled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiative Forcing|CO2 - Yes (endogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Built Capital - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Air Pollution &amp; Health:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel Taxes - Yes</t>
+    <t xml:space="preserve">Income Distribution - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy System Cost Mark-Up - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uranium - Yes (Supply Curve)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil w/o CCS - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric LDVs - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansion and decline constraints - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruminant Meat - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Feed Crops - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced Weathering - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4 Other - Yes (endogenous &amp; controlled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiative Forcing|CH4 - Yes (endogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-based aerosol emissions - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Subsidies - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Technological change differentiated by country/region- Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Income Distribution - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy System Cost Mark-Up - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uranium - Yes (Supply Curve)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil w/o CCS - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric LDVs - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expansion and decline constraints - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruminant Meat - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture Feed Crops - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhanced Weathering - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4 Other - Yes (endogenous &amp; controlled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiative Forcing|CH4 - Yes (endogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source-based aerosol emissions - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel Subsidies - Yes</t>
+    <t xml:space="preserve">Labor Participation Rate - Yes (exogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioenergy - Yes (Process Model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil w/ CCS - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen LDVs - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System integration constraints - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed Forest - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-ruminant Meat and Eggs - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Feed Livestock - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forestry - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O Energy - Yes (endogenous &amp; uncontrolled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiative Forcing|N2O - Yes (endogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Impacts of Air Pollution - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed-in-Tariff - No</t>
   </si>
   <si>
     <t xml:space="preserve">Behavioural change differentiated by country/region- No</t>
   </si>
   <si>
-    <t xml:space="preserve">Labor Participation Rate - Yes (exogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioenergy - Yes (Process Model)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil w/ CCS - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen LDVs - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System integration constraints - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed Forest - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-ruminant Meat and Eggs - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture Feed Livestock - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forestry - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O Energy - Yes (endogenous &amp; uncontrolled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiative Forcing|N2O - Yes (endogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Impacts of Air Pollution - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed-in-Tariff - No</t>
+    <t xml:space="preserve">Labor Productivity - Yes (exogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uranium - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water - Yes (Process Model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioenergy w/o CCS - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid LDVs - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Forest - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairy Products - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture Non-Food - Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Categorization by Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O Land Use - Yes (exogenous baseline &amp; controlled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiative Forcing|F-Gases - Yes (endogenous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Standard - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Constraints on cross country financial transfers No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor Productivity - Yes (exogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uranium - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water - Yes (Process Model)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioenergy w/o CCS - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid LDVs - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Forest - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dairy Products - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture Non-Food - Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Categorization by Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O Land Use - Yes (exogenous baseline &amp; controlled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiative Forcing|F-Gases - Yes (endogenous)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portfolio Standard - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Total Factor Productivity - Yes (exogenous)</t>
@@ -3442,6 +3445,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3493,12 +3502,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3663,7 +3666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3687,20 +3690,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3716,11 +3727,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3780,11 +3791,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3808,19 +3819,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3836,19 +3847,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3856,35 +3867,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3896,7 +3907,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3904,7 +3915,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3920,15 +3931,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3936,7 +3955,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3956,11 +3979,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3968,23 +3991,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3992,20 +4015,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -7469,8 +7494,8 @@
   </sheetPr>
   <dimension ref="A1:MQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8385,7 +8410,7 @@
       <c r="MP2" s="0"/>
       <c r="MQ2" s="0"/>
     </row>
-    <row r="3" s="56" customFormat="true" ht="97.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="57" customFormat="true" ht="97.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
         <v>699</v>
       </c>
@@ -8512,7 +8537,7 @@
       <c r="AP3" s="55" t="s">
         <v>729</v>
       </c>
-      <c r="AQ3" s="55" t="s">
+      <c r="AQ3" s="56" t="s">
         <v>730</v>
       </c>
       <c r="AR3" s="0"/>
@@ -8907,7 +8932,7 @@
       <c r="AP4" s="55" t="s">
         <v>751</v>
       </c>
-      <c r="AQ4" s="50" t="s">
+      <c r="AQ4" s="58" t="s">
         <v>752</v>
       </c>
     </row>
@@ -8987,10 +9012,10 @@
       <c r="AO5" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="AP5" s="57" t="n">
+      <c r="AP5" s="59" t="n">
         <v>0.05</v>
       </c>
-      <c r="AQ5" s="50" t="s">
+      <c r="AQ5" s="58" t="s">
         <v>774</v>
       </c>
     </row>
@@ -9032,7 +9057,7 @@
       <c r="AC6" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="AD6" s="58" t="s">
+      <c r="AD6" s="60" t="s">
         <v>783</v>
       </c>
       <c r="AE6" s="50" t="s">
@@ -9068,8 +9093,8 @@
       <c r="AO6" s="55" t="s">
         <v>793</v>
       </c>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="50" t="s">
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="58" t="s">
         <v>794</v>
       </c>
     </row>
@@ -9142,11 +9167,11 @@
       <c r="AN7" s="55" t="s">
         <v>812</v>
       </c>
-      <c r="AO7" s="59" t="s">
+      <c r="AO7" s="61" t="s">
         <v>813</v>
       </c>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="50" t="s">
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="58" t="s">
         <v>814</v>
       </c>
     </row>
@@ -9186,7 +9211,7 @@
       <c r="AC8" s="49" t="s">
         <v>820</v>
       </c>
-      <c r="AD8" s="58" t="s">
+      <c r="AD8" s="60" t="s">
         <v>821</v>
       </c>
       <c r="AE8" s="50" t="s">
@@ -9217,11 +9242,11 @@
       <c r="AN8" s="50" t="s">
         <v>828</v>
       </c>
-      <c r="AO8" s="59" t="s">
+      <c r="AO8" s="61" t="s">
         <v>829</v>
       </c>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="50" t="s">
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="58" t="s">
         <v>830</v>
       </c>
     </row>
@@ -9257,7 +9282,7 @@
       <c r="AC9" s="49" t="s">
         <v>835</v>
       </c>
-      <c r="AD9" s="58" t="s">
+      <c r="AD9" s="60" t="s">
         <v>836</v>
       </c>
       <c r="AE9" s="50" t="s">
@@ -9286,11 +9311,11 @@
       <c r="AN9" s="50" t="s">
         <v>843</v>
       </c>
-      <c r="AO9" s="59" t="s">
+      <c r="AO9" s="61" t="s">
         <v>844</v>
       </c>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="50" t="s">
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="58" t="s">
         <v>845</v>
       </c>
     </row>
@@ -9350,12 +9375,12 @@
       <c r="AN10" s="55" t="s">
         <v>857</v>
       </c>
-      <c r="AO10" s="59" t="s">
+      <c r="AO10" s="61" t="s">
         <v>858</v>
       </c>
       <c r="AP10" s="55"/>
-      <c r="AQ10" s="49" t="s">
-        <v>808</v>
+      <c r="AQ10" s="58" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9364,9 +9389,9 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="49" t="s">
-        <v>859</v>
-      </c>
-      <c r="N11" s="60"/>
+        <v>860</v>
+      </c>
+      <c r="N11" s="62"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
@@ -9379,108 +9404,110 @@
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
       <c r="X11" s="52" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="54" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AB11" s="23"/>
       <c r="AC11" s="49" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AD11" s="23"/>
       <c r="AE11" s="50" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AF11" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AG11" s="49" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AH11" s="49" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AI11" s="0"/>
       <c r="AJ11" s="0"/>
       <c r="AK11" s="52" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AL11" s="52" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AM11" s="23"/>
       <c r="AN11" s="50" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AO11" s="55" t="s">
-        <v>869</v>
-      </c>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
+        <v>870</v>
+      </c>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="63" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="61" t="s">
-        <v>870</v>
-      </c>
-      <c r="N12" s="60"/>
+      <c r="M12" s="64" t="s">
+        <v>871</v>
+      </c>
+      <c r="N12" s="62"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="51" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="52" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="54" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AB12" s="23"/>
       <c r="AC12" s="49" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AD12" s="0"/>
       <c r="AE12" s="50" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF12" s="23"/>
       <c r="AG12" s="49" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AH12" s="49" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AI12" s="0"/>
       <c r="AJ12" s="0"/>
       <c r="AK12" s="52" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AL12" s="52" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="55" t="s">
-        <v>880</v>
-      </c>
-      <c r="AO12" s="59" t="s">
         <v>881</v>
       </c>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
+      <c r="AO12" s="61" t="s">
+        <v>882</v>
+      </c>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I13" s="23"/>
@@ -9488,14 +9515,14 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="49"/>
-      <c r="N13" s="60"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="52" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
@@ -9504,40 +9531,40 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="54" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AB13" s="23"/>
       <c r="AC13" s="49" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AD13" s="0"/>
       <c r="AE13" s="50" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AF13" s="23"/>
       <c r="AG13" s="49" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AH13" s="49" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AI13" s="0"/>
       <c r="AJ13" s="0"/>
       <c r="AK13" s="52" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AL13" s="52" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AM13" s="23"/>
       <c r="AN13" s="50" t="s">
-        <v>890</v>
-      </c>
-      <c r="AO13" s="59" t="s">
         <v>891</v>
       </c>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
+      <c r="AO13" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I14" s="23"/>
@@ -9552,7 +9579,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
       <c r="T14" s="52" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
@@ -9561,7 +9588,7 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="54" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AB14" s="23"/>
       <c r="AC14" s="49" t="s">
@@ -9573,25 +9600,25 @@
       </c>
       <c r="AF14" s="23"/>
       <c r="AG14" s="49" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AH14" s="49" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AI14" s="0"/>
       <c r="AJ14" s="0"/>
       <c r="AK14" s="52" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AL14" s="52" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AM14" s="23"/>
       <c r="AN14" s="55" t="s">
-        <v>898</v>
-      </c>
-      <c r="AO14" s="59" t="s">
         <v>899</v>
+      </c>
+      <c r="AO14" s="61" t="s">
+        <v>900</v>
       </c>
       <c r="AP14" s="55"/>
       <c r="AQ14" s="55"/>
@@ -9609,7 +9636,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="51" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
@@ -9618,38 +9645,38 @@
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="54" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AB15" s="23"/>
       <c r="AC15" s="53" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AD15" s="0"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
       <c r="AG15" s="53" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AH15" s="49" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AI15" s="0"/>
       <c r="AJ15" s="0"/>
       <c r="AK15" s="52" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AL15" s="52" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AM15" s="23"/>
       <c r="AN15" s="50" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AO15" s="55" t="s">
-        <v>908</v>
-      </c>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
+        <v>909</v>
+      </c>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I16" s="23"/>
@@ -9664,7 +9691,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
       <c r="T16" s="52" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
@@ -9673,17 +9700,17 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="54" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="49" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AD16" s="0"/>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="49" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AH16" s="49" t="s">
         <v>753</v>
@@ -9691,20 +9718,20 @@
       <c r="AI16" s="0"/>
       <c r="AJ16" s="0"/>
       <c r="AK16" s="52" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AL16" s="52" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AM16" s="23"/>
       <c r="AN16" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AO16" s="59" t="s">
-        <v>915</v>
-      </c>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="59"/>
+      <c r="AO16" s="61" t="s">
+        <v>916</v>
+      </c>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N17" s="23"/>
@@ -9714,7 +9741,7 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
       <c r="T17" s="52" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
@@ -9723,39 +9750,39 @@
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="54" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AB17" s="23"/>
       <c r="AC17" s="49" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AD17" s="0"/>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="49" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AH17" s="49" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AI17" s="0"/>
       <c r="AJ17" s="0"/>
       <c r="AK17" s="52" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AL17" s="52" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AM17" s="23"/>
       <c r="AN17" s="23"/>
-      <c r="AO17" s="59" t="s">
-        <v>923</v>
+      <c r="AO17" s="61" t="s">
+        <v>924</v>
       </c>
       <c r="AP17" s="55"/>
       <c r="AQ17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N18" s="60"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
@@ -9769,17 +9796,17 @@
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="54" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AB18" s="23"/>
       <c r="AC18" s="49" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AD18" s="0"/>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="49" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AH18" s="49" t="s">
         <v>808</v>
@@ -9787,21 +9814,21 @@
       <c r="AI18" s="0"/>
       <c r="AJ18" s="0"/>
       <c r="AK18" s="52" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AL18" s="52" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AM18" s="23"/>
       <c r="AN18" s="23"/>
       <c r="AO18" s="55" t="s">
-        <v>929</v>
-      </c>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
+        <v>930</v>
+      </c>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N19" s="60"/>
+      <c r="N19" s="62"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
@@ -9815,11 +9842,11 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="54" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AB19" s="23"/>
       <c r="AC19" s="49" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AD19" s="0"/>
       <c r="AE19" s="23"/>
@@ -9831,18 +9858,18 @@
       <c r="AI19" s="0"/>
       <c r="AJ19" s="0"/>
       <c r="AK19" s="52" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AL19" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AM19" s="23"/>
       <c r="AN19" s="23"/>
-      <c r="AO19" s="59" t="s">
-        <v>933</v>
-      </c>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
+      <c r="AO19" s="61" t="s">
+        <v>934</v>
+      </c>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N20" s="23"/>
@@ -9859,7 +9886,7 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="54" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AB20" s="23"/>
       <c r="AC20" s="49" t="s">
@@ -9873,13 +9900,13 @@
       <c r="AI20" s="0"/>
       <c r="AJ20" s="0"/>
       <c r="AK20" s="52" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AL20" s="23"/>
       <c r="AM20" s="23"/>
       <c r="AN20" s="23"/>
-      <c r="AO20" s="59" t="s">
-        <v>936</v>
+      <c r="AO20" s="61" t="s">
+        <v>937</v>
       </c>
       <c r="AP20" s="49"/>
       <c r="AQ20" s="49"/>
@@ -9899,11 +9926,11 @@
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="54" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AB21" s="23"/>
       <c r="AC21" s="53" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AD21" s="0"/>
       <c r="AE21" s="23"/>
@@ -9913,7 +9940,7 @@
       <c r="AI21" s="0"/>
       <c r="AJ21" s="0"/>
       <c r="AK21" s="52" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AL21" s="23"/>
       <c r="AM21" s="23"/>
@@ -9924,11 +9951,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AA22" s="54" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AB22" s="23"/>
       <c r="AC22" s="49" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AD22" s="0"/>
       <c r="AE22" s="23"/>
@@ -9938,7 +9965,7 @@
       <c r="AI22" s="0"/>
       <c r="AJ22" s="0"/>
       <c r="AK22" s="52" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
@@ -9946,13 +9973,13 @@
       <c r="AO22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N23" s="60"/>
+      <c r="N23" s="62"/>
       <c r="AA23" s="54" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AB23" s="23"/>
       <c r="AC23" s="49" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AD23" s="0"/>
       <c r="AE23" s="23"/>
@@ -9962,7 +9989,7 @@
       <c r="AI23" s="0"/>
       <c r="AJ23" s="0"/>
       <c r="AK23" s="52" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AL23" s="23"/>
       <c r="AM23" s="23"/>
@@ -9970,12 +9997,12 @@
       <c r="AO23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA24" s="62" t="s">
-        <v>946</v>
+      <c r="AA24" s="65" t="s">
+        <v>947</v>
       </c>
       <c r="AB24" s="23"/>
       <c r="AC24" s="49" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AD24" s="0"/>
       <c r="AE24" s="23"/>
@@ -9985,7 +10012,7 @@
       <c r="AI24" s="0"/>
       <c r="AJ24" s="0"/>
       <c r="AK24" s="52" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AL24" s="23"/>
       <c r="AM24" s="23"/>
@@ -9994,11 +10021,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA25" s="50" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AB25" s="23"/>
       <c r="AC25" s="49" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AD25" s="0"/>
       <c r="AE25" s="23"/>
@@ -10008,7 +10035,7 @@
       <c r="AI25" s="0"/>
       <c r="AJ25" s="0"/>
       <c r="AK25" s="52" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AL25" s="23"/>
       <c r="AM25" s="23"/>
@@ -10017,11 +10044,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA26" s="50" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AB26" s="23"/>
       <c r="AC26" s="49" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AD26" s="0"/>
       <c r="AE26" s="23"/>
@@ -10031,7 +10058,7 @@
       <c r="AI26" s="0"/>
       <c r="AJ26" s="0"/>
       <c r="AK26" s="52" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
@@ -10040,11 +10067,11 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA27" s="50" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AB27" s="23"/>
       <c r="AC27" s="49" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AD27" s="0"/>
       <c r="AE27" s="23"/>
@@ -10054,7 +10081,7 @@
       <c r="AI27" s="0"/>
       <c r="AJ27" s="0"/>
       <c r="AK27" s="52" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AL27" s="23"/>
       <c r="AM27" s="23"/>
@@ -10063,7 +10090,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA28" s="50" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AB28" s="23"/>
       <c r="AC28" s="49" t="s">
@@ -10077,7 +10104,7 @@
       <c r="AI28" s="0"/>
       <c r="AJ28" s="0"/>
       <c r="AK28" s="52" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AL28" s="23"/>
       <c r="AM28" s="23"/>
@@ -10086,11 +10113,11 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA29" s="50" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AB29" s="23"/>
       <c r="AC29" s="53" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AD29" s="0"/>
       <c r="AE29" s="23"/>
@@ -10100,7 +10127,7 @@
       <c r="AI29" s="0"/>
       <c r="AJ29" s="0"/>
       <c r="AK29" s="52" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AL29" s="23"/>
       <c r="AM29" s="23"/>
@@ -10109,11 +10136,11 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA30" s="50" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AB30" s="23"/>
       <c r="AC30" s="49" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AD30" s="0"/>
       <c r="AE30" s="23"/>
@@ -10123,7 +10150,7 @@
       <c r="AI30" s="0"/>
       <c r="AJ30" s="0"/>
       <c r="AK30" s="52" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
@@ -10132,11 +10159,11 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA31" s="50" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AB31" s="23"/>
       <c r="AC31" s="49" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AD31" s="0"/>
       <c r="AE31" s="23"/>
@@ -10146,7 +10173,7 @@
       <c r="AI31" s="0"/>
       <c r="AJ31" s="0"/>
       <c r="AK31" s="52" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AL31" s="23"/>
       <c r="AM31" s="23"/>
@@ -10155,11 +10182,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA32" s="50" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AB32" s="23"/>
       <c r="AC32" s="49" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AD32" s="0"/>
       <c r="AE32" s="23"/>
@@ -10169,7 +10196,7 @@
       <c r="AI32" s="0"/>
       <c r="AJ32" s="0"/>
       <c r="AK32" s="52" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
@@ -10178,11 +10205,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA33" s="50" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB33" s="23"/>
       <c r="AC33" s="49" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AD33" s="0"/>
       <c r="AE33" s="23"/>
@@ -10192,16 +10219,16 @@
       <c r="AI33" s="0"/>
       <c r="AJ33" s="0"/>
       <c r="AK33" s="52" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA34" s="50" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AB34" s="23"/>
       <c r="AC34" s="49" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AD34" s="0"/>
       <c r="AE34" s="23"/>
@@ -10211,16 +10238,16 @@
       <c r="AI34" s="0"/>
       <c r="AJ34" s="0"/>
       <c r="AK34" s="52" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA35" s="50" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AB35" s="23"/>
       <c r="AC35" s="49" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AD35" s="0"/>
       <c r="AE35" s="23"/>
@@ -10230,12 +10257,12 @@
       <c r="AI35" s="0"/>
       <c r="AJ35" s="0"/>
       <c r="AK35" s="52" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA36" s="54" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AB36" s="23"/>
       <c r="AC36" s="49" t="s">
@@ -10253,8 +10280,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA37" s="62" t="s">
-        <v>981</v>
+      <c r="AA37" s="65" t="s">
+        <v>982</v>
       </c>
       <c r="AB37" s="23"/>
       <c r="AC37" s="0"/>
@@ -10269,7 +10296,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="49" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AB38" s="23"/>
       <c r="AC38" s="0"/>
@@ -10284,7 +10311,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="49" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB39" s="23"/>
       <c r="AC39" s="0"/>
@@ -10299,7 +10326,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="49" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AB40" s="23"/>
       <c r="AC40" s="0"/>
@@ -10314,7 +10341,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="49" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AB41" s="23"/>
       <c r="AC41" s="0"/>
@@ -10329,7 +10356,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="49" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AB42" s="23"/>
       <c r="AC42" s="0"/>
@@ -10344,7 +10371,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="49" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AB43" s="23"/>
       <c r="AC43" s="0"/>
@@ -10359,7 +10386,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="49" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AB44" s="23"/>
       <c r="AC44" s="0"/>
@@ -10389,7 +10416,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="53" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AB46" s="23"/>
       <c r="AC46" s="0"/>
@@ -10404,7 +10431,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="49" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AB47" s="23"/>
       <c r="AC47" s="0"/>
@@ -10419,7 +10446,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA48" s="49" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AB48" s="23"/>
       <c r="AC48" s="0"/>
@@ -10434,7 +10461,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA49" s="49" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AB49" s="23"/>
       <c r="AC49" s="0"/>
@@ -10448,7 +10475,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA50" s="49" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AB50" s="23"/>
       <c r="AC50" s="0"/>
@@ -10462,7 +10489,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA51" s="49" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AB51" s="23"/>
       <c r="AC51" s="0"/>
@@ -10476,7 +10503,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA52" s="49" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AB52" s="23"/>
       <c r="AC52" s="0"/>
@@ -10504,7 +10531,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA54" s="53" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AB54" s="23"/>
       <c r="AC54" s="0"/>
@@ -10518,7 +10545,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA55" s="54" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB55" s="23"/>
       <c r="AC55" s="0"/>
@@ -10532,7 +10559,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA56" s="54" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AB56" s="23"/>
       <c r="AC56" s="0"/>
@@ -10546,7 +10573,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA57" s="54" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AB57" s="23"/>
       <c r="AC57" s="0"/>
@@ -10560,7 +10587,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA58" s="54" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AB58" s="23"/>
       <c r="AC58" s="0"/>
@@ -10574,7 +10601,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA59" s="49" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AB59" s="23"/>
       <c r="AC59" s="0"/>
@@ -10588,7 +10615,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA60" s="49" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AB60" s="23"/>
       <c r="AC60" s="0"/>
@@ -10602,7 +10629,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA61" s="49" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AB61" s="23"/>
       <c r="AC61" s="0"/>
@@ -10631,7 +10658,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AP61"/>
-  <dataValidations count="267">
+  <dataValidations count="268">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD4" type="list">
       <formula1>"No discrete technology choices,Logit choice model,Production function,Linear choice (lowest cost),Lowest cost with adjustment penalties,Other: Please Identify"</formula1>
       <formula2>0</formula2>
@@ -10660,7 +10687,7 @@
       <formula1>"Emission Standards - No,Emission Standards - Yes"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AP11:AQ11 AO12" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AP11 AO12" type="list">
       <formula1>"Capacity Targets - No,Capacity Targets - Yes"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11552,30 +11579,6 @@
       <formula1>"1%,2%,3%,4%,5%,6%,7%,8%,9%,10%"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ4" type="list">
-      <formula1>"Interest rates differentiated by country/region- Yes,Interest rates differentiated by country/region- No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ5" type="list">
-      <formula1>"Regional risk factors included - No,Regional risk factors included - Yes"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ6" type="list">
-      <formula1>"Technology costs differentiated by country/region- Yes,Technology costs differentiated by country/region- No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ7" type="list">
-      <formula1>"Technological change differentiated by country/region- Yes,Technological change differentiated by country/region- No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ8" type="list">
-      <formula1>"Behavioural change differentiated by country/region- Yes,Behavioural change differentiated by country/region- No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ9" type="list">
-      <formula1>"Constraints on cross country financial transfers- Yes,Constraints on cross country financial transfers No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" error="Please type in information only if asked to specify..." errorTitle="Model Type - Solution Method" operator="between" prompt="Please select from list" promptTitle="Exogneous growth drivers" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="M9" type="list">
       <formula1>"Labor Participation Rate - No,Labor Participation Rate - Yes (exogenous),Labor Participation Rate - Yes (endogenous)"</formula1>
       <formula2>0</formula2>
@@ -11698,6 +11701,34 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG18" type="list">
       <formula1>"Forest Residues - No,Forest Residues - Yes"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ4" type="list">
+      <formula1>"Early retirement of capital allowed -Yes,Early retirement of capital allowed -No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ5" type="list">
+      <formula1>"Interest rates differentiated by country/region- Yes,Interest rates differentiated by country/region- No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ6" type="list">
+      <formula1>"Regional risk factors included - No,Regional risk factors included - Yes"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ7" type="list">
+      <formula1>"Technology costs differentiated by country/region- Yes,Technology costs differentiated by country/region- No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ8" type="list">
+      <formula1>"Technological change differentiated by country/region- Yes,Technological change differentiated by country/region- No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ9" type="list">
+      <formula1>"Behavioural change differentiated by country/region- Yes,Behavioural change differentiated by country/region- No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ10" type="list">
+      <formula1>"Constraints on cross country financial transfers- Yes,Constraints on cross country financial transfers No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11725,153 +11756,153 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="64" width="59.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="59.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="69" t="s">
         <v>1005</v>
       </c>
+      <c r="C1" s="69" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>1007</v>
       </c>
+      <c r="C2" s="67" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="67" t="s">
         <v>1009</v>
       </c>
+      <c r="C3" s="67" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>1010</v>
+      <c r="C4" s="67" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>1011</v>
+      <c r="C5" s="67" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="B6" s="67" t="s">
         <v>1013</v>
       </c>
+      <c r="C6" s="67" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="67" t="s">
         <v>1015</v>
       </c>
+      <c r="C7" s="67" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="67" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="67" t="s">
         <v>1018</v>
       </c>
+      <c r="C9" s="67" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>1019</v>
+      <c r="C10" s="67" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="67" t="s">
         <v>1021</v>
       </c>
+      <c r="C11" s="67" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="67" t="s">
         <v>1023</v>
       </c>
+      <c r="C12" s="67" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="67" t="s">
         <v>1025</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -11899,357 +11930,357 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="70" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="A1" s="71" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="72" t="s">
         <v>1028</v>
       </c>
+      <c r="C2" s="73" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B14" s="67" t="s">
         <v>1017</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B6" s="64" t="s">
+      <c r="C14" s="70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B18" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="C18" s="70" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B20" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="C20" s="70" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B29" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="67" t="s">
+      <c r="C29" s="70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C31" s="70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C25" s="67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="63" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C32" s="67" t="s">
+      <c r="A32" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C32" s="70" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12280,32 +12311,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1030</v>
+      <c r="A1" s="69" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>1031</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B2" s="71"/>
+      <c r="A2" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B2" s="74"/>
       <c r="C2" s="0" t="s">
         <v>82</v>
       </c>
@@ -12313,14 +12344,14 @@
         <v>83</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B3" s="71"/>
+      <c r="A3" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B3" s="74"/>
       <c r="C3" s="0" t="s">
         <v>84</v>
       </c>
@@ -12328,14 +12359,14 @@
         <v>85</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B4" s="71"/>
+      <c r="A4" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B4" s="74"/>
       <c r="C4" s="0" t="s">
         <v>86</v>
       </c>
@@ -12343,14 +12374,14 @@
         <v>87</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B5" s="71"/>
+      <c r="A5" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="74"/>
       <c r="C5" s="0" t="s">
         <v>88</v>
       </c>
@@ -12358,14 +12389,14 @@
         <v>89</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B6" s="71"/>
+      <c r="A6" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B6" s="74"/>
       <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
@@ -12373,14 +12404,14 @@
         <v>91</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B7" s="71"/>
+      <c r="A7" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B7" s="74"/>
       <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
@@ -12388,14 +12419,14 @@
         <v>93</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B8" s="71"/>
+      <c r="A8" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B8" s="74"/>
       <c r="C8" s="0" t="s">
         <v>94</v>
       </c>
@@ -12403,14 +12434,14 @@
         <v>95</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B9" s="71"/>
+      <c r="A9" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B9" s="74"/>
       <c r="C9" s="0" t="s">
         <v>96</v>
       </c>
@@ -12419,10 +12450,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B10" s="71"/>
+      <c r="A10" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="74"/>
       <c r="C10" s="0" t="s">
         <v>98</v>
       </c>
@@ -12430,14 +12461,14 @@
         <v>99</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B11" s="71"/>
+      <c r="A11" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B11" s="74"/>
       <c r="C11" s="0" t="s">
         <v>100</v>
       </c>
@@ -12445,14 +12476,14 @@
         <v>101</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B12" s="71"/>
+      <c r="A12" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B12" s="74"/>
       <c r="C12" s="0" t="s">
         <v>102</v>
       </c>
@@ -12460,14 +12491,14 @@
         <v>103</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B13" s="71"/>
+      <c r="A13" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B13" s="74"/>
       <c r="C13" s="0" t="s">
         <v>104</v>
       </c>
@@ -12475,14 +12506,14 @@
         <v>105</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B14" s="71"/>
+      <c r="A14" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="74"/>
       <c r="C14" s="0" t="s">
         <v>106</v>
       </c>
@@ -12490,14 +12521,14 @@
         <v>107</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B15" s="71"/>
+      <c r="A15" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B15" s="74"/>
       <c r="C15" s="0" t="s">
         <v>108</v>
       </c>
@@ -12505,14 +12536,14 @@
         <v>109</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B16" s="71"/>
+      <c r="A16" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="74"/>
       <c r="C16" s="0" t="s">
         <v>110</v>
       </c>
@@ -12520,14 +12551,14 @@
         <v>111</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B17" s="71"/>
+      <c r="A17" s="74" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B17" s="74"/>
       <c r="C17" s="0" t="s">
         <v>112</v>
       </c>
@@ -12535,14 +12566,14 @@
         <v>113</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B18" s="71"/>
+      <c r="A18" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B18" s="74"/>
       <c r="C18" s="0" t="s">
         <v>114</v>
       </c>
@@ -12550,14 +12581,14 @@
         <v>115</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B19" s="71"/>
+      <c r="A19" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="0" t="s">
         <v>116</v>
       </c>
@@ -12565,14 +12596,14 @@
         <v>117</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B20" s="71"/>
+      <c r="A20" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="74"/>
       <c r="C20" s="0" t="s">
         <v>118</v>
       </c>
@@ -12580,14 +12611,14 @@
         <v>119</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B21" s="71"/>
+      <c r="A21" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B21" s="74"/>
       <c r="C21" s="0" t="s">
         <v>120</v>
       </c>
@@ -12595,14 +12626,14 @@
         <v>121</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B22" s="71"/>
+      <c r="A22" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B22" s="74"/>
       <c r="C22" s="0" t="s">
         <v>122</v>
       </c>
@@ -12610,14 +12641,14 @@
         <v>123</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B23" s="71"/>
+      <c r="A23" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B23" s="74"/>
       <c r="C23" s="0" t="s">
         <v>124</v>
       </c>
@@ -12625,14 +12656,14 @@
         <v>125</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B24" s="71"/>
+      <c r="A24" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="74"/>
       <c r="C24" s="0" t="s">
         <v>126</v>
       </c>
@@ -12640,14 +12671,14 @@
         <v>127</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B25" s="71"/>
+      <c r="A25" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B25" s="74"/>
       <c r="C25" s="0" t="s">
         <v>128</v>
       </c>
@@ -12655,14 +12686,14 @@
         <v>129</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B26" s="71"/>
+      <c r="A26" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B26" s="74"/>
       <c r="C26" s="0" t="s">
         <v>130</v>
       </c>
@@ -12670,14 +12701,14 @@
         <v>131</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B27" s="71"/>
+      <c r="A27" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B27" s="74"/>
       <c r="C27" s="0" t="s">
         <v>132</v>
       </c>
@@ -12685,14 +12716,14 @@
         <v>133</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B28" s="71"/>
+      <c r="A28" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B28" s="74"/>
       <c r="C28" s="0" t="s">
         <v>134</v>
       </c>
@@ -12700,14 +12731,14 @@
         <v>135</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B29" s="71"/>
+      <c r="A29" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B29" s="74"/>
       <c r="C29" s="0" t="s">
         <v>136</v>
       </c>
@@ -12715,14 +12746,14 @@
         <v>137</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B30" s="71"/>
+      <c r="A30" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B30" s="74"/>
       <c r="C30" s="0" t="s">
         <v>138</v>
       </c>
@@ -12730,14 +12761,14 @@
         <v>139</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B31" s="71"/>
+      <c r="A31" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B31" s="74"/>
       <c r="C31" s="0" t="s">
         <v>140</v>
       </c>
@@ -12745,14 +12776,14 @@
         <v>141</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B32" s="71"/>
+      <c r="A32" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B32" s="74"/>
       <c r="C32" s="0" t="s">
         <v>142</v>
       </c>
@@ -12760,14 +12791,14 @@
         <v>143</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B33" s="71"/>
+      <c r="A33" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B33" s="74"/>
       <c r="C33" s="0" t="s">
         <v>144</v>
       </c>
@@ -12775,14 +12806,14 @@
         <v>145</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B34" s="71"/>
+      <c r="A34" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B34" s="74"/>
       <c r="C34" s="0" t="s">
         <v>146</v>
       </c>
@@ -12790,14 +12821,14 @@
         <v>147</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B35" s="71"/>
+      <c r="A35" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B35" s="74"/>
       <c r="C35" s="0" t="s">
         <v>148</v>
       </c>
@@ -12805,14 +12836,14 @@
         <v>149</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B36" s="71"/>
+      <c r="A36" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B36" s="74"/>
       <c r="C36" s="0" t="s">
         <v>150</v>
       </c>
@@ -12820,14 +12851,14 @@
         <v>151</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B37" s="71"/>
+      <c r="A37" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B37" s="74"/>
       <c r="C37" s="0" t="s">
         <v>152</v>
       </c>
@@ -12835,14 +12866,14 @@
         <v>153</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B38" s="71"/>
+      <c r="A38" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B38" s="74"/>
       <c r="C38" s="0" t="s">
         <v>154</v>
       </c>
@@ -12850,14 +12881,14 @@
         <v>155</v>
       </c>
       <c r="H38" s="23"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B39" s="71"/>
+      <c r="A39" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B39" s="74"/>
       <c r="C39" s="0" t="s">
         <v>156</v>
       </c>
@@ -12865,14 +12896,14 @@
         <v>157</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B40" s="71"/>
+      <c r="A40" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B40" s="74"/>
       <c r="C40" s="0" t="s">
         <v>158</v>
       </c>
@@ -12880,14 +12911,14 @@
         <v>159</v>
       </c>
       <c r="H40" s="23"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="71" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B41" s="71"/>
+      <c r="A41" s="74" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B41" s="74"/>
       <c r="C41" s="0" t="s">
         <v>160</v>
       </c>
@@ -12895,14 +12926,14 @@
         <v>161</v>
       </c>
       <c r="H41" s="23"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B42" s="71"/>
+      <c r="A42" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B42" s="74"/>
       <c r="C42" s="0" t="s">
         <v>162</v>
       </c>
@@ -12910,14 +12941,14 @@
         <v>163</v>
       </c>
       <c r="H42" s="23"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B43" s="71"/>
+      <c r="A43" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B43" s="74"/>
       <c r="C43" s="0" t="s">
         <v>164</v>
       </c>
@@ -12925,42 +12956,42 @@
         <v>165</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B44" s="71"/>
+      <c r="A44" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B44" s="74"/>
       <c r="C44" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="71" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B45" s="71"/>
+      <c r="A45" s="74" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B45" s="74"/>
       <c r="C45" s="0" t="s">
         <v>168</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B46" s="71"/>
+      <c r="A46" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B46" s="74"/>
       <c r="C46" s="0" t="s">
         <v>170</v>
       </c>
@@ -12968,14 +12999,14 @@
         <v>171</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B47" s="71"/>
+      <c r="A47" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B47" s="74"/>
       <c r="C47" s="0" t="s">
         <v>172</v>
       </c>
@@ -12983,14 +13014,14 @@
         <v>173</v>
       </c>
       <c r="H47" s="23"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B48" s="71"/>
+      <c r="A48" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B48" s="74"/>
       <c r="C48" s="0" t="s">
         <v>174</v>
       </c>
@@ -12998,14 +13029,14 @@
         <v>175</v>
       </c>
       <c r="H48" s="23"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B49" s="71"/>
+      <c r="A49" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B49" s="74"/>
       <c r="C49" s="0" t="s">
         <v>176</v>
       </c>
@@ -13013,14 +13044,14 @@
         <v>177</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B50" s="71"/>
+      <c r="A50" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B50" s="74"/>
       <c r="C50" s="0" t="s">
         <v>178</v>
       </c>
@@ -13028,14 +13059,14 @@
         <v>179</v>
       </c>
       <c r="H50" s="23"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B51" s="71"/>
+      <c r="A51" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B51" s="74"/>
       <c r="C51" s="0" t="s">
         <v>180</v>
       </c>
@@ -13043,14 +13074,14 @@
         <v>181</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B52" s="71"/>
+      <c r="A52" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B52" s="74"/>
       <c r="C52" s="0" t="s">
         <v>182</v>
       </c>
@@ -13058,14 +13089,14 @@
         <v>183</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B53" s="71"/>
+      <c r="A53" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B53" s="74"/>
       <c r="C53" s="0" t="s">
         <v>184</v>
       </c>
@@ -13073,14 +13104,14 @@
         <v>185</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B54" s="71"/>
+      <c r="A54" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B54" s="74"/>
       <c r="C54" s="0" t="s">
         <v>186</v>
       </c>
@@ -13088,14 +13119,14 @@
         <v>187</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B55" s="71"/>
+      <c r="A55" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B55" s="74"/>
       <c r="C55" s="0" t="s">
         <v>188</v>
       </c>
@@ -13103,14 +13134,14 @@
         <v>189</v>
       </c>
       <c r="H55" s="23"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B56" s="71"/>
+      <c r="A56" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B56" s="74"/>
       <c r="C56" s="0" t="s">
         <v>190</v>
       </c>
@@ -13118,14 +13149,14 @@
         <v>191</v>
       </c>
       <c r="H56" s="23"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B57" s="71"/>
+      <c r="A57" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B57" s="74"/>
       <c r="C57" s="0" t="s">
         <v>192</v>
       </c>
@@ -13133,14 +13164,14 @@
         <v>193</v>
       </c>
       <c r="H57" s="23"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B58" s="71"/>
+      <c r="A58" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B58" s="74"/>
       <c r="C58" s="0" t="s">
         <v>194</v>
       </c>
@@ -13148,14 +13179,14 @@
         <v>195</v>
       </c>
       <c r="H58" s="23"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B59" s="71"/>
+      <c r="A59" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B59" s="74"/>
       <c r="C59" s="0" t="s">
         <v>196</v>
       </c>
@@ -13163,14 +13194,14 @@
         <v>197</v>
       </c>
       <c r="H59" s="23"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B60" s="71"/>
+      <c r="A60" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B60" s="74"/>
       <c r="C60" s="0" t="s">
         <v>198</v>
       </c>
@@ -13178,14 +13209,14 @@
         <v>199</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B61" s="71"/>
+      <c r="A61" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B61" s="74"/>
       <c r="C61" s="0" t="s">
         <v>200</v>
       </c>
@@ -13193,14 +13224,14 @@
         <v>201</v>
       </c>
       <c r="H61" s="23"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B62" s="71"/>
+      <c r="A62" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B62" s="74"/>
       <c r="C62" s="0" t="s">
         <v>202</v>
       </c>
@@ -13208,14 +13239,14 @@
         <v>203</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B63" s="71"/>
+      <c r="A63" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B63" s="74"/>
       <c r="C63" s="0" t="s">
         <v>204</v>
       </c>
@@ -13223,14 +13254,14 @@
         <v>205</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B64" s="71"/>
+      <c r="A64" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B64" s="74"/>
       <c r="C64" s="0" t="s">
         <v>206</v>
       </c>
@@ -13238,14 +13269,14 @@
         <v>207</v>
       </c>
       <c r="H64" s="23"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B65" s="71"/>
+      <c r="A65" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B65" s="74"/>
       <c r="C65" s="0" t="s">
         <v>208</v>
       </c>
@@ -13253,14 +13284,14 @@
         <v>209</v>
       </c>
       <c r="H65" s="23"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B66" s="71"/>
+      <c r="A66" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B66" s="74"/>
       <c r="C66" s="0" t="s">
         <v>210</v>
       </c>
@@ -13268,14 +13299,14 @@
         <v>211</v>
       </c>
       <c r="H66" s="23"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B67" s="71"/>
+      <c r="A67" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B67" s="74"/>
       <c r="C67" s="0" t="s">
         <v>212</v>
       </c>
@@ -13283,14 +13314,14 @@
         <v>213</v>
       </c>
       <c r="H67" s="23"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B68" s="71"/>
+      <c r="A68" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B68" s="74"/>
       <c r="C68" s="0" t="s">
         <v>214</v>
       </c>
@@ -13298,14 +13329,14 @@
         <v>215</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B69" s="71"/>
+      <c r="A69" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B69" s="74"/>
       <c r="C69" s="0" t="s">
         <v>216</v>
       </c>
@@ -13313,14 +13344,14 @@
         <v>217</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B70" s="71"/>
+      <c r="A70" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B70" s="74"/>
       <c r="C70" s="0" t="s">
         <v>218</v>
       </c>
@@ -13328,14 +13359,14 @@
         <v>219</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B71" s="71"/>
+      <c r="A71" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B71" s="74"/>
       <c r="C71" s="0" t="s">
         <v>220</v>
       </c>
@@ -13343,14 +13374,14 @@
         <v>221</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B72" s="71"/>
+      <c r="A72" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B72" s="74"/>
       <c r="C72" s="0" t="s">
         <v>222</v>
       </c>
@@ -13358,14 +13389,14 @@
         <v>223</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B73" s="71"/>
+      <c r="A73" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B73" s="74"/>
       <c r="C73" s="0" t="s">
         <v>224</v>
       </c>
@@ -13373,14 +13404,14 @@
         <v>225</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B74" s="71"/>
+      <c r="A74" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B74" s="74"/>
       <c r="C74" s="0" t="s">
         <v>226</v>
       </c>
@@ -13388,14 +13419,14 @@
         <v>227</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="75"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B75" s="71"/>
+      <c r="A75" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B75" s="74"/>
       <c r="C75" s="0" t="s">
         <v>228</v>
       </c>
@@ -13403,14 +13434,14 @@
         <v>229</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B76" s="71"/>
+      <c r="A76" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B76" s="74"/>
       <c r="C76" s="0" t="s">
         <v>230</v>
       </c>
@@ -13418,14 +13449,14 @@
         <v>231</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B77" s="71"/>
+      <c r="A77" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B77" s="74"/>
       <c r="C77" s="0" t="s">
         <v>232</v>
       </c>
@@ -13433,14 +13464,14 @@
         <v>233</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B78" s="73"/>
+      <c r="A78" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B78" s="76"/>
       <c r="C78" s="0" t="s">
         <v>234</v>
       </c>
@@ -13448,14 +13479,14 @@
         <v>235</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="72"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B79" s="71"/>
+      <c r="A79" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B79" s="74"/>
       <c r="C79" s="0" t="s">
         <v>236</v>
       </c>
@@ -13463,14 +13494,14 @@
         <v>237</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B80" s="71"/>
+      <c r="A80" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B80" s="74"/>
       <c r="C80" s="0" t="s">
         <v>238</v>
       </c>
@@ -13478,14 +13509,14 @@
         <v>239</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="72"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B81" s="71"/>
+      <c r="A81" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B81" s="74"/>
       <c r="C81" s="0" t="s">
         <v>240</v>
       </c>
@@ -13493,14 +13524,14 @@
         <v>241</v>
       </c>
       <c r="H81" s="23"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="72"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B82" s="71"/>
+      <c r="A82" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B82" s="74"/>
       <c r="C82" s="0" t="s">
         <v>242</v>
       </c>
@@ -13508,14 +13539,14 @@
         <v>243</v>
       </c>
       <c r="H82" s="23"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="72"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B83" s="71"/>
+      <c r="A83" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B83" s="74"/>
       <c r="C83" s="0" t="s">
         <v>244</v>
       </c>
@@ -13523,14 +13554,14 @@
         <v>245</v>
       </c>
       <c r="H83" s="23"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B84" s="71"/>
+      <c r="A84" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B84" s="74"/>
       <c r="C84" s="0" t="s">
         <v>246</v>
       </c>
@@ -13538,14 +13569,14 @@
         <v>247</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B85" s="71"/>
+      <c r="A85" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B85" s="74"/>
       <c r="C85" s="0" t="s">
         <v>248</v>
       </c>
@@ -13553,14 +13584,14 @@
         <v>249</v>
       </c>
       <c r="H85" s="23"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B86" s="71"/>
+      <c r="A86" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B86" s="74"/>
       <c r="C86" s="0" t="s">
         <v>250</v>
       </c>
@@ -13568,14 +13599,14 @@
         <v>251</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B87" s="71"/>
+      <c r="A87" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B87" s="74"/>
       <c r="C87" s="0" t="s">
         <v>252</v>
       </c>
@@ -13583,14 +13614,14 @@
         <v>253</v>
       </c>
       <c r="H87" s="23"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B88" s="71"/>
+      <c r="A88" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B88" s="74"/>
       <c r="C88" s="0" t="s">
         <v>254</v>
       </c>
@@ -13598,14 +13629,14 @@
         <v>255</v>
       </c>
       <c r="H88" s="23"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B89" s="73"/>
+      <c r="A89" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B89" s="76"/>
       <c r="C89" s="0" t="s">
         <v>256</v>
       </c>
@@ -13613,14 +13644,14 @@
         <v>257</v>
       </c>
       <c r="H89" s="23"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B90" s="71"/>
+      <c r="A90" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B90" s="74"/>
       <c r="C90" s="0" t="s">
         <v>258</v>
       </c>
@@ -13628,14 +13659,14 @@
         <v>259</v>
       </c>
       <c r="H90" s="23"/>
-      <c r="I90" s="72"/>
-      <c r="J90" s="72"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B91" s="71"/>
+      <c r="A91" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B91" s="74"/>
       <c r="C91" s="0" t="s">
         <v>260</v>
       </c>
@@ -13643,14 +13674,14 @@
         <v>261</v>
       </c>
       <c r="H91" s="23"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="72"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B92" s="71"/>
+      <c r="A92" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B92" s="74"/>
       <c r="C92" s="0" t="s">
         <v>262</v>
       </c>
@@ -13658,14 +13689,14 @@
         <v>263</v>
       </c>
       <c r="H92" s="23"/>
-      <c r="I92" s="72"/>
-      <c r="J92" s="72"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B93" s="71"/>
+      <c r="A93" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B93" s="74"/>
       <c r="C93" s="0" t="s">
         <v>264</v>
       </c>
@@ -13673,14 +13704,14 @@
         <v>265</v>
       </c>
       <c r="H93" s="23"/>
-      <c r="I93" s="72"/>
-      <c r="J93" s="72"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B94" s="71"/>
+      <c r="A94" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B94" s="74"/>
       <c r="C94" s="0" t="s">
         <v>266</v>
       </c>
@@ -13688,14 +13719,14 @@
         <v>267</v>
       </c>
       <c r="H94" s="23"/>
-      <c r="I94" s="72"/>
-      <c r="J94" s="72"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B95" s="71"/>
+      <c r="A95" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B95" s="74"/>
       <c r="C95" s="0" t="s">
         <v>268</v>
       </c>
@@ -13703,14 +13734,14 @@
         <v>269</v>
       </c>
       <c r="H95" s="23"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B96" s="71"/>
+      <c r="A96" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B96" s="74"/>
       <c r="C96" s="0" t="s">
         <v>270</v>
       </c>
@@ -13718,14 +13749,14 @@
         <v>271</v>
       </c>
       <c r="H96" s="23"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="71" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B97" s="71"/>
+      <c r="A97" s="74" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B97" s="74"/>
       <c r="C97" s="0" t="s">
         <v>272</v>
       </c>
@@ -13733,14 +13764,14 @@
         <v>273</v>
       </c>
       <c r="H97" s="23"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="72"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="71" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B98" s="71"/>
+      <c r="A98" s="74" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B98" s="74"/>
       <c r="C98" s="0" t="s">
         <v>274</v>
       </c>
@@ -13748,14 +13779,14 @@
         <v>275</v>
       </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B99" s="71"/>
+      <c r="A99" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B99" s="74"/>
       <c r="C99" s="0" t="s">
         <v>276</v>
       </c>
@@ -13763,14 +13794,14 @@
         <v>277</v>
       </c>
       <c r="H99" s="23"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B100" s="71"/>
+      <c r="A100" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B100" s="74"/>
       <c r="C100" s="0" t="s">
         <v>278</v>
       </c>
@@ -13778,14 +13809,14 @@
         <v>279</v>
       </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B101" s="71"/>
+      <c r="A101" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B101" s="74"/>
       <c r="C101" s="0" t="s">
         <v>280</v>
       </c>
@@ -13793,14 +13824,14 @@
         <v>281</v>
       </c>
       <c r="H101" s="23"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B102" s="71"/>
+      <c r="A102" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B102" s="74"/>
       <c r="C102" s="0" t="s">
         <v>282</v>
       </c>
@@ -13808,14 +13839,14 @@
         <v>283</v>
       </c>
       <c r="H102" s="23"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B103" s="71"/>
+      <c r="A103" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B103" s="74"/>
       <c r="C103" s="0" t="s">
         <v>284</v>
       </c>
@@ -13823,14 +13854,14 @@
         <v>285</v>
       </c>
       <c r="H103" s="23"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B104" s="71"/>
+      <c r="A104" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B104" s="74"/>
       <c r="C104" s="0" t="s">
         <v>286</v>
       </c>
@@ -13838,14 +13869,14 @@
         <v>287</v>
       </c>
       <c r="H104" s="23"/>
-      <c r="I104" s="72"/>
-      <c r="J104" s="72"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="71" t="s">
+      <c r="A105" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="71"/>
+      <c r="B105" s="74"/>
       <c r="C105" s="0" t="s">
         <v>288</v>
       </c>
@@ -13853,14 +13884,14 @@
         <v>289</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="75"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B106" s="71"/>
+      <c r="A106" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B106" s="74"/>
       <c r="C106" s="0" t="s">
         <v>290</v>
       </c>
@@ -13868,14 +13899,14 @@
         <v>291</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B107" s="71"/>
+      <c r="A107" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B107" s="74"/>
       <c r="C107" s="0" t="s">
         <v>292</v>
       </c>
@@ -13883,14 +13914,14 @@
         <v>293</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="72"/>
-      <c r="J107" s="72"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B108" s="71"/>
+      <c r="A108" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B108" s="74"/>
       <c r="C108" s="0" t="s">
         <v>294</v>
       </c>
@@ -13898,14 +13929,14 @@
         <v>295</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="72"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B109" s="71"/>
+      <c r="A109" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B109" s="74"/>
       <c r="C109" s="0" t="s">
         <v>296</v>
       </c>
@@ -13913,14 +13944,14 @@
         <v>297</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="72"/>
-      <c r="J109" s="72"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B110" s="71"/>
+      <c r="A110" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B110" s="74"/>
       <c r="C110" s="0" t="s">
         <v>298</v>
       </c>
@@ -13928,14 +13959,14 @@
         <v>299</v>
       </c>
       <c r="H110" s="23"/>
-      <c r="I110" s="72"/>
-      <c r="J110" s="72"/>
+      <c r="I110" s="75"/>
+      <c r="J110" s="75"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B111" s="71"/>
+      <c r="A111" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B111" s="74"/>
       <c r="C111" s="0" t="s">
         <v>300</v>
       </c>
@@ -13943,14 +13974,14 @@
         <v>301</v>
       </c>
       <c r="H111" s="23"/>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B112" s="71"/>
+      <c r="A112" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B112" s="74"/>
       <c r="C112" s="0" t="s">
         <v>302</v>
       </c>
@@ -13958,14 +13989,14 @@
         <v>303</v>
       </c>
       <c r="H112" s="23"/>
-      <c r="I112" s="72"/>
-      <c r="J112" s="72"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B113" s="71"/>
+      <c r="A113" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B113" s="74"/>
       <c r="C113" s="0" t="s">
         <v>304</v>
       </c>
@@ -13973,14 +14004,14 @@
         <v>305</v>
       </c>
       <c r="H113" s="23"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="72"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B114" s="71"/>
+      <c r="A114" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B114" s="74"/>
       <c r="C114" s="0" t="s">
         <v>306</v>
       </c>
@@ -13988,14 +14019,14 @@
         <v>307</v>
       </c>
       <c r="H114" s="23"/>
-      <c r="I114" s="72"/>
-      <c r="J114" s="72"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B115" s="71"/>
+      <c r="A115" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B115" s="74"/>
       <c r="C115" s="0" t="s">
         <v>308</v>
       </c>
@@ -14003,14 +14034,14 @@
         <v>309</v>
       </c>
       <c r="H115" s="23"/>
-      <c r="I115" s="72"/>
-      <c r="J115" s="72"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="71" t="s">
+      <c r="A116" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="B116" s="71"/>
+      <c r="B116" s="74"/>
       <c r="C116" s="0" t="s">
         <v>310</v>
       </c>
@@ -14018,14 +14049,14 @@
         <v>311</v>
       </c>
       <c r="H116" s="23"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="72"/>
+      <c r="I116" s="75"/>
+      <c r="J116" s="75"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B117" s="71"/>
+      <c r="A117" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B117" s="74"/>
       <c r="C117" s="0" t="s">
         <v>312</v>
       </c>
@@ -14033,14 +14064,14 @@
         <v>313</v>
       </c>
       <c r="H117" s="23"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B118" s="71"/>
+      <c r="A118" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B118" s="74"/>
       <c r="C118" s="0" t="s">
         <v>314</v>
       </c>
@@ -14048,14 +14079,14 @@
         <v>315</v>
       </c>
       <c r="H118" s="23"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B119" s="71"/>
+      <c r="A119" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B119" s="74"/>
       <c r="C119" s="0" t="s">
         <v>316</v>
       </c>
@@ -14063,14 +14094,14 @@
         <v>317</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B120" s="71"/>
+      <c r="A120" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B120" s="74"/>
       <c r="C120" s="0" t="s">
         <v>318</v>
       </c>
@@ -14078,14 +14109,14 @@
         <v>319</v>
       </c>
       <c r="H120" s="23"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B121" s="71"/>
+      <c r="A121" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B121" s="74"/>
       <c r="C121" s="0" t="s">
         <v>320</v>
       </c>
@@ -14093,14 +14124,14 @@
         <v>321</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="72"/>
-      <c r="J121" s="72"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B122" s="71"/>
+      <c r="A122" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B122" s="74"/>
       <c r="C122" s="0" t="s">
         <v>322</v>
       </c>
@@ -14108,14 +14139,14 @@
         <v>323</v>
       </c>
       <c r="H122" s="23"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="72"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="75"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B123" s="71"/>
+      <c r="A123" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B123" s="74"/>
       <c r="C123" s="0" t="s">
         <v>324</v>
       </c>
@@ -14123,14 +14154,14 @@
         <v>325</v>
       </c>
       <c r="H123" s="23"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
+      <c r="I123" s="75"/>
+      <c r="J123" s="75"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B124" s="71"/>
+      <c r="A124" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B124" s="74"/>
       <c r="C124" s="0" t="s">
         <v>326</v>
       </c>
@@ -14138,14 +14169,14 @@
         <v>327</v>
       </c>
       <c r="H124" s="23"/>
-      <c r="I124" s="72"/>
-      <c r="J124" s="72"/>
+      <c r="I124" s="75"/>
+      <c r="J124" s="75"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B125" s="71"/>
+      <c r="A125" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B125" s="74"/>
       <c r="C125" s="0" t="s">
         <v>328</v>
       </c>
@@ -14153,14 +14184,14 @@
         <v>329</v>
       </c>
       <c r="H125" s="23"/>
-      <c r="I125" s="72"/>
-      <c r="J125" s="72"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="75"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B126" s="71"/>
+      <c r="A126" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B126" s="74"/>
       <c r="C126" s="0" t="s">
         <v>330</v>
       </c>
@@ -14168,14 +14199,14 @@
         <v>331</v>
       </c>
       <c r="H126" s="23"/>
-      <c r="I126" s="72"/>
-      <c r="J126" s="72"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="75"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B127" s="71"/>
+      <c r="A127" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B127" s="74"/>
       <c r="C127" s="0" t="s">
         <v>332</v>
       </c>
@@ -14183,14 +14214,14 @@
         <v>333</v>
       </c>
       <c r="H127" s="23"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
+      <c r="I127" s="75"/>
+      <c r="J127" s="75"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B128" s="71"/>
+      <c r="A128" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B128" s="74"/>
       <c r="C128" s="0" t="s">
         <v>334</v>
       </c>
@@ -14198,14 +14229,14 @@
         <v>335</v>
       </c>
       <c r="H128" s="23"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
+      <c r="I128" s="75"/>
+      <c r="J128" s="75"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B129" s="71"/>
+      <c r="A129" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B129" s="74"/>
       <c r="C129" s="0" t="s">
         <v>336</v>
       </c>
@@ -14213,14 +14244,14 @@
         <v>337</v>
       </c>
       <c r="H129" s="23"/>
-      <c r="I129" s="72"/>
-      <c r="J129" s="72"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B130" s="71"/>
+      <c r="A130" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B130" s="74"/>
       <c r="C130" s="0" t="s">
         <v>338</v>
       </c>
@@ -14228,14 +14259,14 @@
         <v>339</v>
       </c>
       <c r="H130" s="23"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="72"/>
+      <c r="I130" s="75"/>
+      <c r="J130" s="75"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B131" s="71"/>
+      <c r="A131" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B131" s="74"/>
       <c r="C131" s="0" t="s">
         <v>340</v>
       </c>
@@ -14243,14 +14274,14 @@
         <v>341</v>
       </c>
       <c r="H131" s="23"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B132" s="71"/>
+      <c r="A132" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B132" s="74"/>
       <c r="C132" s="0" t="s">
         <v>342</v>
       </c>
@@ -14258,14 +14289,14 @@
         <v>343</v>
       </c>
       <c r="H132" s="23"/>
-      <c r="I132" s="72"/>
-      <c r="J132" s="72"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B133" s="71"/>
+      <c r="A133" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B133" s="74"/>
       <c r="C133" s="0" t="s">
         <v>344</v>
       </c>
@@ -14273,14 +14304,14 @@
         <v>345</v>
       </c>
       <c r="H133" s="23"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B134" s="71"/>
+      <c r="A134" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B134" s="74"/>
       <c r="C134" s="0" t="s">
         <v>346</v>
       </c>
@@ -14288,14 +14319,14 @@
         <v>347</v>
       </c>
       <c r="H134" s="23"/>
-      <c r="I134" s="72"/>
-      <c r="J134" s="72"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B135" s="71"/>
+      <c r="A135" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B135" s="74"/>
       <c r="C135" s="0" t="s">
         <v>348</v>
       </c>
@@ -14303,14 +14334,14 @@
         <v>349</v>
       </c>
       <c r="H135" s="23"/>
-      <c r="I135" s="72"/>
-      <c r="J135" s="72"/>
+      <c r="I135" s="75"/>
+      <c r="J135" s="75"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="71" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B136" s="71"/>
+      <c r="A136" s="74" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B136" s="74"/>
       <c r="C136" s="0" t="s">
         <v>350</v>
       </c>
@@ -14318,14 +14349,14 @@
         <v>351</v>
       </c>
       <c r="H136" s="23"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
+      <c r="I136" s="75"/>
+      <c r="J136" s="75"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B137" s="71"/>
+      <c r="A137" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B137" s="74"/>
       <c r="C137" s="0" t="s">
         <v>352</v>
       </c>
@@ -14333,14 +14364,14 @@
         <v>353</v>
       </c>
       <c r="H137" s="23"/>
-      <c r="I137" s="72"/>
-      <c r="J137" s="72"/>
+      <c r="I137" s="75"/>
+      <c r="J137" s="75"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B138" s="71"/>
+      <c r="A138" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B138" s="74"/>
       <c r="C138" s="0" t="s">
         <v>354</v>
       </c>
@@ -14348,14 +14379,14 @@
         <v>355</v>
       </c>
       <c r="H138" s="23"/>
-      <c r="I138" s="72"/>
-      <c r="J138" s="72"/>
+      <c r="I138" s="75"/>
+      <c r="J138" s="75"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B139" s="71"/>
+      <c r="A139" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B139" s="74"/>
       <c r="C139" s="0" t="s">
         <v>356</v>
       </c>
@@ -14363,14 +14394,14 @@
         <v>357</v>
       </c>
       <c r="H139" s="23"/>
-      <c r="I139" s="72"/>
-      <c r="J139" s="72"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="75"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B140" s="71"/>
+      <c r="A140" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B140" s="74"/>
       <c r="C140" s="0" t="s">
         <v>358</v>
       </c>
@@ -14378,14 +14409,14 @@
         <v>359</v>
       </c>
       <c r="H140" s="23"/>
-      <c r="I140" s="72"/>
-      <c r="J140" s="72"/>
+      <c r="I140" s="75"/>
+      <c r="J140" s="75"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B141" s="71"/>
+      <c r="A141" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B141" s="74"/>
       <c r="C141" s="0" t="s">
         <v>360</v>
       </c>
@@ -14393,14 +14424,14 @@
         <v>361</v>
       </c>
       <c r="H141" s="23"/>
-      <c r="I141" s="72"/>
-      <c r="J141" s="72"/>
+      <c r="I141" s="75"/>
+      <c r="J141" s="75"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B142" s="71"/>
+      <c r="A142" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B142" s="74"/>
       <c r="C142" s="0" t="s">
         <v>362</v>
       </c>
@@ -14408,14 +14439,14 @@
         <v>363</v>
       </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="72"/>
+      <c r="I142" s="75"/>
+      <c r="J142" s="75"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B143" s="71"/>
+      <c r="A143" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B143" s="74"/>
       <c r="C143" s="0" t="s">
         <v>364</v>
       </c>
@@ -14423,14 +14454,14 @@
         <v>365</v>
       </c>
       <c r="H143" s="23"/>
-      <c r="I143" s="72"/>
-      <c r="J143" s="72"/>
+      <c r="I143" s="75"/>
+      <c r="J143" s="75"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B144" s="71"/>
+      <c r="A144" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B144" s="74"/>
       <c r="C144" s="0" t="s">
         <v>366</v>
       </c>
@@ -14438,14 +14469,14 @@
         <v>367</v>
       </c>
       <c r="H144" s="23"/>
-      <c r="I144" s="72"/>
-      <c r="J144" s="72"/>
+      <c r="I144" s="75"/>
+      <c r="J144" s="75"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B145" s="71"/>
+      <c r="A145" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B145" s="74"/>
       <c r="C145" s="0" t="s">
         <v>368</v>
       </c>
@@ -14453,14 +14484,14 @@
         <v>369</v>
       </c>
       <c r="H145" s="23"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="75"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B146" s="71"/>
+      <c r="A146" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B146" s="74"/>
       <c r="C146" s="0" t="s">
         <v>370</v>
       </c>
@@ -14468,14 +14499,14 @@
         <v>371</v>
       </c>
       <c r="H146" s="23"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
+      <c r="I146" s="75"/>
+      <c r="J146" s="75"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B147" s="71"/>
+      <c r="A147" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B147" s="74"/>
       <c r="C147" s="0" t="s">
         <v>372</v>
       </c>
@@ -14483,14 +14514,14 @@
         <v>373</v>
       </c>
       <c r="H147" s="23"/>
-      <c r="I147" s="72"/>
-      <c r="J147" s="72"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B148" s="71"/>
+      <c r="A148" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B148" s="74"/>
       <c r="C148" s="0" t="s">
         <v>374</v>
       </c>
@@ -14498,14 +14529,14 @@
         <v>375</v>
       </c>
       <c r="H148" s="23"/>
-      <c r="I148" s="72"/>
-      <c r="J148" s="72"/>
+      <c r="I148" s="75"/>
+      <c r="J148" s="75"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B149" s="71"/>
+      <c r="A149" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B149" s="74"/>
       <c r="C149" s="0" t="s">
         <v>376</v>
       </c>
@@ -14513,14 +14544,14 @@
         <v>377</v>
       </c>
       <c r="H149" s="23"/>
-      <c r="I149" s="72"/>
-      <c r="J149" s="72"/>
+      <c r="I149" s="75"/>
+      <c r="J149" s="75"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B150" s="71"/>
+      <c r="A150" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B150" s="74"/>
       <c r="C150" s="0" t="s">
         <v>378</v>
       </c>
@@ -14528,14 +14559,14 @@
         <v>379</v>
       </c>
       <c r="H150" s="23"/>
-      <c r="I150" s="72"/>
-      <c r="J150" s="72"/>
+      <c r="I150" s="75"/>
+      <c r="J150" s="75"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B151" s="71"/>
+      <c r="A151" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B151" s="74"/>
       <c r="C151" s="0" t="s">
         <v>380</v>
       </c>
@@ -14543,14 +14574,14 @@
         <v>381</v>
       </c>
       <c r="H151" s="23"/>
-      <c r="I151" s="72"/>
-      <c r="J151" s="72"/>
+      <c r="I151" s="75"/>
+      <c r="J151" s="75"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B152" s="71"/>
+      <c r="A152" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B152" s="74"/>
       <c r="C152" s="0" t="s">
         <v>382</v>
       </c>
@@ -14558,14 +14589,14 @@
         <v>383</v>
       </c>
       <c r="H152" s="23"/>
-      <c r="I152" s="72"/>
-      <c r="J152" s="72"/>
+      <c r="I152" s="75"/>
+      <c r="J152" s="75"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B153" s="71"/>
+      <c r="A153" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B153" s="74"/>
       <c r="C153" s="0" t="s">
         <v>384</v>
       </c>
@@ -14573,14 +14604,14 @@
         <v>385</v>
       </c>
       <c r="H153" s="23"/>
-      <c r="I153" s="72"/>
-      <c r="J153" s="72"/>
+      <c r="I153" s="75"/>
+      <c r="J153" s="75"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B154" s="71"/>
+      <c r="A154" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B154" s="74"/>
       <c r="C154" s="0" t="s">
         <v>386</v>
       </c>
@@ -14588,14 +14619,14 @@
         <v>387</v>
       </c>
       <c r="H154" s="23"/>
-      <c r="I154" s="72"/>
-      <c r="J154" s="72"/>
+      <c r="I154" s="75"/>
+      <c r="J154" s="75"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B155" s="71"/>
+      <c r="A155" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B155" s="74"/>
       <c r="C155" s="0" t="s">
         <v>388</v>
       </c>
@@ -14603,14 +14634,14 @@
         <v>389</v>
       </c>
       <c r="H155" s="23"/>
-      <c r="I155" s="72"/>
-      <c r="J155" s="72"/>
+      <c r="I155" s="75"/>
+      <c r="J155" s="75"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B156" s="71"/>
+      <c r="A156" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B156" s="74"/>
       <c r="C156" s="0" t="s">
         <v>390</v>
       </c>
@@ -14618,14 +14649,14 @@
         <v>391</v>
       </c>
       <c r="H156" s="23"/>
-      <c r="I156" s="72"/>
-      <c r="J156" s="72"/>
+      <c r="I156" s="75"/>
+      <c r="J156" s="75"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B157" s="71"/>
+      <c r="A157" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B157" s="74"/>
       <c r="C157" s="0" t="s">
         <v>392</v>
       </c>
@@ -14633,14 +14664,14 @@
         <v>393</v>
       </c>
       <c r="H157" s="23"/>
-      <c r="I157" s="72"/>
-      <c r="J157" s="72"/>
+      <c r="I157" s="75"/>
+      <c r="J157" s="75"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B158" s="71"/>
+      <c r="A158" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B158" s="74"/>
       <c r="C158" s="0" t="s">
         <v>394</v>
       </c>
@@ -14648,14 +14679,14 @@
         <v>395</v>
       </c>
       <c r="H158" s="23"/>
-      <c r="I158" s="72"/>
-      <c r="J158" s="72"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B159" s="71"/>
+      <c r="A159" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B159" s="74"/>
       <c r="C159" s="0" t="s">
         <v>396</v>
       </c>
@@ -14663,14 +14694,14 @@
         <v>397</v>
       </c>
       <c r="H159" s="23"/>
-      <c r="I159" s="72"/>
-      <c r="J159" s="72"/>
+      <c r="I159" s="75"/>
+      <c r="J159" s="75"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B160" s="71"/>
+      <c r="A160" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B160" s="74"/>
       <c r="C160" s="0" t="s">
         <v>398</v>
       </c>
@@ -14678,14 +14709,14 @@
         <v>399</v>
       </c>
       <c r="H160" s="23"/>
-      <c r="I160" s="72"/>
-      <c r="J160" s="72"/>
+      <c r="I160" s="75"/>
+      <c r="J160" s="75"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B161" s="71"/>
+      <c r="A161" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B161" s="74"/>
       <c r="C161" s="0" t="s">
         <v>400</v>
       </c>
@@ -14693,14 +14724,14 @@
         <v>401</v>
       </c>
       <c r="H161" s="23"/>
-      <c r="I161" s="72"/>
-      <c r="J161" s="72"/>
+      <c r="I161" s="75"/>
+      <c r="J161" s="75"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B162" s="71"/>
+      <c r="A162" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B162" s="74"/>
       <c r="C162" s="0" t="s">
         <v>402</v>
       </c>
@@ -14708,14 +14739,14 @@
         <v>403</v>
       </c>
       <c r="H162" s="23"/>
-      <c r="I162" s="72"/>
-      <c r="J162" s="72"/>
+      <c r="I162" s="75"/>
+      <c r="J162" s="75"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B163" s="71"/>
+      <c r="A163" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B163" s="74"/>
       <c r="C163" s="0" t="s">
         <v>404</v>
       </c>
@@ -14723,14 +14754,14 @@
         <v>405</v>
       </c>
       <c r="H163" s="23"/>
-      <c r="I163" s="72"/>
-      <c r="J163" s="72"/>
+      <c r="I163" s="75"/>
+      <c r="J163" s="75"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B164" s="71"/>
+      <c r="A164" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B164" s="74"/>
       <c r="C164" s="0" t="s">
         <v>406</v>
       </c>
@@ -14738,14 +14769,14 @@
         <v>407</v>
       </c>
       <c r="H164" s="23"/>
-      <c r="I164" s="72"/>
-      <c r="J164" s="72"/>
+      <c r="I164" s="75"/>
+      <c r="J164" s="75"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B165" s="71"/>
+      <c r="A165" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B165" s="74"/>
       <c r="C165" s="0" t="s">
         <v>408</v>
       </c>
@@ -14753,14 +14784,14 @@
         <v>409</v>
       </c>
       <c r="H165" s="23"/>
-      <c r="I165" s="72"/>
-      <c r="J165" s="72"/>
+      <c r="I165" s="75"/>
+      <c r="J165" s="75"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B166" s="71"/>
+      <c r="A166" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B166" s="74"/>
       <c r="C166" s="0" t="s">
         <v>410</v>
       </c>
@@ -14768,14 +14799,14 @@
         <v>411</v>
       </c>
       <c r="H166" s="23"/>
-      <c r="I166" s="72"/>
-      <c r="J166" s="72"/>
+      <c r="I166" s="75"/>
+      <c r="J166" s="75"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B167" s="71"/>
+      <c r="A167" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B167" s="74"/>
       <c r="C167" s="0" t="s">
         <v>412</v>
       </c>
@@ -14783,14 +14814,14 @@
         <v>413</v>
       </c>
       <c r="H167" s="23"/>
-      <c r="I167" s="72"/>
-      <c r="J167" s="72"/>
+      <c r="I167" s="75"/>
+      <c r="J167" s="75"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B168" s="71"/>
+      <c r="A168" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B168" s="74"/>
       <c r="C168" s="0" t="s">
         <v>414</v>
       </c>
@@ -14798,14 +14829,14 @@
         <v>415</v>
       </c>
       <c r="H168" s="23"/>
-      <c r="I168" s="72"/>
-      <c r="J168" s="72"/>
+      <c r="I168" s="75"/>
+      <c r="J168" s="75"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B169" s="71"/>
+      <c r="A169" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B169" s="74"/>
       <c r="C169" s="0" t="s">
         <v>416</v>
       </c>
@@ -14813,14 +14844,14 @@
         <v>417</v>
       </c>
       <c r="H169" s="23"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="72"/>
+      <c r="I169" s="75"/>
+      <c r="J169" s="75"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B170" s="71"/>
+      <c r="A170" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B170" s="74"/>
       <c r="C170" s="0" t="s">
         <v>418</v>
       </c>
@@ -14828,14 +14859,14 @@
         <v>419</v>
       </c>
       <c r="H170" s="23"/>
-      <c r="I170" s="72"/>
-      <c r="J170" s="72"/>
+      <c r="I170" s="75"/>
+      <c r="J170" s="75"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="71" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B171" s="71"/>
+      <c r="A171" s="74" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B171" s="74"/>
       <c r="C171" s="0" t="s">
         <v>420</v>
       </c>
@@ -14843,14 +14874,14 @@
         <v>421</v>
       </c>
       <c r="H171" s="23"/>
-      <c r="I171" s="72"/>
-      <c r="J171" s="72"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B172" s="71"/>
+      <c r="A172" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B172" s="74"/>
       <c r="C172" s="0" t="s">
         <v>422</v>
       </c>
@@ -14858,14 +14889,14 @@
         <v>423</v>
       </c>
       <c r="H172" s="23"/>
-      <c r="I172" s="72"/>
-      <c r="J172" s="72"/>
+      <c r="I172" s="75"/>
+      <c r="J172" s="75"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B173" s="71"/>
+      <c r="A173" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B173" s="74"/>
       <c r="C173" s="0" t="s">
         <v>424</v>
       </c>
@@ -14873,14 +14904,14 @@
         <v>425</v>
       </c>
       <c r="H173" s="23"/>
-      <c r="I173" s="72"/>
-      <c r="J173" s="72"/>
+      <c r="I173" s="75"/>
+      <c r="J173" s="75"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B174" s="71"/>
+      <c r="A174" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B174" s="74"/>
       <c r="C174" s="0" t="s">
         <v>426</v>
       </c>
@@ -14888,14 +14919,14 @@
         <v>427</v>
       </c>
       <c r="H174" s="23"/>
-      <c r="I174" s="72"/>
-      <c r="J174" s="72"/>
+      <c r="I174" s="75"/>
+      <c r="J174" s="75"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B175" s="71"/>
+      <c r="A175" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B175" s="74"/>
       <c r="C175" s="0" t="s">
         <v>428</v>
       </c>
@@ -14903,14 +14934,14 @@
         <v>429</v>
       </c>
       <c r="H175" s="23"/>
-      <c r="I175" s="72"/>
-      <c r="J175" s="72"/>
+      <c r="I175" s="75"/>
+      <c r="J175" s="75"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B176" s="71"/>
+      <c r="A176" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B176" s="74"/>
       <c r="C176" s="0" t="s">
         <v>430</v>
       </c>
@@ -14918,14 +14949,14 @@
         <v>431</v>
       </c>
       <c r="H176" s="23"/>
-      <c r="I176" s="72"/>
-      <c r="J176" s="72"/>
+      <c r="I176" s="75"/>
+      <c r="J176" s="75"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B177" s="71"/>
+      <c r="A177" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B177" s="74"/>
       <c r="C177" s="0" t="s">
         <v>432</v>
       </c>
@@ -14933,14 +14964,14 @@
         <v>433</v>
       </c>
       <c r="H177" s="23"/>
-      <c r="I177" s="72"/>
-      <c r="J177" s="72"/>
+      <c r="I177" s="75"/>
+      <c r="J177" s="75"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B178" s="71"/>
+      <c r="A178" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B178" s="74"/>
       <c r="C178" s="0" t="s">
         <v>434</v>
       </c>
@@ -14948,14 +14979,14 @@
         <v>435</v>
       </c>
       <c r="H178" s="23"/>
-      <c r="I178" s="72"/>
-      <c r="J178" s="72"/>
+      <c r="I178" s="75"/>
+      <c r="J178" s="75"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B179" s="71"/>
+      <c r="A179" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B179" s="74"/>
       <c r="C179" s="0" t="s">
         <v>436</v>
       </c>
@@ -14963,14 +14994,14 @@
         <v>437</v>
       </c>
       <c r="H179" s="23"/>
-      <c r="I179" s="72"/>
-      <c r="J179" s="72"/>
+      <c r="I179" s="75"/>
+      <c r="J179" s="75"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B180" s="71"/>
+      <c r="A180" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B180" s="74"/>
       <c r="C180" s="0" t="s">
         <v>438</v>
       </c>
@@ -14978,14 +15009,14 @@
         <v>439</v>
       </c>
       <c r="H180" s="23"/>
-      <c r="I180" s="72"/>
-      <c r="J180" s="72"/>
+      <c r="I180" s="75"/>
+      <c r="J180" s="75"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B181" s="71"/>
+      <c r="A181" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B181" s="74"/>
       <c r="C181" s="0" t="s">
         <v>440</v>
       </c>
@@ -14993,14 +15024,14 @@
         <v>441</v>
       </c>
       <c r="H181" s="23"/>
-      <c r="I181" s="72"/>
-      <c r="J181" s="72"/>
+      <c r="I181" s="75"/>
+      <c r="J181" s="75"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B182" s="71"/>
+      <c r="A182" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B182" s="74"/>
       <c r="C182" s="0" t="s">
         <v>442</v>
       </c>
@@ -15008,14 +15039,14 @@
         <v>443</v>
       </c>
       <c r="H182" s="23"/>
-      <c r="I182" s="72"/>
-      <c r="J182" s="72"/>
+      <c r="I182" s="75"/>
+      <c r="J182" s="75"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B183" s="71"/>
+      <c r="A183" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B183" s="74"/>
       <c r="C183" s="0" t="s">
         <v>444</v>
       </c>
@@ -15023,14 +15054,14 @@
         <v>445</v>
       </c>
       <c r="H183" s="23"/>
-      <c r="I183" s="72"/>
-      <c r="J183" s="72"/>
+      <c r="I183" s="75"/>
+      <c r="J183" s="75"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B184" s="71"/>
+      <c r="A184" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B184" s="74"/>
       <c r="C184" s="0" t="s">
         <v>446</v>
       </c>
@@ -15038,14 +15069,14 @@
         <v>447</v>
       </c>
       <c r="H184" s="23"/>
-      <c r="I184" s="72"/>
-      <c r="J184" s="72"/>
+      <c r="I184" s="75"/>
+      <c r="J184" s="75"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B185" s="71"/>
+      <c r="A185" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B185" s="74"/>
       <c r="C185" s="0" t="s">
         <v>448</v>
       </c>
@@ -15053,14 +15084,14 @@
         <v>449</v>
       </c>
       <c r="H185" s="23"/>
-      <c r="I185" s="72"/>
-      <c r="J185" s="72"/>
+      <c r="I185" s="75"/>
+      <c r="J185" s="75"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B186" s="71"/>
+      <c r="A186" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B186" s="74"/>
       <c r="C186" s="0" t="s">
         <v>450</v>
       </c>
@@ -15068,14 +15099,14 @@
         <v>451</v>
       </c>
       <c r="H186" s="23"/>
-      <c r="I186" s="72"/>
-      <c r="J186" s="72"/>
+      <c r="I186" s="75"/>
+      <c r="J186" s="75"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B187" s="71"/>
+      <c r="A187" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B187" s="74"/>
       <c r="C187" s="0" t="s">
         <v>452</v>
       </c>
@@ -15083,14 +15114,14 @@
         <v>453</v>
       </c>
       <c r="H187" s="23"/>
-      <c r="I187" s="72"/>
-      <c r="J187" s="72"/>
+      <c r="I187" s="75"/>
+      <c r="J187" s="75"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B188" s="71"/>
+      <c r="A188" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B188" s="74"/>
       <c r="C188" s="0" t="s">
         <v>454</v>
       </c>
@@ -15098,14 +15129,14 @@
         <v>455</v>
       </c>
       <c r="H188" s="23"/>
-      <c r="I188" s="72"/>
-      <c r="J188" s="72"/>
+      <c r="I188" s="75"/>
+      <c r="J188" s="75"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B189" s="71"/>
+      <c r="A189" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B189" s="74"/>
       <c r="C189" s="0" t="s">
         <v>456</v>
       </c>
@@ -15113,14 +15144,14 @@
         <v>457</v>
       </c>
       <c r="H189" s="23"/>
-      <c r="I189" s="72"/>
-      <c r="J189" s="72"/>
+      <c r="I189" s="75"/>
+      <c r="J189" s="75"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B190" s="71"/>
+      <c r="A190" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B190" s="74"/>
       <c r="C190" s="0" t="s">
         <v>458</v>
       </c>
@@ -15128,14 +15159,14 @@
         <v>459</v>
       </c>
       <c r="H190" s="23"/>
-      <c r="I190" s="72"/>
-      <c r="J190" s="72"/>
+      <c r="I190" s="75"/>
+      <c r="J190" s="75"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B191" s="71"/>
+      <c r="A191" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B191" s="74"/>
       <c r="C191" s="0" t="s">
         <v>460</v>
       </c>
@@ -15143,14 +15174,14 @@
         <v>461</v>
       </c>
       <c r="H191" s="23"/>
-      <c r="I191" s="72"/>
-      <c r="J191" s="72"/>
+      <c r="I191" s="75"/>
+      <c r="J191" s="75"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B192" s="71"/>
+      <c r="A192" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B192" s="74"/>
       <c r="C192" s="0" t="s">
         <v>462</v>
       </c>
@@ -15158,14 +15189,14 @@
         <v>463</v>
       </c>
       <c r="H192" s="23"/>
-      <c r="I192" s="72"/>
-      <c r="J192" s="72"/>
+      <c r="I192" s="75"/>
+      <c r="J192" s="75"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B193" s="71"/>
+      <c r="A193" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B193" s="74"/>
       <c r="C193" s="0" t="s">
         <v>464</v>
       </c>
@@ -15173,14 +15204,14 @@
         <v>465</v>
       </c>
       <c r="H193" s="23"/>
-      <c r="I193" s="72"/>
-      <c r="J193" s="72"/>
+      <c r="I193" s="75"/>
+      <c r="J193" s="75"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B194" s="71"/>
+      <c r="A194" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B194" s="74"/>
       <c r="C194" s="0" t="s">
         <v>466</v>
       </c>
@@ -15188,14 +15219,14 @@
         <v>467</v>
       </c>
       <c r="H194" s="23"/>
-      <c r="I194" s="72"/>
-      <c r="J194" s="72"/>
+      <c r="I194" s="75"/>
+      <c r="J194" s="75"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B195" s="71"/>
+      <c r="A195" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B195" s="74"/>
       <c r="C195" s="0" t="s">
         <v>468</v>
       </c>
@@ -15203,14 +15234,14 @@
         <v>469</v>
       </c>
       <c r="H195" s="23"/>
-      <c r="I195" s="72"/>
-      <c r="J195" s="72"/>
+      <c r="I195" s="75"/>
+      <c r="J195" s="75"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B196" s="71"/>
+      <c r="A196" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B196" s="74"/>
       <c r="C196" s="0" t="s">
         <v>470</v>
       </c>
@@ -15218,14 +15249,14 @@
         <v>471</v>
       </c>
       <c r="H196" s="23"/>
-      <c r="I196" s="72"/>
-      <c r="J196" s="72"/>
+      <c r="I196" s="75"/>
+      <c r="J196" s="75"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B197" s="71"/>
+      <c r="A197" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B197" s="74"/>
       <c r="C197" s="0" t="s">
         <v>472</v>
       </c>
@@ -15233,14 +15264,14 @@
         <v>473</v>
       </c>
       <c r="H197" s="23"/>
-      <c r="I197" s="72"/>
-      <c r="J197" s="72"/>
+      <c r="I197" s="75"/>
+      <c r="J197" s="75"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B198" s="71"/>
+      <c r="A198" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B198" s="74"/>
       <c r="C198" s="0" t="s">
         <v>474</v>
       </c>
@@ -15248,14 +15279,14 @@
         <v>475</v>
       </c>
       <c r="H198" s="23"/>
-      <c r="I198" s="72"/>
-      <c r="J198" s="72"/>
+      <c r="I198" s="75"/>
+      <c r="J198" s="75"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B199" s="71"/>
+      <c r="A199" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B199" s="74"/>
       <c r="C199" s="0" t="s">
         <v>476</v>
       </c>
@@ -15263,14 +15294,14 @@
         <v>477</v>
       </c>
       <c r="H199" s="23"/>
-      <c r="I199" s="72"/>
-      <c r="J199" s="72"/>
+      <c r="I199" s="75"/>
+      <c r="J199" s="75"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B200" s="71"/>
+      <c r="A200" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B200" s="74"/>
       <c r="C200" s="0" t="s">
         <v>478</v>
       </c>
@@ -15278,14 +15309,14 @@
         <v>479</v>
       </c>
       <c r="H200" s="23"/>
-      <c r="I200" s="72"/>
-      <c r="J200" s="72"/>
+      <c r="I200" s="75"/>
+      <c r="J200" s="75"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B201" s="71"/>
+      <c r="A201" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B201" s="74"/>
       <c r="C201" s="0" t="s">
         <v>480</v>
       </c>
@@ -15293,14 +15324,14 @@
         <v>481</v>
       </c>
       <c r="H201" s="23"/>
-      <c r="I201" s="72"/>
-      <c r="J201" s="72"/>
+      <c r="I201" s="75"/>
+      <c r="J201" s="75"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B202" s="71"/>
+      <c r="A202" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B202" s="74"/>
       <c r="C202" s="0" t="s">
         <v>482</v>
       </c>
@@ -15308,14 +15339,14 @@
         <v>483</v>
       </c>
       <c r="H202" s="23"/>
-      <c r="I202" s="72"/>
-      <c r="J202" s="72"/>
+      <c r="I202" s="75"/>
+      <c r="J202" s="75"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B203" s="71"/>
+      <c r="A203" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B203" s="74"/>
       <c r="C203" s="0" t="s">
         <v>484</v>
       </c>
@@ -15323,14 +15354,14 @@
         <v>485</v>
       </c>
       <c r="H203" s="23"/>
-      <c r="I203" s="72"/>
-      <c r="J203" s="72"/>
+      <c r="I203" s="75"/>
+      <c r="J203" s="75"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="71" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B204" s="71"/>
+      <c r="A204" s="74" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B204" s="74"/>
       <c r="C204" s="0" t="s">
         <v>486</v>
       </c>
@@ -15338,14 +15369,14 @@
         <v>487</v>
       </c>
       <c r="H204" s="23"/>
-      <c r="I204" s="72"/>
-      <c r="J204" s="72"/>
+      <c r="I204" s="75"/>
+      <c r="J204" s="75"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B205" s="71"/>
+      <c r="A205" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B205" s="74"/>
       <c r="C205" s="0" t="s">
         <v>488</v>
       </c>
@@ -15353,14 +15384,14 @@
         <v>489</v>
       </c>
       <c r="H205" s="23"/>
-      <c r="I205" s="72"/>
-      <c r="J205" s="72"/>
+      <c r="I205" s="75"/>
+      <c r="J205" s="75"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B206" s="71"/>
+      <c r="A206" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B206" s="74"/>
       <c r="C206" s="0" t="s">
         <v>490</v>
       </c>
@@ -15368,14 +15399,14 @@
         <v>491</v>
       </c>
       <c r="H206" s="23"/>
-      <c r="I206" s="72"/>
-      <c r="J206" s="72"/>
+      <c r="I206" s="75"/>
+      <c r="J206" s="75"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B207" s="71"/>
+      <c r="A207" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B207" s="74"/>
       <c r="C207" s="0" t="s">
         <v>492</v>
       </c>
@@ -15383,14 +15414,14 @@
         <v>493</v>
       </c>
       <c r="H207" s="23"/>
-      <c r="I207" s="72"/>
-      <c r="J207" s="72"/>
+      <c r="I207" s="75"/>
+      <c r="J207" s="75"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B208" s="71"/>
+      <c r="A208" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B208" s="74"/>
       <c r="C208" s="0" t="s">
         <v>494</v>
       </c>
@@ -15398,14 +15429,14 @@
         <v>495</v>
       </c>
       <c r="H208" s="23"/>
-      <c r="I208" s="72"/>
-      <c r="J208" s="72"/>
+      <c r="I208" s="75"/>
+      <c r="J208" s="75"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B209" s="71"/>
+      <c r="A209" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B209" s="74"/>
       <c r="C209" s="0" t="s">
         <v>496</v>
       </c>
@@ -15413,14 +15444,14 @@
         <v>497</v>
       </c>
       <c r="H209" s="23"/>
-      <c r="I209" s="72"/>
-      <c r="J209" s="72"/>
+      <c r="I209" s="75"/>
+      <c r="J209" s="75"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B210" s="71"/>
+      <c r="A210" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B210" s="74"/>
       <c r="C210" s="0" t="s">
         <v>498</v>
       </c>
@@ -15428,14 +15459,14 @@
         <v>499</v>
       </c>
       <c r="H210" s="23"/>
-      <c r="I210" s="72"/>
-      <c r="J210" s="72"/>
+      <c r="I210" s="75"/>
+      <c r="J210" s="75"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B211" s="71"/>
+      <c r="A211" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B211" s="74"/>
       <c r="C211" s="0" t="s">
         <v>500</v>
       </c>
@@ -15443,14 +15474,14 @@
         <v>501</v>
       </c>
       <c r="H211" s="23"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
+      <c r="I211" s="75"/>
+      <c r="J211" s="75"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B212" s="71"/>
+      <c r="A212" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B212" s="74"/>
       <c r="C212" s="0" t="s">
         <v>502</v>
       </c>
@@ -15458,14 +15489,14 @@
         <v>503</v>
       </c>
       <c r="H212" s="23"/>
-      <c r="I212" s="72"/>
-      <c r="J212" s="72"/>
+      <c r="I212" s="75"/>
+      <c r="J212" s="75"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B213" s="71"/>
+      <c r="A213" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B213" s="74"/>
       <c r="C213" s="0" t="s">
         <v>504</v>
       </c>
@@ -15473,14 +15504,14 @@
         <v>505</v>
       </c>
       <c r="H213" s="23"/>
-      <c r="I213" s="72"/>
-      <c r="J213" s="72"/>
+      <c r="I213" s="75"/>
+      <c r="J213" s="75"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B214" s="71"/>
+      <c r="A214" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B214" s="74"/>
       <c r="C214" s="0" t="s">
         <v>506</v>
       </c>
@@ -15488,14 +15519,14 @@
         <v>507</v>
       </c>
       <c r="H214" s="23"/>
-      <c r="I214" s="72"/>
-      <c r="J214" s="72"/>
+      <c r="I214" s="75"/>
+      <c r="J214" s="75"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B215" s="71"/>
+      <c r="A215" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B215" s="74"/>
       <c r="C215" s="0" t="s">
         <v>508</v>
       </c>
@@ -15503,14 +15534,14 @@
         <v>509</v>
       </c>
       <c r="H215" s="23"/>
-      <c r="I215" s="72"/>
-      <c r="J215" s="72"/>
+      <c r="I215" s="75"/>
+      <c r="J215" s="75"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B216" s="71"/>
+      <c r="A216" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B216" s="74"/>
       <c r="C216" s="0" t="s">
         <v>510</v>
       </c>
@@ -15518,14 +15549,14 @@
         <v>511</v>
       </c>
       <c r="H216" s="23"/>
-      <c r="I216" s="72"/>
-      <c r="J216" s="72"/>
+      <c r="I216" s="75"/>
+      <c r="J216" s="75"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B217" s="71"/>
+      <c r="A217" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B217" s="74"/>
       <c r="C217" s="0" t="s">
         <v>512</v>
       </c>
@@ -15533,14 +15564,14 @@
         <v>513</v>
       </c>
       <c r="H217" s="23"/>
-      <c r="I217" s="72"/>
-      <c r="J217" s="72"/>
+      <c r="I217" s="75"/>
+      <c r="J217" s="75"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B218" s="71"/>
+      <c r="A218" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B218" s="74"/>
       <c r="C218" s="0" t="s">
         <v>514</v>
       </c>
@@ -15548,14 +15579,14 @@
         <v>515</v>
       </c>
       <c r="H218" s="23"/>
-      <c r="I218" s="72"/>
-      <c r="J218" s="72"/>
+      <c r="I218" s="75"/>
+      <c r="J218" s="75"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B219" s="71"/>
+      <c r="A219" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B219" s="74"/>
       <c r="C219" s="0" t="s">
         <v>516</v>
       </c>
@@ -15563,14 +15594,14 @@
         <v>517</v>
       </c>
       <c r="H219" s="23"/>
-      <c r="I219" s="72"/>
-      <c r="J219" s="72"/>
+      <c r="I219" s="75"/>
+      <c r="J219" s="75"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B220" s="71"/>
+      <c r="A220" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B220" s="74"/>
       <c r="C220" s="0" t="s">
         <v>518</v>
       </c>
@@ -15578,14 +15609,14 @@
         <v>519</v>
       </c>
       <c r="H220" s="23"/>
-      <c r="I220" s="72"/>
-      <c r="J220" s="72"/>
+      <c r="I220" s="75"/>
+      <c r="J220" s="75"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B221" s="71"/>
+      <c r="A221" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B221" s="74"/>
       <c r="C221" s="0" t="s">
         <v>520</v>
       </c>
@@ -15593,14 +15624,14 @@
         <v>521</v>
       </c>
       <c r="H221" s="23"/>
-      <c r="I221" s="72"/>
-      <c r="J221" s="72"/>
+      <c r="I221" s="75"/>
+      <c r="J221" s="75"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B222" s="71"/>
+      <c r="A222" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B222" s="74"/>
       <c r="C222" s="0" t="s">
         <v>522</v>
       </c>
@@ -15608,14 +15639,14 @@
         <v>523</v>
       </c>
       <c r="H222" s="23"/>
-      <c r="I222" s="72"/>
-      <c r="J222" s="72"/>
+      <c r="I222" s="75"/>
+      <c r="J222" s="75"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B223" s="71"/>
+      <c r="A223" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B223" s="74"/>
       <c r="C223" s="0" t="s">
         <v>524</v>
       </c>
@@ -15623,14 +15654,14 @@
         <v>525</v>
       </c>
       <c r="H223" s="23"/>
-      <c r="I223" s="72"/>
-      <c r="J223" s="72"/>
+      <c r="I223" s="75"/>
+      <c r="J223" s="75"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B224" s="71"/>
+      <c r="A224" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B224" s="74"/>
       <c r="C224" s="0" t="s">
         <v>526</v>
       </c>
@@ -15638,14 +15669,14 @@
         <v>527</v>
       </c>
       <c r="H224" s="23"/>
-      <c r="I224" s="72"/>
-      <c r="J224" s="72"/>
+      <c r="I224" s="75"/>
+      <c r="J224" s="75"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B225" s="71"/>
+      <c r="A225" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B225" s="74"/>
       <c r="C225" s="0" t="s">
         <v>528</v>
       </c>
@@ -15653,14 +15684,14 @@
         <v>529</v>
       </c>
       <c r="H225" s="23"/>
-      <c r="I225" s="72"/>
-      <c r="J225" s="72"/>
+      <c r="I225" s="75"/>
+      <c r="J225" s="75"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B226" s="71"/>
+      <c r="A226" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B226" s="74"/>
       <c r="C226" s="0" t="s">
         <v>530</v>
       </c>
@@ -15668,14 +15699,14 @@
         <v>531</v>
       </c>
       <c r="H226" s="23"/>
-      <c r="I226" s="72"/>
-      <c r="J226" s="72"/>
+      <c r="I226" s="75"/>
+      <c r="J226" s="75"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B227" s="71"/>
+      <c r="A227" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B227" s="74"/>
       <c r="C227" s="0" t="s">
         <v>532</v>
       </c>
@@ -15683,14 +15714,14 @@
         <v>533</v>
       </c>
       <c r="H227" s="23"/>
-      <c r="I227" s="72"/>
-      <c r="J227" s="72"/>
+      <c r="I227" s="75"/>
+      <c r="J227" s="75"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="71" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B228" s="71"/>
+      <c r="A228" s="74" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B228" s="74"/>
       <c r="C228" s="0" t="s">
         <v>534</v>
       </c>
@@ -15698,14 +15729,14 @@
         <v>535</v>
       </c>
       <c r="H228" s="23"/>
-      <c r="I228" s="72"/>
-      <c r="J228" s="72"/>
+      <c r="I228" s="75"/>
+      <c r="J228" s="75"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B229" s="71"/>
+      <c r="A229" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B229" s="74"/>
       <c r="C229" s="0" t="s">
         <v>536</v>
       </c>
@@ -15713,14 +15744,14 @@
         <v>537</v>
       </c>
       <c r="H229" s="23"/>
-      <c r="I229" s="72"/>
-      <c r="J229" s="72"/>
+      <c r="I229" s="75"/>
+      <c r="J229" s="75"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="71" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B230" s="71"/>
+      <c r="A230" s="74" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B230" s="74"/>
       <c r="C230" s="0" t="s">
         <v>538</v>
       </c>
@@ -15728,14 +15759,14 @@
         <v>539</v>
       </c>
       <c r="H230" s="23"/>
-      <c r="I230" s="72"/>
-      <c r="J230" s="72"/>
+      <c r="I230" s="75"/>
+      <c r="J230" s="75"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B231" s="71"/>
+      <c r="A231" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B231" s="74"/>
       <c r="C231" s="0" t="s">
         <v>540</v>
       </c>
@@ -15743,14 +15774,14 @@
         <v>541</v>
       </c>
       <c r="H231" s="23"/>
-      <c r="I231" s="72"/>
-      <c r="J231" s="72"/>
+      <c r="I231" s="75"/>
+      <c r="J231" s="75"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="71" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B232" s="71"/>
+      <c r="A232" s="74" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B232" s="74"/>
       <c r="C232" s="0" t="s">
         <v>542</v>
       </c>
@@ -15758,14 +15789,14 @@
         <v>543</v>
       </c>
       <c r="H232" s="23"/>
-      <c r="I232" s="72"/>
-      <c r="J232" s="72"/>
+      <c r="I232" s="75"/>
+      <c r="J232" s="75"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B233" s="71"/>
+      <c r="A233" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B233" s="74"/>
       <c r="C233" s="0" t="s">
         <v>544</v>
       </c>
@@ -15773,14 +15804,14 @@
         <v>545</v>
       </c>
       <c r="H233" s="23"/>
-      <c r="I233" s="72"/>
-      <c r="J233" s="72"/>
+      <c r="I233" s="75"/>
+      <c r="J233" s="75"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="71" t="s">
+      <c r="A234" s="74" t="s">
         <v>546</v>
       </c>
-      <c r="B234" s="71"/>
+      <c r="B234" s="74"/>
       <c r="C234" s="0" t="s">
         <v>546</v>
       </c>
@@ -15788,14 +15819,14 @@
         <v>547</v>
       </c>
       <c r="H234" s="23"/>
-      <c r="I234" s="72"/>
-      <c r="J234" s="72"/>
+      <c r="I234" s="75"/>
+      <c r="J234" s="75"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="71" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B235" s="71"/>
+      <c r="A235" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B235" s="74"/>
       <c r="C235" s="0" t="s">
         <v>548</v>
       </c>
@@ -15803,14 +15834,14 @@
         <v>549</v>
       </c>
       <c r="H235" s="23"/>
-      <c r="I235" s="72"/>
-      <c r="J235" s="72"/>
+      <c r="I235" s="75"/>
+      <c r="J235" s="75"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="71" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B236" s="71"/>
+      <c r="A236" s="74" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B236" s="74"/>
       <c r="C236" s="0" t="s">
         <v>550</v>
       </c>
@@ -15818,14 +15849,14 @@
         <v>551</v>
       </c>
       <c r="H236" s="23"/>
-      <c r="I236" s="72"/>
-      <c r="J236" s="72"/>
+      <c r="I236" s="75"/>
+      <c r="J236" s="75"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B237" s="71"/>
+      <c r="A237" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B237" s="74"/>
       <c r="C237" s="0" t="s">
         <v>552</v>
       </c>
@@ -15833,14 +15864,14 @@
         <v>553</v>
       </c>
       <c r="H237" s="23"/>
-      <c r="I237" s="72"/>
-      <c r="J237" s="72"/>
+      <c r="I237" s="75"/>
+      <c r="J237" s="75"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B238" s="71"/>
+      <c r="A238" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B238" s="74"/>
       <c r="C238" s="0" t="s">
         <v>554</v>
       </c>
@@ -15848,14 +15879,14 @@
         <v>555</v>
       </c>
       <c r="H238" s="23"/>
-      <c r="I238" s="72"/>
-      <c r="J238" s="72"/>
+      <c r="I238" s="75"/>
+      <c r="J238" s="75"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B239" s="71"/>
+      <c r="A239" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B239" s="74"/>
       <c r="C239" s="0" t="s">
         <v>556</v>
       </c>
@@ -15863,14 +15894,14 @@
         <v>557</v>
       </c>
       <c r="H239" s="23"/>
-      <c r="I239" s="72"/>
-      <c r="J239" s="74"/>
+      <c r="I239" s="75"/>
+      <c r="J239" s="77"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="71" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B240" s="71"/>
+      <c r="A240" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B240" s="74"/>
       <c r="C240" s="0" t="s">
         <v>558</v>
       </c>
@@ -15878,12 +15909,12 @@
         <v>559</v>
       </c>
       <c r="H240" s="23"/>
-      <c r="I240" s="72"/>
-      <c r="J240" s="74"/>
+      <c r="I240" s="75"/>
+      <c r="J240" s="77"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="71" t="s">
-        <v>1020</v>
+      <c r="A241" s="74" t="s">
+        <v>1021</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>560</v>
@@ -15892,12 +15923,12 @@
         <v>561</v>
       </c>
       <c r="H241" s="23"/>
-      <c r="I241" s="72"/>
-      <c r="J241" s="74"/>
+      <c r="I241" s="75"/>
+      <c r="J241" s="77"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="71" t="s">
-        <v>1020</v>
+      <c r="A242" s="74" t="s">
+        <v>1021</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>562</v>
@@ -15906,12 +15937,12 @@
         <v>563</v>
       </c>
       <c r="H242" s="23"/>
-      <c r="I242" s="72"/>
-      <c r="J242" s="74"/>
+      <c r="I242" s="75"/>
+      <c r="J242" s="77"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="71" t="s">
-        <v>1020</v>
+      <c r="A243" s="74" t="s">
+        <v>1021</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>564</v>
@@ -15920,12 +15951,12 @@
         <v>565</v>
       </c>
       <c r="H243" s="23"/>
-      <c r="I243" s="72"/>
-      <c r="J243" s="74"/>
+      <c r="I243" s="75"/>
+      <c r="J243" s="77"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="71" t="s">
-        <v>1020</v>
+      <c r="A244" s="74" t="s">
+        <v>1021</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>566</v>
@@ -15934,12 +15965,12 @@
         <v>567</v>
       </c>
       <c r="H244" s="23"/>
-      <c r="I244" s="72"/>
-      <c r="J244" s="74"/>
+      <c r="I244" s="75"/>
+      <c r="J244" s="77"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="71" t="s">
-        <v>1014</v>
+      <c r="A245" s="74" t="s">
+        <v>1015</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>568</v>
@@ -15948,12 +15979,12 @@
         <v>569</v>
       </c>
       <c r="H245" s="23"/>
-      <c r="I245" s="72"/>
-      <c r="J245" s="74"/>
+      <c r="I245" s="75"/>
+      <c r="J245" s="77"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="71" t="s">
-        <v>1017</v>
+      <c r="A246" s="74" t="s">
+        <v>1018</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>570</v>
@@ -15962,12 +15993,12 @@
         <v>571</v>
       </c>
       <c r="H246" s="23"/>
-      <c r="I246" s="72"/>
-      <c r="J246" s="74"/>
+      <c r="I246" s="75"/>
+      <c r="J246" s="77"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="71" t="s">
-        <v>1017</v>
+      <c r="A247" s="74" t="s">
+        <v>1018</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>572</v>
@@ -15976,12 +16007,12 @@
         <v>573</v>
       </c>
       <c r="H247" s="23"/>
-      <c r="I247" s="72"/>
-      <c r="J247" s="74"/>
+      <c r="I247" s="75"/>
+      <c r="J247" s="77"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="71" t="s">
-        <v>1017</v>
+      <c r="A248" s="74" t="s">
+        <v>1018</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>574</v>
@@ -15990,8 +16021,8 @@
         <v>575</v>
       </c>
       <c r="H248" s="23"/>
-      <c r="I248" s="72"/>
-      <c r="J248" s="74"/>
+      <c r="I248" s="75"/>
+      <c r="J248" s="77"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
+++ b/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1036">
   <si>
     <t xml:space="preserve">General Instructions</t>
   </si>
@@ -2506,7 +2506,7 @@
     <t xml:space="preserve"># Institutional and political factors</t>
   </si>
   <si>
-    <t xml:space="preserve">Population Age Structure - No</t>
+    <t xml:space="preserve">Population Age Structure - Yes (exogenous)</t>
   </si>
   <si>
     <t xml:space="preserve">Consumption loss - Yes</t>
@@ -2545,7 +2545,7 @@
     <t xml:space="preserve">Energy - No</t>
   </si>
   <si>
-    <t xml:space="preserve">Reforestation - No</t>
+    <t xml:space="preserve">Reforestation - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Energy End-use - Endogenous Technological Change</t>
@@ -2620,7 +2620,7 @@
     <t xml:space="preserve">Material Use - N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2 Land Use - Yes (exogenous baseline &amp; controlled)</t>
+    <t xml:space="preserve">CO2 Land Use - Yes (endogenous &amp; controlled)</t>
   </si>
   <si>
     <t xml:space="preserve">Concentration|N2O - Yes (endogenous)</t>
@@ -2788,6 +2788,9 @@
     <t xml:space="preserve">Agriculture Feed Crops - Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Agriculture - Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enhanced Weathering - Yes</t>
   </si>
   <si>
@@ -2920,7 +2923,7 @@
     <t xml:space="preserve">Radiative Forcing|Kyoto Gases - Yes (endogenous)</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Access - No</t>
+    <t xml:space="preserve">Food Access - Yes</t>
   </si>
   <si>
     <t xml:space="preserve"># Energy Technology Policies</t>
@@ -2932,7 +2935,7 @@
     <t xml:space="preserve"># Crops</t>
   </si>
   <si>
-    <t xml:space="preserve">Land - No</t>
+    <t xml:space="preserve">Land - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Geothermal Power - Yes</t>
@@ -2986,7 +2989,7 @@
     <t xml:space="preserve">Radiative Forcing|Land Albedo - Yes (exogenous)</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Availability - No</t>
+    <t xml:space="preserve">Water Availability - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Emission Standards - No</t>
@@ -3001,7 +3004,7 @@
     <t xml:space="preserve">Agriculture Residues - Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Age - No</t>
+    <t xml:space="preserve">Age - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">SF6 - Yes (fully exogenous)</t>
@@ -3028,7 +3031,7 @@
     <t xml:space="preserve"># Forestry</t>
   </si>
   <si>
-    <t xml:space="preserve">Gender - No</t>
+    <t xml:space="preserve">Gender - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">CO Energy - Yes (endogenous &amp; uncontrolled)</t>
@@ -3037,7 +3040,7 @@
     <t xml:space="preserve">Radiative Forcing|Total - Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Biodiversity - No</t>
+    <t xml:space="preserve">Biodiversity - Yes</t>
   </si>
   <si>
     <t xml:space="preserve"># Agricultural Policies</t>
@@ -3110,6 +3113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Freight Ships - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age and Gender are represented in MAgPIE only</t>
   </si>
   <si>
     <t xml:space="preserve">NOx Land Use - Yes (fully exogenous)</t>
@@ -3423,7 +3429,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3531,6 +3537,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3706,7 +3719,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3967,6 +3980,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4086,7 +4103,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -7494,8 +7511,8 @@
   </sheetPr>
   <dimension ref="A1:MQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK5" activeCellId="0" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9224,30 +9241,30 @@
         <v>824</v>
       </c>
       <c r="AH8" s="49" t="s">
-        <v>726</v>
+        <v>825</v>
       </c>
       <c r="AI8" s="54" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AJ8" s="0"/>
       <c r="AK8" s="52" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AL8" s="52" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AM8" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AN8" s="50" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AO8" s="61" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AP8" s="61"/>
       <c r="AQ8" s="58" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9256,7 +9273,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="49" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N9" s="49"/>
       <c r="O9" s="23"/>
@@ -9265,58 +9282,58 @@
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
       <c r="T9" s="52" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
       <c r="X9" s="52" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="54" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AB9" s="23"/>
       <c r="AC9" s="49" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AD9" s="60" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AE9" s="50" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF9" s="50" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AG9" s="50" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AH9" s="49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AI9" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AJ9" s="0"/>
       <c r="AK9" s="52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AL9" s="52" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="50" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AO9" s="61" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AP9" s="61"/>
       <c r="AQ9" s="58" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9325,7 +9342,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="49" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -9333,54 +9350,54 @@
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="52" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
       <c r="X10" s="52" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="54" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AB10" s="23"/>
       <c r="AC10" s="49" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AD10" s="23"/>
       <c r="AE10" s="50" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF10" s="50" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AG10" s="50" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AH10" s="53" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AI10" s="0"/>
       <c r="AJ10" s="0"/>
       <c r="AK10" s="52" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AL10" s="52" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AM10" s="23"/>
       <c r="AN10" s="55" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AO10" s="61" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AP10" s="55"/>
       <c r="AQ10" s="58" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9389,7 +9406,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="49" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N11" s="62"/>
       <c r="O11" s="23"/>
@@ -9404,44 +9421,44 @@
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
       <c r="X11" s="52" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="54" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AB11" s="23"/>
       <c r="AC11" s="49" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AD11" s="23"/>
       <c r="AE11" s="50" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF11" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AG11" s="49" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AH11" s="49" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AI11" s="0"/>
       <c r="AJ11" s="0"/>
       <c r="AK11" s="52" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AL11" s="52" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AM11" s="23"/>
       <c r="AN11" s="50" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AO11" s="55" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AP11" s="61"/>
       <c r="AQ11" s="63" t="s">
@@ -9454,7 +9471,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="64" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N12" s="62"/>
       <c r="O12" s="23"/>
@@ -9463,48 +9480,48 @@
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="51" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="52" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="54" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AB12" s="23"/>
       <c r="AC12" s="49" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AD12" s="0"/>
       <c r="AE12" s="50" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AF12" s="23"/>
       <c r="AG12" s="49" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AH12" s="49" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AI12" s="0"/>
       <c r="AJ12" s="0"/>
       <c r="AK12" s="52" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AL12" s="52" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="55" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AO12" s="61" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AP12" s="61"/>
       <c r="AQ12" s="61"/>
@@ -9522,7 +9539,7 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="52" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
@@ -9531,37 +9548,37 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="54" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AB13" s="23"/>
       <c r="AC13" s="49" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AD13" s="0"/>
       <c r="AE13" s="50" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF13" s="23"/>
       <c r="AG13" s="49" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AH13" s="49" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AI13" s="0"/>
       <c r="AJ13" s="0"/>
       <c r="AK13" s="52" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AL13" s="52" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AM13" s="23"/>
       <c r="AN13" s="50" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AO13" s="61" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AP13" s="61"/>
       <c r="AQ13" s="61"/>
@@ -9579,7 +9596,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
       <c r="T14" s="52" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
@@ -9588,7 +9605,7 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="54" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AB14" s="23"/>
       <c r="AC14" s="49" t="s">
@@ -9600,25 +9617,25 @@
       </c>
       <c r="AF14" s="23"/>
       <c r="AG14" s="49" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AH14" s="49" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AI14" s="0"/>
       <c r="AJ14" s="0"/>
       <c r="AK14" s="52" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AL14" s="52" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AM14" s="23"/>
       <c r="AN14" s="55" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AO14" s="61" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AP14" s="55"/>
       <c r="AQ14" s="55"/>
@@ -9636,7 +9653,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="51" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
@@ -9645,35 +9662,35 @@
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="54" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AB15" s="23"/>
       <c r="AC15" s="53" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AD15" s="0"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
       <c r="AG15" s="53" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AH15" s="49" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AI15" s="0"/>
       <c r="AJ15" s="0"/>
       <c r="AK15" s="52" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AL15" s="52" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AM15" s="23"/>
       <c r="AN15" s="50" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AO15" s="55" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AP15" s="61"/>
       <c r="AQ15" s="61"/>
@@ -9691,7 +9708,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
       <c r="T16" s="52" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
@@ -9700,17 +9717,17 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="54" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="49" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AD16" s="0"/>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="49" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AH16" s="49" t="s">
         <v>753</v>
@@ -9718,17 +9735,17 @@
       <c r="AI16" s="0"/>
       <c r="AJ16" s="0"/>
       <c r="AK16" s="52" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AL16" s="52" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AM16" s="23"/>
       <c r="AN16" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AO16" s="61" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AP16" s="61"/>
       <c r="AQ16" s="61"/>
@@ -9741,7 +9758,7 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
       <c r="T17" s="52" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
@@ -9750,33 +9767,33 @@
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="54" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AB17" s="23"/>
       <c r="AC17" s="49" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AD17" s="0"/>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="49" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AH17" s="49" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AI17" s="0"/>
       <c r="AJ17" s="0"/>
       <c r="AK17" s="52" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AL17" s="52" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AM17" s="23"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="61" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AP17" s="55"/>
       <c r="AQ17" s="55"/>
@@ -9796,17 +9813,17 @@
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="54" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AB18" s="23"/>
       <c r="AC18" s="49" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AD18" s="0"/>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="49" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AH18" s="49" t="s">
         <v>808</v>
@@ -9814,15 +9831,15 @@
       <c r="AI18" s="0"/>
       <c r="AJ18" s="0"/>
       <c r="AK18" s="52" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AL18" s="52" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AM18" s="23"/>
       <c r="AN18" s="23"/>
       <c r="AO18" s="55" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AP18" s="61"/>
       <c r="AQ18" s="61"/>
@@ -9842,11 +9859,11 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="54" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AB19" s="23"/>
       <c r="AC19" s="49" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AD19" s="0"/>
       <c r="AE19" s="23"/>
@@ -9854,11 +9871,13 @@
       <c r="AG19" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AH19" s="0"/>
+      <c r="AH19" s="65" t="s">
+        <v>934</v>
+      </c>
       <c r="AI19" s="0"/>
       <c r="AJ19" s="0"/>
       <c r="AK19" s="52" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="AL19" s="49" t="s">
         <v>808</v>
@@ -9866,7 +9885,7 @@
       <c r="AM19" s="23"/>
       <c r="AN19" s="23"/>
       <c r="AO19" s="61" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="AP19" s="61"/>
       <c r="AQ19" s="61"/>
@@ -9886,7 +9905,7 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="54" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="AB20" s="23"/>
       <c r="AC20" s="49" t="s">
@@ -9900,13 +9919,13 @@
       <c r="AI20" s="0"/>
       <c r="AJ20" s="0"/>
       <c r="AK20" s="52" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="AL20" s="23"/>
       <c r="AM20" s="23"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="61" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="AP20" s="49"/>
       <c r="AQ20" s="49"/>
@@ -9926,11 +9945,11 @@
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="54" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="AB21" s="23"/>
       <c r="AC21" s="53" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="AD21" s="0"/>
       <c r="AE21" s="23"/>
@@ -9940,7 +9959,7 @@
       <c r="AI21" s="0"/>
       <c r="AJ21" s="0"/>
       <c r="AK21" s="52" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AL21" s="23"/>
       <c r="AM21" s="23"/>
@@ -9951,11 +9970,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AA22" s="54" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="AB22" s="23"/>
       <c r="AC22" s="49" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="AD22" s="0"/>
       <c r="AE22" s="23"/>
@@ -9965,7 +9984,7 @@
       <c r="AI22" s="0"/>
       <c r="AJ22" s="0"/>
       <c r="AK22" s="52" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
@@ -9975,11 +9994,11 @@
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N23" s="62"/>
       <c r="AA23" s="54" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="AB23" s="23"/>
       <c r="AC23" s="49" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="AD23" s="0"/>
       <c r="AE23" s="23"/>
@@ -9989,7 +10008,7 @@
       <c r="AI23" s="0"/>
       <c r="AJ23" s="0"/>
       <c r="AK23" s="52" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="AL23" s="23"/>
       <c r="AM23" s="23"/>
@@ -9997,12 +10016,12 @@
       <c r="AO23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA24" s="65" t="s">
-        <v>947</v>
+      <c r="AA24" s="66" t="s">
+        <v>949</v>
       </c>
       <c r="AB24" s="23"/>
       <c r="AC24" s="49" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="AD24" s="0"/>
       <c r="AE24" s="23"/>
@@ -10012,7 +10031,7 @@
       <c r="AI24" s="0"/>
       <c r="AJ24" s="0"/>
       <c r="AK24" s="52" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AL24" s="23"/>
       <c r="AM24" s="23"/>
@@ -10021,11 +10040,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA25" s="50" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="AB25" s="23"/>
       <c r="AC25" s="49" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="AD25" s="0"/>
       <c r="AE25" s="23"/>
@@ -10035,7 +10054,7 @@
       <c r="AI25" s="0"/>
       <c r="AJ25" s="0"/>
       <c r="AK25" s="52" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="AL25" s="23"/>
       <c r="AM25" s="23"/>
@@ -10044,11 +10063,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA26" s="50" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="AB26" s="23"/>
       <c r="AC26" s="49" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="AD26" s="0"/>
       <c r="AE26" s="23"/>
@@ -10058,7 +10077,7 @@
       <c r="AI26" s="0"/>
       <c r="AJ26" s="0"/>
       <c r="AK26" s="52" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
@@ -10067,11 +10086,11 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA27" s="50" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="AB27" s="23"/>
       <c r="AC27" s="49" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="AD27" s="0"/>
       <c r="AE27" s="23"/>
@@ -10081,7 +10100,7 @@
       <c r="AI27" s="0"/>
       <c r="AJ27" s="0"/>
       <c r="AK27" s="52" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="AL27" s="23"/>
       <c r="AM27" s="23"/>
@@ -10090,7 +10109,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA28" s="50" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="AB28" s="23"/>
       <c r="AC28" s="49" t="s">
@@ -10104,7 +10123,7 @@
       <c r="AI28" s="0"/>
       <c r="AJ28" s="0"/>
       <c r="AK28" s="52" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="AL28" s="23"/>
       <c r="AM28" s="23"/>
@@ -10113,11 +10132,11 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA29" s="50" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="AB29" s="23"/>
       <c r="AC29" s="53" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="AD29" s="0"/>
       <c r="AE29" s="23"/>
@@ -10127,7 +10146,7 @@
       <c r="AI29" s="0"/>
       <c r="AJ29" s="0"/>
       <c r="AK29" s="52" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AL29" s="23"/>
       <c r="AM29" s="23"/>
@@ -10136,11 +10155,11 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA30" s="50" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AB30" s="23"/>
       <c r="AC30" s="49" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="AD30" s="0"/>
       <c r="AE30" s="23"/>
@@ -10150,7 +10169,7 @@
       <c r="AI30" s="0"/>
       <c r="AJ30" s="0"/>
       <c r="AK30" s="52" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
@@ -10159,11 +10178,11 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA31" s="50" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="AB31" s="23"/>
       <c r="AC31" s="49" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="AD31" s="0"/>
       <c r="AE31" s="23"/>
@@ -10173,7 +10192,7 @@
       <c r="AI31" s="0"/>
       <c r="AJ31" s="0"/>
       <c r="AK31" s="52" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="AL31" s="23"/>
       <c r="AM31" s="23"/>
@@ -10182,11 +10201,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA32" s="50" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="AB32" s="23"/>
       <c r="AC32" s="49" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="AD32" s="0"/>
       <c r="AE32" s="23"/>
@@ -10196,7 +10215,7 @@
       <c r="AI32" s="0"/>
       <c r="AJ32" s="0"/>
       <c r="AK32" s="52" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
@@ -10205,11 +10224,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA33" s="50" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="AB33" s="23"/>
       <c r="AC33" s="49" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="AD33" s="0"/>
       <c r="AE33" s="23"/>
@@ -10219,16 +10238,16 @@
       <c r="AI33" s="0"/>
       <c r="AJ33" s="0"/>
       <c r="AK33" s="52" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA34" s="50" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="AB34" s="23"/>
       <c r="AC34" s="49" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="AD34" s="0"/>
       <c r="AE34" s="23"/>
@@ -10238,16 +10257,16 @@
       <c r="AI34" s="0"/>
       <c r="AJ34" s="0"/>
       <c r="AK34" s="52" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA35" s="50" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="AB35" s="23"/>
       <c r="AC35" s="49" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="AD35" s="0"/>
       <c r="AE35" s="23"/>
@@ -10257,12 +10276,12 @@
       <c r="AI35" s="0"/>
       <c r="AJ35" s="0"/>
       <c r="AK35" s="52" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA36" s="54" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="AB36" s="23"/>
       <c r="AC36" s="49" t="s">
@@ -10280,8 +10299,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA37" s="65" t="s">
-        <v>982</v>
+      <c r="AA37" s="66" t="s">
+        <v>984</v>
       </c>
       <c r="AB37" s="23"/>
       <c r="AC37" s="0"/>
@@ -10296,7 +10315,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="49" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="AB38" s="23"/>
       <c r="AC38" s="0"/>
@@ -10311,7 +10330,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="49" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="AB39" s="23"/>
       <c r="AC39" s="0"/>
@@ -10326,7 +10345,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="49" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="AB40" s="23"/>
       <c r="AC40" s="0"/>
@@ -10341,7 +10360,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="49" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="AB41" s="23"/>
       <c r="AC41" s="0"/>
@@ -10356,7 +10375,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="49" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="AB42" s="23"/>
       <c r="AC42" s="0"/>
@@ -10371,7 +10390,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="49" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="AB43" s="23"/>
       <c r="AC43" s="0"/>
@@ -10386,7 +10405,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="49" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="AB44" s="23"/>
       <c r="AC44" s="0"/>
@@ -10416,7 +10435,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="53" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="AB46" s="23"/>
       <c r="AC46" s="0"/>
@@ -10431,7 +10450,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="49" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="AB47" s="23"/>
       <c r="AC47" s="0"/>
@@ -10446,7 +10465,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA48" s="49" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="AB48" s="23"/>
       <c r="AC48" s="0"/>
@@ -10461,7 +10480,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA49" s="49" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="AB49" s="23"/>
       <c r="AC49" s="0"/>
@@ -10475,7 +10494,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA50" s="49" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="AB50" s="23"/>
       <c r="AC50" s="0"/>
@@ -10489,7 +10508,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA51" s="49" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="AB51" s="23"/>
       <c r="AC51" s="0"/>
@@ -10503,7 +10522,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA52" s="49" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="AB52" s="23"/>
       <c r="AC52" s="0"/>
@@ -10531,7 +10550,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA54" s="53" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="AB54" s="23"/>
       <c r="AC54" s="0"/>
@@ -10545,7 +10564,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA55" s="54" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="AB55" s="23"/>
       <c r="AC55" s="0"/>
@@ -10559,7 +10578,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA56" s="54" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="AB56" s="23"/>
       <c r="AC56" s="0"/>
@@ -10573,7 +10592,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA57" s="54" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="AB57" s="23"/>
       <c r="AC57" s="0"/>
@@ -10587,7 +10606,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA58" s="54" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="AB58" s="23"/>
       <c r="AC58" s="0"/>
@@ -10601,7 +10620,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA59" s="49" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="AB59" s="23"/>
       <c r="AC59" s="0"/>
@@ -10615,7 +10634,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA60" s="49" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="AB60" s="23"/>
       <c r="AC60" s="0"/>
@@ -10629,7 +10648,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA61" s="49" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="AB61" s="23"/>
       <c r="AC61" s="0"/>
@@ -11756,153 +11775,153 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="59.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="68" width="59.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>1006</v>
+      <c r="B1" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>1008</v>
+      <c r="B2" s="68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>1010</v>
+      <c r="B3" s="68" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>1011</v>
+      <c r="C4" s="68" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="67" t="s">
-        <v>1012</v>
+      <c r="C5" s="68" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>1014</v>
+      <c r="B6" s="68" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>1016</v>
+      <c r="B7" s="68" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="68" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>1019</v>
+      <c r="B9" s="68" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="67" t="s">
-        <v>1020</v>
+      <c r="C10" s="68" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>1022</v>
+      <c r="B11" s="68" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>1024</v>
+      <c r="B12" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>1026</v>
+      <c r="B13" s="68" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -11930,357 +11949,357 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="70" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="69" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B12" s="68" t="s">
         <v>1027</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="s">
-        <v>581</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="C12" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B13" s="68" t="s">
         <v>1015</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B6" s="67" t="s">
+      <c r="C13" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B18" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B8" s="67" t="s">
+      <c r="C18" s="71" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>1009</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B9" s="67" t="s">
+      <c r="C21" s="71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B24" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B10" s="67" t="s">
+      <c r="C24" s="71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B29" s="68" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B11" s="67" t="s">
+      <c r="C29" s="71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B30" s="68" t="s">
         <v>1023</v>
       </c>
-      <c r="C11" s="70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B12" s="67" t="s">
+      <c r="C30" s="71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B31" s="68" t="s">
         <v>1025</v>
       </c>
-      <c r="C12" s="70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>546</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="70" t="s">
+      <c r="C31" s="71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>546</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="66" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C32" s="70" t="s">
+      <c r="A32" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C32" s="71" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12311,32 +12330,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="68" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>1031</v>
+      <c r="A1" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1033</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B2" s="74"/>
+      <c r="A2" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B2" s="75"/>
       <c r="C2" s="0" t="s">
         <v>82</v>
       </c>
@@ -12344,14 +12363,14 @@
         <v>83</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B3" s="74"/>
+      <c r="A3" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B3" s="75"/>
       <c r="C3" s="0" t="s">
         <v>84</v>
       </c>
@@ -12359,14 +12378,14 @@
         <v>85</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B4" s="74"/>
+      <c r="A4" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B4" s="75"/>
       <c r="C4" s="0" t="s">
         <v>86</v>
       </c>
@@ -12374,14 +12393,14 @@
         <v>87</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B5" s="74"/>
+      <c r="A5" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B5" s="75"/>
       <c r="C5" s="0" t="s">
         <v>88</v>
       </c>
@@ -12389,14 +12408,14 @@
         <v>89</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B6" s="74"/>
+      <c r="A6" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="75"/>
       <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
@@ -12404,14 +12423,14 @@
         <v>91</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B7" s="74"/>
+      <c r="A7" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B7" s="75"/>
       <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
@@ -12419,14 +12438,14 @@
         <v>93</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B8" s="74"/>
+      <c r="A8" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B8" s="75"/>
       <c r="C8" s="0" t="s">
         <v>94</v>
       </c>
@@ -12434,14 +12453,14 @@
         <v>95</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B9" s="74"/>
+      <c r="A9" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B9" s="75"/>
       <c r="C9" s="0" t="s">
         <v>96</v>
       </c>
@@ -12450,10 +12469,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B10" s="74"/>
+      <c r="A10" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B10" s="75"/>
       <c r="C10" s="0" t="s">
         <v>98</v>
       </c>
@@ -12461,14 +12480,14 @@
         <v>99</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B11" s="74"/>
+      <c r="A11" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B11" s="75"/>
       <c r="C11" s="0" t="s">
         <v>100</v>
       </c>
@@ -12476,14 +12495,14 @@
         <v>101</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B12" s="74"/>
+      <c r="A12" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B12" s="75"/>
       <c r="C12" s="0" t="s">
         <v>102</v>
       </c>
@@ -12491,14 +12510,14 @@
         <v>103</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B13" s="74"/>
+      <c r="A13" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B13" s="75"/>
       <c r="C13" s="0" t="s">
         <v>104</v>
       </c>
@@ -12506,14 +12525,14 @@
         <v>105</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B14" s="74"/>
+      <c r="A14" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B14" s="75"/>
       <c r="C14" s="0" t="s">
         <v>106</v>
       </c>
@@ -12521,14 +12540,14 @@
         <v>107</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B15" s="74"/>
+      <c r="A15" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B15" s="75"/>
       <c r="C15" s="0" t="s">
         <v>108</v>
       </c>
@@ -12536,14 +12555,14 @@
         <v>109</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B16" s="74"/>
+      <c r="A16" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="75"/>
       <c r="C16" s="0" t="s">
         <v>110</v>
       </c>
@@ -12551,14 +12570,14 @@
         <v>111</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="74" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B17" s="74"/>
+      <c r="A17" s="75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B17" s="75"/>
       <c r="C17" s="0" t="s">
         <v>112</v>
       </c>
@@ -12566,14 +12585,14 @@
         <v>113</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B18" s="74"/>
+      <c r="A18" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="75"/>
       <c r="C18" s="0" t="s">
         <v>114</v>
       </c>
@@ -12581,14 +12600,14 @@
         <v>115</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B19" s="75"/>
       <c r="C19" s="0" t="s">
         <v>116</v>
       </c>
@@ -12596,14 +12615,14 @@
         <v>117</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B20" s="74"/>
+      <c r="A20" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="75"/>
       <c r="C20" s="0" t="s">
         <v>118</v>
       </c>
@@ -12611,14 +12630,14 @@
         <v>119</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B21" s="74"/>
+      <c r="A21" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B21" s="75"/>
       <c r="C21" s="0" t="s">
         <v>120</v>
       </c>
@@ -12626,14 +12645,14 @@
         <v>121</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B22" s="74"/>
+      <c r="A22" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="75"/>
       <c r="C22" s="0" t="s">
         <v>122</v>
       </c>
@@ -12641,14 +12660,14 @@
         <v>123</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B23" s="74"/>
+      <c r="A23" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="75"/>
       <c r="C23" s="0" t="s">
         <v>124</v>
       </c>
@@ -12656,14 +12675,14 @@
         <v>125</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B24" s="74"/>
+      <c r="A24" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="75"/>
       <c r="C24" s="0" t="s">
         <v>126</v>
       </c>
@@ -12671,14 +12690,14 @@
         <v>127</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B25" s="74"/>
+      <c r="A25" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B25" s="75"/>
       <c r="C25" s="0" t="s">
         <v>128</v>
       </c>
@@ -12686,14 +12705,14 @@
         <v>129</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B26" s="74"/>
+      <c r="A26" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B26" s="75"/>
       <c r="C26" s="0" t="s">
         <v>130</v>
       </c>
@@ -12701,14 +12720,14 @@
         <v>131</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B27" s="74"/>
+      <c r="A27" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B27" s="75"/>
       <c r="C27" s="0" t="s">
         <v>132</v>
       </c>
@@ -12716,14 +12735,14 @@
         <v>133</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B28" s="74"/>
+      <c r="A28" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B28" s="75"/>
       <c r="C28" s="0" t="s">
         <v>134</v>
       </c>
@@ -12731,14 +12750,14 @@
         <v>135</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B29" s="74"/>
+      <c r="A29" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B29" s="75"/>
       <c r="C29" s="0" t="s">
         <v>136</v>
       </c>
@@ -12746,14 +12765,14 @@
         <v>137</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B30" s="74"/>
+      <c r="A30" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B30" s="75"/>
       <c r="C30" s="0" t="s">
         <v>138</v>
       </c>
@@ -12761,14 +12780,14 @@
         <v>139</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B31" s="74"/>
+      <c r="A31" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B31" s="75"/>
       <c r="C31" s="0" t="s">
         <v>140</v>
       </c>
@@ -12776,14 +12795,14 @@
         <v>141</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B32" s="74"/>
+      <c r="A32" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B32" s="75"/>
       <c r="C32" s="0" t="s">
         <v>142</v>
       </c>
@@ -12791,14 +12810,14 @@
         <v>143</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B33" s="74"/>
+      <c r="A33" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B33" s="75"/>
       <c r="C33" s="0" t="s">
         <v>144</v>
       </c>
@@ -12806,14 +12825,14 @@
         <v>145</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B34" s="74"/>
+      <c r="A34" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B34" s="75"/>
       <c r="C34" s="0" t="s">
         <v>146</v>
       </c>
@@ -12821,14 +12840,14 @@
         <v>147</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B35" s="74"/>
+      <c r="A35" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B35" s="75"/>
       <c r="C35" s="0" t="s">
         <v>148</v>
       </c>
@@ -12836,14 +12855,14 @@
         <v>149</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B36" s="74"/>
+      <c r="A36" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B36" s="75"/>
       <c r="C36" s="0" t="s">
         <v>150</v>
       </c>
@@ -12851,14 +12870,14 @@
         <v>151</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B37" s="74"/>
+      <c r="A37" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B37" s="75"/>
       <c r="C37" s="0" t="s">
         <v>152</v>
       </c>
@@ -12866,14 +12885,14 @@
         <v>153</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B38" s="74"/>
+      <c r="A38" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B38" s="75"/>
       <c r="C38" s="0" t="s">
         <v>154</v>
       </c>
@@ -12881,14 +12900,14 @@
         <v>155</v>
       </c>
       <c r="H38" s="23"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B39" s="74"/>
+      <c r="A39" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B39" s="75"/>
       <c r="C39" s="0" t="s">
         <v>156</v>
       </c>
@@ -12896,14 +12915,14 @@
         <v>157</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B40" s="74"/>
+      <c r="A40" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B40" s="75"/>
       <c r="C40" s="0" t="s">
         <v>158</v>
       </c>
@@ -12911,14 +12930,14 @@
         <v>159</v>
       </c>
       <c r="H40" s="23"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="74" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B41" s="74"/>
+      <c r="A41" s="75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B41" s="75"/>
       <c r="C41" s="0" t="s">
         <v>160</v>
       </c>
@@ -12926,14 +12945,14 @@
         <v>161</v>
       </c>
       <c r="H41" s="23"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B42" s="74"/>
+      <c r="A42" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B42" s="75"/>
       <c r="C42" s="0" t="s">
         <v>162</v>
       </c>
@@ -12941,14 +12960,14 @@
         <v>163</v>
       </c>
       <c r="H42" s="23"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B43" s="74"/>
+      <c r="A43" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B43" s="75"/>
       <c r="C43" s="0" t="s">
         <v>164</v>
       </c>
@@ -12956,42 +12975,42 @@
         <v>165</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B44" s="74"/>
+      <c r="A44" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B44" s="75"/>
       <c r="C44" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="74" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B45" s="74"/>
+      <c r="A45" s="75" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B45" s="75"/>
       <c r="C45" s="0" t="s">
         <v>168</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B46" s="74"/>
+      <c r="A46" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B46" s="75"/>
       <c r="C46" s="0" t="s">
         <v>170</v>
       </c>
@@ -12999,14 +13018,14 @@
         <v>171</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B47" s="74"/>
+      <c r="A47" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B47" s="75"/>
       <c r="C47" s="0" t="s">
         <v>172</v>
       </c>
@@ -13014,14 +13033,14 @@
         <v>173</v>
       </c>
       <c r="H47" s="23"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B48" s="74"/>
+      <c r="A48" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B48" s="75"/>
       <c r="C48" s="0" t="s">
         <v>174</v>
       </c>
@@ -13029,14 +13048,14 @@
         <v>175</v>
       </c>
       <c r="H48" s="23"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B49" s="74"/>
+      <c r="A49" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B49" s="75"/>
       <c r="C49" s="0" t="s">
         <v>176</v>
       </c>
@@ -13044,14 +13063,14 @@
         <v>177</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B50" s="74"/>
+      <c r="A50" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B50" s="75"/>
       <c r="C50" s="0" t="s">
         <v>178</v>
       </c>
@@ -13059,14 +13078,14 @@
         <v>179</v>
       </c>
       <c r="H50" s="23"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B51" s="74"/>
+      <c r="A51" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B51" s="75"/>
       <c r="C51" s="0" t="s">
         <v>180</v>
       </c>
@@ -13074,14 +13093,14 @@
         <v>181</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B52" s="74"/>
+      <c r="A52" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B52" s="75"/>
       <c r="C52" s="0" t="s">
         <v>182</v>
       </c>
@@ -13089,14 +13108,14 @@
         <v>183</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B53" s="74"/>
+      <c r="A53" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B53" s="75"/>
       <c r="C53" s="0" t="s">
         <v>184</v>
       </c>
@@ -13104,14 +13123,14 @@
         <v>185</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B54" s="74"/>
+      <c r="A54" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B54" s="75"/>
       <c r="C54" s="0" t="s">
         <v>186</v>
       </c>
@@ -13119,14 +13138,14 @@
         <v>187</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B55" s="74"/>
+      <c r="A55" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B55" s="75"/>
       <c r="C55" s="0" t="s">
         <v>188</v>
       </c>
@@ -13134,14 +13153,14 @@
         <v>189</v>
       </c>
       <c r="H55" s="23"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B56" s="74"/>
+      <c r="A56" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B56" s="75"/>
       <c r="C56" s="0" t="s">
         <v>190</v>
       </c>
@@ -13149,14 +13168,14 @@
         <v>191</v>
       </c>
       <c r="H56" s="23"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B57" s="74"/>
+      <c r="A57" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B57" s="75"/>
       <c r="C57" s="0" t="s">
         <v>192</v>
       </c>
@@ -13164,14 +13183,14 @@
         <v>193</v>
       </c>
       <c r="H57" s="23"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B58" s="74"/>
+      <c r="A58" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B58" s="75"/>
       <c r="C58" s="0" t="s">
         <v>194</v>
       </c>
@@ -13179,14 +13198,14 @@
         <v>195</v>
       </c>
       <c r="H58" s="23"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B59" s="74"/>
+      <c r="A59" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B59" s="75"/>
       <c r="C59" s="0" t="s">
         <v>196</v>
       </c>
@@ -13194,14 +13213,14 @@
         <v>197</v>
       </c>
       <c r="H59" s="23"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B60" s="74"/>
+      <c r="A60" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B60" s="75"/>
       <c r="C60" s="0" t="s">
         <v>198</v>
       </c>
@@ -13209,14 +13228,14 @@
         <v>199</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B61" s="74"/>
+      <c r="A61" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B61" s="75"/>
       <c r="C61" s="0" t="s">
         <v>200</v>
       </c>
@@ -13224,14 +13243,14 @@
         <v>201</v>
       </c>
       <c r="H61" s="23"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B62" s="74"/>
+      <c r="A62" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B62" s="75"/>
       <c r="C62" s="0" t="s">
         <v>202</v>
       </c>
@@ -13239,14 +13258,14 @@
         <v>203</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B63" s="74"/>
+      <c r="A63" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B63" s="75"/>
       <c r="C63" s="0" t="s">
         <v>204</v>
       </c>
@@ -13254,14 +13273,14 @@
         <v>205</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B64" s="74"/>
+      <c r="A64" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B64" s="75"/>
       <c r="C64" s="0" t="s">
         <v>206</v>
       </c>
@@ -13269,14 +13288,14 @@
         <v>207</v>
       </c>
       <c r="H64" s="23"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B65" s="74"/>
+      <c r="A65" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B65" s="75"/>
       <c r="C65" s="0" t="s">
         <v>208</v>
       </c>
@@ -13284,14 +13303,14 @@
         <v>209</v>
       </c>
       <c r="H65" s="23"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B66" s="74"/>
+      <c r="A66" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B66" s="75"/>
       <c r="C66" s="0" t="s">
         <v>210</v>
       </c>
@@ -13299,14 +13318,14 @@
         <v>211</v>
       </c>
       <c r="H66" s="23"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B67" s="74"/>
+      <c r="A67" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B67" s="75"/>
       <c r="C67" s="0" t="s">
         <v>212</v>
       </c>
@@ -13314,14 +13333,14 @@
         <v>213</v>
       </c>
       <c r="H67" s="23"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B68" s="74"/>
+      <c r="A68" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B68" s="75"/>
       <c r="C68" s="0" t="s">
         <v>214</v>
       </c>
@@ -13329,14 +13348,14 @@
         <v>215</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B69" s="74"/>
+      <c r="A69" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B69" s="75"/>
       <c r="C69" s="0" t="s">
         <v>216</v>
       </c>
@@ -13344,14 +13363,14 @@
         <v>217</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B70" s="74"/>
+      <c r="A70" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B70" s="75"/>
       <c r="C70" s="0" t="s">
         <v>218</v>
       </c>
@@ -13359,14 +13378,14 @@
         <v>219</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B71" s="74"/>
+      <c r="A71" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B71" s="75"/>
       <c r="C71" s="0" t="s">
         <v>220</v>
       </c>
@@ -13374,14 +13393,14 @@
         <v>221</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B72" s="74"/>
+      <c r="A72" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B72" s="75"/>
       <c r="C72" s="0" t="s">
         <v>222</v>
       </c>
@@ -13389,14 +13408,14 @@
         <v>223</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B73" s="74"/>
+      <c r="A73" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B73" s="75"/>
       <c r="C73" s="0" t="s">
         <v>224</v>
       </c>
@@ -13404,14 +13423,14 @@
         <v>225</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B74" s="74"/>
+      <c r="A74" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B74" s="75"/>
       <c r="C74" s="0" t="s">
         <v>226</v>
       </c>
@@ -13419,14 +13438,14 @@
         <v>227</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B75" s="74"/>
+      <c r="A75" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B75" s="75"/>
       <c r="C75" s="0" t="s">
         <v>228</v>
       </c>
@@ -13434,14 +13453,14 @@
         <v>229</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B76" s="74"/>
+      <c r="A76" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B76" s="75"/>
       <c r="C76" s="0" t="s">
         <v>230</v>
       </c>
@@ -13449,14 +13468,14 @@
         <v>231</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B77" s="74"/>
+      <c r="A77" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B77" s="75"/>
       <c r="C77" s="0" t="s">
         <v>232</v>
       </c>
@@ -13464,14 +13483,14 @@
         <v>233</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B78" s="76"/>
+      <c r="A78" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B78" s="77"/>
       <c r="C78" s="0" t="s">
         <v>234</v>
       </c>
@@ -13479,14 +13498,14 @@
         <v>235</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B79" s="74"/>
+      <c r="A79" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B79" s="75"/>
       <c r="C79" s="0" t="s">
         <v>236</v>
       </c>
@@ -13494,14 +13513,14 @@
         <v>237</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B80" s="74"/>
+      <c r="A80" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B80" s="75"/>
       <c r="C80" s="0" t="s">
         <v>238</v>
       </c>
@@ -13509,14 +13528,14 @@
         <v>239</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="75"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B81" s="74"/>
+      <c r="A81" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B81" s="75"/>
       <c r="C81" s="0" t="s">
         <v>240</v>
       </c>
@@ -13524,14 +13543,14 @@
         <v>241</v>
       </c>
       <c r="H81" s="23"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B82" s="74"/>
+      <c r="A82" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B82" s="75"/>
       <c r="C82" s="0" t="s">
         <v>242</v>
       </c>
@@ -13539,14 +13558,14 @@
         <v>243</v>
       </c>
       <c r="H82" s="23"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B83" s="74"/>
+      <c r="A83" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B83" s="75"/>
       <c r="C83" s="0" t="s">
         <v>244</v>
       </c>
@@ -13554,14 +13573,14 @@
         <v>245</v>
       </c>
       <c r="H83" s="23"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="76"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B84" s="74"/>
+      <c r="A84" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B84" s="75"/>
       <c r="C84" s="0" t="s">
         <v>246</v>
       </c>
@@ -13569,14 +13588,14 @@
         <v>247</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B85" s="74"/>
+      <c r="A85" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B85" s="75"/>
       <c r="C85" s="0" t="s">
         <v>248</v>
       </c>
@@ -13584,14 +13603,14 @@
         <v>249</v>
       </c>
       <c r="H85" s="23"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B86" s="74"/>
+      <c r="A86" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B86" s="75"/>
       <c r="C86" s="0" t="s">
         <v>250</v>
       </c>
@@ -13599,14 +13618,14 @@
         <v>251</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B87" s="74"/>
+      <c r="A87" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B87" s="75"/>
       <c r="C87" s="0" t="s">
         <v>252</v>
       </c>
@@ -13614,14 +13633,14 @@
         <v>253</v>
       </c>
       <c r="H87" s="23"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B88" s="74"/>
+      <c r="A88" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B88" s="75"/>
       <c r="C88" s="0" t="s">
         <v>254</v>
       </c>
@@ -13629,14 +13648,14 @@
         <v>255</v>
       </c>
       <c r="H88" s="23"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="76"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B89" s="76"/>
+      <c r="A89" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B89" s="77"/>
       <c r="C89" s="0" t="s">
         <v>256</v>
       </c>
@@ -13644,14 +13663,14 @@
         <v>257</v>
       </c>
       <c r="H89" s="23"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B90" s="74"/>
+      <c r="A90" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B90" s="75"/>
       <c r="C90" s="0" t="s">
         <v>258</v>
       </c>
@@ -13659,14 +13678,14 @@
         <v>259</v>
       </c>
       <c r="H90" s="23"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B91" s="74"/>
+      <c r="A91" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B91" s="75"/>
       <c r="C91" s="0" t="s">
         <v>260</v>
       </c>
@@ -13674,14 +13693,14 @@
         <v>261</v>
       </c>
       <c r="H91" s="23"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B92" s="74"/>
+      <c r="A92" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B92" s="75"/>
       <c r="C92" s="0" t="s">
         <v>262</v>
       </c>
@@ -13689,14 +13708,14 @@
         <v>263</v>
       </c>
       <c r="H92" s="23"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B93" s="74"/>
+      <c r="A93" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B93" s="75"/>
       <c r="C93" s="0" t="s">
         <v>264</v>
       </c>
@@ -13704,14 +13723,14 @@
         <v>265</v>
       </c>
       <c r="H93" s="23"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B94" s="74"/>
+      <c r="A94" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B94" s="75"/>
       <c r="C94" s="0" t="s">
         <v>266</v>
       </c>
@@ -13719,14 +13738,14 @@
         <v>267</v>
       </c>
       <c r="H94" s="23"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B95" s="74"/>
+      <c r="A95" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B95" s="75"/>
       <c r="C95" s="0" t="s">
         <v>268</v>
       </c>
@@ -13734,14 +13753,14 @@
         <v>269</v>
       </c>
       <c r="H95" s="23"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="76"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B96" s="74"/>
+      <c r="A96" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B96" s="75"/>
       <c r="C96" s="0" t="s">
         <v>270</v>
       </c>
@@ -13749,14 +13768,14 @@
         <v>271</v>
       </c>
       <c r="H96" s="23"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="76"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="74" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B97" s="74"/>
+      <c r="A97" s="75" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B97" s="75"/>
       <c r="C97" s="0" t="s">
         <v>272</v>
       </c>
@@ -13764,14 +13783,14 @@
         <v>273</v>
       </c>
       <c r="H97" s="23"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="76"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="74" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B98" s="74"/>
+      <c r="A98" s="75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B98" s="75"/>
       <c r="C98" s="0" t="s">
         <v>274</v>
       </c>
@@ -13779,14 +13798,14 @@
         <v>275</v>
       </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="75"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B99" s="74"/>
+      <c r="A99" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B99" s="75"/>
       <c r="C99" s="0" t="s">
         <v>276</v>
       </c>
@@ -13794,14 +13813,14 @@
         <v>277</v>
       </c>
       <c r="H99" s="23"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B100" s="74"/>
+      <c r="A100" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B100" s="75"/>
       <c r="C100" s="0" t="s">
         <v>278</v>
       </c>
@@ -13809,14 +13828,14 @@
         <v>279</v>
       </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="75"/>
-      <c r="J100" s="75"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B101" s="74"/>
+      <c r="A101" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B101" s="75"/>
       <c r="C101" s="0" t="s">
         <v>280</v>
       </c>
@@ -13824,14 +13843,14 @@
         <v>281</v>
       </c>
       <c r="H101" s="23"/>
-      <c r="I101" s="75"/>
-      <c r="J101" s="75"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B102" s="74"/>
+      <c r="A102" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B102" s="75"/>
       <c r="C102" s="0" t="s">
         <v>282</v>
       </c>
@@ -13839,14 +13858,14 @@
         <v>283</v>
       </c>
       <c r="H102" s="23"/>
-      <c r="I102" s="75"/>
-      <c r="J102" s="75"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B103" s="74"/>
+      <c r="A103" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B103" s="75"/>
       <c r="C103" s="0" t="s">
         <v>284</v>
       </c>
@@ -13854,14 +13873,14 @@
         <v>285</v>
       </c>
       <c r="H103" s="23"/>
-      <c r="I103" s="75"/>
-      <c r="J103" s="75"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B104" s="74"/>
+      <c r="A104" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B104" s="75"/>
       <c r="C104" s="0" t="s">
         <v>286</v>
       </c>
@@ -13869,14 +13888,14 @@
         <v>287</v>
       </c>
       <c r="H104" s="23"/>
-      <c r="I104" s="75"/>
-      <c r="J104" s="75"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="74" t="s">
+      <c r="A105" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="74"/>
+      <c r="B105" s="75"/>
       <c r="C105" s="0" t="s">
         <v>288</v>
       </c>
@@ -13884,14 +13903,14 @@
         <v>289</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="75"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B106" s="74"/>
+      <c r="A106" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B106" s="75"/>
       <c r="C106" s="0" t="s">
         <v>290</v>
       </c>
@@ -13899,14 +13918,14 @@
         <v>291</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="75"/>
-      <c r="J106" s="75"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B107" s="74"/>
+      <c r="A107" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B107" s="75"/>
       <c r="C107" s="0" t="s">
         <v>292</v>
       </c>
@@ -13914,14 +13933,14 @@
         <v>293</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="75"/>
-      <c r="J107" s="75"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B108" s="74"/>
+      <c r="A108" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B108" s="75"/>
       <c r="C108" s="0" t="s">
         <v>294</v>
       </c>
@@ -13929,14 +13948,14 @@
         <v>295</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="75"/>
-      <c r="J108" s="75"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B109" s="74"/>
+      <c r="A109" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B109" s="75"/>
       <c r="C109" s="0" t="s">
         <v>296</v>
       </c>
@@ -13944,14 +13963,14 @@
         <v>297</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B110" s="74"/>
+      <c r="A110" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B110" s="75"/>
       <c r="C110" s="0" t="s">
         <v>298</v>
       </c>
@@ -13959,14 +13978,14 @@
         <v>299</v>
       </c>
       <c r="H110" s="23"/>
-      <c r="I110" s="75"/>
-      <c r="J110" s="75"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B111" s="74"/>
+      <c r="A111" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B111" s="75"/>
       <c r="C111" s="0" t="s">
         <v>300</v>
       </c>
@@ -13974,14 +13993,14 @@
         <v>301</v>
       </c>
       <c r="H111" s="23"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B112" s="74"/>
+      <c r="A112" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B112" s="75"/>
       <c r="C112" s="0" t="s">
         <v>302</v>
       </c>
@@ -13989,14 +14008,14 @@
         <v>303</v>
       </c>
       <c r="H112" s="23"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="75"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B113" s="74"/>
+      <c r="A113" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B113" s="75"/>
       <c r="C113" s="0" t="s">
         <v>304</v>
       </c>
@@ -14004,14 +14023,14 @@
         <v>305</v>
       </c>
       <c r="H113" s="23"/>
-      <c r="I113" s="75"/>
-      <c r="J113" s="75"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B114" s="74"/>
+      <c r="A114" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B114" s="75"/>
       <c r="C114" s="0" t="s">
         <v>306</v>
       </c>
@@ -14019,14 +14038,14 @@
         <v>307</v>
       </c>
       <c r="H114" s="23"/>
-      <c r="I114" s="75"/>
-      <c r="J114" s="75"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B115" s="74"/>
+      <c r="A115" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B115" s="75"/>
       <c r="C115" s="0" t="s">
         <v>308</v>
       </c>
@@ -14034,14 +14053,14 @@
         <v>309</v>
       </c>
       <c r="H115" s="23"/>
-      <c r="I115" s="75"/>
-      <c r="J115" s="75"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="74" t="s">
+      <c r="A116" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="B116" s="74"/>
+      <c r="B116" s="75"/>
       <c r="C116" s="0" t="s">
         <v>310</v>
       </c>
@@ -14049,14 +14068,14 @@
         <v>311</v>
       </c>
       <c r="H116" s="23"/>
-      <c r="I116" s="75"/>
-      <c r="J116" s="75"/>
+      <c r="I116" s="76"/>
+      <c r="J116" s="76"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B117" s="74"/>
+      <c r="A117" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B117" s="75"/>
       <c r="C117" s="0" t="s">
         <v>312</v>
       </c>
@@ -14064,14 +14083,14 @@
         <v>313</v>
       </c>
       <c r="H117" s="23"/>
-      <c r="I117" s="75"/>
-      <c r="J117" s="75"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="76"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B118" s="74"/>
+      <c r="A118" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B118" s="75"/>
       <c r="C118" s="0" t="s">
         <v>314</v>
       </c>
@@ -14079,14 +14098,14 @@
         <v>315</v>
       </c>
       <c r="H118" s="23"/>
-      <c r="I118" s="75"/>
-      <c r="J118" s="75"/>
+      <c r="I118" s="76"/>
+      <c r="J118" s="76"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B119" s="74"/>
+      <c r="A119" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B119" s="75"/>
       <c r="C119" s="0" t="s">
         <v>316</v>
       </c>
@@ -14094,14 +14113,14 @@
         <v>317</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="75"/>
-      <c r="J119" s="75"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="76"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B120" s="74"/>
+      <c r="A120" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B120" s="75"/>
       <c r="C120" s="0" t="s">
         <v>318</v>
       </c>
@@ -14109,14 +14128,14 @@
         <v>319</v>
       </c>
       <c r="H120" s="23"/>
-      <c r="I120" s="75"/>
-      <c r="J120" s="75"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B121" s="74"/>
+      <c r="A121" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B121" s="75"/>
       <c r="C121" s="0" t="s">
         <v>320</v>
       </c>
@@ -14124,14 +14143,14 @@
         <v>321</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B122" s="74"/>
+      <c r="A122" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B122" s="75"/>
       <c r="C122" s="0" t="s">
         <v>322</v>
       </c>
@@ -14139,14 +14158,14 @@
         <v>323</v>
       </c>
       <c r="H122" s="23"/>
-      <c r="I122" s="75"/>
-      <c r="J122" s="75"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B123" s="74"/>
+      <c r="A123" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B123" s="75"/>
       <c r="C123" s="0" t="s">
         <v>324</v>
       </c>
@@ -14154,14 +14173,14 @@
         <v>325</v>
       </c>
       <c r="H123" s="23"/>
-      <c r="I123" s="75"/>
-      <c r="J123" s="75"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="76"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B124" s="74"/>
+      <c r="A124" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B124" s="75"/>
       <c r="C124" s="0" t="s">
         <v>326</v>
       </c>
@@ -14169,14 +14188,14 @@
         <v>327</v>
       </c>
       <c r="H124" s="23"/>
-      <c r="I124" s="75"/>
-      <c r="J124" s="75"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="76"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B125" s="74"/>
+      <c r="A125" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B125" s="75"/>
       <c r="C125" s="0" t="s">
         <v>328</v>
       </c>
@@ -14184,14 +14203,14 @@
         <v>329</v>
       </c>
       <c r="H125" s="23"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="75"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="76"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B126" s="74"/>
+      <c r="A126" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B126" s="75"/>
       <c r="C126" s="0" t="s">
         <v>330</v>
       </c>
@@ -14199,14 +14218,14 @@
         <v>331</v>
       </c>
       <c r="H126" s="23"/>
-      <c r="I126" s="75"/>
-      <c r="J126" s="75"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B127" s="74"/>
+      <c r="A127" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B127" s="75"/>
       <c r="C127" s="0" t="s">
         <v>332</v>
       </c>
@@ -14214,14 +14233,14 @@
         <v>333</v>
       </c>
       <c r="H127" s="23"/>
-      <c r="I127" s="75"/>
-      <c r="J127" s="75"/>
+      <c r="I127" s="76"/>
+      <c r="J127" s="76"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B128" s="74"/>
+      <c r="A128" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B128" s="75"/>
       <c r="C128" s="0" t="s">
         <v>334</v>
       </c>
@@ -14229,14 +14248,14 @@
         <v>335</v>
       </c>
       <c r="H128" s="23"/>
-      <c r="I128" s="75"/>
-      <c r="J128" s="75"/>
+      <c r="I128" s="76"/>
+      <c r="J128" s="76"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B129" s="74"/>
+      <c r="A129" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B129" s="75"/>
       <c r="C129" s="0" t="s">
         <v>336</v>
       </c>
@@ -14244,14 +14263,14 @@
         <v>337</v>
       </c>
       <c r="H129" s="23"/>
-      <c r="I129" s="75"/>
-      <c r="J129" s="75"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B130" s="74"/>
+      <c r="A130" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B130" s="75"/>
       <c r="C130" s="0" t="s">
         <v>338</v>
       </c>
@@ -14259,14 +14278,14 @@
         <v>339</v>
       </c>
       <c r="H130" s="23"/>
-      <c r="I130" s="75"/>
-      <c r="J130" s="75"/>
+      <c r="I130" s="76"/>
+      <c r="J130" s="76"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B131" s="74"/>
+      <c r="A131" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B131" s="75"/>
       <c r="C131" s="0" t="s">
         <v>340</v>
       </c>
@@ -14274,14 +14293,14 @@
         <v>341</v>
       </c>
       <c r="H131" s="23"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
+      <c r="I131" s="76"/>
+      <c r="J131" s="76"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B132" s="74"/>
+      <c r="A132" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B132" s="75"/>
       <c r="C132" s="0" t="s">
         <v>342</v>
       </c>
@@ -14289,14 +14308,14 @@
         <v>343</v>
       </c>
       <c r="H132" s="23"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="75"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B133" s="74"/>
+      <c r="A133" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B133" s="75"/>
       <c r="C133" s="0" t="s">
         <v>344</v>
       </c>
@@ -14304,14 +14323,14 @@
         <v>345</v>
       </c>
       <c r="H133" s="23"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B134" s="74"/>
+      <c r="A134" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B134" s="75"/>
       <c r="C134" s="0" t="s">
         <v>346</v>
       </c>
@@ -14319,14 +14338,14 @@
         <v>347</v>
       </c>
       <c r="H134" s="23"/>
-      <c r="I134" s="75"/>
-      <c r="J134" s="75"/>
+      <c r="I134" s="76"/>
+      <c r="J134" s="76"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B135" s="74"/>
+      <c r="A135" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B135" s="75"/>
       <c r="C135" s="0" t="s">
         <v>348</v>
       </c>
@@ -14334,14 +14353,14 @@
         <v>349</v>
       </c>
       <c r="H135" s="23"/>
-      <c r="I135" s="75"/>
-      <c r="J135" s="75"/>
+      <c r="I135" s="76"/>
+      <c r="J135" s="76"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="74" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B136" s="74"/>
+      <c r="A136" s="75" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B136" s="75"/>
       <c r="C136" s="0" t="s">
         <v>350</v>
       </c>
@@ -14349,14 +14368,14 @@
         <v>351</v>
       </c>
       <c r="H136" s="23"/>
-      <c r="I136" s="75"/>
-      <c r="J136" s="75"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B137" s="74"/>
+      <c r="A137" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B137" s="75"/>
       <c r="C137" s="0" t="s">
         <v>352</v>
       </c>
@@ -14364,14 +14383,14 @@
         <v>353</v>
       </c>
       <c r="H137" s="23"/>
-      <c r="I137" s="75"/>
-      <c r="J137" s="75"/>
+      <c r="I137" s="76"/>
+      <c r="J137" s="76"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B138" s="74"/>
+      <c r="A138" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B138" s="75"/>
       <c r="C138" s="0" t="s">
         <v>354</v>
       </c>
@@ -14379,14 +14398,14 @@
         <v>355</v>
       </c>
       <c r="H138" s="23"/>
-      <c r="I138" s="75"/>
-      <c r="J138" s="75"/>
+      <c r="I138" s="76"/>
+      <c r="J138" s="76"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B139" s="74"/>
+      <c r="A139" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B139" s="75"/>
       <c r="C139" s="0" t="s">
         <v>356</v>
       </c>
@@ -14394,14 +14413,14 @@
         <v>357</v>
       </c>
       <c r="H139" s="23"/>
-      <c r="I139" s="75"/>
-      <c r="J139" s="75"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B140" s="74"/>
+      <c r="A140" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B140" s="75"/>
       <c r="C140" s="0" t="s">
         <v>358</v>
       </c>
@@ -14409,14 +14428,14 @@
         <v>359</v>
       </c>
       <c r="H140" s="23"/>
-      <c r="I140" s="75"/>
-      <c r="J140" s="75"/>
+      <c r="I140" s="76"/>
+      <c r="J140" s="76"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B141" s="74"/>
+      <c r="A141" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B141" s="75"/>
       <c r="C141" s="0" t="s">
         <v>360</v>
       </c>
@@ -14424,14 +14443,14 @@
         <v>361</v>
       </c>
       <c r="H141" s="23"/>
-      <c r="I141" s="75"/>
-      <c r="J141" s="75"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B142" s="74"/>
+      <c r="A142" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B142" s="75"/>
       <c r="C142" s="0" t="s">
         <v>362</v>
       </c>
@@ -14439,14 +14458,14 @@
         <v>363</v>
       </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="75"/>
-      <c r="J142" s="75"/>
+      <c r="I142" s="76"/>
+      <c r="J142" s="76"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B143" s="74"/>
+      <c r="A143" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B143" s="75"/>
       <c r="C143" s="0" t="s">
         <v>364</v>
       </c>
@@ -14454,14 +14473,14 @@
         <v>365</v>
       </c>
       <c r="H143" s="23"/>
-      <c r="I143" s="75"/>
-      <c r="J143" s="75"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B144" s="74"/>
+      <c r="A144" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B144" s="75"/>
       <c r="C144" s="0" t="s">
         <v>366</v>
       </c>
@@ -14469,14 +14488,14 @@
         <v>367</v>
       </c>
       <c r="H144" s="23"/>
-      <c r="I144" s="75"/>
-      <c r="J144" s="75"/>
+      <c r="I144" s="76"/>
+      <c r="J144" s="76"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B145" s="74"/>
+      <c r="A145" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B145" s="75"/>
       <c r="C145" s="0" t="s">
         <v>368</v>
       </c>
@@ -14484,14 +14503,14 @@
         <v>369</v>
       </c>
       <c r="H145" s="23"/>
-      <c r="I145" s="75"/>
-      <c r="J145" s="75"/>
+      <c r="I145" s="76"/>
+      <c r="J145" s="76"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B146" s="74"/>
+      <c r="A146" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B146" s="75"/>
       <c r="C146" s="0" t="s">
         <v>370</v>
       </c>
@@ -14499,14 +14518,14 @@
         <v>371</v>
       </c>
       <c r="H146" s="23"/>
-      <c r="I146" s="75"/>
-      <c r="J146" s="75"/>
+      <c r="I146" s="76"/>
+      <c r="J146" s="76"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B147" s="74"/>
+      <c r="A147" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B147" s="75"/>
       <c r="C147" s="0" t="s">
         <v>372</v>
       </c>
@@ -14514,14 +14533,14 @@
         <v>373</v>
       </c>
       <c r="H147" s="23"/>
-      <c r="I147" s="75"/>
-      <c r="J147" s="75"/>
+      <c r="I147" s="76"/>
+      <c r="J147" s="76"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B148" s="74"/>
+      <c r="A148" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B148" s="75"/>
       <c r="C148" s="0" t="s">
         <v>374</v>
       </c>
@@ -14529,14 +14548,14 @@
         <v>375</v>
       </c>
       <c r="H148" s="23"/>
-      <c r="I148" s="75"/>
-      <c r="J148" s="75"/>
+      <c r="I148" s="76"/>
+      <c r="J148" s="76"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B149" s="74"/>
+      <c r="A149" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B149" s="75"/>
       <c r="C149" s="0" t="s">
         <v>376</v>
       </c>
@@ -14544,14 +14563,14 @@
         <v>377</v>
       </c>
       <c r="H149" s="23"/>
-      <c r="I149" s="75"/>
-      <c r="J149" s="75"/>
+      <c r="I149" s="76"/>
+      <c r="J149" s="76"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B150" s="74"/>
+      <c r="A150" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B150" s="75"/>
       <c r="C150" s="0" t="s">
         <v>378</v>
       </c>
@@ -14559,14 +14578,14 @@
         <v>379</v>
       </c>
       <c r="H150" s="23"/>
-      <c r="I150" s="75"/>
-      <c r="J150" s="75"/>
+      <c r="I150" s="76"/>
+      <c r="J150" s="76"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B151" s="74"/>
+      <c r="A151" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B151" s="75"/>
       <c r="C151" s="0" t="s">
         <v>380</v>
       </c>
@@ -14574,14 +14593,14 @@
         <v>381</v>
       </c>
       <c r="H151" s="23"/>
-      <c r="I151" s="75"/>
-      <c r="J151" s="75"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="76"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B152" s="74"/>
+      <c r="A152" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B152" s="75"/>
       <c r="C152" s="0" t="s">
         <v>382</v>
       </c>
@@ -14589,14 +14608,14 @@
         <v>383</v>
       </c>
       <c r="H152" s="23"/>
-      <c r="I152" s="75"/>
-      <c r="J152" s="75"/>
+      <c r="I152" s="76"/>
+      <c r="J152" s="76"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B153" s="74"/>
+      <c r="A153" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B153" s="75"/>
       <c r="C153" s="0" t="s">
         <v>384</v>
       </c>
@@ -14604,14 +14623,14 @@
         <v>385</v>
       </c>
       <c r="H153" s="23"/>
-      <c r="I153" s="75"/>
-      <c r="J153" s="75"/>
+      <c r="I153" s="76"/>
+      <c r="J153" s="76"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B154" s="74"/>
+      <c r="A154" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B154" s="75"/>
       <c r="C154" s="0" t="s">
         <v>386</v>
       </c>
@@ -14619,14 +14638,14 @@
         <v>387</v>
       </c>
       <c r="H154" s="23"/>
-      <c r="I154" s="75"/>
-      <c r="J154" s="75"/>
+      <c r="I154" s="76"/>
+      <c r="J154" s="76"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B155" s="74"/>
+      <c r="A155" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B155" s="75"/>
       <c r="C155" s="0" t="s">
         <v>388</v>
       </c>
@@ -14634,14 +14653,14 @@
         <v>389</v>
       </c>
       <c r="H155" s="23"/>
-      <c r="I155" s="75"/>
-      <c r="J155" s="75"/>
+      <c r="I155" s="76"/>
+      <c r="J155" s="76"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B156" s="74"/>
+      <c r="A156" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B156" s="75"/>
       <c r="C156" s="0" t="s">
         <v>390</v>
       </c>
@@ -14649,14 +14668,14 @@
         <v>391</v>
       </c>
       <c r="H156" s="23"/>
-      <c r="I156" s="75"/>
-      <c r="J156" s="75"/>
+      <c r="I156" s="76"/>
+      <c r="J156" s="76"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B157" s="74"/>
+      <c r="A157" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B157" s="75"/>
       <c r="C157" s="0" t="s">
         <v>392</v>
       </c>
@@ -14664,14 +14683,14 @@
         <v>393</v>
       </c>
       <c r="H157" s="23"/>
-      <c r="I157" s="75"/>
-      <c r="J157" s="75"/>
+      <c r="I157" s="76"/>
+      <c r="J157" s="76"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B158" s="74"/>
+      <c r="A158" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B158" s="75"/>
       <c r="C158" s="0" t="s">
         <v>394</v>
       </c>
@@ -14679,14 +14698,14 @@
         <v>395</v>
       </c>
       <c r="H158" s="23"/>
-      <c r="I158" s="75"/>
-      <c r="J158" s="75"/>
+      <c r="I158" s="76"/>
+      <c r="J158" s="76"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B159" s="74"/>
+      <c r="A159" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B159" s="75"/>
       <c r="C159" s="0" t="s">
         <v>396</v>
       </c>
@@ -14694,14 +14713,14 @@
         <v>397</v>
       </c>
       <c r="H159" s="23"/>
-      <c r="I159" s="75"/>
-      <c r="J159" s="75"/>
+      <c r="I159" s="76"/>
+      <c r="J159" s="76"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B160" s="74"/>
+      <c r="A160" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B160" s="75"/>
       <c r="C160" s="0" t="s">
         <v>398</v>
       </c>
@@ -14709,14 +14728,14 @@
         <v>399</v>
       </c>
       <c r="H160" s="23"/>
-      <c r="I160" s="75"/>
-      <c r="J160" s="75"/>
+      <c r="I160" s="76"/>
+      <c r="J160" s="76"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B161" s="74"/>
+      <c r="A161" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B161" s="75"/>
       <c r="C161" s="0" t="s">
         <v>400</v>
       </c>
@@ -14724,14 +14743,14 @@
         <v>401</v>
       </c>
       <c r="H161" s="23"/>
-      <c r="I161" s="75"/>
-      <c r="J161" s="75"/>
+      <c r="I161" s="76"/>
+      <c r="J161" s="76"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B162" s="74"/>
+      <c r="A162" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B162" s="75"/>
       <c r="C162" s="0" t="s">
         <v>402</v>
       </c>
@@ -14739,14 +14758,14 @@
         <v>403</v>
       </c>
       <c r="H162" s="23"/>
-      <c r="I162" s="75"/>
-      <c r="J162" s="75"/>
+      <c r="I162" s="76"/>
+      <c r="J162" s="76"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B163" s="74"/>
+      <c r="A163" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B163" s="75"/>
       <c r="C163" s="0" t="s">
         <v>404</v>
       </c>
@@ -14754,14 +14773,14 @@
         <v>405</v>
       </c>
       <c r="H163" s="23"/>
-      <c r="I163" s="75"/>
-      <c r="J163" s="75"/>
+      <c r="I163" s="76"/>
+      <c r="J163" s="76"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B164" s="74"/>
+      <c r="A164" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B164" s="75"/>
       <c r="C164" s="0" t="s">
         <v>406</v>
       </c>
@@ -14769,14 +14788,14 @@
         <v>407</v>
       </c>
       <c r="H164" s="23"/>
-      <c r="I164" s="75"/>
-      <c r="J164" s="75"/>
+      <c r="I164" s="76"/>
+      <c r="J164" s="76"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B165" s="74"/>
+      <c r="A165" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B165" s="75"/>
       <c r="C165" s="0" t="s">
         <v>408</v>
       </c>
@@ -14784,14 +14803,14 @@
         <v>409</v>
       </c>
       <c r="H165" s="23"/>
-      <c r="I165" s="75"/>
-      <c r="J165" s="75"/>
+      <c r="I165" s="76"/>
+      <c r="J165" s="76"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B166" s="74"/>
+      <c r="A166" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B166" s="75"/>
       <c r="C166" s="0" t="s">
         <v>410</v>
       </c>
@@ -14799,14 +14818,14 @@
         <v>411</v>
       </c>
       <c r="H166" s="23"/>
-      <c r="I166" s="75"/>
-      <c r="J166" s="75"/>
+      <c r="I166" s="76"/>
+      <c r="J166" s="76"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B167" s="74"/>
+      <c r="A167" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B167" s="75"/>
       <c r="C167" s="0" t="s">
         <v>412</v>
       </c>
@@ -14814,14 +14833,14 @@
         <v>413</v>
       </c>
       <c r="H167" s="23"/>
-      <c r="I167" s="75"/>
-      <c r="J167" s="75"/>
+      <c r="I167" s="76"/>
+      <c r="J167" s="76"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B168" s="74"/>
+      <c r="A168" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B168" s="75"/>
       <c r="C168" s="0" t="s">
         <v>414</v>
       </c>
@@ -14829,14 +14848,14 @@
         <v>415</v>
       </c>
       <c r="H168" s="23"/>
-      <c r="I168" s="75"/>
-      <c r="J168" s="75"/>
+      <c r="I168" s="76"/>
+      <c r="J168" s="76"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B169" s="74"/>
+      <c r="A169" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B169" s="75"/>
       <c r="C169" s="0" t="s">
         <v>416</v>
       </c>
@@ -14844,14 +14863,14 @@
         <v>417</v>
       </c>
       <c r="H169" s="23"/>
-      <c r="I169" s="75"/>
-      <c r="J169" s="75"/>
+      <c r="I169" s="76"/>
+      <c r="J169" s="76"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B170" s="74"/>
+      <c r="A170" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B170" s="75"/>
       <c r="C170" s="0" t="s">
         <v>418</v>
       </c>
@@ -14859,14 +14878,14 @@
         <v>419</v>
       </c>
       <c r="H170" s="23"/>
-      <c r="I170" s="75"/>
-      <c r="J170" s="75"/>
+      <c r="I170" s="76"/>
+      <c r="J170" s="76"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="74" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B171" s="74"/>
+      <c r="A171" s="75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B171" s="75"/>
       <c r="C171" s="0" t="s">
         <v>420</v>
       </c>
@@ -14874,14 +14893,14 @@
         <v>421</v>
       </c>
       <c r="H171" s="23"/>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
+      <c r="I171" s="76"/>
+      <c r="J171" s="76"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B172" s="74"/>
+      <c r="A172" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B172" s="75"/>
       <c r="C172" s="0" t="s">
         <v>422</v>
       </c>
@@ -14889,14 +14908,14 @@
         <v>423</v>
       </c>
       <c r="H172" s="23"/>
-      <c r="I172" s="75"/>
-      <c r="J172" s="75"/>
+      <c r="I172" s="76"/>
+      <c r="J172" s="76"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B173" s="74"/>
+      <c r="A173" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B173" s="75"/>
       <c r="C173" s="0" t="s">
         <v>424</v>
       </c>
@@ -14904,14 +14923,14 @@
         <v>425</v>
       </c>
       <c r="H173" s="23"/>
-      <c r="I173" s="75"/>
-      <c r="J173" s="75"/>
+      <c r="I173" s="76"/>
+      <c r="J173" s="76"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B174" s="74"/>
+      <c r="A174" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B174" s="75"/>
       <c r="C174" s="0" t="s">
         <v>426</v>
       </c>
@@ -14919,14 +14938,14 @@
         <v>427</v>
       </c>
       <c r="H174" s="23"/>
-      <c r="I174" s="75"/>
-      <c r="J174" s="75"/>
+      <c r="I174" s="76"/>
+      <c r="J174" s="76"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B175" s="74"/>
+      <c r="A175" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B175" s="75"/>
       <c r="C175" s="0" t="s">
         <v>428</v>
       </c>
@@ -14934,14 +14953,14 @@
         <v>429</v>
       </c>
       <c r="H175" s="23"/>
-      <c r="I175" s="75"/>
-      <c r="J175" s="75"/>
+      <c r="I175" s="76"/>
+      <c r="J175" s="76"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B176" s="74"/>
+      <c r="A176" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B176" s="75"/>
       <c r="C176" s="0" t="s">
         <v>430</v>
       </c>
@@ -14949,14 +14968,14 @@
         <v>431</v>
       </c>
       <c r="H176" s="23"/>
-      <c r="I176" s="75"/>
-      <c r="J176" s="75"/>
+      <c r="I176" s="76"/>
+      <c r="J176" s="76"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B177" s="74"/>
+      <c r="A177" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B177" s="75"/>
       <c r="C177" s="0" t="s">
         <v>432</v>
       </c>
@@ -14964,14 +14983,14 @@
         <v>433</v>
       </c>
       <c r="H177" s="23"/>
-      <c r="I177" s="75"/>
-      <c r="J177" s="75"/>
+      <c r="I177" s="76"/>
+      <c r="J177" s="76"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B178" s="74"/>
+      <c r="A178" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B178" s="75"/>
       <c r="C178" s="0" t="s">
         <v>434</v>
       </c>
@@ -14979,14 +14998,14 @@
         <v>435</v>
       </c>
       <c r="H178" s="23"/>
-      <c r="I178" s="75"/>
-      <c r="J178" s="75"/>
+      <c r="I178" s="76"/>
+      <c r="J178" s="76"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B179" s="74"/>
+      <c r="A179" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B179" s="75"/>
       <c r="C179" s="0" t="s">
         <v>436</v>
       </c>
@@ -14994,14 +15013,14 @@
         <v>437</v>
       </c>
       <c r="H179" s="23"/>
-      <c r="I179" s="75"/>
-      <c r="J179" s="75"/>
+      <c r="I179" s="76"/>
+      <c r="J179" s="76"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B180" s="74"/>
+      <c r="A180" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B180" s="75"/>
       <c r="C180" s="0" t="s">
         <v>438</v>
       </c>
@@ -15009,14 +15028,14 @@
         <v>439</v>
       </c>
       <c r="H180" s="23"/>
-      <c r="I180" s="75"/>
-      <c r="J180" s="75"/>
+      <c r="I180" s="76"/>
+      <c r="J180" s="76"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B181" s="74"/>
+      <c r="A181" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B181" s="75"/>
       <c r="C181" s="0" t="s">
         <v>440</v>
       </c>
@@ -15024,14 +15043,14 @@
         <v>441</v>
       </c>
       <c r="H181" s="23"/>
-      <c r="I181" s="75"/>
-      <c r="J181" s="75"/>
+      <c r="I181" s="76"/>
+      <c r="J181" s="76"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B182" s="74"/>
+      <c r="A182" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B182" s="75"/>
       <c r="C182" s="0" t="s">
         <v>442</v>
       </c>
@@ -15039,14 +15058,14 @@
         <v>443</v>
       </c>
       <c r="H182" s="23"/>
-      <c r="I182" s="75"/>
-      <c r="J182" s="75"/>
+      <c r="I182" s="76"/>
+      <c r="J182" s="76"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B183" s="74"/>
+      <c r="A183" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B183" s="75"/>
       <c r="C183" s="0" t="s">
         <v>444</v>
       </c>
@@ -15054,14 +15073,14 @@
         <v>445</v>
       </c>
       <c r="H183" s="23"/>
-      <c r="I183" s="75"/>
-      <c r="J183" s="75"/>
+      <c r="I183" s="76"/>
+      <c r="J183" s="76"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B184" s="74"/>
+      <c r="A184" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B184" s="75"/>
       <c r="C184" s="0" t="s">
         <v>446</v>
       </c>
@@ -15069,14 +15088,14 @@
         <v>447</v>
       </c>
       <c r="H184" s="23"/>
-      <c r="I184" s="75"/>
-      <c r="J184" s="75"/>
+      <c r="I184" s="76"/>
+      <c r="J184" s="76"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B185" s="74"/>
+      <c r="A185" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B185" s="75"/>
       <c r="C185" s="0" t="s">
         <v>448</v>
       </c>
@@ -15084,14 +15103,14 @@
         <v>449</v>
       </c>
       <c r="H185" s="23"/>
-      <c r="I185" s="75"/>
-      <c r="J185" s="75"/>
+      <c r="I185" s="76"/>
+      <c r="J185" s="76"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B186" s="74"/>
+      <c r="A186" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B186" s="75"/>
       <c r="C186" s="0" t="s">
         <v>450</v>
       </c>
@@ -15099,14 +15118,14 @@
         <v>451</v>
       </c>
       <c r="H186" s="23"/>
-      <c r="I186" s="75"/>
-      <c r="J186" s="75"/>
+      <c r="I186" s="76"/>
+      <c r="J186" s="76"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B187" s="74"/>
+      <c r="A187" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B187" s="75"/>
       <c r="C187" s="0" t="s">
         <v>452</v>
       </c>
@@ -15114,14 +15133,14 @@
         <v>453</v>
       </c>
       <c r="H187" s="23"/>
-      <c r="I187" s="75"/>
-      <c r="J187" s="75"/>
+      <c r="I187" s="76"/>
+      <c r="J187" s="76"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B188" s="74"/>
+      <c r="A188" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B188" s="75"/>
       <c r="C188" s="0" t="s">
         <v>454</v>
       </c>
@@ -15129,14 +15148,14 @@
         <v>455</v>
       </c>
       <c r="H188" s="23"/>
-      <c r="I188" s="75"/>
-      <c r="J188" s="75"/>
+      <c r="I188" s="76"/>
+      <c r="J188" s="76"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B189" s="74"/>
+      <c r="A189" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B189" s="75"/>
       <c r="C189" s="0" t="s">
         <v>456</v>
       </c>
@@ -15144,14 +15163,14 @@
         <v>457</v>
       </c>
       <c r="H189" s="23"/>
-      <c r="I189" s="75"/>
-      <c r="J189" s="75"/>
+      <c r="I189" s="76"/>
+      <c r="J189" s="76"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B190" s="74"/>
+      <c r="A190" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B190" s="75"/>
       <c r="C190" s="0" t="s">
         <v>458</v>
       </c>
@@ -15159,14 +15178,14 @@
         <v>459</v>
       </c>
       <c r="H190" s="23"/>
-      <c r="I190" s="75"/>
-      <c r="J190" s="75"/>
+      <c r="I190" s="76"/>
+      <c r="J190" s="76"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B191" s="74"/>
+      <c r="A191" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B191" s="75"/>
       <c r="C191" s="0" t="s">
         <v>460</v>
       </c>
@@ -15174,14 +15193,14 @@
         <v>461</v>
       </c>
       <c r="H191" s="23"/>
-      <c r="I191" s="75"/>
-      <c r="J191" s="75"/>
+      <c r="I191" s="76"/>
+      <c r="J191" s="76"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B192" s="74"/>
+      <c r="A192" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B192" s="75"/>
       <c r="C192" s="0" t="s">
         <v>462</v>
       </c>
@@ -15189,14 +15208,14 @@
         <v>463</v>
       </c>
       <c r="H192" s="23"/>
-      <c r="I192" s="75"/>
-      <c r="J192" s="75"/>
+      <c r="I192" s="76"/>
+      <c r="J192" s="76"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B193" s="74"/>
+      <c r="A193" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B193" s="75"/>
       <c r="C193" s="0" t="s">
         <v>464</v>
       </c>
@@ -15204,14 +15223,14 @@
         <v>465</v>
       </c>
       <c r="H193" s="23"/>
-      <c r="I193" s="75"/>
-      <c r="J193" s="75"/>
+      <c r="I193" s="76"/>
+      <c r="J193" s="76"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B194" s="74"/>
+      <c r="A194" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B194" s="75"/>
       <c r="C194" s="0" t="s">
         <v>466</v>
       </c>
@@ -15219,14 +15238,14 @@
         <v>467</v>
       </c>
       <c r="H194" s="23"/>
-      <c r="I194" s="75"/>
-      <c r="J194" s="75"/>
+      <c r="I194" s="76"/>
+      <c r="J194" s="76"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B195" s="74"/>
+      <c r="A195" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B195" s="75"/>
       <c r="C195" s="0" t="s">
         <v>468</v>
       </c>
@@ -15234,14 +15253,14 @@
         <v>469</v>
       </c>
       <c r="H195" s="23"/>
-      <c r="I195" s="75"/>
-      <c r="J195" s="75"/>
+      <c r="I195" s="76"/>
+      <c r="J195" s="76"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B196" s="74"/>
+      <c r="A196" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B196" s="75"/>
       <c r="C196" s="0" t="s">
         <v>470</v>
       </c>
@@ -15249,14 +15268,14 @@
         <v>471</v>
       </c>
       <c r="H196" s="23"/>
-      <c r="I196" s="75"/>
-      <c r="J196" s="75"/>
+      <c r="I196" s="76"/>
+      <c r="J196" s="76"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B197" s="74"/>
+      <c r="A197" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B197" s="75"/>
       <c r="C197" s="0" t="s">
         <v>472</v>
       </c>
@@ -15264,14 +15283,14 @@
         <v>473</v>
       </c>
       <c r="H197" s="23"/>
-      <c r="I197" s="75"/>
-      <c r="J197" s="75"/>
+      <c r="I197" s="76"/>
+      <c r="J197" s="76"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B198" s="74"/>
+      <c r="A198" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B198" s="75"/>
       <c r="C198" s="0" t="s">
         <v>474</v>
       </c>
@@ -15279,14 +15298,14 @@
         <v>475</v>
       </c>
       <c r="H198" s="23"/>
-      <c r="I198" s="75"/>
-      <c r="J198" s="75"/>
+      <c r="I198" s="76"/>
+      <c r="J198" s="76"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B199" s="74"/>
+      <c r="A199" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B199" s="75"/>
       <c r="C199" s="0" t="s">
         <v>476</v>
       </c>
@@ -15294,14 +15313,14 @@
         <v>477</v>
       </c>
       <c r="H199" s="23"/>
-      <c r="I199" s="75"/>
-      <c r="J199" s="75"/>
+      <c r="I199" s="76"/>
+      <c r="J199" s="76"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B200" s="74"/>
+      <c r="A200" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B200" s="75"/>
       <c r="C200" s="0" t="s">
         <v>478</v>
       </c>
@@ -15309,14 +15328,14 @@
         <v>479</v>
       </c>
       <c r="H200" s="23"/>
-      <c r="I200" s="75"/>
-      <c r="J200" s="75"/>
+      <c r="I200" s="76"/>
+      <c r="J200" s="76"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B201" s="74"/>
+      <c r="A201" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B201" s="75"/>
       <c r="C201" s="0" t="s">
         <v>480</v>
       </c>
@@ -15324,14 +15343,14 @@
         <v>481</v>
       </c>
       <c r="H201" s="23"/>
-      <c r="I201" s="75"/>
-      <c r="J201" s="75"/>
+      <c r="I201" s="76"/>
+      <c r="J201" s="76"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B202" s="74"/>
+      <c r="A202" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B202" s="75"/>
       <c r="C202" s="0" t="s">
         <v>482</v>
       </c>
@@ -15339,14 +15358,14 @@
         <v>483</v>
       </c>
       <c r="H202" s="23"/>
-      <c r="I202" s="75"/>
-      <c r="J202" s="75"/>
+      <c r="I202" s="76"/>
+      <c r="J202" s="76"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B203" s="74"/>
+      <c r="A203" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B203" s="75"/>
       <c r="C203" s="0" t="s">
         <v>484</v>
       </c>
@@ -15354,14 +15373,14 @@
         <v>485</v>
       </c>
       <c r="H203" s="23"/>
-      <c r="I203" s="75"/>
-      <c r="J203" s="75"/>
+      <c r="I203" s="76"/>
+      <c r="J203" s="76"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="74" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B204" s="74"/>
+      <c r="A204" s="75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B204" s="75"/>
       <c r="C204" s="0" t="s">
         <v>486</v>
       </c>
@@ -15369,14 +15388,14 @@
         <v>487</v>
       </c>
       <c r="H204" s="23"/>
-      <c r="I204" s="75"/>
-      <c r="J204" s="75"/>
+      <c r="I204" s="76"/>
+      <c r="J204" s="76"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B205" s="74"/>
+      <c r="A205" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B205" s="75"/>
       <c r="C205" s="0" t="s">
         <v>488</v>
       </c>
@@ -15384,14 +15403,14 @@
         <v>489</v>
       </c>
       <c r="H205" s="23"/>
-      <c r="I205" s="75"/>
-      <c r="J205" s="75"/>
+      <c r="I205" s="76"/>
+      <c r="J205" s="76"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B206" s="74"/>
+      <c r="A206" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B206" s="75"/>
       <c r="C206" s="0" t="s">
         <v>490</v>
       </c>
@@ -15399,14 +15418,14 @@
         <v>491</v>
       </c>
       <c r="H206" s="23"/>
-      <c r="I206" s="75"/>
-      <c r="J206" s="75"/>
+      <c r="I206" s="76"/>
+      <c r="J206" s="76"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B207" s="74"/>
+      <c r="A207" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B207" s="75"/>
       <c r="C207" s="0" t="s">
         <v>492</v>
       </c>
@@ -15414,14 +15433,14 @@
         <v>493</v>
       </c>
       <c r="H207" s="23"/>
-      <c r="I207" s="75"/>
-      <c r="J207" s="75"/>
+      <c r="I207" s="76"/>
+      <c r="J207" s="76"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B208" s="74"/>
+      <c r="A208" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B208" s="75"/>
       <c r="C208" s="0" t="s">
         <v>494</v>
       </c>
@@ -15429,14 +15448,14 @@
         <v>495</v>
       </c>
       <c r="H208" s="23"/>
-      <c r="I208" s="75"/>
-      <c r="J208" s="75"/>
+      <c r="I208" s="76"/>
+      <c r="J208" s="76"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B209" s="74"/>
+      <c r="A209" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B209" s="75"/>
       <c r="C209" s="0" t="s">
         <v>496</v>
       </c>
@@ -15444,14 +15463,14 @@
         <v>497</v>
       </c>
       <c r="H209" s="23"/>
-      <c r="I209" s="75"/>
-      <c r="J209" s="75"/>
+      <c r="I209" s="76"/>
+      <c r="J209" s="76"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B210" s="74"/>
+      <c r="A210" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B210" s="75"/>
       <c r="C210" s="0" t="s">
         <v>498</v>
       </c>
@@ -15459,14 +15478,14 @@
         <v>499</v>
       </c>
       <c r="H210" s="23"/>
-      <c r="I210" s="75"/>
-      <c r="J210" s="75"/>
+      <c r="I210" s="76"/>
+      <c r="J210" s="76"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B211" s="74"/>
+      <c r="A211" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B211" s="75"/>
       <c r="C211" s="0" t="s">
         <v>500</v>
       </c>
@@ -15474,14 +15493,14 @@
         <v>501</v>
       </c>
       <c r="H211" s="23"/>
-      <c r="I211" s="75"/>
-      <c r="J211" s="75"/>
+      <c r="I211" s="76"/>
+      <c r="J211" s="76"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B212" s="74"/>
+      <c r="A212" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B212" s="75"/>
       <c r="C212" s="0" t="s">
         <v>502</v>
       </c>
@@ -15489,14 +15508,14 @@
         <v>503</v>
       </c>
       <c r="H212" s="23"/>
-      <c r="I212" s="75"/>
-      <c r="J212" s="75"/>
+      <c r="I212" s="76"/>
+      <c r="J212" s="76"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B213" s="74"/>
+      <c r="A213" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B213" s="75"/>
       <c r="C213" s="0" t="s">
         <v>504</v>
       </c>
@@ -15504,14 +15523,14 @@
         <v>505</v>
       </c>
       <c r="H213" s="23"/>
-      <c r="I213" s="75"/>
-      <c r="J213" s="75"/>
+      <c r="I213" s="76"/>
+      <c r="J213" s="76"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B214" s="74"/>
+      <c r="A214" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B214" s="75"/>
       <c r="C214" s="0" t="s">
         <v>506</v>
       </c>
@@ -15519,14 +15538,14 @@
         <v>507</v>
       </c>
       <c r="H214" s="23"/>
-      <c r="I214" s="75"/>
-      <c r="J214" s="75"/>
+      <c r="I214" s="76"/>
+      <c r="J214" s="76"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B215" s="74"/>
+      <c r="A215" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B215" s="75"/>
       <c r="C215" s="0" t="s">
         <v>508</v>
       </c>
@@ -15534,14 +15553,14 @@
         <v>509</v>
       </c>
       <c r="H215" s="23"/>
-      <c r="I215" s="75"/>
-      <c r="J215" s="75"/>
+      <c r="I215" s="76"/>
+      <c r="J215" s="76"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B216" s="74"/>
+      <c r="A216" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B216" s="75"/>
       <c r="C216" s="0" t="s">
         <v>510</v>
       </c>
@@ -15549,14 +15568,14 @@
         <v>511</v>
       </c>
       <c r="H216" s="23"/>
-      <c r="I216" s="75"/>
-      <c r="J216" s="75"/>
+      <c r="I216" s="76"/>
+      <c r="J216" s="76"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B217" s="74"/>
+      <c r="A217" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B217" s="75"/>
       <c r="C217" s="0" t="s">
         <v>512</v>
       </c>
@@ -15564,14 +15583,14 @@
         <v>513</v>
       </c>
       <c r="H217" s="23"/>
-      <c r="I217" s="75"/>
-      <c r="J217" s="75"/>
+      <c r="I217" s="76"/>
+      <c r="J217" s="76"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B218" s="74"/>
+      <c r="A218" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B218" s="75"/>
       <c r="C218" s="0" t="s">
         <v>514</v>
       </c>
@@ -15579,14 +15598,14 @@
         <v>515</v>
       </c>
       <c r="H218" s="23"/>
-      <c r="I218" s="75"/>
-      <c r="J218" s="75"/>
+      <c r="I218" s="76"/>
+      <c r="J218" s="76"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B219" s="74"/>
+      <c r="A219" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B219" s="75"/>
       <c r="C219" s="0" t="s">
         <v>516</v>
       </c>
@@ -15594,14 +15613,14 @@
         <v>517</v>
       </c>
       <c r="H219" s="23"/>
-      <c r="I219" s="75"/>
-      <c r="J219" s="75"/>
+      <c r="I219" s="76"/>
+      <c r="J219" s="76"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B220" s="74"/>
+      <c r="A220" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B220" s="75"/>
       <c r="C220" s="0" t="s">
         <v>518</v>
       </c>
@@ -15609,14 +15628,14 @@
         <v>519</v>
       </c>
       <c r="H220" s="23"/>
-      <c r="I220" s="75"/>
-      <c r="J220" s="75"/>
+      <c r="I220" s="76"/>
+      <c r="J220" s="76"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B221" s="74"/>
+      <c r="A221" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B221" s="75"/>
       <c r="C221" s="0" t="s">
         <v>520</v>
       </c>
@@ -15624,14 +15643,14 @@
         <v>521</v>
       </c>
       <c r="H221" s="23"/>
-      <c r="I221" s="75"/>
-      <c r="J221" s="75"/>
+      <c r="I221" s="76"/>
+      <c r="J221" s="76"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B222" s="74"/>
+      <c r="A222" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B222" s="75"/>
       <c r="C222" s="0" t="s">
         <v>522</v>
       </c>
@@ -15639,14 +15658,14 @@
         <v>523</v>
       </c>
       <c r="H222" s="23"/>
-      <c r="I222" s="75"/>
-      <c r="J222" s="75"/>
+      <c r="I222" s="76"/>
+      <c r="J222" s="76"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B223" s="74"/>
+      <c r="A223" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B223" s="75"/>
       <c r="C223" s="0" t="s">
         <v>524</v>
       </c>
@@ -15654,14 +15673,14 @@
         <v>525</v>
       </c>
       <c r="H223" s="23"/>
-      <c r="I223" s="75"/>
-      <c r="J223" s="75"/>
+      <c r="I223" s="76"/>
+      <c r="J223" s="76"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B224" s="74"/>
+      <c r="A224" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B224" s="75"/>
       <c r="C224" s="0" t="s">
         <v>526</v>
       </c>
@@ -15669,14 +15688,14 @@
         <v>527</v>
       </c>
       <c r="H224" s="23"/>
-      <c r="I224" s="75"/>
-      <c r="J224" s="75"/>
+      <c r="I224" s="76"/>
+      <c r="J224" s="76"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="74" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B225" s="74"/>
+      <c r="A225" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B225" s="75"/>
       <c r="C225" s="0" t="s">
         <v>528</v>
       </c>
@@ -15684,14 +15703,14 @@
         <v>529</v>
       </c>
       <c r="H225" s="23"/>
-      <c r="I225" s="75"/>
-      <c r="J225" s="75"/>
+      <c r="I225" s="76"/>
+      <c r="J225" s="76"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B226" s="74"/>
+      <c r="A226" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B226" s="75"/>
       <c r="C226" s="0" t="s">
         <v>530</v>
       </c>
@@ -15699,14 +15718,14 @@
         <v>531</v>
       </c>
       <c r="H226" s="23"/>
-      <c r="I226" s="75"/>
-      <c r="J226" s="75"/>
+      <c r="I226" s="76"/>
+      <c r="J226" s="76"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B227" s="74"/>
+      <c r="A227" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B227" s="75"/>
       <c r="C227" s="0" t="s">
         <v>532</v>
       </c>
@@ -15714,14 +15733,14 @@
         <v>533</v>
       </c>
       <c r="H227" s="23"/>
-      <c r="I227" s="75"/>
-      <c r="J227" s="75"/>
+      <c r="I227" s="76"/>
+      <c r="J227" s="76"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="74" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B228" s="74"/>
+      <c r="A228" s="75" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B228" s="75"/>
       <c r="C228" s="0" t="s">
         <v>534</v>
       </c>
@@ -15729,14 +15748,14 @@
         <v>535</v>
       </c>
       <c r="H228" s="23"/>
-      <c r="I228" s="75"/>
-      <c r="J228" s="75"/>
+      <c r="I228" s="76"/>
+      <c r="J228" s="76"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B229" s="74"/>
+      <c r="A229" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B229" s="75"/>
       <c r="C229" s="0" t="s">
         <v>536</v>
       </c>
@@ -15744,14 +15763,14 @@
         <v>537</v>
       </c>
       <c r="H229" s="23"/>
-      <c r="I229" s="75"/>
-      <c r="J229" s="75"/>
+      <c r="I229" s="76"/>
+      <c r="J229" s="76"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="74" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B230" s="74"/>
+      <c r="A230" s="75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B230" s="75"/>
       <c r="C230" s="0" t="s">
         <v>538</v>
       </c>
@@ -15759,14 +15778,14 @@
         <v>539</v>
       </c>
       <c r="H230" s="23"/>
-      <c r="I230" s="75"/>
-      <c r="J230" s="75"/>
+      <c r="I230" s="76"/>
+      <c r="J230" s="76"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B231" s="74"/>
+      <c r="A231" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B231" s="75"/>
       <c r="C231" s="0" t="s">
         <v>540</v>
       </c>
@@ -15774,14 +15793,14 @@
         <v>541</v>
       </c>
       <c r="H231" s="23"/>
-      <c r="I231" s="75"/>
-      <c r="J231" s="75"/>
+      <c r="I231" s="76"/>
+      <c r="J231" s="76"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="74" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B232" s="74"/>
+      <c r="A232" s="75" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B232" s="75"/>
       <c r="C232" s="0" t="s">
         <v>542</v>
       </c>
@@ -15789,14 +15808,14 @@
         <v>543</v>
       </c>
       <c r="H232" s="23"/>
-      <c r="I232" s="75"/>
-      <c r="J232" s="75"/>
+      <c r="I232" s="76"/>
+      <c r="J232" s="76"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B233" s="74"/>
+      <c r="A233" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B233" s="75"/>
       <c r="C233" s="0" t="s">
         <v>544</v>
       </c>
@@ -15804,14 +15823,14 @@
         <v>545</v>
       </c>
       <c r="H233" s="23"/>
-      <c r="I233" s="75"/>
-      <c r="J233" s="75"/>
+      <c r="I233" s="76"/>
+      <c r="J233" s="76"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="74" t="s">
+      <c r="A234" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="B234" s="74"/>
+      <c r="B234" s="75"/>
       <c r="C234" s="0" t="s">
         <v>546</v>
       </c>
@@ -15819,14 +15838,14 @@
         <v>547</v>
       </c>
       <c r="H234" s="23"/>
-      <c r="I234" s="75"/>
-      <c r="J234" s="75"/>
+      <c r="I234" s="76"/>
+      <c r="J234" s="76"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="74" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B235" s="74"/>
+      <c r="A235" s="75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B235" s="75"/>
       <c r="C235" s="0" t="s">
         <v>548</v>
       </c>
@@ -15834,14 +15853,14 @@
         <v>549</v>
       </c>
       <c r="H235" s="23"/>
-      <c r="I235" s="75"/>
-      <c r="J235" s="75"/>
+      <c r="I235" s="76"/>
+      <c r="J235" s="76"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="74" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B236" s="74"/>
+      <c r="A236" s="75" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B236" s="75"/>
       <c r="C236" s="0" t="s">
         <v>550</v>
       </c>
@@ -15849,14 +15868,14 @@
         <v>551</v>
       </c>
       <c r="H236" s="23"/>
-      <c r="I236" s="75"/>
-      <c r="J236" s="75"/>
+      <c r="I236" s="76"/>
+      <c r="J236" s="76"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B237" s="74"/>
+      <c r="A237" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B237" s="75"/>
       <c r="C237" s="0" t="s">
         <v>552</v>
       </c>
@@ -15864,14 +15883,14 @@
         <v>553</v>
       </c>
       <c r="H237" s="23"/>
-      <c r="I237" s="75"/>
-      <c r="J237" s="75"/>
+      <c r="I237" s="76"/>
+      <c r="J237" s="76"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B238" s="74"/>
+      <c r="A238" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B238" s="75"/>
       <c r="C238" s="0" t="s">
         <v>554</v>
       </c>
@@ -15879,14 +15898,14 @@
         <v>555</v>
       </c>
       <c r="H238" s="23"/>
-      <c r="I238" s="75"/>
-      <c r="J238" s="75"/>
+      <c r="I238" s="76"/>
+      <c r="J238" s="76"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B239" s="74"/>
+      <c r="A239" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B239" s="75"/>
       <c r="C239" s="0" t="s">
         <v>556</v>
       </c>
@@ -15894,14 +15913,14 @@
         <v>557</v>
       </c>
       <c r="H239" s="23"/>
-      <c r="I239" s="75"/>
-      <c r="J239" s="77"/>
+      <c r="I239" s="76"/>
+      <c r="J239" s="78"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="74" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B240" s="74"/>
+      <c r="A240" s="75" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B240" s="75"/>
       <c r="C240" s="0" t="s">
         <v>558</v>
       </c>
@@ -15909,12 +15928,12 @@
         <v>559</v>
       </c>
       <c r="H240" s="23"/>
-      <c r="I240" s="75"/>
-      <c r="J240" s="77"/>
+      <c r="I240" s="76"/>
+      <c r="J240" s="78"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="74" t="s">
-        <v>1021</v>
+      <c r="A241" s="75" t="s">
+        <v>1023</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>560</v>
@@ -15923,12 +15942,12 @@
         <v>561</v>
       </c>
       <c r="H241" s="23"/>
-      <c r="I241" s="75"/>
-      <c r="J241" s="77"/>
+      <c r="I241" s="76"/>
+      <c r="J241" s="78"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="74" t="s">
-        <v>1021</v>
+      <c r="A242" s="75" t="s">
+        <v>1023</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>562</v>
@@ -15937,12 +15956,12 @@
         <v>563</v>
       </c>
       <c r="H242" s="23"/>
-      <c r="I242" s="75"/>
-      <c r="J242" s="77"/>
+      <c r="I242" s="76"/>
+      <c r="J242" s="78"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="74" t="s">
-        <v>1021</v>
+      <c r="A243" s="75" t="s">
+        <v>1023</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>564</v>
@@ -15951,12 +15970,12 @@
         <v>565</v>
       </c>
       <c r="H243" s="23"/>
-      <c r="I243" s="75"/>
-      <c r="J243" s="77"/>
+      <c r="I243" s="76"/>
+      <c r="J243" s="78"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="74" t="s">
-        <v>1021</v>
+      <c r="A244" s="75" t="s">
+        <v>1023</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>566</v>
@@ -15965,12 +15984,12 @@
         <v>567</v>
       </c>
       <c r="H244" s="23"/>
-      <c r="I244" s="75"/>
-      <c r="J244" s="77"/>
+      <c r="I244" s="76"/>
+      <c r="J244" s="78"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="74" t="s">
-        <v>1015</v>
+      <c r="A245" s="75" t="s">
+        <v>1017</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>568</v>
@@ -15979,12 +15998,12 @@
         <v>569</v>
       </c>
       <c r="H245" s="23"/>
-      <c r="I245" s="75"/>
-      <c r="J245" s="77"/>
+      <c r="I245" s="76"/>
+      <c r="J245" s="78"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="74" t="s">
-        <v>1018</v>
+      <c r="A246" s="75" t="s">
+        <v>1020</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>570</v>
@@ -15993,12 +16012,12 @@
         <v>571</v>
       </c>
       <c r="H246" s="23"/>
-      <c r="I246" s="75"/>
-      <c r="J246" s="77"/>
+      <c r="I246" s="76"/>
+      <c r="J246" s="78"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="74" t="s">
-        <v>1018</v>
+      <c r="A247" s="75" t="s">
+        <v>1020</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>572</v>
@@ -16007,12 +16026,12 @@
         <v>573</v>
       </c>
       <c r="H247" s="23"/>
-      <c r="I247" s="75"/>
-      <c r="J247" s="77"/>
+      <c r="I247" s="76"/>
+      <c r="J247" s="78"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="74" t="s">
-        <v>1018</v>
+      <c r="A248" s="75" t="s">
+        <v>1020</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>574</v>
@@ -16021,8 +16040,8 @@
         <v>575</v>
       </c>
       <c r="H248" s="23"/>
-      <c r="I248" s="75"/>
-      <c r="J248" s="77"/>
+      <c r="I248" s="76"/>
+      <c r="J248" s="78"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
+++ b/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
@@ -92,7 +92,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -180,7 +180,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -243,7 +243,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1037">
   <si>
     <t xml:space="preserve">General Instructions</t>
   </si>
@@ -2800,7 +2800,7 @@
     <t xml:space="preserve">Radiative Forcing|CH4 - Yes (endogenous)</t>
   </si>
   <si>
-    <t xml:space="preserve">Source-based aerosol emissions - No</t>
+    <t xml:space="preserve">Source-based aerosol emissions - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Fuel Subsidies - Yes</t>
@@ -2845,7 +2845,7 @@
     <t xml:space="preserve">Radiative Forcing|N2O - Yes (endogenous)</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Impacts of Air Pollution - No</t>
+    <t xml:space="preserve">Health Impacts of Air Pollution - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Feed-in-Tariff - No</t>
@@ -2995,6 +2995,9 @@
     <t xml:space="preserve">Emission Standards - No</t>
   </si>
   <si>
+    <t xml:space="preserve">Population Age Structure is represented in MAgPIE only</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food crops - Yes</t>
   </si>
   <si>
@@ -3067,7 +3070,7 @@
     <t xml:space="preserve">Agricultural Producer Subsidies - No</t>
   </si>
   <si>
-    <t xml:space="preserve">Emissions permits - No</t>
+    <t xml:space="preserve">Emissions permits - Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Solar Power|CSP - Yes</t>
@@ -3451,12 +3454,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3508,6 +3505,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3679,7 +3682,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3703,28 +3706,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3740,11 +3735,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3804,11 +3799,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3832,19 +3827,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3860,19 +3855,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3880,35 +3875,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3920,7 +3915,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3928,7 +3923,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3944,23 +3939,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3968,11 +3955,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3996,11 +3979,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4008,23 +3991,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4032,22 +4015,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -7511,8 +7492,8 @@
   </sheetPr>
   <dimension ref="A1:MQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK5" activeCellId="0" sqref="AK5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8427,7 +8408,7 @@
       <c r="MP2" s="0"/>
       <c r="MQ2" s="0"/>
     </row>
-    <row r="3" s="57" customFormat="true" ht="97.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="56" customFormat="true" ht="97.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
         <v>699</v>
       </c>
@@ -8554,7 +8535,7 @@
       <c r="AP3" s="55" t="s">
         <v>729</v>
       </c>
-      <c r="AQ3" s="56" t="s">
+      <c r="AQ3" s="55" t="s">
         <v>730</v>
       </c>
       <c r="AR3" s="0"/>
@@ -8949,7 +8930,7 @@
       <c r="AP4" s="55" t="s">
         <v>751</v>
       </c>
-      <c r="AQ4" s="58" t="s">
+      <c r="AQ4" s="50" t="s">
         <v>752</v>
       </c>
     </row>
@@ -9029,10 +9010,10 @@
       <c r="AO5" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="AP5" s="59" t="n">
+      <c r="AP5" s="57" t="n">
         <v>0.05</v>
       </c>
-      <c r="AQ5" s="58" t="s">
+      <c r="AQ5" s="50" t="s">
         <v>774</v>
       </c>
     </row>
@@ -9074,7 +9055,7 @@
       <c r="AC6" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="AD6" s="60" t="s">
+      <c r="AD6" s="58" t="s">
         <v>783</v>
       </c>
       <c r="AE6" s="50" t="s">
@@ -9110,8 +9091,8 @@
       <c r="AO6" s="55" t="s">
         <v>793</v>
       </c>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="58" t="s">
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="50" t="s">
         <v>794</v>
       </c>
     </row>
@@ -9184,11 +9165,11 @@
       <c r="AN7" s="55" t="s">
         <v>812</v>
       </c>
-      <c r="AO7" s="61" t="s">
+      <c r="AO7" s="59" t="s">
         <v>813</v>
       </c>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="58" t="s">
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="50" t="s">
         <v>814</v>
       </c>
     </row>
@@ -9228,7 +9209,7 @@
       <c r="AC8" s="49" t="s">
         <v>820</v>
       </c>
-      <c r="AD8" s="60" t="s">
+      <c r="AD8" s="58" t="s">
         <v>821</v>
       </c>
       <c r="AE8" s="50" t="s">
@@ -9259,11 +9240,11 @@
       <c r="AN8" s="50" t="s">
         <v>829</v>
       </c>
-      <c r="AO8" s="61" t="s">
+      <c r="AO8" s="59" t="s">
         <v>830</v>
       </c>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="58" t="s">
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="50" t="s">
         <v>831</v>
       </c>
     </row>
@@ -9299,7 +9280,7 @@
       <c r="AC9" s="49" t="s">
         <v>836</v>
       </c>
-      <c r="AD9" s="60" t="s">
+      <c r="AD9" s="58" t="s">
         <v>837</v>
       </c>
       <c r="AE9" s="50" t="s">
@@ -9328,11 +9309,11 @@
       <c r="AN9" s="50" t="s">
         <v>844</v>
       </c>
-      <c r="AO9" s="61" t="s">
+      <c r="AO9" s="59" t="s">
         <v>845</v>
       </c>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="58" t="s">
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="50" t="s">
         <v>846</v>
       </c>
     </row>
@@ -9392,11 +9373,11 @@
       <c r="AN10" s="55" t="s">
         <v>858</v>
       </c>
-      <c r="AO10" s="61" t="s">
+      <c r="AO10" s="59" t="s">
         <v>859</v>
       </c>
       <c r="AP10" s="55"/>
-      <c r="AQ10" s="58" t="s">
+      <c r="AQ10" s="50" t="s">
         <v>860</v>
       </c>
     </row>
@@ -9408,7 +9389,7 @@
       <c r="M11" s="49" t="s">
         <v>861</v>
       </c>
-      <c r="N11" s="62"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
@@ -9460,8 +9441,8 @@
       <c r="AO11" s="55" t="s">
         <v>871</v>
       </c>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="63" t="s">
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="49" t="s">
         <v>808</v>
       </c>
     </row>
@@ -9470,10 +9451,10 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="61" t="s">
         <v>872</v>
       </c>
-      <c r="N12" s="62"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
@@ -9520,11 +9501,11 @@
       <c r="AN12" s="55" t="s">
         <v>882</v>
       </c>
-      <c r="AO12" s="61" t="s">
+      <c r="AO12" s="59" t="s">
         <v>883</v>
       </c>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I13" s="23"/>
@@ -9532,7 +9513,7 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="49"/>
-      <c r="N13" s="62"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
@@ -9577,18 +9558,20 @@
       <c r="AN13" s="50" t="s">
         <v>892</v>
       </c>
-      <c r="AO13" s="61" t="s">
+      <c r="AO13" s="59" t="s">
         <v>893</v>
       </c>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="62" t="s">
+        <v>894</v>
+      </c>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
@@ -9596,7 +9579,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
       <c r="T14" s="52" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
@@ -9605,7 +9588,7 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="54" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AB14" s="23"/>
       <c r="AC14" s="49" t="s">
@@ -9617,25 +9600,25 @@
       </c>
       <c r="AF14" s="23"/>
       <c r="AG14" s="49" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AH14" s="49" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AI14" s="0"/>
       <c r="AJ14" s="0"/>
       <c r="AK14" s="52" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AL14" s="52" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AM14" s="23"/>
       <c r="AN14" s="55" t="s">
-        <v>900</v>
-      </c>
-      <c r="AO14" s="61" t="s">
         <v>901</v>
+      </c>
+      <c r="AO14" s="59" t="s">
+        <v>902</v>
       </c>
       <c r="AP14" s="55"/>
       <c r="AQ14" s="55"/>
@@ -9653,7 +9636,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="51" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
@@ -9662,38 +9645,38 @@
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="54" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AB15" s="23"/>
       <c r="AC15" s="53" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AD15" s="0"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
       <c r="AG15" s="53" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AH15" s="49" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AI15" s="0"/>
       <c r="AJ15" s="0"/>
       <c r="AK15" s="52" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AL15" s="52" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AM15" s="23"/>
       <c r="AN15" s="50" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AO15" s="55" t="s">
-        <v>910</v>
-      </c>
-      <c r="AP15" s="61"/>
-      <c r="AQ15" s="61"/>
+        <v>911</v>
+      </c>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I16" s="23"/>
@@ -9708,7 +9691,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
       <c r="T16" s="52" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
@@ -9717,17 +9700,17 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="54" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="49" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AD16" s="0"/>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="49" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AH16" s="49" t="s">
         <v>753</v>
@@ -9735,20 +9718,20 @@
       <c r="AI16" s="0"/>
       <c r="AJ16" s="0"/>
       <c r="AK16" s="52" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AL16" s="52" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AM16" s="23"/>
       <c r="AN16" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AO16" s="61" t="s">
-        <v>917</v>
-      </c>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61"/>
+      <c r="AO16" s="59" t="s">
+        <v>918</v>
+      </c>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N17" s="23"/>
@@ -9758,7 +9741,7 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
       <c r="T17" s="52" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
@@ -9767,39 +9750,39 @@
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="54" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AB17" s="23"/>
       <c r="AC17" s="49" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AD17" s="0"/>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="49" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AH17" s="49" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AI17" s="0"/>
       <c r="AJ17" s="0"/>
       <c r="AK17" s="52" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AL17" s="52" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AM17" s="23"/>
       <c r="AN17" s="23"/>
-      <c r="AO17" s="61" t="s">
-        <v>925</v>
+      <c r="AO17" s="59" t="s">
+        <v>926</v>
       </c>
       <c r="AP17" s="55"/>
       <c r="AQ17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N18" s="62"/>
+      <c r="N18" s="60"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
@@ -9813,17 +9796,17 @@
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="54" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AB18" s="23"/>
       <c r="AC18" s="49" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AD18" s="0"/>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="49" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AH18" s="49" t="s">
         <v>808</v>
@@ -9831,21 +9814,21 @@
       <c r="AI18" s="0"/>
       <c r="AJ18" s="0"/>
       <c r="AK18" s="52" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AL18" s="52" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AM18" s="23"/>
       <c r="AN18" s="23"/>
       <c r="AO18" s="55" t="s">
-        <v>931</v>
-      </c>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
+        <v>932</v>
+      </c>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N19" s="62"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
@@ -9859,11 +9842,11 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="54" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AB19" s="23"/>
       <c r="AC19" s="49" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="AD19" s="0"/>
       <c r="AE19" s="23"/>
@@ -9871,24 +9854,24 @@
       <c r="AG19" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="AH19" s="65" t="s">
-        <v>934</v>
+      <c r="AH19" s="62" t="s">
+        <v>935</v>
       </c>
       <c r="AI19" s="0"/>
       <c r="AJ19" s="0"/>
       <c r="AK19" s="52" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AL19" s="49" t="s">
         <v>808</v>
       </c>
       <c r="AM19" s="23"/>
       <c r="AN19" s="23"/>
-      <c r="AO19" s="61" t="s">
-        <v>936</v>
-      </c>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
+      <c r="AO19" s="59" t="s">
+        <v>937</v>
+      </c>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N20" s="23"/>
@@ -9905,7 +9888,7 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="54" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AB20" s="23"/>
       <c r="AC20" s="49" t="s">
@@ -9919,13 +9902,13 @@
       <c r="AI20" s="0"/>
       <c r="AJ20" s="0"/>
       <c r="AK20" s="52" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AL20" s="23"/>
       <c r="AM20" s="23"/>
       <c r="AN20" s="23"/>
-      <c r="AO20" s="61" t="s">
-        <v>939</v>
+      <c r="AO20" s="59" t="s">
+        <v>940</v>
       </c>
       <c r="AP20" s="49"/>
       <c r="AQ20" s="49"/>
@@ -9945,11 +9928,11 @@
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="54" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AB21" s="23"/>
       <c r="AC21" s="53" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AD21" s="0"/>
       <c r="AE21" s="23"/>
@@ -9959,7 +9942,7 @@
       <c r="AI21" s="0"/>
       <c r="AJ21" s="0"/>
       <c r="AK21" s="52" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AL21" s="23"/>
       <c r="AM21" s="23"/>
@@ -9970,11 +9953,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AA22" s="54" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AB22" s="23"/>
       <c r="AC22" s="49" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AD22" s="0"/>
       <c r="AE22" s="23"/>
@@ -9984,7 +9967,7 @@
       <c r="AI22" s="0"/>
       <c r="AJ22" s="0"/>
       <c r="AK22" s="52" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
@@ -9992,13 +9975,13 @@
       <c r="AO22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N23" s="62"/>
+      <c r="N23" s="60"/>
       <c r="AA23" s="54" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AB23" s="23"/>
       <c r="AC23" s="49" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AD23" s="0"/>
       <c r="AE23" s="23"/>
@@ -10008,7 +9991,7 @@
       <c r="AI23" s="0"/>
       <c r="AJ23" s="0"/>
       <c r="AK23" s="52" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AL23" s="23"/>
       <c r="AM23" s="23"/>
@@ -10016,12 +9999,12 @@
       <c r="AO23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA24" s="66" t="s">
-        <v>949</v>
+      <c r="AA24" s="63" t="s">
+        <v>950</v>
       </c>
       <c r="AB24" s="23"/>
       <c r="AC24" s="49" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AD24" s="0"/>
       <c r="AE24" s="23"/>
@@ -10031,7 +10014,7 @@
       <c r="AI24" s="0"/>
       <c r="AJ24" s="0"/>
       <c r="AK24" s="52" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AL24" s="23"/>
       <c r="AM24" s="23"/>
@@ -10040,11 +10023,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA25" s="50" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AB25" s="23"/>
       <c r="AC25" s="49" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AD25" s="0"/>
       <c r="AE25" s="23"/>
@@ -10054,7 +10037,7 @@
       <c r="AI25" s="0"/>
       <c r="AJ25" s="0"/>
       <c r="AK25" s="52" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AL25" s="23"/>
       <c r="AM25" s="23"/>
@@ -10063,11 +10046,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA26" s="50" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AB26" s="23"/>
       <c r="AC26" s="49" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AD26" s="0"/>
       <c r="AE26" s="23"/>
@@ -10077,7 +10060,7 @@
       <c r="AI26" s="0"/>
       <c r="AJ26" s="0"/>
       <c r="AK26" s="52" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
@@ -10086,11 +10069,11 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA27" s="50" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AB27" s="23"/>
       <c r="AC27" s="49" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AD27" s="0"/>
       <c r="AE27" s="23"/>
@@ -10100,7 +10083,7 @@
       <c r="AI27" s="0"/>
       <c r="AJ27" s="0"/>
       <c r="AK27" s="52" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AL27" s="23"/>
       <c r="AM27" s="23"/>
@@ -10109,7 +10092,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA28" s="50" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AB28" s="23"/>
       <c r="AC28" s="49" t="s">
@@ -10123,7 +10106,7 @@
       <c r="AI28" s="0"/>
       <c r="AJ28" s="0"/>
       <c r="AK28" s="52" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AL28" s="23"/>
       <c r="AM28" s="23"/>
@@ -10132,11 +10115,11 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA29" s="50" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AB29" s="23"/>
       <c r="AC29" s="53" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AD29" s="0"/>
       <c r="AE29" s="23"/>
@@ -10146,7 +10129,7 @@
       <c r="AI29" s="0"/>
       <c r="AJ29" s="0"/>
       <c r="AK29" s="52" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AL29" s="23"/>
       <c r="AM29" s="23"/>
@@ -10155,11 +10138,11 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA30" s="50" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AB30" s="23"/>
       <c r="AC30" s="49" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AD30" s="0"/>
       <c r="AE30" s="23"/>
@@ -10169,7 +10152,7 @@
       <c r="AI30" s="0"/>
       <c r="AJ30" s="0"/>
       <c r="AK30" s="52" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
@@ -10178,11 +10161,11 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA31" s="50" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AB31" s="23"/>
       <c r="AC31" s="49" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AD31" s="0"/>
       <c r="AE31" s="23"/>
@@ -10192,7 +10175,7 @@
       <c r="AI31" s="0"/>
       <c r="AJ31" s="0"/>
       <c r="AK31" s="52" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AL31" s="23"/>
       <c r="AM31" s="23"/>
@@ -10201,11 +10184,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA32" s="50" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB32" s="23"/>
       <c r="AC32" s="49" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AD32" s="0"/>
       <c r="AE32" s="23"/>
@@ -10215,7 +10198,7 @@
       <c r="AI32" s="0"/>
       <c r="AJ32" s="0"/>
       <c r="AK32" s="52" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
@@ -10224,11 +10207,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA33" s="50" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AB33" s="23"/>
       <c r="AC33" s="49" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AD33" s="0"/>
       <c r="AE33" s="23"/>
@@ -10238,16 +10221,16 @@
       <c r="AI33" s="0"/>
       <c r="AJ33" s="0"/>
       <c r="AK33" s="52" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA34" s="50" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AB34" s="23"/>
       <c r="AC34" s="49" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AD34" s="0"/>
       <c r="AE34" s="23"/>
@@ -10257,16 +10240,16 @@
       <c r="AI34" s="0"/>
       <c r="AJ34" s="0"/>
       <c r="AK34" s="52" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA35" s="50" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AB35" s="23"/>
       <c r="AC35" s="49" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AD35" s="0"/>
       <c r="AE35" s="23"/>
@@ -10276,12 +10259,12 @@
       <c r="AI35" s="0"/>
       <c r="AJ35" s="0"/>
       <c r="AK35" s="52" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA36" s="54" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AB36" s="23"/>
       <c r="AC36" s="49" t="s">
@@ -10299,8 +10282,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA37" s="66" t="s">
-        <v>984</v>
+      <c r="AA37" s="63" t="s">
+        <v>985</v>
       </c>
       <c r="AB37" s="23"/>
       <c r="AC37" s="0"/>
@@ -10315,7 +10298,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="49" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AB38" s="23"/>
       <c r="AC38" s="0"/>
@@ -10330,7 +10313,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="49" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AB39" s="23"/>
       <c r="AC39" s="0"/>
@@ -10345,7 +10328,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="49" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AB40" s="23"/>
       <c r="AC40" s="0"/>
@@ -10360,7 +10343,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="49" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AB41" s="23"/>
       <c r="AC41" s="0"/>
@@ -10375,7 +10358,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="49" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AB42" s="23"/>
       <c r="AC42" s="0"/>
@@ -10390,7 +10373,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="49" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AB43" s="23"/>
       <c r="AC43" s="0"/>
@@ -10405,7 +10388,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="49" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AB44" s="23"/>
       <c r="AC44" s="0"/>
@@ -10435,7 +10418,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="53" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AB46" s="23"/>
       <c r="AC46" s="0"/>
@@ -10450,7 +10433,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="49" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AB47" s="23"/>
       <c r="AC47" s="0"/>
@@ -10465,7 +10448,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA48" s="49" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AB48" s="23"/>
       <c r="AC48" s="0"/>
@@ -10480,7 +10463,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA49" s="49" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AB49" s="23"/>
       <c r="AC49" s="0"/>
@@ -10494,7 +10477,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA50" s="49" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AB50" s="23"/>
       <c r="AC50" s="0"/>
@@ -10508,7 +10491,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA51" s="49" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB51" s="23"/>
       <c r="AC51" s="0"/>
@@ -10522,7 +10505,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA52" s="49" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AB52" s="23"/>
       <c r="AC52" s="0"/>
@@ -10550,7 +10533,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA54" s="53" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AB54" s="23"/>
       <c r="AC54" s="0"/>
@@ -10564,7 +10547,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA55" s="54" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AB55" s="23"/>
       <c r="AC55" s="0"/>
@@ -10578,7 +10561,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA56" s="54" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AB56" s="23"/>
       <c r="AC56" s="0"/>
@@ -10592,7 +10575,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA57" s="54" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AB57" s="23"/>
       <c r="AC57" s="0"/>
@@ -10606,7 +10589,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA58" s="54" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AB58" s="23"/>
       <c r="AC58" s="0"/>
@@ -10620,7 +10603,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA59" s="49" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AB59" s="23"/>
       <c r="AC59" s="0"/>
@@ -10634,7 +10617,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA60" s="49" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AB60" s="23"/>
       <c r="AC60" s="0"/>
@@ -10648,7 +10631,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA61" s="49" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AB61" s="23"/>
       <c r="AC61" s="0"/>
@@ -11775,153 +11758,153 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="68" width="59.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="65" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="65" width="59.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="66" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="67" t="s">
         <v>1008</v>
       </c>
+      <c r="C1" s="67" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>1010</v>
       </c>
+      <c r="C2" s="65" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="65" t="s">
         <v>1012</v>
       </c>
+      <c r="C3" s="65" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>1013</v>
+      <c r="C4" s="65" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>1014</v>
+      <c r="C5" s="65" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="65" t="s">
         <v>1016</v>
       </c>
+      <c r="C6" s="65" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="65" t="s">
         <v>1018</v>
       </c>
+      <c r="C7" s="65" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="65" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="65" t="s">
         <v>1021</v>
       </c>
+      <c r="C9" s="65" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="68" t="s">
-        <v>1022</v>
+      <c r="C10" s="65" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B11" s="68" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="65" t="s">
         <v>1024</v>
       </c>
+      <c r="C11" s="65" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="65" t="s">
         <v>1026</v>
       </c>
+      <c r="C12" s="65" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="65" t="s">
         <v>1028</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -11949,357 +11932,357 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="65" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="68" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="A1" s="69" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>581</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="70" t="s">
         <v>1031</v>
       </c>
+      <c r="C2" s="71" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B14" s="65" t="s">
         <v>1020</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B6" s="68" t="s">
+      <c r="C14" s="68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B9" s="68" t="s">
+      <c r="C18" s="68" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B10" s="68" t="s">
+      <c r="C20" s="68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B29" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>546</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C22" s="71" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="71" t="s">
+      <c r="C29" s="68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C31" s="68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C25" s="71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C27" s="71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>546</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="67" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C32" s="71" t="s">
+      <c r="A32" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12330,32 +12313,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="68" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="65" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="65" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>1033</v>
+      <c r="A1" s="67" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1034</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B2" s="75"/>
+      <c r="A2" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B2" s="72"/>
       <c r="C2" s="0" t="s">
         <v>82</v>
       </c>
@@ -12363,14 +12346,14 @@
         <v>83</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B3" s="75"/>
+      <c r="A3" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="72"/>
       <c r="C3" s="0" t="s">
         <v>84</v>
       </c>
@@ -12378,14 +12361,14 @@
         <v>85</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B4" s="75"/>
+      <c r="A4" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B4" s="72"/>
       <c r="C4" s="0" t="s">
         <v>86</v>
       </c>
@@ -12393,14 +12376,14 @@
         <v>87</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B5" s="75"/>
+      <c r="A5" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B5" s="72"/>
       <c r="C5" s="0" t="s">
         <v>88</v>
       </c>
@@ -12408,14 +12391,14 @@
         <v>89</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B6" s="75"/>
+      <c r="A6" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B6" s="72"/>
       <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
@@ -12423,14 +12406,14 @@
         <v>91</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B7" s="75"/>
+      <c r="A7" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B7" s="72"/>
       <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
@@ -12438,14 +12421,14 @@
         <v>93</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B8" s="75"/>
+      <c r="A8" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B8" s="72"/>
       <c r="C8" s="0" t="s">
         <v>94</v>
       </c>
@@ -12453,14 +12436,14 @@
         <v>95</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B9" s="75"/>
+      <c r="A9" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B9" s="72"/>
       <c r="C9" s="0" t="s">
         <v>96</v>
       </c>
@@ -12469,10 +12452,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B10" s="75"/>
+      <c r="A10" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B10" s="72"/>
       <c r="C10" s="0" t="s">
         <v>98</v>
       </c>
@@ -12480,14 +12463,14 @@
         <v>99</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B11" s="75"/>
+      <c r="A11" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B11" s="72"/>
       <c r="C11" s="0" t="s">
         <v>100</v>
       </c>
@@ -12495,14 +12478,14 @@
         <v>101</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B12" s="75"/>
+      <c r="A12" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B12" s="72"/>
       <c r="C12" s="0" t="s">
         <v>102</v>
       </c>
@@ -12510,14 +12493,14 @@
         <v>103</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B13" s="75"/>
+      <c r="A13" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B13" s="72"/>
       <c r="C13" s="0" t="s">
         <v>104</v>
       </c>
@@ -12525,14 +12508,14 @@
         <v>105</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B14" s="75"/>
+      <c r="A14" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B14" s="72"/>
       <c r="C14" s="0" t="s">
         <v>106</v>
       </c>
@@ -12540,14 +12523,14 @@
         <v>107</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B15" s="75"/>
+      <c r="A15" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="72"/>
       <c r="C15" s="0" t="s">
         <v>108</v>
       </c>
@@ -12555,14 +12538,14 @@
         <v>109</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B16" s="75"/>
+      <c r="A16" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="72"/>
       <c r="C16" s="0" t="s">
         <v>110</v>
       </c>
@@ -12570,14 +12553,14 @@
         <v>111</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="75" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B17" s="75"/>
+      <c r="A17" s="72" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B17" s="72"/>
       <c r="C17" s="0" t="s">
         <v>112</v>
       </c>
@@ -12585,14 +12568,14 @@
         <v>113</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B18" s="75"/>
+      <c r="A18" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B18" s="72"/>
       <c r="C18" s="0" t="s">
         <v>114</v>
       </c>
@@ -12600,14 +12583,14 @@
         <v>115</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B19" s="75"/>
+      <c r="A19" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="72"/>
       <c r="C19" s="0" t="s">
         <v>116</v>
       </c>
@@ -12615,14 +12598,14 @@
         <v>117</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B20" s="75"/>
+      <c r="A20" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B20" s="72"/>
       <c r="C20" s="0" t="s">
         <v>118</v>
       </c>
@@ -12630,14 +12613,14 @@
         <v>119</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B21" s="75"/>
+      <c r="A21" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B21" s="72"/>
       <c r="C21" s="0" t="s">
         <v>120</v>
       </c>
@@ -12645,14 +12628,14 @@
         <v>121</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B22" s="75"/>
+      <c r="A22" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="72"/>
       <c r="C22" s="0" t="s">
         <v>122</v>
       </c>
@@ -12660,14 +12643,14 @@
         <v>123</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B23" s="75"/>
+      <c r="A23" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B23" s="72"/>
       <c r="C23" s="0" t="s">
         <v>124</v>
       </c>
@@ -12675,14 +12658,14 @@
         <v>125</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B24" s="75"/>
+      <c r="A24" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B24" s="72"/>
       <c r="C24" s="0" t="s">
         <v>126</v>
       </c>
@@ -12690,14 +12673,14 @@
         <v>127</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B25" s="75"/>
+      <c r="A25" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B25" s="72"/>
       <c r="C25" s="0" t="s">
         <v>128</v>
       </c>
@@ -12705,14 +12688,14 @@
         <v>129</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B26" s="75"/>
+      <c r="A26" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B26" s="72"/>
       <c r="C26" s="0" t="s">
         <v>130</v>
       </c>
@@ -12720,14 +12703,14 @@
         <v>131</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B27" s="75"/>
+      <c r="A27" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B27" s="72"/>
       <c r="C27" s="0" t="s">
         <v>132</v>
       </c>
@@ -12735,14 +12718,14 @@
         <v>133</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B28" s="75"/>
+      <c r="A28" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B28" s="72"/>
       <c r="C28" s="0" t="s">
         <v>134</v>
       </c>
@@ -12750,14 +12733,14 @@
         <v>135</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B29" s="75"/>
+      <c r="A29" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B29" s="72"/>
       <c r="C29" s="0" t="s">
         <v>136</v>
       </c>
@@ -12765,14 +12748,14 @@
         <v>137</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B30" s="75"/>
+      <c r="A30" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B30" s="72"/>
       <c r="C30" s="0" t="s">
         <v>138</v>
       </c>
@@ -12780,14 +12763,14 @@
         <v>139</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B31" s="75"/>
+      <c r="A31" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B31" s="72"/>
       <c r="C31" s="0" t="s">
         <v>140</v>
       </c>
@@ -12795,14 +12778,14 @@
         <v>141</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B32" s="75"/>
+      <c r="A32" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B32" s="72"/>
       <c r="C32" s="0" t="s">
         <v>142</v>
       </c>
@@ -12810,14 +12793,14 @@
         <v>143</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B33" s="75"/>
+      <c r="A33" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B33" s="72"/>
       <c r="C33" s="0" t="s">
         <v>144</v>
       </c>
@@ -12825,14 +12808,14 @@
         <v>145</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B34" s="75"/>
+      <c r="A34" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B34" s="72"/>
       <c r="C34" s="0" t="s">
         <v>146</v>
       </c>
@@ -12840,14 +12823,14 @@
         <v>147</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B35" s="75"/>
+      <c r="A35" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B35" s="72"/>
       <c r="C35" s="0" t="s">
         <v>148</v>
       </c>
@@ -12855,14 +12838,14 @@
         <v>149</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B36" s="75"/>
+      <c r="A36" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B36" s="72"/>
       <c r="C36" s="0" t="s">
         <v>150</v>
       </c>
@@ -12870,14 +12853,14 @@
         <v>151</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B37" s="75"/>
+      <c r="A37" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B37" s="72"/>
       <c r="C37" s="0" t="s">
         <v>152</v>
       </c>
@@ -12885,14 +12868,14 @@
         <v>153</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B38" s="75"/>
+      <c r="A38" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B38" s="72"/>
       <c r="C38" s="0" t="s">
         <v>154</v>
       </c>
@@ -12900,14 +12883,14 @@
         <v>155</v>
       </c>
       <c r="H38" s="23"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B39" s="75"/>
+      <c r="A39" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B39" s="72"/>
       <c r="C39" s="0" t="s">
         <v>156</v>
       </c>
@@ -12915,14 +12898,14 @@
         <v>157</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B40" s="75"/>
+      <c r="A40" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B40" s="72"/>
       <c r="C40" s="0" t="s">
         <v>158</v>
       </c>
@@ -12930,14 +12913,14 @@
         <v>159</v>
       </c>
       <c r="H40" s="23"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="75" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B41" s="75"/>
+      <c r="A41" s="72" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B41" s="72"/>
       <c r="C41" s="0" t="s">
         <v>160</v>
       </c>
@@ -12945,14 +12928,14 @@
         <v>161</v>
       </c>
       <c r="H41" s="23"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B42" s="75"/>
+      <c r="A42" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B42" s="72"/>
       <c r="C42" s="0" t="s">
         <v>162</v>
       </c>
@@ -12960,14 +12943,14 @@
         <v>163</v>
       </c>
       <c r="H42" s="23"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B43" s="75"/>
+      <c r="A43" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B43" s="72"/>
       <c r="C43" s="0" t="s">
         <v>164</v>
       </c>
@@ -12975,42 +12958,42 @@
         <v>165</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B44" s="75"/>
+      <c r="A44" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B44" s="72"/>
       <c r="C44" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="75" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B45" s="75"/>
+      <c r="A45" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B45" s="72"/>
       <c r="C45" s="0" t="s">
         <v>168</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B46" s="75"/>
+      <c r="A46" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B46" s="72"/>
       <c r="C46" s="0" t="s">
         <v>170</v>
       </c>
@@ -13018,14 +13001,14 @@
         <v>171</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B47" s="75"/>
+      <c r="A47" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B47" s="72"/>
       <c r="C47" s="0" t="s">
         <v>172</v>
       </c>
@@ -13033,14 +13016,14 @@
         <v>173</v>
       </c>
       <c r="H47" s="23"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B48" s="75"/>
+      <c r="A48" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B48" s="72"/>
       <c r="C48" s="0" t="s">
         <v>174</v>
       </c>
@@ -13048,14 +13031,14 @@
         <v>175</v>
       </c>
       <c r="H48" s="23"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B49" s="75"/>
+      <c r="A49" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B49" s="72"/>
       <c r="C49" s="0" t="s">
         <v>176</v>
       </c>
@@ -13063,14 +13046,14 @@
         <v>177</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B50" s="75"/>
+      <c r="A50" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B50" s="72"/>
       <c r="C50" s="0" t="s">
         <v>178</v>
       </c>
@@ -13078,14 +13061,14 @@
         <v>179</v>
       </c>
       <c r="H50" s="23"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B51" s="75"/>
+      <c r="A51" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B51" s="72"/>
       <c r="C51" s="0" t="s">
         <v>180</v>
       </c>
@@ -13093,14 +13076,14 @@
         <v>181</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B52" s="75"/>
+      <c r="A52" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B52" s="72"/>
       <c r="C52" s="0" t="s">
         <v>182</v>
       </c>
@@ -13108,14 +13091,14 @@
         <v>183</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B53" s="75"/>
+      <c r="A53" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B53" s="72"/>
       <c r="C53" s="0" t="s">
         <v>184</v>
       </c>
@@ -13123,14 +13106,14 @@
         <v>185</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B54" s="75"/>
+      <c r="A54" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B54" s="72"/>
       <c r="C54" s="0" t="s">
         <v>186</v>
       </c>
@@ -13138,14 +13121,14 @@
         <v>187</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B55" s="75"/>
+      <c r="A55" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B55" s="72"/>
       <c r="C55" s="0" t="s">
         <v>188</v>
       </c>
@@ -13153,14 +13136,14 @@
         <v>189</v>
       </c>
       <c r="H55" s="23"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B56" s="75"/>
+      <c r="A56" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B56" s="72"/>
       <c r="C56" s="0" t="s">
         <v>190</v>
       </c>
@@ -13168,14 +13151,14 @@
         <v>191</v>
       </c>
       <c r="H56" s="23"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B57" s="75"/>
+      <c r="A57" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B57" s="72"/>
       <c r="C57" s="0" t="s">
         <v>192</v>
       </c>
@@ -13183,14 +13166,14 @@
         <v>193</v>
       </c>
       <c r="H57" s="23"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B58" s="75"/>
+      <c r="A58" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B58" s="72"/>
       <c r="C58" s="0" t="s">
         <v>194</v>
       </c>
@@ -13198,14 +13181,14 @@
         <v>195</v>
       </c>
       <c r="H58" s="23"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B59" s="75"/>
+      <c r="A59" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B59" s="72"/>
       <c r="C59" s="0" t="s">
         <v>196</v>
       </c>
@@ -13213,14 +13196,14 @@
         <v>197</v>
       </c>
       <c r="H59" s="23"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B60" s="75"/>
+      <c r="A60" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B60" s="72"/>
       <c r="C60" s="0" t="s">
         <v>198</v>
       </c>
@@ -13228,14 +13211,14 @@
         <v>199</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B61" s="75"/>
+      <c r="A61" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B61" s="72"/>
       <c r="C61" s="0" t="s">
         <v>200</v>
       </c>
@@ -13243,14 +13226,14 @@
         <v>201</v>
       </c>
       <c r="H61" s="23"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B62" s="75"/>
+      <c r="A62" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B62" s="72"/>
       <c r="C62" s="0" t="s">
         <v>202</v>
       </c>
@@ -13258,14 +13241,14 @@
         <v>203</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B63" s="75"/>
+      <c r="A63" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B63" s="72"/>
       <c r="C63" s="0" t="s">
         <v>204</v>
       </c>
@@ -13273,14 +13256,14 @@
         <v>205</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B64" s="75"/>
+      <c r="A64" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B64" s="72"/>
       <c r="C64" s="0" t="s">
         <v>206</v>
       </c>
@@ -13288,14 +13271,14 @@
         <v>207</v>
       </c>
       <c r="H64" s="23"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B65" s="75"/>
+      <c r="A65" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B65" s="72"/>
       <c r="C65" s="0" t="s">
         <v>208</v>
       </c>
@@ -13303,14 +13286,14 @@
         <v>209</v>
       </c>
       <c r="H65" s="23"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B66" s="75"/>
+      <c r="A66" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B66" s="72"/>
       <c r="C66" s="0" t="s">
         <v>210</v>
       </c>
@@ -13318,14 +13301,14 @@
         <v>211</v>
       </c>
       <c r="H66" s="23"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B67" s="75"/>
+      <c r="A67" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B67" s="72"/>
       <c r="C67" s="0" t="s">
         <v>212</v>
       </c>
@@ -13333,14 +13316,14 @@
         <v>213</v>
       </c>
       <c r="H67" s="23"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="76"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B68" s="75"/>
+      <c r="A68" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B68" s="72"/>
       <c r="C68" s="0" t="s">
         <v>214</v>
       </c>
@@ -13348,14 +13331,14 @@
         <v>215</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B69" s="75"/>
+      <c r="A69" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B69" s="72"/>
       <c r="C69" s="0" t="s">
         <v>216</v>
       </c>
@@ -13363,14 +13346,14 @@
         <v>217</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B70" s="75"/>
+      <c r="A70" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B70" s="72"/>
       <c r="C70" s="0" t="s">
         <v>218</v>
       </c>
@@ -13378,14 +13361,14 @@
         <v>219</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B71" s="75"/>
+      <c r="A71" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B71" s="72"/>
       <c r="C71" s="0" t="s">
         <v>220</v>
       </c>
@@ -13393,14 +13376,14 @@
         <v>221</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B72" s="75"/>
+      <c r="A72" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B72" s="72"/>
       <c r="C72" s="0" t="s">
         <v>222</v>
       </c>
@@ -13408,14 +13391,14 @@
         <v>223</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B73" s="75"/>
+      <c r="A73" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B73" s="72"/>
       <c r="C73" s="0" t="s">
         <v>224</v>
       </c>
@@ -13423,14 +13406,14 @@
         <v>225</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B74" s="75"/>
+      <c r="A74" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B74" s="72"/>
       <c r="C74" s="0" t="s">
         <v>226</v>
       </c>
@@ -13438,14 +13421,14 @@
         <v>227</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B75" s="75"/>
+      <c r="A75" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B75" s="72"/>
       <c r="C75" s="0" t="s">
         <v>228</v>
       </c>
@@ -13453,14 +13436,14 @@
         <v>229</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B76" s="75"/>
+      <c r="A76" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B76" s="72"/>
       <c r="C76" s="0" t="s">
         <v>230</v>
       </c>
@@ -13468,14 +13451,14 @@
         <v>231</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B77" s="75"/>
+      <c r="A77" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B77" s="72"/>
       <c r="C77" s="0" t="s">
         <v>232</v>
       </c>
@@ -13483,14 +13466,14 @@
         <v>233</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B78" s="77"/>
+      <c r="A78" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B78" s="74"/>
       <c r="C78" s="0" t="s">
         <v>234</v>
       </c>
@@ -13498,14 +13481,14 @@
         <v>235</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="76"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B79" s="75"/>
+      <c r="A79" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B79" s="72"/>
       <c r="C79" s="0" t="s">
         <v>236</v>
       </c>
@@ -13513,14 +13496,14 @@
         <v>237</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B80" s="75"/>
+      <c r="A80" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B80" s="72"/>
       <c r="C80" s="0" t="s">
         <v>238</v>
       </c>
@@ -13528,14 +13511,14 @@
         <v>239</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B81" s="75"/>
+      <c r="A81" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B81" s="72"/>
       <c r="C81" s="0" t="s">
         <v>240</v>
       </c>
@@ -13543,14 +13526,14 @@
         <v>241</v>
       </c>
       <c r="H81" s="23"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B82" s="75"/>
+      <c r="A82" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B82" s="72"/>
       <c r="C82" s="0" t="s">
         <v>242</v>
       </c>
@@ -13558,14 +13541,14 @@
         <v>243</v>
       </c>
       <c r="H82" s="23"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B83" s="75"/>
+      <c r="A83" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B83" s="72"/>
       <c r="C83" s="0" t="s">
         <v>244</v>
       </c>
@@ -13573,14 +13556,14 @@
         <v>245</v>
       </c>
       <c r="H83" s="23"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="76"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B84" s="75"/>
+      <c r="A84" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B84" s="72"/>
       <c r="C84" s="0" t="s">
         <v>246</v>
       </c>
@@ -13588,14 +13571,14 @@
         <v>247</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="76"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B85" s="75"/>
+      <c r="A85" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B85" s="72"/>
       <c r="C85" s="0" t="s">
         <v>248</v>
       </c>
@@ -13603,14 +13586,14 @@
         <v>249</v>
       </c>
       <c r="H85" s="23"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B86" s="75"/>
+      <c r="A86" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B86" s="72"/>
       <c r="C86" s="0" t="s">
         <v>250</v>
       </c>
@@ -13618,14 +13601,14 @@
         <v>251</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="76"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B87" s="75"/>
+      <c r="A87" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B87" s="72"/>
       <c r="C87" s="0" t="s">
         <v>252</v>
       </c>
@@ -13633,14 +13616,14 @@
         <v>253</v>
       </c>
       <c r="H87" s="23"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="76"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B88" s="75"/>
+      <c r="A88" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B88" s="72"/>
       <c r="C88" s="0" t="s">
         <v>254</v>
       </c>
@@ -13648,14 +13631,14 @@
         <v>255</v>
       </c>
       <c r="H88" s="23"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="76"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B89" s="77"/>
+      <c r="A89" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B89" s="74"/>
       <c r="C89" s="0" t="s">
         <v>256</v>
       </c>
@@ -13663,14 +13646,14 @@
         <v>257</v>
       </c>
       <c r="H89" s="23"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B90" s="75"/>
+      <c r="A90" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B90" s="72"/>
       <c r="C90" s="0" t="s">
         <v>258</v>
       </c>
@@ -13678,14 +13661,14 @@
         <v>259</v>
       </c>
       <c r="H90" s="23"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B91" s="75"/>
+      <c r="A91" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B91" s="72"/>
       <c r="C91" s="0" t="s">
         <v>260</v>
       </c>
@@ -13693,14 +13676,14 @@
         <v>261</v>
       </c>
       <c r="H91" s="23"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B92" s="75"/>
+      <c r="A92" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B92" s="72"/>
       <c r="C92" s="0" t="s">
         <v>262</v>
       </c>
@@ -13708,14 +13691,14 @@
         <v>263</v>
       </c>
       <c r="H92" s="23"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B93" s="75"/>
+      <c r="A93" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B93" s="72"/>
       <c r="C93" s="0" t="s">
         <v>264</v>
       </c>
@@ -13723,14 +13706,14 @@
         <v>265</v>
       </c>
       <c r="H93" s="23"/>
-      <c r="I93" s="76"/>
-      <c r="J93" s="76"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B94" s="75"/>
+      <c r="A94" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B94" s="72"/>
       <c r="C94" s="0" t="s">
         <v>266</v>
       </c>
@@ -13738,14 +13721,14 @@
         <v>267</v>
       </c>
       <c r="H94" s="23"/>
-      <c r="I94" s="76"/>
-      <c r="J94" s="76"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="73"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B95" s="75"/>
+      <c r="A95" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B95" s="72"/>
       <c r="C95" s="0" t="s">
         <v>268</v>
       </c>
@@ -13753,14 +13736,14 @@
         <v>269</v>
       </c>
       <c r="H95" s="23"/>
-      <c r="I95" s="76"/>
-      <c r="J95" s="76"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="73"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B96" s="75"/>
+      <c r="A96" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B96" s="72"/>
       <c r="C96" s="0" t="s">
         <v>270</v>
       </c>
@@ -13768,14 +13751,14 @@
         <v>271</v>
       </c>
       <c r="H96" s="23"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="73"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="75" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B97" s="75"/>
+      <c r="A97" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B97" s="72"/>
       <c r="C97" s="0" t="s">
         <v>272</v>
       </c>
@@ -13783,14 +13766,14 @@
         <v>273</v>
       </c>
       <c r="H97" s="23"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="76"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="73"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="75" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B98" s="75"/>
+      <c r="A98" s="72" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B98" s="72"/>
       <c r="C98" s="0" t="s">
         <v>274</v>
       </c>
@@ -13798,14 +13781,14 @@
         <v>275</v>
       </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="76"/>
-      <c r="J98" s="76"/>
+      <c r="I98" s="73"/>
+      <c r="J98" s="73"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B99" s="75"/>
+      <c r="A99" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B99" s="72"/>
       <c r="C99" s="0" t="s">
         <v>276</v>
       </c>
@@ -13813,14 +13796,14 @@
         <v>277</v>
       </c>
       <c r="H99" s="23"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="76"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B100" s="75"/>
+      <c r="A100" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B100" s="72"/>
       <c r="C100" s="0" t="s">
         <v>278</v>
       </c>
@@ -13828,14 +13811,14 @@
         <v>279</v>
       </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="76"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B101" s="75"/>
+      <c r="A101" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B101" s="72"/>
       <c r="C101" s="0" t="s">
         <v>280</v>
       </c>
@@ -13843,14 +13826,14 @@
         <v>281</v>
       </c>
       <c r="H101" s="23"/>
-      <c r="I101" s="76"/>
-      <c r="J101" s="76"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B102" s="75"/>
+      <c r="A102" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B102" s="72"/>
       <c r="C102" s="0" t="s">
         <v>282</v>
       </c>
@@ -13858,14 +13841,14 @@
         <v>283</v>
       </c>
       <c r="H102" s="23"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B103" s="75"/>
+      <c r="A103" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B103" s="72"/>
       <c r="C103" s="0" t="s">
         <v>284</v>
       </c>
@@ -13873,14 +13856,14 @@
         <v>285</v>
       </c>
       <c r="H103" s="23"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B104" s="75"/>
+      <c r="A104" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B104" s="72"/>
       <c r="C104" s="0" t="s">
         <v>286</v>
       </c>
@@ -13888,14 +13871,14 @@
         <v>287</v>
       </c>
       <c r="H104" s="23"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="75" t="s">
+      <c r="A105" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="75"/>
+      <c r="B105" s="72"/>
       <c r="C105" s="0" t="s">
         <v>288</v>
       </c>
@@ -13903,14 +13886,14 @@
         <v>289</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B106" s="75"/>
+      <c r="A106" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B106" s="72"/>
       <c r="C106" s="0" t="s">
         <v>290</v>
       </c>
@@ -13918,14 +13901,14 @@
         <v>291</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B107" s="75"/>
+      <c r="A107" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B107" s="72"/>
       <c r="C107" s="0" t="s">
         <v>292</v>
       </c>
@@ -13933,14 +13916,14 @@
         <v>293</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B108" s="75"/>
+      <c r="A108" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B108" s="72"/>
       <c r="C108" s="0" t="s">
         <v>294</v>
       </c>
@@ -13948,14 +13931,14 @@
         <v>295</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B109" s="75"/>
+      <c r="A109" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B109" s="72"/>
       <c r="C109" s="0" t="s">
         <v>296</v>
       </c>
@@ -13963,14 +13946,14 @@
         <v>297</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B110" s="75"/>
+      <c r="A110" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B110" s="72"/>
       <c r="C110" s="0" t="s">
         <v>298</v>
       </c>
@@ -13978,14 +13961,14 @@
         <v>299</v>
       </c>
       <c r="H110" s="23"/>
-      <c r="I110" s="76"/>
-      <c r="J110" s="76"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="73"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B111" s="75"/>
+      <c r="A111" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B111" s="72"/>
       <c r="C111" s="0" t="s">
         <v>300</v>
       </c>
@@ -13993,14 +13976,14 @@
         <v>301</v>
       </c>
       <c r="H111" s="23"/>
-      <c r="I111" s="76"/>
-      <c r="J111" s="76"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B112" s="75"/>
+      <c r="A112" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B112" s="72"/>
       <c r="C112" s="0" t="s">
         <v>302</v>
       </c>
@@ -14008,14 +13991,14 @@
         <v>303</v>
       </c>
       <c r="H112" s="23"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="73"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B113" s="75"/>
+      <c r="A113" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B113" s="72"/>
       <c r="C113" s="0" t="s">
         <v>304</v>
       </c>
@@ -14023,14 +14006,14 @@
         <v>305</v>
       </c>
       <c r="H113" s="23"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="76"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B114" s="75"/>
+      <c r="A114" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B114" s="72"/>
       <c r="C114" s="0" t="s">
         <v>306</v>
       </c>
@@ -14038,14 +14021,14 @@
         <v>307</v>
       </c>
       <c r="H114" s="23"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B115" s="75"/>
+      <c r="A115" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B115" s="72"/>
       <c r="C115" s="0" t="s">
         <v>308</v>
       </c>
@@ -14053,14 +14036,14 @@
         <v>309</v>
       </c>
       <c r="H115" s="23"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
+      <c r="I115" s="73"/>
+      <c r="J115" s="73"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="75" t="s">
+      <c r="A116" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="B116" s="75"/>
+      <c r="B116" s="72"/>
       <c r="C116" s="0" t="s">
         <v>310</v>
       </c>
@@ -14068,14 +14051,14 @@
         <v>311</v>
       </c>
       <c r="H116" s="23"/>
-      <c r="I116" s="76"/>
-      <c r="J116" s="76"/>
+      <c r="I116" s="73"/>
+      <c r="J116" s="73"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B117" s="75"/>
+      <c r="A117" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B117" s="72"/>
       <c r="C117" s="0" t="s">
         <v>312</v>
       </c>
@@ -14083,14 +14066,14 @@
         <v>313</v>
       </c>
       <c r="H117" s="23"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="76"/>
+      <c r="I117" s="73"/>
+      <c r="J117" s="73"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B118" s="75"/>
+      <c r="A118" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B118" s="72"/>
       <c r="C118" s="0" t="s">
         <v>314</v>
       </c>
@@ -14098,14 +14081,14 @@
         <v>315</v>
       </c>
       <c r="H118" s="23"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="73"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B119" s="75"/>
+      <c r="A119" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B119" s="72"/>
       <c r="C119" s="0" t="s">
         <v>316</v>
       </c>
@@ -14113,14 +14096,14 @@
         <v>317</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="76"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B120" s="75"/>
+      <c r="A120" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B120" s="72"/>
       <c r="C120" s="0" t="s">
         <v>318</v>
       </c>
@@ -14128,14 +14111,14 @@
         <v>319</v>
       </c>
       <c r="H120" s="23"/>
-      <c r="I120" s="76"/>
-      <c r="J120" s="76"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B121" s="75"/>
+      <c r="A121" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B121" s="72"/>
       <c r="C121" s="0" t="s">
         <v>320</v>
       </c>
@@ -14143,14 +14126,14 @@
         <v>321</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
+      <c r="I121" s="73"/>
+      <c r="J121" s="73"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B122" s="75"/>
+      <c r="A122" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B122" s="72"/>
       <c r="C122" s="0" t="s">
         <v>322</v>
       </c>
@@ -14158,14 +14141,14 @@
         <v>323</v>
       </c>
       <c r="H122" s="23"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
+      <c r="I122" s="73"/>
+      <c r="J122" s="73"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B123" s="75"/>
+      <c r="A123" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B123" s="72"/>
       <c r="C123" s="0" t="s">
         <v>324</v>
       </c>
@@ -14173,14 +14156,14 @@
         <v>325</v>
       </c>
       <c r="H123" s="23"/>
-      <c r="I123" s="76"/>
-      <c r="J123" s="76"/>
+      <c r="I123" s="73"/>
+      <c r="J123" s="73"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B124" s="75"/>
+      <c r="A124" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B124" s="72"/>
       <c r="C124" s="0" t="s">
         <v>326</v>
       </c>
@@ -14188,14 +14171,14 @@
         <v>327</v>
       </c>
       <c r="H124" s="23"/>
-      <c r="I124" s="76"/>
-      <c r="J124" s="76"/>
+      <c r="I124" s="73"/>
+      <c r="J124" s="73"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B125" s="75"/>
+      <c r="A125" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B125" s="72"/>
       <c r="C125" s="0" t="s">
         <v>328</v>
       </c>
@@ -14203,14 +14186,14 @@
         <v>329</v>
       </c>
       <c r="H125" s="23"/>
-      <c r="I125" s="76"/>
-      <c r="J125" s="76"/>
+      <c r="I125" s="73"/>
+      <c r="J125" s="73"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B126" s="75"/>
+      <c r="A126" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B126" s="72"/>
       <c r="C126" s="0" t="s">
         <v>330</v>
       </c>
@@ -14218,14 +14201,14 @@
         <v>331</v>
       </c>
       <c r="H126" s="23"/>
-      <c r="I126" s="76"/>
-      <c r="J126" s="76"/>
+      <c r="I126" s="73"/>
+      <c r="J126" s="73"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B127" s="75"/>
+      <c r="A127" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B127" s="72"/>
       <c r="C127" s="0" t="s">
         <v>332</v>
       </c>
@@ -14233,14 +14216,14 @@
         <v>333</v>
       </c>
       <c r="H127" s="23"/>
-      <c r="I127" s="76"/>
-      <c r="J127" s="76"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="73"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B128" s="75"/>
+      <c r="A128" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B128" s="72"/>
       <c r="C128" s="0" t="s">
         <v>334</v>
       </c>
@@ -14248,14 +14231,14 @@
         <v>335</v>
       </c>
       <c r="H128" s="23"/>
-      <c r="I128" s="76"/>
-      <c r="J128" s="76"/>
+      <c r="I128" s="73"/>
+      <c r="J128" s="73"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B129" s="75"/>
+      <c r="A129" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B129" s="72"/>
       <c r="C129" s="0" t="s">
         <v>336</v>
       </c>
@@ -14263,14 +14246,14 @@
         <v>337</v>
       </c>
       <c r="H129" s="23"/>
-      <c r="I129" s="76"/>
-      <c r="J129" s="76"/>
+      <c r="I129" s="73"/>
+      <c r="J129" s="73"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B130" s="75"/>
+      <c r="A130" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B130" s="72"/>
       <c r="C130" s="0" t="s">
         <v>338</v>
       </c>
@@ -14278,14 +14261,14 @@
         <v>339</v>
       </c>
       <c r="H130" s="23"/>
-      <c r="I130" s="76"/>
-      <c r="J130" s="76"/>
+      <c r="I130" s="73"/>
+      <c r="J130" s="73"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B131" s="75"/>
+      <c r="A131" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B131" s="72"/>
       <c r="C131" s="0" t="s">
         <v>340</v>
       </c>
@@ -14293,14 +14276,14 @@
         <v>341</v>
       </c>
       <c r="H131" s="23"/>
-      <c r="I131" s="76"/>
-      <c r="J131" s="76"/>
+      <c r="I131" s="73"/>
+      <c r="J131" s="73"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B132" s="75"/>
+      <c r="A132" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B132" s="72"/>
       <c r="C132" s="0" t="s">
         <v>342</v>
       </c>
@@ -14308,14 +14291,14 @@
         <v>343</v>
       </c>
       <c r="H132" s="23"/>
-      <c r="I132" s="76"/>
-      <c r="J132" s="76"/>
+      <c r="I132" s="73"/>
+      <c r="J132" s="73"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B133" s="75"/>
+      <c r="A133" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B133" s="72"/>
       <c r="C133" s="0" t="s">
         <v>344</v>
       </c>
@@ -14323,14 +14306,14 @@
         <v>345</v>
       </c>
       <c r="H133" s="23"/>
-      <c r="I133" s="76"/>
-      <c r="J133" s="76"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B134" s="75"/>
+      <c r="A134" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B134" s="72"/>
       <c r="C134" s="0" t="s">
         <v>346</v>
       </c>
@@ -14338,14 +14321,14 @@
         <v>347</v>
       </c>
       <c r="H134" s="23"/>
-      <c r="I134" s="76"/>
-      <c r="J134" s="76"/>
+      <c r="I134" s="73"/>
+      <c r="J134" s="73"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B135" s="75"/>
+      <c r="A135" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B135" s="72"/>
       <c r="C135" s="0" t="s">
         <v>348</v>
       </c>
@@ -14353,14 +14336,14 @@
         <v>349</v>
       </c>
       <c r="H135" s="23"/>
-      <c r="I135" s="76"/>
-      <c r="J135" s="76"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="73"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="75" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B136" s="75"/>
+      <c r="A136" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B136" s="72"/>
       <c r="C136" s="0" t="s">
         <v>350</v>
       </c>
@@ -14368,14 +14351,14 @@
         <v>351</v>
       </c>
       <c r="H136" s="23"/>
-      <c r="I136" s="76"/>
-      <c r="J136" s="76"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="73"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B137" s="75"/>
+      <c r="A137" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B137" s="72"/>
       <c r="C137" s="0" t="s">
         <v>352</v>
       </c>
@@ -14383,14 +14366,14 @@
         <v>353</v>
       </c>
       <c r="H137" s="23"/>
-      <c r="I137" s="76"/>
-      <c r="J137" s="76"/>
+      <c r="I137" s="73"/>
+      <c r="J137" s="73"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B138" s="75"/>
+      <c r="A138" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B138" s="72"/>
       <c r="C138" s="0" t="s">
         <v>354</v>
       </c>
@@ -14398,14 +14381,14 @@
         <v>355</v>
       </c>
       <c r="H138" s="23"/>
-      <c r="I138" s="76"/>
-      <c r="J138" s="76"/>
+      <c r="I138" s="73"/>
+      <c r="J138" s="73"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B139" s="75"/>
+      <c r="A139" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B139" s="72"/>
       <c r="C139" s="0" t="s">
         <v>356</v>
       </c>
@@ -14413,14 +14396,14 @@
         <v>357</v>
       </c>
       <c r="H139" s="23"/>
-      <c r="I139" s="76"/>
-      <c r="J139" s="76"/>
+      <c r="I139" s="73"/>
+      <c r="J139" s="73"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B140" s="75"/>
+      <c r="A140" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B140" s="72"/>
       <c r="C140" s="0" t="s">
         <v>358</v>
       </c>
@@ -14428,14 +14411,14 @@
         <v>359</v>
       </c>
       <c r="H140" s="23"/>
-      <c r="I140" s="76"/>
-      <c r="J140" s="76"/>
+      <c r="I140" s="73"/>
+      <c r="J140" s="73"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B141" s="75"/>
+      <c r="A141" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B141" s="72"/>
       <c r="C141" s="0" t="s">
         <v>360</v>
       </c>
@@ -14443,14 +14426,14 @@
         <v>361</v>
       </c>
       <c r="H141" s="23"/>
-      <c r="I141" s="76"/>
-      <c r="J141" s="76"/>
+      <c r="I141" s="73"/>
+      <c r="J141" s="73"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B142" s="75"/>
+      <c r="A142" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B142" s="72"/>
       <c r="C142" s="0" t="s">
         <v>362</v>
       </c>
@@ -14458,14 +14441,14 @@
         <v>363</v>
       </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="76"/>
-      <c r="J142" s="76"/>
+      <c r="I142" s="73"/>
+      <c r="J142" s="73"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B143" s="75"/>
+      <c r="A143" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B143" s="72"/>
       <c r="C143" s="0" t="s">
         <v>364</v>
       </c>
@@ -14473,14 +14456,14 @@
         <v>365</v>
       </c>
       <c r="H143" s="23"/>
-      <c r="I143" s="76"/>
-      <c r="J143" s="76"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B144" s="75"/>
+      <c r="A144" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B144" s="72"/>
       <c r="C144" s="0" t="s">
         <v>366</v>
       </c>
@@ -14488,14 +14471,14 @@
         <v>367</v>
       </c>
       <c r="H144" s="23"/>
-      <c r="I144" s="76"/>
-      <c r="J144" s="76"/>
+      <c r="I144" s="73"/>
+      <c r="J144" s="73"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B145" s="75"/>
+      <c r="A145" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B145" s="72"/>
       <c r="C145" s="0" t="s">
         <v>368</v>
       </c>
@@ -14503,14 +14486,14 @@
         <v>369</v>
       </c>
       <c r="H145" s="23"/>
-      <c r="I145" s="76"/>
-      <c r="J145" s="76"/>
+      <c r="I145" s="73"/>
+      <c r="J145" s="73"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B146" s="75"/>
+      <c r="A146" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B146" s="72"/>
       <c r="C146" s="0" t="s">
         <v>370</v>
       </c>
@@ -14518,14 +14501,14 @@
         <v>371</v>
       </c>
       <c r="H146" s="23"/>
-      <c r="I146" s="76"/>
-      <c r="J146" s="76"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="73"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B147" s="75"/>
+      <c r="A147" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B147" s="72"/>
       <c r="C147" s="0" t="s">
         <v>372</v>
       </c>
@@ -14533,14 +14516,14 @@
         <v>373</v>
       </c>
       <c r="H147" s="23"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="76"/>
+      <c r="I147" s="73"/>
+      <c r="J147" s="73"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B148" s="75"/>
+      <c r="A148" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B148" s="72"/>
       <c r="C148" s="0" t="s">
         <v>374</v>
       </c>
@@ -14548,14 +14531,14 @@
         <v>375</v>
       </c>
       <c r="H148" s="23"/>
-      <c r="I148" s="76"/>
-      <c r="J148" s="76"/>
+      <c r="I148" s="73"/>
+      <c r="J148" s="73"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B149" s="75"/>
+      <c r="A149" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B149" s="72"/>
       <c r="C149" s="0" t="s">
         <v>376</v>
       </c>
@@ -14563,14 +14546,14 @@
         <v>377</v>
       </c>
       <c r="H149" s="23"/>
-      <c r="I149" s="76"/>
-      <c r="J149" s="76"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="73"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B150" s="75"/>
+      <c r="A150" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B150" s="72"/>
       <c r="C150" s="0" t="s">
         <v>378</v>
       </c>
@@ -14578,14 +14561,14 @@
         <v>379</v>
       </c>
       <c r="H150" s="23"/>
-      <c r="I150" s="76"/>
-      <c r="J150" s="76"/>
+      <c r="I150" s="73"/>
+      <c r="J150" s="73"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B151" s="75"/>
+      <c r="A151" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B151" s="72"/>
       <c r="C151" s="0" t="s">
         <v>380</v>
       </c>
@@ -14593,14 +14576,14 @@
         <v>381</v>
       </c>
       <c r="H151" s="23"/>
-      <c r="I151" s="76"/>
-      <c r="J151" s="76"/>
+      <c r="I151" s="73"/>
+      <c r="J151" s="73"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B152" s="75"/>
+      <c r="A152" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B152" s="72"/>
       <c r="C152" s="0" t="s">
         <v>382</v>
       </c>
@@ -14608,14 +14591,14 @@
         <v>383</v>
       </c>
       <c r="H152" s="23"/>
-      <c r="I152" s="76"/>
-      <c r="J152" s="76"/>
+      <c r="I152" s="73"/>
+      <c r="J152" s="73"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B153" s="75"/>
+      <c r="A153" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B153" s="72"/>
       <c r="C153" s="0" t="s">
         <v>384</v>
       </c>
@@ -14623,14 +14606,14 @@
         <v>385</v>
       </c>
       <c r="H153" s="23"/>
-      <c r="I153" s="76"/>
-      <c r="J153" s="76"/>
+      <c r="I153" s="73"/>
+      <c r="J153" s="73"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B154" s="75"/>
+      <c r="A154" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B154" s="72"/>
       <c r="C154" s="0" t="s">
         <v>386</v>
       </c>
@@ -14638,14 +14621,14 @@
         <v>387</v>
       </c>
       <c r="H154" s="23"/>
-      <c r="I154" s="76"/>
-      <c r="J154" s="76"/>
+      <c r="I154" s="73"/>
+      <c r="J154" s="73"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B155" s="75"/>
+      <c r="A155" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B155" s="72"/>
       <c r="C155" s="0" t="s">
         <v>388</v>
       </c>
@@ -14653,14 +14636,14 @@
         <v>389</v>
       </c>
       <c r="H155" s="23"/>
-      <c r="I155" s="76"/>
-      <c r="J155" s="76"/>
+      <c r="I155" s="73"/>
+      <c r="J155" s="73"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B156" s="75"/>
+      <c r="A156" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B156" s="72"/>
       <c r="C156" s="0" t="s">
         <v>390</v>
       </c>
@@ -14668,14 +14651,14 @@
         <v>391</v>
       </c>
       <c r="H156" s="23"/>
-      <c r="I156" s="76"/>
-      <c r="J156" s="76"/>
+      <c r="I156" s="73"/>
+      <c r="J156" s="73"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B157" s="75"/>
+      <c r="A157" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B157" s="72"/>
       <c r="C157" s="0" t="s">
         <v>392</v>
       </c>
@@ -14683,14 +14666,14 @@
         <v>393</v>
       </c>
       <c r="H157" s="23"/>
-      <c r="I157" s="76"/>
-      <c r="J157" s="76"/>
+      <c r="I157" s="73"/>
+      <c r="J157" s="73"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B158" s="75"/>
+      <c r="A158" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B158" s="72"/>
       <c r="C158" s="0" t="s">
         <v>394</v>
       </c>
@@ -14698,14 +14681,14 @@
         <v>395</v>
       </c>
       <c r="H158" s="23"/>
-      <c r="I158" s="76"/>
-      <c r="J158" s="76"/>
+      <c r="I158" s="73"/>
+      <c r="J158" s="73"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B159" s="75"/>
+      <c r="A159" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B159" s="72"/>
       <c r="C159" s="0" t="s">
         <v>396</v>
       </c>
@@ -14713,14 +14696,14 @@
         <v>397</v>
       </c>
       <c r="H159" s="23"/>
-      <c r="I159" s="76"/>
-      <c r="J159" s="76"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B160" s="75"/>
+      <c r="A160" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B160" s="72"/>
       <c r="C160" s="0" t="s">
         <v>398</v>
       </c>
@@ -14728,14 +14711,14 @@
         <v>399</v>
       </c>
       <c r="H160" s="23"/>
-      <c r="I160" s="76"/>
-      <c r="J160" s="76"/>
+      <c r="I160" s="73"/>
+      <c r="J160" s="73"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B161" s="75"/>
+      <c r="A161" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B161" s="72"/>
       <c r="C161" s="0" t="s">
         <v>400</v>
       </c>
@@ -14743,14 +14726,14 @@
         <v>401</v>
       </c>
       <c r="H161" s="23"/>
-      <c r="I161" s="76"/>
-      <c r="J161" s="76"/>
+      <c r="I161" s="73"/>
+      <c r="J161" s="73"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B162" s="75"/>
+      <c r="A162" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B162" s="72"/>
       <c r="C162" s="0" t="s">
         <v>402</v>
       </c>
@@ -14758,14 +14741,14 @@
         <v>403</v>
       </c>
       <c r="H162" s="23"/>
-      <c r="I162" s="76"/>
-      <c r="J162" s="76"/>
+      <c r="I162" s="73"/>
+      <c r="J162" s="73"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B163" s="75"/>
+      <c r="A163" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B163" s="72"/>
       <c r="C163" s="0" t="s">
         <v>404</v>
       </c>
@@ -14773,14 +14756,14 @@
         <v>405</v>
       </c>
       <c r="H163" s="23"/>
-      <c r="I163" s="76"/>
-      <c r="J163" s="76"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="73"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B164" s="75"/>
+      <c r="A164" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B164" s="72"/>
       <c r="C164" s="0" t="s">
         <v>406</v>
       </c>
@@ -14788,14 +14771,14 @@
         <v>407</v>
       </c>
       <c r="H164" s="23"/>
-      <c r="I164" s="76"/>
-      <c r="J164" s="76"/>
+      <c r="I164" s="73"/>
+      <c r="J164" s="73"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B165" s="75"/>
+      <c r="A165" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B165" s="72"/>
       <c r="C165" s="0" t="s">
         <v>408</v>
       </c>
@@ -14803,14 +14786,14 @@
         <v>409</v>
       </c>
       <c r="H165" s="23"/>
-      <c r="I165" s="76"/>
-      <c r="J165" s="76"/>
+      <c r="I165" s="73"/>
+      <c r="J165" s="73"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B166" s="75"/>
+      <c r="A166" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B166" s="72"/>
       <c r="C166" s="0" t="s">
         <v>410</v>
       </c>
@@ -14818,14 +14801,14 @@
         <v>411</v>
       </c>
       <c r="H166" s="23"/>
-      <c r="I166" s="76"/>
-      <c r="J166" s="76"/>
+      <c r="I166" s="73"/>
+      <c r="J166" s="73"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B167" s="75"/>
+      <c r="A167" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B167" s="72"/>
       <c r="C167" s="0" t="s">
         <v>412</v>
       </c>
@@ -14833,14 +14816,14 @@
         <v>413</v>
       </c>
       <c r="H167" s="23"/>
-      <c r="I167" s="76"/>
-      <c r="J167" s="76"/>
+      <c r="I167" s="73"/>
+      <c r="J167" s="73"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B168" s="75"/>
+      <c r="A168" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B168" s="72"/>
       <c r="C168" s="0" t="s">
         <v>414</v>
       </c>
@@ -14848,14 +14831,14 @@
         <v>415</v>
       </c>
       <c r="H168" s="23"/>
-      <c r="I168" s="76"/>
-      <c r="J168" s="76"/>
+      <c r="I168" s="73"/>
+      <c r="J168" s="73"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B169" s="75"/>
+      <c r="A169" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B169" s="72"/>
       <c r="C169" s="0" t="s">
         <v>416</v>
       </c>
@@ -14863,14 +14846,14 @@
         <v>417</v>
       </c>
       <c r="H169" s="23"/>
-      <c r="I169" s="76"/>
-      <c r="J169" s="76"/>
+      <c r="I169" s="73"/>
+      <c r="J169" s="73"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B170" s="75"/>
+      <c r="A170" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B170" s="72"/>
       <c r="C170" s="0" t="s">
         <v>418</v>
       </c>
@@ -14878,14 +14861,14 @@
         <v>419</v>
       </c>
       <c r="H170" s="23"/>
-      <c r="I170" s="76"/>
-      <c r="J170" s="76"/>
+      <c r="I170" s="73"/>
+      <c r="J170" s="73"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="75" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B171" s="75"/>
+      <c r="A171" s="72" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B171" s="72"/>
       <c r="C171" s="0" t="s">
         <v>420</v>
       </c>
@@ -14893,14 +14876,14 @@
         <v>421</v>
       </c>
       <c r="H171" s="23"/>
-      <c r="I171" s="76"/>
-      <c r="J171" s="76"/>
+      <c r="I171" s="73"/>
+      <c r="J171" s="73"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B172" s="75"/>
+      <c r="A172" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B172" s="72"/>
       <c r="C172" s="0" t="s">
         <v>422</v>
       </c>
@@ -14908,14 +14891,14 @@
         <v>423</v>
       </c>
       <c r="H172" s="23"/>
-      <c r="I172" s="76"/>
-      <c r="J172" s="76"/>
+      <c r="I172" s="73"/>
+      <c r="J172" s="73"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B173" s="75"/>
+      <c r="A173" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B173" s="72"/>
       <c r="C173" s="0" t="s">
         <v>424</v>
       </c>
@@ -14923,14 +14906,14 @@
         <v>425</v>
       </c>
       <c r="H173" s="23"/>
-      <c r="I173" s="76"/>
-      <c r="J173" s="76"/>
+      <c r="I173" s="73"/>
+      <c r="J173" s="73"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B174" s="75"/>
+      <c r="A174" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B174" s="72"/>
       <c r="C174" s="0" t="s">
         <v>426</v>
       </c>
@@ -14938,14 +14921,14 @@
         <v>427</v>
       </c>
       <c r="H174" s="23"/>
-      <c r="I174" s="76"/>
-      <c r="J174" s="76"/>
+      <c r="I174" s="73"/>
+      <c r="J174" s="73"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B175" s="75"/>
+      <c r="A175" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B175" s="72"/>
       <c r="C175" s="0" t="s">
         <v>428</v>
       </c>
@@ -14953,14 +14936,14 @@
         <v>429</v>
       </c>
       <c r="H175" s="23"/>
-      <c r="I175" s="76"/>
-      <c r="J175" s="76"/>
+      <c r="I175" s="73"/>
+      <c r="J175" s="73"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B176" s="75"/>
+      <c r="A176" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B176" s="72"/>
       <c r="C176" s="0" t="s">
         <v>430</v>
       </c>
@@ -14968,14 +14951,14 @@
         <v>431</v>
       </c>
       <c r="H176" s="23"/>
-      <c r="I176" s="76"/>
-      <c r="J176" s="76"/>
+      <c r="I176" s="73"/>
+      <c r="J176" s="73"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B177" s="75"/>
+      <c r="A177" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B177" s="72"/>
       <c r="C177" s="0" t="s">
         <v>432</v>
       </c>
@@ -14983,14 +14966,14 @@
         <v>433</v>
       </c>
       <c r="H177" s="23"/>
-      <c r="I177" s="76"/>
-      <c r="J177" s="76"/>
+      <c r="I177" s="73"/>
+      <c r="J177" s="73"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B178" s="75"/>
+      <c r="A178" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B178" s="72"/>
       <c r="C178" s="0" t="s">
         <v>434</v>
       </c>
@@ -14998,14 +14981,14 @@
         <v>435</v>
       </c>
       <c r="H178" s="23"/>
-      <c r="I178" s="76"/>
-      <c r="J178" s="76"/>
+      <c r="I178" s="73"/>
+      <c r="J178" s="73"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B179" s="75"/>
+      <c r="A179" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B179" s="72"/>
       <c r="C179" s="0" t="s">
         <v>436</v>
       </c>
@@ -15013,14 +14996,14 @@
         <v>437</v>
       </c>
       <c r="H179" s="23"/>
-      <c r="I179" s="76"/>
-      <c r="J179" s="76"/>
+      <c r="I179" s="73"/>
+      <c r="J179" s="73"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B180" s="75"/>
+      <c r="A180" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B180" s="72"/>
       <c r="C180" s="0" t="s">
         <v>438</v>
       </c>
@@ -15028,14 +15011,14 @@
         <v>439</v>
       </c>
       <c r="H180" s="23"/>
-      <c r="I180" s="76"/>
-      <c r="J180" s="76"/>
+      <c r="I180" s="73"/>
+      <c r="J180" s="73"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B181" s="75"/>
+      <c r="A181" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B181" s="72"/>
       <c r="C181" s="0" t="s">
         <v>440</v>
       </c>
@@ -15043,14 +15026,14 @@
         <v>441</v>
       </c>
       <c r="H181" s="23"/>
-      <c r="I181" s="76"/>
-      <c r="J181" s="76"/>
+      <c r="I181" s="73"/>
+      <c r="J181" s="73"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B182" s="75"/>
+      <c r="A182" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B182" s="72"/>
       <c r="C182" s="0" t="s">
         <v>442</v>
       </c>
@@ -15058,14 +15041,14 @@
         <v>443</v>
       </c>
       <c r="H182" s="23"/>
-      <c r="I182" s="76"/>
-      <c r="J182" s="76"/>
+      <c r="I182" s="73"/>
+      <c r="J182" s="73"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B183" s="75"/>
+      <c r="A183" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B183" s="72"/>
       <c r="C183" s="0" t="s">
         <v>444</v>
       </c>
@@ -15073,14 +15056,14 @@
         <v>445</v>
       </c>
       <c r="H183" s="23"/>
-      <c r="I183" s="76"/>
-      <c r="J183" s="76"/>
+      <c r="I183" s="73"/>
+      <c r="J183" s="73"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B184" s="75"/>
+      <c r="A184" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B184" s="72"/>
       <c r="C184" s="0" t="s">
         <v>446</v>
       </c>
@@ -15088,14 +15071,14 @@
         <v>447</v>
       </c>
       <c r="H184" s="23"/>
-      <c r="I184" s="76"/>
-      <c r="J184" s="76"/>
+      <c r="I184" s="73"/>
+      <c r="J184" s="73"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B185" s="75"/>
+      <c r="A185" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B185" s="72"/>
       <c r="C185" s="0" t="s">
         <v>448</v>
       </c>
@@ -15103,14 +15086,14 @@
         <v>449</v>
       </c>
       <c r="H185" s="23"/>
-      <c r="I185" s="76"/>
-      <c r="J185" s="76"/>
+      <c r="I185" s="73"/>
+      <c r="J185" s="73"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B186" s="75"/>
+      <c r="A186" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B186" s="72"/>
       <c r="C186" s="0" t="s">
         <v>450</v>
       </c>
@@ -15118,14 +15101,14 @@
         <v>451</v>
       </c>
       <c r="H186" s="23"/>
-      <c r="I186" s="76"/>
-      <c r="J186" s="76"/>
+      <c r="I186" s="73"/>
+      <c r="J186" s="73"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B187" s="75"/>
+      <c r="A187" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B187" s="72"/>
       <c r="C187" s="0" t="s">
         <v>452</v>
       </c>
@@ -15133,14 +15116,14 @@
         <v>453</v>
       </c>
       <c r="H187" s="23"/>
-      <c r="I187" s="76"/>
-      <c r="J187" s="76"/>
+      <c r="I187" s="73"/>
+      <c r="J187" s="73"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B188" s="75"/>
+      <c r="A188" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B188" s="72"/>
       <c r="C188" s="0" t="s">
         <v>454</v>
       </c>
@@ -15148,14 +15131,14 @@
         <v>455</v>
       </c>
       <c r="H188" s="23"/>
-      <c r="I188" s="76"/>
-      <c r="J188" s="76"/>
+      <c r="I188" s="73"/>
+      <c r="J188" s="73"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B189" s="75"/>
+      <c r="A189" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B189" s="72"/>
       <c r="C189" s="0" t="s">
         <v>456</v>
       </c>
@@ -15163,14 +15146,14 @@
         <v>457</v>
       </c>
       <c r="H189" s="23"/>
-      <c r="I189" s="76"/>
-      <c r="J189" s="76"/>
+      <c r="I189" s="73"/>
+      <c r="J189" s="73"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B190" s="75"/>
+      <c r="A190" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B190" s="72"/>
       <c r="C190" s="0" t="s">
         <v>458</v>
       </c>
@@ -15178,14 +15161,14 @@
         <v>459</v>
       </c>
       <c r="H190" s="23"/>
-      <c r="I190" s="76"/>
-      <c r="J190" s="76"/>
+      <c r="I190" s="73"/>
+      <c r="J190" s="73"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B191" s="75"/>
+      <c r="A191" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B191" s="72"/>
       <c r="C191" s="0" t="s">
         <v>460</v>
       </c>
@@ -15193,14 +15176,14 @@
         <v>461</v>
       </c>
       <c r="H191" s="23"/>
-      <c r="I191" s="76"/>
-      <c r="J191" s="76"/>
+      <c r="I191" s="73"/>
+      <c r="J191" s="73"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B192" s="75"/>
+      <c r="A192" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B192" s="72"/>
       <c r="C192" s="0" t="s">
         <v>462</v>
       </c>
@@ -15208,14 +15191,14 @@
         <v>463</v>
       </c>
       <c r="H192" s="23"/>
-      <c r="I192" s="76"/>
-      <c r="J192" s="76"/>
+      <c r="I192" s="73"/>
+      <c r="J192" s="73"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B193" s="75"/>
+      <c r="A193" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B193" s="72"/>
       <c r="C193" s="0" t="s">
         <v>464</v>
       </c>
@@ -15223,14 +15206,14 @@
         <v>465</v>
       </c>
       <c r="H193" s="23"/>
-      <c r="I193" s="76"/>
-      <c r="J193" s="76"/>
+      <c r="I193" s="73"/>
+      <c r="J193" s="73"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B194" s="75"/>
+      <c r="A194" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B194" s="72"/>
       <c r="C194" s="0" t="s">
         <v>466</v>
       </c>
@@ -15238,14 +15221,14 @@
         <v>467</v>
       </c>
       <c r="H194" s="23"/>
-      <c r="I194" s="76"/>
-      <c r="J194" s="76"/>
+      <c r="I194" s="73"/>
+      <c r="J194" s="73"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B195" s="75"/>
+      <c r="A195" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B195" s="72"/>
       <c r="C195" s="0" t="s">
         <v>468</v>
       </c>
@@ -15253,14 +15236,14 @@
         <v>469</v>
       </c>
       <c r="H195" s="23"/>
-      <c r="I195" s="76"/>
-      <c r="J195" s="76"/>
+      <c r="I195" s="73"/>
+      <c r="J195" s="73"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B196" s="75"/>
+      <c r="A196" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B196" s="72"/>
       <c r="C196" s="0" t="s">
         <v>470</v>
       </c>
@@ -15268,14 +15251,14 @@
         <v>471</v>
       </c>
       <c r="H196" s="23"/>
-      <c r="I196" s="76"/>
-      <c r="J196" s="76"/>
+      <c r="I196" s="73"/>
+      <c r="J196" s="73"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B197" s="75"/>
+      <c r="A197" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B197" s="72"/>
       <c r="C197" s="0" t="s">
         <v>472</v>
       </c>
@@ -15283,14 +15266,14 @@
         <v>473</v>
       </c>
       <c r="H197" s="23"/>
-      <c r="I197" s="76"/>
-      <c r="J197" s="76"/>
+      <c r="I197" s="73"/>
+      <c r="J197" s="73"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B198" s="75"/>
+      <c r="A198" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B198" s="72"/>
       <c r="C198" s="0" t="s">
         <v>474</v>
       </c>
@@ -15298,14 +15281,14 @@
         <v>475</v>
       </c>
       <c r="H198" s="23"/>
-      <c r="I198" s="76"/>
-      <c r="J198" s="76"/>
+      <c r="I198" s="73"/>
+      <c r="J198" s="73"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B199" s="75"/>
+      <c r="A199" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B199" s="72"/>
       <c r="C199" s="0" t="s">
         <v>476</v>
       </c>
@@ -15313,14 +15296,14 @@
         <v>477</v>
       </c>
       <c r="H199" s="23"/>
-      <c r="I199" s="76"/>
-      <c r="J199" s="76"/>
+      <c r="I199" s="73"/>
+      <c r="J199" s="73"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B200" s="75"/>
+      <c r="A200" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B200" s="72"/>
       <c r="C200" s="0" t="s">
         <v>478</v>
       </c>
@@ -15328,14 +15311,14 @@
         <v>479</v>
       </c>
       <c r="H200" s="23"/>
-      <c r="I200" s="76"/>
-      <c r="J200" s="76"/>
+      <c r="I200" s="73"/>
+      <c r="J200" s="73"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B201" s="75"/>
+      <c r="A201" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B201" s="72"/>
       <c r="C201" s="0" t="s">
         <v>480</v>
       </c>
@@ -15343,14 +15326,14 @@
         <v>481</v>
       </c>
       <c r="H201" s="23"/>
-      <c r="I201" s="76"/>
-      <c r="J201" s="76"/>
+      <c r="I201" s="73"/>
+      <c r="J201" s="73"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B202" s="75"/>
+      <c r="A202" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B202" s="72"/>
       <c r="C202" s="0" t="s">
         <v>482</v>
       </c>
@@ -15358,14 +15341,14 @@
         <v>483</v>
       </c>
       <c r="H202" s="23"/>
-      <c r="I202" s="76"/>
-      <c r="J202" s="76"/>
+      <c r="I202" s="73"/>
+      <c r="J202" s="73"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B203" s="75"/>
+      <c r="A203" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B203" s="72"/>
       <c r="C203" s="0" t="s">
         <v>484</v>
       </c>
@@ -15373,14 +15356,14 @@
         <v>485</v>
       </c>
       <c r="H203" s="23"/>
-      <c r="I203" s="76"/>
-      <c r="J203" s="76"/>
+      <c r="I203" s="73"/>
+      <c r="J203" s="73"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="75" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B204" s="75"/>
+      <c r="A204" s="72" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B204" s="72"/>
       <c r="C204" s="0" t="s">
         <v>486</v>
       </c>
@@ -15388,14 +15371,14 @@
         <v>487</v>
       </c>
       <c r="H204" s="23"/>
-      <c r="I204" s="76"/>
-      <c r="J204" s="76"/>
+      <c r="I204" s="73"/>
+      <c r="J204" s="73"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B205" s="75"/>
+      <c r="A205" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B205" s="72"/>
       <c r="C205" s="0" t="s">
         <v>488</v>
       </c>
@@ -15403,14 +15386,14 @@
         <v>489</v>
       </c>
       <c r="H205" s="23"/>
-      <c r="I205" s="76"/>
-      <c r="J205" s="76"/>
+      <c r="I205" s="73"/>
+      <c r="J205" s="73"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B206" s="75"/>
+      <c r="A206" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B206" s="72"/>
       <c r="C206" s="0" t="s">
         <v>490</v>
       </c>
@@ -15418,14 +15401,14 @@
         <v>491</v>
       </c>
       <c r="H206" s="23"/>
-      <c r="I206" s="76"/>
-      <c r="J206" s="76"/>
+      <c r="I206" s="73"/>
+      <c r="J206" s="73"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B207" s="75"/>
+      <c r="A207" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B207" s="72"/>
       <c r="C207" s="0" t="s">
         <v>492</v>
       </c>
@@ -15433,14 +15416,14 @@
         <v>493</v>
       </c>
       <c r="H207" s="23"/>
-      <c r="I207" s="76"/>
-      <c r="J207" s="76"/>
+      <c r="I207" s="73"/>
+      <c r="J207" s="73"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B208" s="75"/>
+      <c r="A208" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B208" s="72"/>
       <c r="C208" s="0" t="s">
         <v>494</v>
       </c>
@@ -15448,14 +15431,14 @@
         <v>495</v>
       </c>
       <c r="H208" s="23"/>
-      <c r="I208" s="76"/>
-      <c r="J208" s="76"/>
+      <c r="I208" s="73"/>
+      <c r="J208" s="73"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B209" s="75"/>
+      <c r="A209" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B209" s="72"/>
       <c r="C209" s="0" t="s">
         <v>496</v>
       </c>
@@ -15463,14 +15446,14 @@
         <v>497</v>
       </c>
       <c r="H209" s="23"/>
-      <c r="I209" s="76"/>
-      <c r="J209" s="76"/>
+      <c r="I209" s="73"/>
+      <c r="J209" s="73"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B210" s="75"/>
+      <c r="A210" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B210" s="72"/>
       <c r="C210" s="0" t="s">
         <v>498</v>
       </c>
@@ -15478,14 +15461,14 @@
         <v>499</v>
       </c>
       <c r="H210" s="23"/>
-      <c r="I210" s="76"/>
-      <c r="J210" s="76"/>
+      <c r="I210" s="73"/>
+      <c r="J210" s="73"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="75" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B211" s="75"/>
+      <c r="A211" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B211" s="72"/>
       <c r="C211" s="0" t="s">
         <v>500</v>
       </c>
@@ -15493,14 +15476,14 @@
         <v>501</v>
       </c>
       <c r="H211" s="23"/>
-      <c r="I211" s="76"/>
-      <c r="J211" s="76"/>
+      <c r="I211" s="73"/>
+      <c r="J211" s="73"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B212" s="75"/>
+      <c r="A212" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B212" s="72"/>
       <c r="C212" s="0" t="s">
         <v>502</v>
       </c>
@@ -15508,14 +15491,14 @@
         <v>503</v>
       </c>
       <c r="H212" s="23"/>
-      <c r="I212" s="76"/>
-      <c r="J212" s="76"/>
+      <c r="I212" s="73"/>
+      <c r="J212" s="73"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B213" s="75"/>
+      <c r="A213" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B213" s="72"/>
       <c r="C213" s="0" t="s">
         <v>504</v>
       </c>
@@ -15523,14 +15506,14 @@
         <v>505</v>
       </c>
       <c r="H213" s="23"/>
-      <c r="I213" s="76"/>
-      <c r="J213" s="76"/>
+      <c r="I213" s="73"/>
+      <c r="J213" s="73"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B214" s="75"/>
+      <c r="A214" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B214" s="72"/>
       <c r="C214" s="0" t="s">
         <v>506</v>
       </c>
@@ -15538,14 +15521,14 @@
         <v>507</v>
       </c>
       <c r="H214" s="23"/>
-      <c r="I214" s="76"/>
-      <c r="J214" s="76"/>
+      <c r="I214" s="73"/>
+      <c r="J214" s="73"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B215" s="75"/>
+      <c r="A215" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B215" s="72"/>
       <c r="C215" s="0" t="s">
         <v>508</v>
       </c>
@@ -15553,14 +15536,14 @@
         <v>509</v>
       </c>
       <c r="H215" s="23"/>
-      <c r="I215" s="76"/>
-      <c r="J215" s="76"/>
+      <c r="I215" s="73"/>
+      <c r="J215" s="73"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B216" s="75"/>
+      <c r="A216" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B216" s="72"/>
       <c r="C216" s="0" t="s">
         <v>510</v>
       </c>
@@ -15568,14 +15551,14 @@
         <v>511</v>
       </c>
       <c r="H216" s="23"/>
-      <c r="I216" s="76"/>
-      <c r="J216" s="76"/>
+      <c r="I216" s="73"/>
+      <c r="J216" s="73"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B217" s="75"/>
+      <c r="A217" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B217" s="72"/>
       <c r="C217" s="0" t="s">
         <v>512</v>
       </c>
@@ -15583,14 +15566,14 @@
         <v>513</v>
       </c>
       <c r="H217" s="23"/>
-      <c r="I217" s="76"/>
-      <c r="J217" s="76"/>
+      <c r="I217" s="73"/>
+      <c r="J217" s="73"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B218" s="75"/>
+      <c r="A218" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B218" s="72"/>
       <c r="C218" s="0" t="s">
         <v>514</v>
       </c>
@@ -15598,14 +15581,14 @@
         <v>515</v>
       </c>
       <c r="H218" s="23"/>
-      <c r="I218" s="76"/>
-      <c r="J218" s="76"/>
+      <c r="I218" s="73"/>
+      <c r="J218" s="73"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B219" s="75"/>
+      <c r="A219" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B219" s="72"/>
       <c r="C219" s="0" t="s">
         <v>516</v>
       </c>
@@ -15613,14 +15596,14 @@
         <v>517</v>
       </c>
       <c r="H219" s="23"/>
-      <c r="I219" s="76"/>
-      <c r="J219" s="76"/>
+      <c r="I219" s="73"/>
+      <c r="J219" s="73"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B220" s="75"/>
+      <c r="A220" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B220" s="72"/>
       <c r="C220" s="0" t="s">
         <v>518</v>
       </c>
@@ -15628,14 +15611,14 @@
         <v>519</v>
       </c>
       <c r="H220" s="23"/>
-      <c r="I220" s="76"/>
-      <c r="J220" s="76"/>
+      <c r="I220" s="73"/>
+      <c r="J220" s="73"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B221" s="75"/>
+      <c r="A221" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B221" s="72"/>
       <c r="C221" s="0" t="s">
         <v>520</v>
       </c>
@@ -15643,14 +15626,14 @@
         <v>521</v>
       </c>
       <c r="H221" s="23"/>
-      <c r="I221" s="76"/>
-      <c r="J221" s="76"/>
+      <c r="I221" s="73"/>
+      <c r="J221" s="73"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B222" s="75"/>
+      <c r="A222" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B222" s="72"/>
       <c r="C222" s="0" t="s">
         <v>522</v>
       </c>
@@ -15658,14 +15641,14 @@
         <v>523</v>
       </c>
       <c r="H222" s="23"/>
-      <c r="I222" s="76"/>
-      <c r="J222" s="76"/>
+      <c r="I222" s="73"/>
+      <c r="J222" s="73"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B223" s="75"/>
+      <c r="A223" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B223" s="72"/>
       <c r="C223" s="0" t="s">
         <v>524</v>
       </c>
@@ -15673,14 +15656,14 @@
         <v>525</v>
       </c>
       <c r="H223" s="23"/>
-      <c r="I223" s="76"/>
-      <c r="J223" s="76"/>
+      <c r="I223" s="73"/>
+      <c r="J223" s="73"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B224" s="75"/>
+      <c r="A224" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B224" s="72"/>
       <c r="C224" s="0" t="s">
         <v>526</v>
       </c>
@@ -15688,14 +15671,14 @@
         <v>527</v>
       </c>
       <c r="H224" s="23"/>
-      <c r="I224" s="76"/>
-      <c r="J224" s="76"/>
+      <c r="I224" s="73"/>
+      <c r="J224" s="73"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B225" s="75"/>
+      <c r="A225" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B225" s="72"/>
       <c r="C225" s="0" t="s">
         <v>528</v>
       </c>
@@ -15703,14 +15686,14 @@
         <v>529</v>
       </c>
       <c r="H225" s="23"/>
-      <c r="I225" s="76"/>
-      <c r="J225" s="76"/>
+      <c r="I225" s="73"/>
+      <c r="J225" s="73"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B226" s="75"/>
+      <c r="A226" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B226" s="72"/>
       <c r="C226" s="0" t="s">
         <v>530</v>
       </c>
@@ -15718,14 +15701,14 @@
         <v>531</v>
       </c>
       <c r="H226" s="23"/>
-      <c r="I226" s="76"/>
-      <c r="J226" s="76"/>
+      <c r="I226" s="73"/>
+      <c r="J226" s="73"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B227" s="75"/>
+      <c r="A227" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B227" s="72"/>
       <c r="C227" s="0" t="s">
         <v>532</v>
       </c>
@@ -15733,14 +15716,14 @@
         <v>533</v>
       </c>
       <c r="H227" s="23"/>
-      <c r="I227" s="76"/>
-      <c r="J227" s="76"/>
+      <c r="I227" s="73"/>
+      <c r="J227" s="73"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="75" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B228" s="75"/>
+      <c r="A228" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B228" s="72"/>
       <c r="C228" s="0" t="s">
         <v>534</v>
       </c>
@@ -15748,14 +15731,14 @@
         <v>535</v>
       </c>
       <c r="H228" s="23"/>
-      <c r="I228" s="76"/>
-      <c r="J228" s="76"/>
+      <c r="I228" s="73"/>
+      <c r="J228" s="73"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B229" s="75"/>
+      <c r="A229" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B229" s="72"/>
       <c r="C229" s="0" t="s">
         <v>536</v>
       </c>
@@ -15763,14 +15746,14 @@
         <v>537</v>
       </c>
       <c r="H229" s="23"/>
-      <c r="I229" s="76"/>
-      <c r="J229" s="76"/>
+      <c r="I229" s="73"/>
+      <c r="J229" s="73"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B230" s="75"/>
+      <c r="A230" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B230" s="72"/>
       <c r="C230" s="0" t="s">
         <v>538</v>
       </c>
@@ -15778,14 +15761,14 @@
         <v>539</v>
       </c>
       <c r="H230" s="23"/>
-      <c r="I230" s="76"/>
-      <c r="J230" s="76"/>
+      <c r="I230" s="73"/>
+      <c r="J230" s="73"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B231" s="75"/>
+      <c r="A231" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B231" s="72"/>
       <c r="C231" s="0" t="s">
         <v>540</v>
       </c>
@@ -15793,14 +15776,14 @@
         <v>541</v>
       </c>
       <c r="H231" s="23"/>
-      <c r="I231" s="76"/>
-      <c r="J231" s="76"/>
+      <c r="I231" s="73"/>
+      <c r="J231" s="73"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="75" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B232" s="75"/>
+      <c r="A232" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B232" s="72"/>
       <c r="C232" s="0" t="s">
         <v>542</v>
       </c>
@@ -15808,14 +15791,14 @@
         <v>543</v>
       </c>
       <c r="H232" s="23"/>
-      <c r="I232" s="76"/>
-      <c r="J232" s="76"/>
+      <c r="I232" s="73"/>
+      <c r="J232" s="73"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B233" s="75"/>
+      <c r="A233" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B233" s="72"/>
       <c r="C233" s="0" t="s">
         <v>544</v>
       </c>
@@ -15823,14 +15806,14 @@
         <v>545</v>
       </c>
       <c r="H233" s="23"/>
-      <c r="I233" s="76"/>
-      <c r="J233" s="76"/>
+      <c r="I233" s="73"/>
+      <c r="J233" s="73"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="75" t="s">
+      <c r="A234" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="B234" s="75"/>
+      <c r="B234" s="72"/>
       <c r="C234" s="0" t="s">
         <v>546</v>
       </c>
@@ -15838,14 +15821,14 @@
         <v>547</v>
       </c>
       <c r="H234" s="23"/>
-      <c r="I234" s="76"/>
-      <c r="J234" s="76"/>
+      <c r="I234" s="73"/>
+      <c r="J234" s="73"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B235" s="75"/>
+      <c r="A235" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B235" s="72"/>
       <c r="C235" s="0" t="s">
         <v>548</v>
       </c>
@@ -15853,14 +15836,14 @@
         <v>549</v>
       </c>
       <c r="H235" s="23"/>
-      <c r="I235" s="76"/>
-      <c r="J235" s="76"/>
+      <c r="I235" s="73"/>
+      <c r="J235" s="73"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="75" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B236" s="75"/>
+      <c r="A236" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B236" s="72"/>
       <c r="C236" s="0" t="s">
         <v>550</v>
       </c>
@@ -15868,14 +15851,14 @@
         <v>551</v>
       </c>
       <c r="H236" s="23"/>
-      <c r="I236" s="76"/>
-      <c r="J236" s="76"/>
+      <c r="I236" s="73"/>
+      <c r="J236" s="73"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B237" s="75"/>
+      <c r="A237" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B237" s="72"/>
       <c r="C237" s="0" t="s">
         <v>552</v>
       </c>
@@ -15883,14 +15866,14 @@
         <v>553</v>
       </c>
       <c r="H237" s="23"/>
-      <c r="I237" s="76"/>
-      <c r="J237" s="76"/>
+      <c r="I237" s="73"/>
+      <c r="J237" s="73"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B238" s="75"/>
+      <c r="A238" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B238" s="72"/>
       <c r="C238" s="0" t="s">
         <v>554</v>
       </c>
@@ -15898,14 +15881,14 @@
         <v>555</v>
       </c>
       <c r="H238" s="23"/>
-      <c r="I238" s="76"/>
-      <c r="J238" s="76"/>
+      <c r="I238" s="73"/>
+      <c r="J238" s="73"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B239" s="75"/>
+      <c r="A239" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B239" s="72"/>
       <c r="C239" s="0" t="s">
         <v>556</v>
       </c>
@@ -15913,14 +15896,14 @@
         <v>557</v>
       </c>
       <c r="H239" s="23"/>
-      <c r="I239" s="76"/>
-      <c r="J239" s="78"/>
+      <c r="I239" s="73"/>
+      <c r="J239" s="75"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="75" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B240" s="75"/>
+      <c r="A240" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B240" s="72"/>
       <c r="C240" s="0" t="s">
         <v>558</v>
       </c>
@@ -15928,12 +15911,12 @@
         <v>559</v>
       </c>
       <c r="H240" s="23"/>
-      <c r="I240" s="76"/>
-      <c r="J240" s="78"/>
+      <c r="I240" s="73"/>
+      <c r="J240" s="75"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="75" t="s">
-        <v>1023</v>
+      <c r="A241" s="72" t="s">
+        <v>1024</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>560</v>
@@ -15942,12 +15925,12 @@
         <v>561</v>
       </c>
       <c r="H241" s="23"/>
-      <c r="I241" s="76"/>
-      <c r="J241" s="78"/>
+      <c r="I241" s="73"/>
+      <c r="J241" s="75"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="75" t="s">
-        <v>1023</v>
+      <c r="A242" s="72" t="s">
+        <v>1024</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>562</v>
@@ -15956,12 +15939,12 @@
         <v>563</v>
       </c>
       <c r="H242" s="23"/>
-      <c r="I242" s="76"/>
-      <c r="J242" s="78"/>
+      <c r="I242" s="73"/>
+      <c r="J242" s="75"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="75" t="s">
-        <v>1023</v>
+      <c r="A243" s="72" t="s">
+        <v>1024</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>564</v>
@@ -15970,12 +15953,12 @@
         <v>565</v>
       </c>
       <c r="H243" s="23"/>
-      <c r="I243" s="76"/>
-      <c r="J243" s="78"/>
+      <c r="I243" s="73"/>
+      <c r="J243" s="75"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="75" t="s">
-        <v>1023</v>
+      <c r="A244" s="72" t="s">
+        <v>1024</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>566</v>
@@ -15984,12 +15967,12 @@
         <v>567</v>
       </c>
       <c r="H244" s="23"/>
-      <c r="I244" s="76"/>
-      <c r="J244" s="78"/>
+      <c r="I244" s="73"/>
+      <c r="J244" s="75"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="75" t="s">
-        <v>1017</v>
+      <c r="A245" s="72" t="s">
+        <v>1018</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>568</v>
@@ -15998,12 +15981,12 @@
         <v>569</v>
       </c>
       <c r="H245" s="23"/>
-      <c r="I245" s="76"/>
-      <c r="J245" s="78"/>
+      <c r="I245" s="73"/>
+      <c r="J245" s="75"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="75" t="s">
-        <v>1020</v>
+      <c r="A246" s="72" t="s">
+        <v>1021</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>570</v>
@@ -16012,12 +15995,12 @@
         <v>571</v>
       </c>
       <c r="H246" s="23"/>
-      <c r="I246" s="76"/>
-      <c r="J246" s="78"/>
+      <c r="I246" s="73"/>
+      <c r="J246" s="75"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="75" t="s">
-        <v>1020</v>
+      <c r="A247" s="72" t="s">
+        <v>1021</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>572</v>
@@ -16026,12 +16009,12 @@
         <v>573</v>
       </c>
       <c r="H247" s="23"/>
-      <c r="I247" s="76"/>
-      <c r="J247" s="78"/>
+      <c r="I247" s="73"/>
+      <c r="J247" s="75"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="75" t="s">
-        <v>1020</v>
+      <c r="A248" s="72" t="s">
+        <v>1021</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>574</v>
@@ -16040,8 +16023,8 @@
         <v>575</v>
       </c>
       <c r="H248" s="23"/>
-      <c r="I248" s="76"/>
-      <c r="J248" s="78"/>
+      <c r="I248" s="73"/>
+      <c r="J248" s="75"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
+++ b/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -92,7 +92,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author>AD</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -180,7 +180,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author>AD</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -243,7 +243,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author>AD</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1036">
   <si>
     <t xml:space="preserve">General Instructions</t>
   </si>
@@ -3410,9 +3410,6 @@
   </si>
   <si>
     <t xml:space="preserve">Standardized Region Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMIND-EDGET 2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Native Region Name</t>
@@ -4106,7 +4103,7 @@
   <dimension ref="A1:N316"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A3:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7115,7 +7112,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="A3:A32 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7492,8 +7489,8 @@
   </sheetPr>
   <dimension ref="A1:MQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR14" activeCellId="1" sqref="A3:A32 AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11753,7 +11750,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3:A32 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11926,8 +11923,8 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11958,7 +11955,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>1021</v>
@@ -11969,7 +11966,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>1018</v>
@@ -11980,7 +11977,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>1010</v>
@@ -11991,7 +11988,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>288</v>
@@ -12002,7 +11999,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>1024</v>
@@ -12013,7 +12010,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>1012</v>
@@ -12024,7 +12021,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>310</v>
@@ -12035,7 +12032,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>546</v>
@@ -12046,7 +12043,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>1026</v>
@@ -12057,7 +12054,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>1028</v>
@@ -12068,7 +12065,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>1016</v>
@@ -12079,7 +12076,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>1020</v>
@@ -12090,7 +12087,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>546</v>
@@ -12101,7 +12098,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>1012</v>
@@ -12112,7 +12109,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>1010</v>
@@ -12123,7 +12120,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>288</v>
@@ -12134,7 +12131,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>1020</v>
@@ -12145,7 +12142,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>310</v>
@@ -12156,7 +12153,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>1010</v>
@@ -12167,7 +12164,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>1012</v>
@@ -12178,7 +12175,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>288</v>
@@ -12189,7 +12186,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>310</v>
@@ -12200,7 +12197,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>1016</v>
@@ -12211,7 +12208,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>1018</v>
@@ -12222,7 +12219,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>1020</v>
@@ -12233,7 +12230,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>1021</v>
@@ -12244,7 +12241,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>546</v>
@@ -12255,7 +12252,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>1024</v>
@@ -12266,7 +12263,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>1026</v>
@@ -12277,7 +12274,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="64" t="s">
-        <v>1033</v>
+        <v>589</v>
       </c>
       <c r="B32" s="65" t="s">
         <v>1028</v>
@@ -12308,7 +12305,7 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="1" sqref="A3:A32 L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12324,13 +12321,13 @@
         <v>1008</v>
       </c>
       <c r="B1" s="67" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>1035</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1036</v>
       </c>
       <c r="I1" s="0"/>
     </row>

--- a/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
+++ b/ar6/registration_templates/IPCC_AR6_model_registration_REMIND-MAgPIE_2.1-4.2.xlsx
@@ -92,7 +92,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -180,7 +180,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -243,7 +243,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>AD</author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -4103,7 +4103,7 @@
   <dimension ref="A1:N316"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A3:A32"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7112,7 +7112,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="A3:A32 E15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7490,7 +7490,7 @@
   <dimension ref="A1:MQ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR14" activeCellId="1" sqref="A3:A32 AR14"/>
+      <selection pane="topLeft" activeCell="AR14" activeCellId="0" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11750,7 +11750,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3:A32 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11924,7 +11924,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A32"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12192,7 +12192,7 @@
         <v>310</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12305,7 +12305,7 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="1" sqref="A3:A32 L8"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
